--- a/Donjons_et_dragons.xlsx
+++ b/Donjons_et_dragons.xlsx
@@ -5927,6 +5927,40 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5951,40 +5985,6 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -6413,7 +6413,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -17172,7 +17172,7 @@
       <c r="K1" s="160" t="s">
         <v>1290</v>
       </c>
-      <c r="L1" s="219" t="s">
+      <c r="L1" s="206" t="s">
         <v>1291</v>
       </c>
       <c r="M1" s="107"/>
@@ -17205,10 +17205,10 @@
       <c r="I2" s="112">
         <v>0</v>
       </c>
-      <c r="J2" s="217">
+      <c r="J2" s="204">
         <v>12</v>
       </c>
-      <c r="K2" s="217" t="s">
+      <c r="K2" s="204" t="s">
         <v>1293</v>
       </c>
       <c r="L2" s="162"/>
@@ -17270,10 +17270,10 @@
       <c r="I3" s="22">
         <v>0</v>
       </c>
-      <c r="J3" s="218">
+      <c r="J3" s="205">
         <v>8</v>
       </c>
-      <c r="K3" s="218"/>
+      <c r="K3" s="205"/>
       <c r="L3" s="163"/>
       <c r="M3" s="103"/>
       <c r="N3" t="str">
@@ -17333,10 +17333,10 @@
       <c r="I4" s="23">
         <v>0</v>
       </c>
-      <c r="J4" s="217">
+      <c r="J4" s="204">
         <v>8</v>
       </c>
-      <c r="K4" s="217"/>
+      <c r="K4" s="204"/>
       <c r="L4" s="162"/>
       <c r="M4" s="103"/>
       <c r="N4" t="str">
@@ -17384,10 +17384,10 @@
       <c r="I5" s="22">
         <v>0</v>
       </c>
-      <c r="J5" s="218">
+      <c r="J5" s="205">
         <v>8</v>
       </c>
-      <c r="K5" s="218"/>
+      <c r="K5" s="205"/>
       <c r="L5" s="163"/>
       <c r="M5" s="103"/>
       <c r="N5" t="str">
@@ -17435,10 +17435,10 @@
       <c r="I6" s="23">
         <v>0</v>
       </c>
-      <c r="J6" s="217">
+      <c r="J6" s="204">
         <v>6</v>
       </c>
-      <c r="K6" s="217" t="s">
+      <c r="K6" s="204" t="s">
         <v>1292</v>
       </c>
       <c r="L6" s="162"/>
@@ -17488,10 +17488,10 @@
       <c r="I7" s="22">
         <v>0</v>
       </c>
-      <c r="J7" s="218">
+      <c r="J7" s="205">
         <v>10</v>
       </c>
-      <c r="K7" s="218"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="163"/>
       <c r="M7" s="103"/>
       <c r="N7" t="str">
@@ -17539,10 +17539,10 @@
       <c r="I8" s="23">
         <v>0</v>
       </c>
-      <c r="J8" s="217">
+      <c r="J8" s="204">
         <v>6</v>
       </c>
-      <c r="K8" s="217"/>
+      <c r="K8" s="204"/>
       <c r="L8" s="162"/>
       <c r="M8" s="103"/>
       <c r="N8" t="str">
@@ -17590,10 +17590,10 @@
       <c r="I9" s="22">
         <v>0</v>
       </c>
-      <c r="J9" s="218">
+      <c r="J9" s="205">
         <v>8</v>
       </c>
-      <c r="K9" s="218" t="s">
+      <c r="K9" s="205" t="s">
         <v>236</v>
       </c>
       <c r="L9" s="163" t="s">
@@ -17645,10 +17645,10 @@
       <c r="I10" s="23">
         <v>0</v>
       </c>
-      <c r="J10" s="217">
+      <c r="J10" s="204">
         <v>10</v>
       </c>
-      <c r="K10" s="217"/>
+      <c r="K10" s="204"/>
       <c r="L10" s="162"/>
       <c r="M10" s="103"/>
       <c r="N10" t="str">
@@ -17696,10 +17696,10 @@
       <c r="I11" s="22">
         <v>0</v>
       </c>
-      <c r="J11" s="218">
+      <c r="J11" s="205">
         <v>10</v>
       </c>
-      <c r="K11" s="218"/>
+      <c r="K11" s="205"/>
       <c r="L11" s="163"/>
       <c r="M11" s="103"/>
       <c r="N11" t="str">
@@ -17747,10 +17747,10 @@
       <c r="I12" s="23">
         <v>0</v>
       </c>
-      <c r="J12" s="217">
+      <c r="J12" s="204">
         <v>8</v>
       </c>
-      <c r="K12" s="217"/>
+      <c r="K12" s="204"/>
       <c r="L12" s="162" t="s">
         <v>1273</v>
       </c>
@@ -17800,10 +17800,10 @@
       <c r="I13" s="24">
         <v>0</v>
       </c>
-      <c r="J13" s="220">
+      <c r="J13" s="207">
         <v>8</v>
       </c>
-      <c r="K13" s="220"/>
+      <c r="K13" s="207"/>
       <c r="L13" s="164"/>
       <c r="M13" s="103"/>
       <c r="N13" t="str">
@@ -17853,10 +17853,10 @@
   <dimension ref="A1:DH35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AY20" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="BI3" sqref="BI3:BI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17872,8 +17872,8 @@
       <c r="C1" s="209"/>
       <c r="D1" s="209"/>
       <c r="E1" s="209"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="210" t="s">
+      <c r="F1" s="210"/>
+      <c r="G1" s="208" t="s">
         <v>386</v>
       </c>
       <c r="H1" s="209"/>
@@ -17904,7 +17904,7 @@
       <c r="AE1" s="209"/>
       <c r="AF1" s="209"/>
       <c r="AG1" s="165"/>
-      <c r="AH1" s="210" t="s">
+      <c r="AH1" s="208" t="s">
         <v>388</v>
       </c>
       <c r="AI1" s="209"/>
@@ -17917,26 +17917,26 @@
       <c r="AP1" s="209"/>
       <c r="AQ1" s="209"/>
       <c r="AR1" s="209"/>
-      <c r="AS1" s="211"/>
+      <c r="AS1" s="210"/>
       <c r="AT1" s="165"/>
-      <c r="AU1" s="208" t="s">
+      <c r="AU1" s="211" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="208"/>
-      <c r="AW1" s="208"/>
-      <c r="AX1" s="208"/>
-      <c r="AY1" s="208"/>
-      <c r="AZ1" s="208"/>
-      <c r="BA1" s="208"/>
-      <c r="BB1" s="208"/>
-      <c r="BC1" s="208"/>
-      <c r="BD1" s="208"/>
-      <c r="BE1" s="208"/>
-      <c r="BF1" s="208"/>
-      <c r="BG1" s="208"/>
-      <c r="BH1" s="208"/>
+      <c r="AV1" s="211"/>
+      <c r="AW1" s="211"/>
+      <c r="AX1" s="211"/>
+      <c r="AY1" s="211"/>
+      <c r="AZ1" s="211"/>
+      <c r="BA1" s="211"/>
+      <c r="BB1" s="211"/>
+      <c r="BC1" s="211"/>
+      <c r="BD1" s="211"/>
+      <c r="BE1" s="211"/>
+      <c r="BF1" s="211"/>
+      <c r="BG1" s="211"/>
+      <c r="BH1" s="211"/>
       <c r="BI1" s="178"/>
-      <c r="BJ1" s="210" t="s">
+      <c r="BJ1" s="208" t="s">
         <v>390</v>
       </c>
       <c r="BK1" s="209"/>
@@ -17956,7 +17956,7 @@
       <c r="BW1" s="209"/>
       <c r="BX1" s="209"/>
       <c r="BY1" s="165"/>
-      <c r="BZ1" s="210" t="s">
+      <c r="BZ1" s="208" t="s">
         <v>393</v>
       </c>
       <c r="CA1" s="209"/>
@@ -17964,7 +17964,7 @@
       <c r="CC1" s="209"/>
       <c r="CD1" s="209"/>
       <c r="CE1" s="182"/>
-      <c r="CF1" s="210" t="s">
+      <c r="CF1" s="208" t="s">
         <v>12</v>
       </c>
       <c r="CG1" s="209"/>
@@ -17985,11 +17985,11 @@
       <c r="CT1" s="209"/>
       <c r="CU1" s="209"/>
       <c r="CV1" s="165"/>
-      <c r="CW1" s="207" t="s">
+      <c r="CW1" s="212" t="s">
         <v>395</v>
       </c>
-      <c r="CX1" s="208"/>
-      <c r="CY1" s="208"/>
+      <c r="CX1" s="211"/>
+      <c r="CY1" s="211"/>
       <c r="CZ1" s="192"/>
       <c r="DA1" s="209" t="s">
         <v>392</v>
@@ -18000,7 +18000,7 @@
       <c r="DE1" s="209"/>
       <c r="DF1" s="209"/>
       <c r="DG1" s="209"/>
-      <c r="DH1" s="216"/>
+      <c r="DH1" s="203"/>
     </row>
     <row r="2" spans="1:112" s="129" customFormat="1" ht="39" customHeight="1">
       <c r="A2" s="176" t="s">
@@ -18132,7 +18132,7 @@
       <c r="AS2" s="166">
         <v>9</v>
       </c>
-      <c r="AT2" s="212"/>
+      <c r="AT2" s="199"/>
       <c r="AU2" s="177" t="s">
         <v>369</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A3&amp;""" : {
+        <f t="shared" ref="T3:T22" si="0">""""&amp;$G$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;H3&amp;""",
 ""MinorSpells"": "&amp;I3&amp;",
 ""Spells"": "&amp;J3&amp;",
@@ -18452,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A3&amp;""" : {
+        <f t="shared" ref="AG3:AG22" si="1">""""&amp;$U$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;V3&amp;""",
 ""MinorSpells"": "&amp;W3&amp;",
 ""Locations"": {
@@ -18518,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A3&amp;""" : {
+        <f t="shared" ref="AT3:AT22" si="2">""""&amp;$AH$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;AI3&amp;""",
 ""MinorSpells"": "&amp;AJ3&amp;",
 ""Locations"": {
@@ -18602,7 +18602,7 @@
 ""4"":"&amp;BC3&amp;",
 ""5"":"&amp;BD3&amp;",
 ""6"":"&amp;BE3&amp;",
-""7"":"&amp;DF3&amp;",
+""7"":"&amp;BF3&amp;",
 ""8"":"&amp;BG3&amp;",
 ""9"":"&amp;BH3&amp;"}
 },"</f>
@@ -18618,7 +18618,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":1,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -18715,7 +18715,7 @@
       <c r="CC3" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="CD3" s="213" t="s">
+      <c r="CD3" s="200" t="s">
         <v>239</v>
       </c>
       <c r="CE3" s="184" t="str">
@@ -18754,7 +18754,7 @@
         <v>0</v>
       </c>
       <c r="CM3" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A3&amp;""" : {
+        <f t="shared" ref="CM3:CM22" si="3">""""&amp;$CF$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;CG3&amp;""",
 ""Locations"": {
 ""1"":"&amp;CH3&amp;",
@@ -18798,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="CV3" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A3&amp;""" : {
+        <f t="shared" ref="CV3:CV22" si="4">""""&amp;$CN$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;CO3&amp;""",
 ""Spells"":"&amp;CP3&amp;",
 ""Locations"": {
@@ -18829,7 +18829,7 @@
         <v>1253</v>
       </c>
       <c r="CZ3" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A3&amp;""" : {
+        <f t="shared" ref="CZ3:CZ22" si="5">""""&amp;$CW$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;CY3&amp;""",
 ""BonusAttack"": """&amp;CX3&amp;"""
 },"</f>
@@ -18895,7 +18895,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="198" t="str">
-        <f t="shared" ref="F4:F22" si="0">""""&amp;$B$1&amp;"-"&amp;$A4&amp;""": {
+        <f t="shared" ref="F4:F22" si="6">""""&amp;$B$1&amp;"-"&amp;$A4&amp;""": {
 ""Capacities"": """&amp;C4&amp;""",
 ""Specials"": "&amp;D4&amp;",
 ""Damages"": "&amp;E4&amp;"
@@ -18946,21 +18946,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A4&amp;""" : {
-""Capacities"":"""&amp;H4&amp;""",
-""MinorSpells"": "&amp;I4&amp;",
-""Spells"": "&amp;J4&amp;",
-""Locations"": {
-""1"":"&amp;K4&amp;",
-""2"":"&amp;L4&amp;",
-""3"":"&amp;M4&amp;",
-""4"":"&amp;N4&amp;",
-""5"":"&amp;O4&amp;",
-""6"":"&amp;P4&amp;",
-""7"":"&amp;Q4&amp;",
-""8"":"&amp;R4&amp;",
-""9"":"&amp;S4&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-2" : {
 "Capacities":"Touche-à-tout, Chant de repos (d6)",
 "MinorSpells": 2,
@@ -19014,20 +19000,7 @@
         <v>0</v>
       </c>
       <c r="AG4" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A4&amp;""" : {
-""Capacities"":"""&amp;V4&amp;""",
-""MinorSpells"": "&amp;W4&amp;",
-""Locations"": {
-""1"":"&amp;X4&amp;",
-""2"":"&amp;Y4&amp;",
-""3"":"&amp;Z4&amp;",
-""4"":"&amp;AA4&amp;",
-""5"":"&amp;AB4&amp;",
-""6"":"&amp;AC4&amp;",
-""7"":"&amp;AD4&amp;",
-""8"":"&amp;AE4&amp;",
-""9"":"&amp;AF4&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-2" : {
 "Capacities":"Canalisation d’énergie divine (1), Capacité de domaine divin",
 "MinorSpells": 3,
@@ -19080,20 +19053,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A4&amp;""" : {
-""Capacities"":"""&amp;AI4&amp;""",
-""MinorSpells"": "&amp;AJ4&amp;",
-""Locations"": {
-""1"":"&amp;AK4&amp;",
-""2"":"&amp;AL4&amp;",
-""3"":"&amp;AM4&amp;",
-""4"":"&amp;AN4&amp;",
-""5"":"&amp;AO4&amp;",
-""6"":"&amp;AP4&amp;",
-""7"":"&amp;AQ4&amp;",
-""8"":"&amp;AR4&amp;",
-""9"":"&amp;AS4&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-2" : {
 "Capacities":"Forme sauvage, Cercle druidique",
 "MinorSpells": 2,
@@ -19152,7 +19112,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="36" t="str">
-        <f t="shared" ref="BI4:BI22" si="1">""""&amp;$AU$1&amp;"-"&amp;$A4&amp;""" : {
+        <f t="shared" ref="BI4:BI22" si="7">""""&amp;$AU$1&amp;"-"&amp;$A4&amp;""" : {
 ""Capacities"":"""&amp;AW4&amp;""",
 ""MinorSpells"": "&amp;AX4&amp;",
 ""Spells"": "&amp;AY4&amp;",
@@ -19164,7 +19124,7 @@
 ""4"":"&amp;BC4&amp;",
 ""5"":"&amp;BD4&amp;",
 ""6"":"&amp;BE4&amp;",
-""7"":"&amp;DF4&amp;",
+""7"":"&amp;BF4&amp;",
 ""8"":"&amp;BG4&amp;",
 ""9"":"&amp;BH4&amp;"}
 },"</f>
@@ -19180,7 +19140,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":1,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -19192,7 +19152,7 @@
         <v>1220</v>
       </c>
       <c r="BL4" s="188" t="str">
-        <f t="shared" ref="BL4:BL22" si="2">""""&amp;$BJ$1&amp;"-"&amp;$A4&amp;""" : {
+        <f t="shared" ref="BL4:BL22" si="8">""""&amp;$BJ$1&amp;"-"&amp;$A4&amp;""" : {
 ""Capacities"":"""&amp;BK4&amp;"""
 },"</f>
         <v>"WARRIOR-2" : {
@@ -19236,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="BY4" s="5" t="str">
-        <f t="shared" ref="BY4:BY22" si="3">""""&amp;$BM$1&amp;"-"&amp;$A4&amp;""" : {
+        <f t="shared" ref="BY4:BY22" si="9">""""&amp;$BM$1&amp;"-"&amp;$A4&amp;""" : {
 ""Capacities"":"""&amp;BN4&amp;""",
 ""MinorSpells"": "&amp;BO4&amp;",
 ""Locations"": {
@@ -19277,11 +19237,11 @@
       <c r="CC4" s="172" t="s">
         <v>240</v>
       </c>
-      <c r="CD4" s="214" t="s">
+      <c r="CD4" s="201" t="s">
         <v>241</v>
       </c>
       <c r="CE4" s="184" t="str">
-        <f t="shared" ref="CE4:CE22" si="4">""""&amp;$BZ$1&amp;"-"&amp;$A4&amp;""" : {
+        <f t="shared" ref="CE4:CE22" si="10">""""&amp;$BZ$1&amp;"-"&amp;$A4&amp;""" : {
 ""Capacities"":"""&amp;CD4&amp;""",
 ""Specials"": "&amp;CB4&amp;",
 ""BonusAttack"": """&amp;CA4&amp;""",
@@ -19316,15 +19276,7 @@
         <v>0</v>
       </c>
       <c r="CM4" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A4&amp;""" : {
-""Capacities"":"""&amp;CG4&amp;""",
-""Locations"": {
-""1"":"&amp;CH4&amp;",
-""2"":"&amp;CI4&amp;",
-""3"":"&amp;CJ4&amp;",
-""4"":"&amp;CK4&amp;",
-""5"":"&amp;CL4&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-2" : {
 "Capacities":"Style de combat, Incantations, Châtiment divin",
 "Locations": {
@@ -19360,16 +19312,7 @@
         <v>0</v>
       </c>
       <c r="CV4" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A4&amp;""" : {
-""Capacities"":"""&amp;CO4&amp;""",
-""Spells"":"&amp;CP4&amp;",
-""Locations"": {
-""1"":"&amp;CQ4&amp;",
-""2"":"&amp;CR4&amp;",
-""3"":"&amp;CS4&amp;",
-""4"":"&amp;CT4&amp;",
-""5"":"&amp;CU4&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-2" : {
 "Capacities":"Style de combat, Incantations",
 "Spells":2,
@@ -19391,10 +19334,7 @@
         <v>1254</v>
       </c>
       <c r="CZ4" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A4&amp;""" : {
-""Capacities"":"""&amp;CY4&amp;""",
-""BonusAttack"": """&amp;CX4&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-2" : {
 "Capacities":"Ruse",
 "BonusAttack": "1d6"
@@ -19422,7 +19362,7 @@
         <v>2</v>
       </c>
       <c r="DH4" s="170" t="str">
-        <f t="shared" ref="DH4:DH22" si="5">""""&amp;$DA$1&amp;"-"&amp;$A4&amp;""" : {
+        <f t="shared" ref="DH4:DH22" si="11">""""&amp;$DA$1&amp;"-"&amp;$A4&amp;""" : {
 ""Capacities"":"""&amp;DB4&amp;""",
 ""MinorSpells"": "&amp;DC4&amp;",
 ""Spells"": "&amp;DD4&amp;",
@@ -19457,7 +19397,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-3": {
 "Capacities": "Voie primitive",
 "Specials": 3,
@@ -19504,21 +19444,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A5&amp;""" : {
-""Capacities"":"""&amp;H5&amp;""",
-""MinorSpells"": "&amp;I5&amp;",
-""Spells"": "&amp;J5&amp;",
-""Locations"": {
-""1"":"&amp;K5&amp;",
-""2"":"&amp;L5&amp;",
-""3"":"&amp;M5&amp;",
-""4"":"&amp;N5&amp;",
-""5"":"&amp;O5&amp;",
-""6"":"&amp;P5&amp;",
-""7"":"&amp;Q5&amp;",
-""8"":"&amp;R5&amp;",
-""9"":"&amp;S5&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-3" : {
 "Capacities":"Collège bardique, Expertise",
 "MinorSpells": 2,
@@ -19572,20 +19498,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A5&amp;""" : {
-""Capacities"":"""&amp;V5&amp;""",
-""MinorSpells"": "&amp;W5&amp;",
-""Locations"": {
-""1"":"&amp;X5&amp;",
-""2"":"&amp;Y5&amp;",
-""3"":"&amp;Z5&amp;",
-""4"":"&amp;AA5&amp;",
-""5"":"&amp;AB5&amp;",
-""6"":"&amp;AC5&amp;",
-""7"":"&amp;AD5&amp;",
-""8"":"&amp;AE5&amp;",
-""9"":"&amp;AF5&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-3" : {
 "Capacities":"-",
 "MinorSpells": 3,
@@ -19638,20 +19551,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A5&amp;""" : {
-""Capacities"":"""&amp;AI5&amp;""",
-""MinorSpells"": "&amp;AJ5&amp;",
-""Locations"": {
-""1"":"&amp;AK5&amp;",
-""2"":"&amp;AL5&amp;",
-""3"":"&amp;AM5&amp;",
-""4"":"&amp;AN5&amp;",
-""5"":"&amp;AO5&amp;",
-""6"":"&amp;AP5&amp;",
-""7"":"&amp;AQ5&amp;",
-""8"":"&amp;AR5&amp;",
-""9"":"&amp;AS5&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-3" : {
 "Capacities":"-",
 "MinorSpells": 2,
@@ -19710,7 +19610,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-3" : {
 "Capacities":"Métamagie",
 "MinorSpells": 4,
@@ -19723,7 +19623,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":2,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -19735,7 +19635,7 @@
         <v>1221</v>
       </c>
       <c r="BL5" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-3" : {
 "Capacities":"Archétype martial"
 },</v>
@@ -19777,7 +19677,7 @@
         <v>0</v>
       </c>
       <c r="BY5" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-3" : {
 "Capacities":"-",
 "MinorSpells": 3,
@@ -19805,11 +19705,11 @@
       <c r="CC5" s="169" t="s">
         <v>240</v>
       </c>
-      <c r="CD5" s="213" t="s">
+      <c r="CD5" s="200" t="s">
         <v>242</v>
       </c>
       <c r="CE5" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-3" : {
 "Capacities":"Tradition monastique, Parade de projectiles",
 "Specials": 3,
@@ -19839,15 +19739,7 @@
         <v>0</v>
       </c>
       <c r="CM5" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A5&amp;""" : {
-""Capacities"":"""&amp;CG5&amp;""",
-""Locations"": {
-""1"":"&amp;CH5&amp;",
-""2"":"&amp;CI5&amp;",
-""3"":"&amp;CJ5&amp;",
-""4"":"&amp;CK5&amp;",
-""5"":"&amp;CL5&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-3" : {
 "Capacities":"Santé divine, Serment sacré",
 "Locations": {
@@ -19883,16 +19775,7 @@
         <v>0</v>
       </c>
       <c r="CV5" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A5&amp;""" : {
-""Capacities"":"""&amp;CO5&amp;""",
-""Spells"":"&amp;CP5&amp;",
-""Locations"": {
-""1"":"&amp;CQ5&amp;",
-""2"":"&amp;CR5&amp;",
-""3"":"&amp;CS5&amp;",
-""4"":"&amp;CT5&amp;",
-""5"":"&amp;CU5&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-3" : {
 "Capacities":"Archétype de rôdeur, Sens primitifs",
 "Spells":3,
@@ -19914,10 +19797,7 @@
         <v>1256</v>
       </c>
       <c r="CZ5" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A5&amp;""" : {
-""Capacities"":"""&amp;CY5&amp;""",
-""BonusAttack"": """&amp;CX5&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-3" : {
 "Capacities":"Archétype de roublard",
 "BonusAttack": "2d6"
@@ -19945,7 +19825,7 @@
         <v>2</v>
       </c>
       <c r="DH5" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-3" : {
 "Capacities":"Faveur de pacte",
 "MinorSpells": 2,
@@ -19973,7 +19853,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-4": {
 "Capacities": "Amélioration de caractéristiques",
 "Specials": 3,
@@ -20020,21 +19900,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A6&amp;""" : {
-""Capacities"":"""&amp;H6&amp;""",
-""MinorSpells"": "&amp;I6&amp;",
-""Spells"": "&amp;J6&amp;",
-""Locations"": {
-""1"":"&amp;K6&amp;",
-""2"":"&amp;L6&amp;",
-""3"":"&amp;M6&amp;",
-""4"":"&amp;N6&amp;",
-""5"":"&amp;O6&amp;",
-""6"":"&amp;P6&amp;",
-""7"":"&amp;Q6&amp;",
-""8"":"&amp;R6&amp;",
-""9"":"&amp;S6&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-4" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 3,
@@ -20088,20 +19954,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A6&amp;""" : {
-""Capacities"":"""&amp;V6&amp;""",
-""MinorSpells"": "&amp;W6&amp;",
-""Locations"": {
-""1"":"&amp;X6&amp;",
-""2"":"&amp;Y6&amp;",
-""3"":"&amp;Z6&amp;",
-""4"":"&amp;AA6&amp;",
-""5"":"&amp;AB6&amp;",
-""6"":"&amp;AC6&amp;",
-""7"":"&amp;AD6&amp;",
-""8"":"&amp;AE6&amp;",
-""9"":"&amp;AF6&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-4" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -20154,20 +20007,7 @@
         <v>0</v>
       </c>
       <c r="AT6" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A6&amp;""" : {
-""Capacities"":"""&amp;AI6&amp;""",
-""MinorSpells"": "&amp;AJ6&amp;",
-""Locations"": {
-""1"":"&amp;AK6&amp;",
-""2"":"&amp;AL6&amp;",
-""3"":"&amp;AM6&amp;",
-""4"":"&amp;AN6&amp;",
-""5"":"&amp;AO6&amp;",
-""6"":"&amp;AP6&amp;",
-""7"":"&amp;AQ6&amp;",
-""8"":"&amp;AR6&amp;",
-""9"":"&amp;AS6&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-4" : {
 "Capacities":"Forme sauvage améliorée, Amélioration de caractéristiques",
 "MinorSpells": 3,
@@ -20226,7 +20066,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-4" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 5,
@@ -20239,7 +20079,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":2,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -20251,7 +20091,7 @@
         <v>249</v>
       </c>
       <c r="BL6" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-4" : {
 "Capacities":"Amélioration de caractéristiques"
 },</v>
@@ -20293,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="BY6" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-4" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -20321,11 +20161,11 @@
       <c r="CC6" s="172" t="s">
         <v>240</v>
       </c>
-      <c r="CD6" s="214" t="s">
+      <c r="CD6" s="201" t="s">
         <v>243</v>
       </c>
       <c r="CE6" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-4" : {
 "Capacities":"Amélioration de caractéristiques, Chute ralentie",
 "Specials": 4,
@@ -20355,15 +20195,7 @@
         <v>0</v>
       </c>
       <c r="CM6" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A6&amp;""" : {
-""Capacities"":"""&amp;CG6&amp;""",
-""Locations"": {
-""1"":"&amp;CH6&amp;",
-""2"":"&amp;CI6&amp;",
-""3"":"&amp;CJ6&amp;",
-""4"":"&amp;CK6&amp;",
-""5"":"&amp;CL6&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-4" : {
 "Capacities":"Amélioration de caractéristiques",
 "Locations": {
@@ -20399,16 +20231,7 @@
         <v>0</v>
       </c>
       <c r="CV6" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A6&amp;""" : {
-""Capacities"":"""&amp;CO6&amp;""",
-""Spells"":"&amp;CP6&amp;",
-""Locations"": {
-""1"":"&amp;CQ6&amp;",
-""2"":"&amp;CR6&amp;",
-""3"":"&amp;CS6&amp;",
-""4"":"&amp;CT6&amp;",
-""5"":"&amp;CU6&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-4" : {
 "Capacities":"Amélioration de caractéristiques",
 "Spells":3,
@@ -20430,10 +20253,7 @@
         <v>249</v>
       </c>
       <c r="CZ6" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A6&amp;""" : {
-""Capacities"":"""&amp;CY6&amp;""",
-""BonusAttack"": """&amp;CX6&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-4" : {
 "Capacities":"Amélioration de caractéristiques",
 "BonusAttack": "2d6"
@@ -20461,7 +20281,7 @@
         <v>2</v>
       </c>
       <c r="DH6" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-4" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 3,
@@ -20489,7 +20309,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-5": {
 "Capacities": "Attaque supplémentaire, Déplacement rapide",
 "Specials": 3,
@@ -20536,21 +20356,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A7&amp;""" : {
-""Capacities"":"""&amp;H7&amp;""",
-""MinorSpells"": "&amp;I7&amp;",
-""Spells"": "&amp;J7&amp;",
-""Locations"": {
-""1"":"&amp;K7&amp;",
-""2"":"&amp;L7&amp;",
-""3"":"&amp;M7&amp;",
-""4"":"&amp;N7&amp;",
-""5"":"&amp;O7&amp;",
-""6"":"&amp;P7&amp;",
-""7"":"&amp;Q7&amp;",
-""8"":"&amp;R7&amp;",
-""9"":"&amp;S7&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-5" : {
 "Capacities":"Inspiration bardique (d8), Source d'inspiration",
 "MinorSpells": 3,
@@ -20604,20 +20410,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A7&amp;""" : {
-""Capacities"":"""&amp;V7&amp;""",
-""MinorSpells"": "&amp;W7&amp;",
-""Locations"": {
-""1"":"&amp;X7&amp;",
-""2"":"&amp;Y7&amp;",
-""3"":"&amp;Z7&amp;",
-""4"":"&amp;AA7&amp;",
-""5"":"&amp;AB7&amp;",
-""6"":"&amp;AC7&amp;",
-""7"":"&amp;AD7&amp;",
-""8"":"&amp;AE7&amp;",
-""9"":"&amp;AF7&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-5" : {
 "Capacities":"Destruction des morts-vivants (FP 1/2)",
 "MinorSpells": 4,
@@ -20670,20 +20463,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A7&amp;""" : {
-""Capacities"":"""&amp;AI7&amp;""",
-""MinorSpells"": "&amp;AJ7&amp;",
-""Locations"": {
-""1"":"&amp;AK7&amp;",
-""2"":"&amp;AL7&amp;",
-""3"":"&amp;AM7&amp;",
-""4"":"&amp;AN7&amp;",
-""5"":"&amp;AO7&amp;",
-""6"":"&amp;AP7&amp;",
-""7"":"&amp;AQ7&amp;",
-""8"":"&amp;AR7&amp;",
-""9"":"&amp;AS7&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-5" : {
 "Capacities":"-",
 "MinorSpells": 3,
@@ -20742,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-5" : {
 "Capacities":"-",
 "MinorSpells": 5,
@@ -20755,7 +20535,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":3,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -20767,7 +20547,7 @@
         <v>1222</v>
       </c>
       <c r="BL7" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-5" : {
 "Capacities":"Attaque supplémentaire (1)"
 },</v>
@@ -20809,7 +20589,7 @@
         <v>0</v>
       </c>
       <c r="BY7" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-5" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -20837,11 +20617,11 @@
       <c r="CC7" s="169" t="s">
         <v>240</v>
       </c>
-      <c r="CD7" s="213" t="s">
+      <c r="CD7" s="200" t="s">
         <v>245</v>
       </c>
       <c r="CE7" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-5" : {
 "Capacities":"Attaque supplémentaire, Frappe étourdissante",
 "Specials": 5,
@@ -20871,15 +20651,7 @@
         <v>0</v>
       </c>
       <c r="CM7" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A7&amp;""" : {
-""Capacities"":"""&amp;CG7&amp;""",
-""Locations"": {
-""1"":"&amp;CH7&amp;",
-""2"":"&amp;CI7&amp;",
-""3"":"&amp;CJ7&amp;",
-""4"":"&amp;CK7&amp;",
-""5"":"&amp;CL7&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-5" : {
 "Capacities":"Attaque supplémentaire",
 "Locations": {
@@ -20915,16 +20687,7 @@
         <v>0</v>
       </c>
       <c r="CV7" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A7&amp;""" : {
-""Capacities"":"""&amp;CO7&amp;""",
-""Spells"":"&amp;CP7&amp;",
-""Locations"": {
-""1"":"&amp;CQ7&amp;",
-""2"":"&amp;CR7&amp;",
-""3"":"&amp;CS7&amp;",
-""4"":"&amp;CT7&amp;",
-""5"":"&amp;CU7&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-5" : {
 "Capacities":"Attaque supplémentaire",
 "Spells":4,
@@ -20946,10 +20709,7 @@
         <v>1258</v>
       </c>
       <c r="CZ7" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A7&amp;""" : {
-""Capacities"":"""&amp;CY7&amp;""",
-""BonusAttack"": """&amp;CX7&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-5" : {
 "Capacities":"Esquive instinctive",
 "BonusAttack": "3d6"
@@ -20977,7 +20737,7 @@
         <v>3</v>
       </c>
       <c r="DH7" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-5" : {
 "Capacities":"-",
 "MinorSpells": 3,
@@ -21005,7 +20765,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-6": {
 "Capacities": "Capacité de voie",
 "Specials": 4,
@@ -21052,21 +20812,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A8&amp;""" : {
-""Capacities"":"""&amp;H8&amp;""",
-""MinorSpells"": "&amp;I8&amp;",
-""Spells"": "&amp;J8&amp;",
-""Locations"": {
-""1"":"&amp;K8&amp;",
-""2"":"&amp;L8&amp;",
-""3"":"&amp;M8&amp;",
-""4"":"&amp;N8&amp;",
-""5"":"&amp;O8&amp;",
-""6"":"&amp;P8&amp;",
-""7"":"&amp;Q8&amp;",
-""8"":"&amp;R8&amp;",
-""9"":"&amp;S8&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-6" : {
 "Capacities":"Contre charme, Capacité de collège bardique",
 "MinorSpells": 3,
@@ -21120,20 +20866,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A8&amp;""" : {
-""Capacities"":"""&amp;V8&amp;""",
-""MinorSpells"": "&amp;W8&amp;",
-""Locations"": {
-""1"":"&amp;X8&amp;",
-""2"":"&amp;Y8&amp;",
-""3"":"&amp;Z8&amp;",
-""4"":"&amp;AA8&amp;",
-""5"":"&amp;AB8&amp;",
-""6"":"&amp;AC8&amp;",
-""7"":"&amp;AD8&amp;",
-""8"":"&amp;AE8&amp;",
-""9"":"&amp;AF8&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-6" : {
 "Capacities":"Canalisation d’énergie divine (2), Capacité de domaine divin",
 "MinorSpells": 4,
@@ -21186,20 +20919,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A8&amp;""" : {
-""Capacities"":"""&amp;AI8&amp;""",
-""MinorSpells"": "&amp;AJ8&amp;",
-""Locations"": {
-""1"":"&amp;AK8&amp;",
-""2"":"&amp;AL8&amp;",
-""3"":"&amp;AM8&amp;",
-""4"":"&amp;AN8&amp;",
-""5"":"&amp;AO8&amp;",
-""6"":"&amp;AP8&amp;",
-""7"":"&amp;AQ8&amp;",
-""8"":"&amp;AR8&amp;",
-""9"":"&amp;AS8&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-6" : {
 "Capacities":"Capacité de cercle druidique",
 "MinorSpells": 3,
@@ -21258,7 +20978,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-6" : {
 "Capacities":"Capacité de l'origine magique",
 "MinorSpells": 5,
@@ -21271,7 +20991,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":3,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -21283,7 +21003,7 @@
         <v>249</v>
       </c>
       <c r="BL8" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-6" : {
 "Capacities":"Amélioration de caractéristiques"
 },</v>
@@ -21325,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="BY8" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-6" : {
 "Capacities":"Capacité de la tradition arcanique",
 "MinorSpells": 4,
@@ -21353,11 +21073,11 @@
       <c r="CC8" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="CD8" s="214" t="s">
+      <c r="CD8" s="201" t="s">
         <v>247</v>
       </c>
       <c r="CE8" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-6" : {
 "Capacities":"Frappes de ki, Capacité de la tradition monastique",
 "Specials": 6,
@@ -21387,15 +21107,7 @@
         <v>0</v>
       </c>
       <c r="CM8" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A8&amp;""" : {
-""Capacities"":"""&amp;CG8&amp;""",
-""Locations"": {
-""1"":"&amp;CH8&amp;",
-""2"":"&amp;CI8&amp;",
-""3"":"&amp;CJ8&amp;",
-""4"":"&amp;CK8&amp;",
-""5"":"&amp;CL8&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-6" : {
 "Capacities":"Aura de protection",
 "Locations": {
@@ -21431,16 +21143,7 @@
         <v>0</v>
       </c>
       <c r="CV8" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A8&amp;""" : {
-""Capacities"":"""&amp;CO8&amp;""",
-""Spells"":"&amp;CP8&amp;",
-""Locations"": {
-""1"":"&amp;CQ8&amp;",
-""2"":"&amp;CR8&amp;",
-""3"":"&amp;CS8&amp;",
-""4"":"&amp;CT8&amp;",
-""5"":"&amp;CU8&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-6" : {
 "Capacities":"Amélioration de l'Ennemi juré et de l'Explorateur-né",
 "Spells":4,
@@ -21462,10 +21165,7 @@
         <v>1259</v>
       </c>
       <c r="CZ8" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A8&amp;""" : {
-""Capacities"":"""&amp;CY8&amp;""",
-""BonusAttack"": """&amp;CX8&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-6" : {
 "Capacities":"Expertise",
 "BonusAttack": "3d6"
@@ -21493,7 +21193,7 @@
         <v>3</v>
       </c>
       <c r="DH8" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-6" : {
 "Capacities":"Capacité de patron d'Outremonde",
 "MinorSpells": 3,
@@ -21521,7 +21221,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-7": {
 "Capacities": "Instinct sauvage",
 "Specials": 4,
@@ -21568,21 +21268,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A9&amp;""" : {
-""Capacities"":"""&amp;H9&amp;""",
-""MinorSpells"": "&amp;I9&amp;",
-""Spells"": "&amp;J9&amp;",
-""Locations"": {
-""1"":"&amp;K9&amp;",
-""2"":"&amp;L9&amp;",
-""3"":"&amp;M9&amp;",
-""4"":"&amp;N9&amp;",
-""5"":"&amp;O9&amp;",
-""6"":"&amp;P9&amp;",
-""7"":"&amp;Q9&amp;",
-""8"":"&amp;R9&amp;",
-""9"":"&amp;S9&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-7" : {
 "Capacities":"-",
 "MinorSpells": 3,
@@ -21636,20 +21322,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A9&amp;""" : {
-""Capacities"":"""&amp;V9&amp;""",
-""MinorSpells"": "&amp;W9&amp;",
-""Locations"": {
-""1"":"&amp;X9&amp;",
-""2"":"&amp;Y9&amp;",
-""3"":"&amp;Z9&amp;",
-""4"":"&amp;AA9&amp;",
-""5"":"&amp;AB9&amp;",
-""6"":"&amp;AC9&amp;",
-""7"":"&amp;AD9&amp;",
-""8"":"&amp;AE9&amp;",
-""9"":"&amp;AF9&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-7" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -21702,20 +21375,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A9&amp;""" : {
-""Capacities"":"""&amp;AI9&amp;""",
-""MinorSpells"": "&amp;AJ9&amp;",
-""Locations"": {
-""1"":"&amp;AK9&amp;",
-""2"":"&amp;AL9&amp;",
-""3"":"&amp;AM9&amp;",
-""4"":"&amp;AN9&amp;",
-""5"":"&amp;AO9&amp;",
-""6"":"&amp;AP9&amp;",
-""7"":"&amp;AQ9&amp;",
-""8"":"&amp;AR9&amp;",
-""9"":"&amp;AS9&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-7" : {
 "Capacities":"-",
 "MinorSpells": 3,
@@ -21774,7 +21434,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-7" : {
 "Capacities":"-",
 "MinorSpells": 5,
@@ -21787,7 +21447,7 @@
 "4":1,
 "5":0,
 "6":0,
-"7":4,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -21799,7 +21459,7 @@
         <v>1223</v>
       </c>
       <c r="BL9" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-7" : {
 "Capacities":"Capacité de l'archétype martial"
 },</v>
@@ -21841,7 +21501,7 @@
         <v>0</v>
       </c>
       <c r="BY9" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-7" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -21869,11 +21529,11 @@
       <c r="CC9" s="169" t="s">
         <v>246</v>
       </c>
-      <c r="CD9" s="213" t="s">
+      <c r="CD9" s="200" t="s">
         <v>248</v>
       </c>
       <c r="CE9" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-7" : {
 "Capacities":"Dérobade, Tranquillité de l'esprit",
 "Specials": 7,
@@ -21903,15 +21563,7 @@
         <v>0</v>
       </c>
       <c r="CM9" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A9&amp;""" : {
-""Capacities"":"""&amp;CG9&amp;""",
-""Locations"": {
-""1"":"&amp;CH9&amp;",
-""2"":"&amp;CI9&amp;",
-""3"":"&amp;CJ9&amp;",
-""4"":"&amp;CK9&amp;",
-""5"":"&amp;CL9&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-7" : {
 "Capacities":"Capacité de serment sacré",
 "Locations": {
@@ -21947,16 +21599,7 @@
         <v>0</v>
       </c>
       <c r="CV9" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A9&amp;""" : {
-""Capacities"":"""&amp;CO9&amp;""",
-""Spells"":"&amp;CP9&amp;",
-""Locations"": {
-""1"":"&amp;CQ9&amp;",
-""2"":"&amp;CR9&amp;",
-""3"":"&amp;CS9&amp;",
-""4"":"&amp;CT9&amp;",
-""5"":"&amp;CU9&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-7" : {
 "Capacities":"Capacité de l'archétype de rôdeur",
 "Spells":5,
@@ -21978,10 +21621,7 @@
         <v>295</v>
       </c>
       <c r="CZ9" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A9&amp;""" : {
-""Capacities"":"""&amp;CY9&amp;""",
-""BonusAttack"": """&amp;CX9&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-7" : {
 "Capacities":"Dérobade",
 "BonusAttack": "4d6"
@@ -22009,7 +21649,7 @@
         <v>4</v>
       </c>
       <c r="DH9" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-7" : {
 "Capacities":"-",
 "MinorSpells": 3,
@@ -22037,7 +21677,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-8": {
 "Capacities": "Amélioration de caractéristiques",
 "Specials": 4,
@@ -22084,21 +21724,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A10&amp;""" : {
-""Capacities"":"""&amp;H10&amp;""",
-""MinorSpells"": "&amp;I10&amp;",
-""Spells"": "&amp;J10&amp;",
-""Locations"": {
-""1"":"&amp;K10&amp;",
-""2"":"&amp;L10&amp;",
-""3"":"&amp;M10&amp;",
-""4"":"&amp;N10&amp;",
-""5"":"&amp;O10&amp;",
-""6"":"&amp;P10&amp;",
-""7"":"&amp;Q10&amp;",
-""8"":"&amp;R10&amp;",
-""9"":"&amp;S10&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 3,
@@ -22152,20 +21778,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A10&amp;""" : {
-""Capacities"":"""&amp;V10&amp;""",
-""MinorSpells"": "&amp;W10&amp;",
-""Locations"": {
-""1"":"&amp;X10&amp;",
-""2"":"&amp;Y10&amp;",
-""3"":"&amp;Z10&amp;",
-""4"":"&amp;AA10&amp;",
-""5"":"&amp;AB10&amp;",
-""6"":"&amp;AC10&amp;",
-""7"":"&amp;AD10&amp;",
-""8"":"&amp;AE10&amp;",
-""9"":"&amp;AF10&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-8" : {
 "Capacities":"Amélioration de caractéristiques, Capacité de domaine divin,Destruction des morts-vivants (FP 1)",
 "MinorSpells": 4,
@@ -22218,20 +21831,7 @@
         <v>0</v>
       </c>
       <c r="AT10" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A10&amp;""" : {
-""Capacities"":"""&amp;AI10&amp;""",
-""MinorSpells"": "&amp;AJ10&amp;",
-""Locations"": {
-""1"":"&amp;AK10&amp;",
-""2"":"&amp;AL10&amp;",
-""3"":"&amp;AM10&amp;",
-""4"":"&amp;AN10&amp;",
-""5"":"&amp;AO10&amp;",
-""6"":"&amp;AP10&amp;",
-""7"":"&amp;AQ10&amp;",
-""8"":"&amp;AR10&amp;",
-""9"":"&amp;AS10&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-8" : {
 "Capacities":"Forme sauvage améliorée, Amélioration de caractéristiques",
 "MinorSpells": 3,
@@ -22290,7 +21890,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 5,
@@ -22303,7 +21903,7 @@
 "4":2,
 "5":0,
 "6":0,
-"7":4,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -22315,7 +21915,7 @@
         <v>249</v>
       </c>
       <c r="BL10" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-8" : {
 "Capacities":"Amélioration de caractéristiques"
 },</v>
@@ -22357,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="BY10" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -22385,11 +21985,11 @@
       <c r="CC10" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="CD10" s="214" t="s">
+      <c r="CD10" s="201" t="s">
         <v>249</v>
       </c>
       <c r="CE10" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 8,
@@ -22419,15 +22019,7 @@
         <v>0</v>
       </c>
       <c r="CM10" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A10&amp;""" : {
-""Capacities"":"""&amp;CG10&amp;""",
-""Locations"": {
-""1"":"&amp;CH10&amp;",
-""2"":"&amp;CI10&amp;",
-""3"":"&amp;CJ10&amp;",
-""4"":"&amp;CK10&amp;",
-""5"":"&amp;CL10&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "Locations": {
@@ -22463,16 +22055,7 @@
         <v>0</v>
       </c>
       <c r="CV10" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A10&amp;""" : {
-""Capacities"":"""&amp;CO10&amp;""",
-""Spells"":"&amp;CP10&amp;",
-""Locations"": {
-""1"":"&amp;CQ10&amp;",
-""2"":"&amp;CR10&amp;",
-""3"":"&amp;CS10&amp;",
-""4"":"&amp;CT10&amp;",
-""5"":"&amp;CU10&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-8" : {
 "Capacities":"Amélioration de caractéristiques, Traversée des terrains",
 "Spells":5,
@@ -22494,10 +22077,7 @@
         <v>249</v>
       </c>
       <c r="CZ10" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A10&amp;""" : {
-""Capacities"":"""&amp;CY10&amp;""",
-""BonusAttack"": """&amp;CX10&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "BonusAttack": "4d6"
@@ -22525,7 +22105,7 @@
         <v>4</v>
       </c>
       <c r="DH10" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 3,
@@ -22553,7 +22133,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-9": {
 "Capacities": "Critique brutal (1 dé)",
 "Specials": 4,
@@ -22600,21 +22180,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A11&amp;""" : {
-""Capacities"":"""&amp;H11&amp;""",
-""MinorSpells"": "&amp;I11&amp;",
-""Spells"": "&amp;J11&amp;",
-""Locations"": {
-""1"":"&amp;K11&amp;",
-""2"":"&amp;L11&amp;",
-""3"":"&amp;M11&amp;",
-""4"":"&amp;N11&amp;",
-""5"":"&amp;O11&amp;",
-""6"":"&amp;P11&amp;",
-""7"":"&amp;Q11&amp;",
-""8"":"&amp;R11&amp;",
-""9"":"&amp;S11&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-9" : {
 "Capacities":"Chant de repos (d8)",
 "MinorSpells": 3,
@@ -22668,20 +22234,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A11&amp;""" : {
-""Capacities"":"""&amp;V11&amp;""",
-""MinorSpells"": "&amp;W11&amp;",
-""Locations"": {
-""1"":"&amp;X11&amp;",
-""2"":"&amp;Y11&amp;",
-""3"":"&amp;Z11&amp;",
-""4"":"&amp;AA11&amp;",
-""5"":"&amp;AB11&amp;",
-""6"":"&amp;AC11&amp;",
-""7"":"&amp;AD11&amp;",
-""8"":"&amp;AE11&amp;",
-""9"":"&amp;AF11&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-9" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -22734,20 +22287,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A11&amp;""" : {
-""Capacities"":"""&amp;AI11&amp;""",
-""MinorSpells"": "&amp;AJ11&amp;",
-""Locations"": {
-""1"":"&amp;AK11&amp;",
-""2"":"&amp;AL11&amp;",
-""3"":"&amp;AM11&amp;",
-""4"":"&amp;AN11&amp;",
-""5"":"&amp;AO11&amp;",
-""6"":"&amp;AP11&amp;",
-""7"":"&amp;AQ11&amp;",
-""8"":"&amp;AR11&amp;",
-""9"":"&amp;AS11&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-9" : {
 "Capacities":"-",
 "MinorSpells": 3,
@@ -22806,7 +22346,7 @@
         <v>0</v>
       </c>
       <c r="BI11" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-9" : {
 "Capacities":"-",
 "MinorSpells": 5,
@@ -22819,7 +22359,7 @@
 "4":3,
 "5":1,
 "6":0,
-"7":5,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -22875,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="BY11" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-9" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -22903,11 +22443,11 @@
       <c r="CC11" s="169" t="s">
         <v>246</v>
       </c>
-      <c r="CD11" s="213" t="s">
+      <c r="CD11" s="200" t="s">
         <v>250</v>
       </c>
       <c r="CE11" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-9" : {
 "Capacities":"Déplacement sans armure amélioré",
 "Specials": 9,
@@ -22937,15 +22477,7 @@
         <v>0</v>
       </c>
       <c r="CM11" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A11&amp;""" : {
-""Capacities"":"""&amp;CG11&amp;""",
-""Locations"": {
-""1"":"&amp;CH11&amp;",
-""2"":"&amp;CI11&amp;",
-""3"":"&amp;CJ11&amp;",
-""4"":"&amp;CK11&amp;",
-""5"":"&amp;CL11&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-9" : {
 "Capacities":"-",
 "Locations": {
@@ -22981,16 +22513,7 @@
         <v>0</v>
       </c>
       <c r="CV11" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A11&amp;""" : {
-""Capacities"":"""&amp;CO11&amp;""",
-""Spells"":"&amp;CP11&amp;",
-""Locations"": {
-""1"":"&amp;CQ11&amp;",
-""2"":"&amp;CR11&amp;",
-""3"":"&amp;CS11&amp;",
-""4"":"&amp;CT11&amp;",
-""5"":"&amp;CU11&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-9" : {
 "Capacities":"-",
 "Spells":6,
@@ -23012,10 +22535,7 @@
         <v>1262</v>
       </c>
       <c r="CZ11" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A11&amp;""" : {
-""Capacities"":"""&amp;CY11&amp;""",
-""BonusAttack"": """&amp;CX11&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-9" : {
 "Capacities":"Capacité de l'archétype de roublard",
 "BonusAttack": "5d6"
@@ -23043,7 +22563,7 @@
         <v>5</v>
       </c>
       <c r="DH11" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-9" : {
 "Capacities":"-",
 "MinorSpells": 3,
@@ -23071,7 +22591,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-10": {
 "Capacities": "Capacité de voie",
 "Specials": 4,
@@ -23118,21 +22638,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A12&amp;""" : {
-""Capacities"":"""&amp;H12&amp;""",
-""MinorSpells"": "&amp;I12&amp;",
-""Spells"": "&amp;J12&amp;",
-""Locations"": {
-""1"":"&amp;K12&amp;",
-""2"":"&amp;L12&amp;",
-""3"":"&amp;M12&amp;",
-""4"":"&amp;N12&amp;",
-""5"":"&amp;O12&amp;",
-""6"":"&amp;P12&amp;",
-""7"":"&amp;Q12&amp;",
-""8"":"&amp;R12&amp;",
-""9"":"&amp;S12&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-10" : {
 "Capacities":"Inspiration bardique (d10), Expertise, Secrets magiques",
 "MinorSpells": 4,
@@ -23186,20 +22692,7 @@
         <v>0</v>
       </c>
       <c r="AG12" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A12&amp;""" : {
-""Capacities"":"""&amp;V12&amp;""",
-""MinorSpells"": "&amp;W12&amp;",
-""Locations"": {
-""1"":"&amp;X12&amp;",
-""2"":"&amp;Y12&amp;",
-""3"":"&amp;Z12&amp;",
-""4"":"&amp;AA12&amp;",
-""5"":"&amp;AB12&amp;",
-""6"":"&amp;AC12&amp;",
-""7"":"&amp;AD12&amp;",
-""8"":"&amp;AE12&amp;",
-""9"":"&amp;AF12&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-10" : {
 "Capacities":"Intervention divine",
 "MinorSpells": 5,
@@ -23252,20 +22745,7 @@
         <v>0</v>
       </c>
       <c r="AT12" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A12&amp;""" : {
-""Capacities"":"""&amp;AI12&amp;""",
-""MinorSpells"": "&amp;AJ12&amp;",
-""Locations"": {
-""1"":"&amp;AK12&amp;",
-""2"":"&amp;AL12&amp;",
-""3"":"&amp;AM12&amp;",
-""4"":"&amp;AN12&amp;",
-""5"":"&amp;AO12&amp;",
-""6"":"&amp;AP12&amp;",
-""7"":"&amp;AQ12&amp;",
-""8"":"&amp;AR12&amp;",
-""9"":"&amp;AS12&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-10" : {
 "Capacities":"Capacité de cercle druidique",
 "MinorSpells": 4,
@@ -23324,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="BI12" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-10" : {
 "Capacities":"Métamagie",
 "MinorSpells": 6,
@@ -23337,7 +22817,7 @@
 "4":3,
 "5":2,
 "6":0,
-"7":5,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -23349,7 +22829,7 @@
         <v>1223</v>
       </c>
       <c r="BL12" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-10" : {
 "Capacities":"Capacité de l'archétype martial"
 },</v>
@@ -23391,7 +22871,7 @@
         <v>0</v>
       </c>
       <c r="BY12" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-10" : {
 "Capacities":"Capacité de la tradition arcanique",
 "MinorSpells": 5,
@@ -23419,11 +22899,11 @@
       <c r="CC12" s="172" t="s">
         <v>251</v>
       </c>
-      <c r="CD12" s="214" t="s">
+      <c r="CD12" s="201" t="s">
         <v>252</v>
       </c>
       <c r="CE12" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-10" : {
 "Capacities":"Pureté du corps",
 "Specials": 10,
@@ -23453,15 +22933,7 @@
         <v>0</v>
       </c>
       <c r="CM12" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A12&amp;""" : {
-""Capacities"":"""&amp;CG12&amp;""",
-""Locations"": {
-""1"":"&amp;CH12&amp;",
-""2"":"&amp;CI12&amp;",
-""3"":"&amp;CJ12&amp;",
-""4"":"&amp;CK12&amp;",
-""5"":"&amp;CL12&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-10" : {
 "Capacities":"Aura de courage",
 "Locations": {
@@ -23497,16 +22969,7 @@
         <v>0</v>
       </c>
       <c r="CV12" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A12&amp;""" : {
-""Capacities"":"""&amp;CO12&amp;""",
-""Spells"":"&amp;CP12&amp;",
-""Locations"": {
-""1"":"&amp;CQ12&amp;",
-""2"":"&amp;CR12&amp;",
-""3"":"&amp;CS12&amp;",
-""4"":"&amp;CT12&amp;",
-""5"":"&amp;CU12&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-10" : {
 "Capacities":"Amélioration de l'Explorateur-né, Camouflage naturel",
 "Spells":6,
@@ -23528,10 +22991,7 @@
         <v>249</v>
       </c>
       <c r="CZ12" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A12&amp;""" : {
-""Capacities"":"""&amp;CY12&amp;""",
-""BonusAttack"": """&amp;CX12&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-10" : {
 "Capacities":"Amélioration de caractéristiques",
 "BonusAttack": "5d6"
@@ -23559,7 +23019,7 @@
         <v>5</v>
       </c>
       <c r="DH12" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-10" : {
 "Capacities":"Capacité de patron d'Outremonde",
 "MinorSpells": 4,
@@ -23587,7 +23047,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-11": {
 "Capacities": "Rage implacable",
 "Specials": 4,
@@ -23634,21 +23094,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A13&amp;""" : {
-""Capacities"":"""&amp;H13&amp;""",
-""MinorSpells"": "&amp;I13&amp;",
-""Spells"": "&amp;J13&amp;",
-""Locations"": {
-""1"":"&amp;K13&amp;",
-""2"":"&amp;L13&amp;",
-""3"":"&amp;M13&amp;",
-""4"":"&amp;N13&amp;",
-""5"":"&amp;O13&amp;",
-""6"":"&amp;P13&amp;",
-""7"":"&amp;Q13&amp;",
-""8"":"&amp;R13&amp;",
-""9"":"&amp;S13&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-11" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -23702,20 +23148,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A13&amp;""" : {
-""Capacities"":"""&amp;V13&amp;""",
-""MinorSpells"": "&amp;W13&amp;",
-""Locations"": {
-""1"":"&amp;X13&amp;",
-""2"":"&amp;Y13&amp;",
-""3"":"&amp;Z13&amp;",
-""4"":"&amp;AA13&amp;",
-""5"":"&amp;AB13&amp;",
-""6"":"&amp;AC13&amp;",
-""7"":"&amp;AD13&amp;",
-""8"":"&amp;AE13&amp;",
-""9"":"&amp;AF13&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-11" : {
 "Capacities":"Destruction des morts-vivants (FP 2)",
 "MinorSpells": 5,
@@ -23768,20 +23201,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A13&amp;""" : {
-""Capacities"":"""&amp;AI13&amp;""",
-""MinorSpells"": "&amp;AJ13&amp;",
-""Locations"": {
-""1"":"&amp;AK13&amp;",
-""2"":"&amp;AL13&amp;",
-""3"":"&amp;AM13&amp;",
-""4"":"&amp;AN13&amp;",
-""5"":"&amp;AO13&amp;",
-""6"":"&amp;AP13&amp;",
-""7"":"&amp;AQ13&amp;",
-""8"":"&amp;AR13&amp;",
-""9"":"&amp;AS13&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-11" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -23840,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="BI13" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-11" : {
 "Capacities":"-",
 "MinorSpells": 6,
@@ -23853,7 +23273,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -23909,7 +23329,7 @@
         <v>0</v>
       </c>
       <c r="BY13" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-11" : {
 "Capacities":"-",
 "MinorSpells": 5,
@@ -23937,11 +23357,11 @@
       <c r="CC13" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="CD13" s="213" t="s">
+      <c r="CD13" s="200" t="s">
         <v>254</v>
       </c>
       <c r="CE13" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-11" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 11,
@@ -23971,15 +23391,7 @@
         <v>0</v>
       </c>
       <c r="CM13" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A13&amp;""" : {
-""Capacities"":"""&amp;CG13&amp;""",
-""Locations"": {
-""1"":"&amp;CH13&amp;",
-""2"":"&amp;CI13&amp;",
-""3"":"&amp;CJ13&amp;",
-""4"":"&amp;CK13&amp;",
-""5"":"&amp;CL13&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-11" : {
 "Capacities":"Châtiment divin amélioré",
 "Locations": {
@@ -24015,16 +23427,7 @@
         <v>0</v>
       </c>
       <c r="CV13" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A13&amp;""" : {
-""Capacities"":"""&amp;CO13&amp;""",
-""Spells"":"&amp;CP13&amp;",
-""Locations"": {
-""1"":"&amp;CQ13&amp;",
-""2"":"&amp;CR13&amp;",
-""3"":"&amp;CS13&amp;",
-""4"":"&amp;CT13&amp;",
-""5"":"&amp;CU13&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-11" : {
 "Capacities":"Capacité de l'archétype de rôdeur",
 "Spells":7,
@@ -24046,10 +23449,7 @@
         <v>1264</v>
       </c>
       <c r="CZ13" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A13&amp;""" : {
-""Capacities"":"""&amp;CY13&amp;""",
-""BonusAttack"": """&amp;CX13&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-11" : {
 "Capacities":"Talent",
 "BonusAttack": "6d6"
@@ -24077,7 +23477,7 @@
         <v>5</v>
       </c>
       <c r="DH13" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-11" : {
 "Capacities":"Arcanum mystique (niveau 6)",
 "MinorSpells": 4,
@@ -24105,7 +23505,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-12": {
 "Capacities": "Amélioration de caractéristiques",
 "Specials": 5,
@@ -24152,21 +23552,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A14&amp;""" : {
-""Capacities"":"""&amp;H14&amp;""",
-""MinorSpells"": "&amp;I14&amp;",
-""Spells"": "&amp;J14&amp;",
-""Locations"": {
-""1"":"&amp;K14&amp;",
-""2"":"&amp;L14&amp;",
-""3"":"&amp;M14&amp;",
-""4"":"&amp;N14&amp;",
-""5"":"&amp;O14&amp;",
-""6"":"&amp;P14&amp;",
-""7"":"&amp;Q14&amp;",
-""8"":"&amp;R14&amp;",
-""9"":"&amp;S14&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -24220,20 +23606,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A14&amp;""" : {
-""Capacities"":"""&amp;V14&amp;""",
-""MinorSpells"": "&amp;W14&amp;",
-""Locations"": {
-""1"":"&amp;X14&amp;",
-""2"":"&amp;Y14&amp;",
-""3"":"&amp;Z14&amp;",
-""4"":"&amp;AA14&amp;",
-""5"":"&amp;AB14&amp;",
-""6"":"&amp;AC14&amp;",
-""7"":"&amp;AD14&amp;",
-""8"":"&amp;AE14&amp;",
-""9"":"&amp;AF14&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 5,
@@ -24286,20 +23659,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A14&amp;""" : {
-""Capacities"":"""&amp;AI14&amp;""",
-""MinorSpells"": "&amp;AJ14&amp;",
-""Locations"": {
-""1"":"&amp;AK14&amp;",
-""2"":"&amp;AL14&amp;",
-""3"":"&amp;AM14&amp;",
-""4"":"&amp;AN14&amp;",
-""5"":"&amp;AO14&amp;",
-""6"":"&amp;AP14&amp;",
-""7"":"&amp;AQ14&amp;",
-""8"":"&amp;AR14&amp;",
-""9"":"&amp;AS14&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -24358,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 6,
@@ -24371,7 +23731,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":0,
 "8":0,
 "9":0}
 },</v>
@@ -24383,7 +23743,7 @@
         <v>249</v>
       </c>
       <c r="BL14" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-12" : {
 "Capacities":"Amélioration de caractéristiques"
 },</v>
@@ -24425,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="BY14" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 5,
@@ -24453,11 +23813,11 @@
       <c r="CC14" s="172" t="s">
         <v>251</v>
       </c>
-      <c r="CD14" s="214" t="s">
+      <c r="CD14" s="201" t="s">
         <v>249</v>
       </c>
       <c r="CE14" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 12,
@@ -24487,15 +23847,7 @@
         <v>0</v>
       </c>
       <c r="CM14" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A14&amp;""" : {
-""Capacities"":"""&amp;CG14&amp;""",
-""Locations"": {
-""1"":"&amp;CH14&amp;",
-""2"":"&amp;CI14&amp;",
-""3"":"&amp;CJ14&amp;",
-""4"":"&amp;CK14&amp;",
-""5"":"&amp;CL14&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "Locations": {
@@ -24531,16 +23883,7 @@
         <v>0</v>
       </c>
       <c r="CV14" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A14&amp;""" : {
-""Capacities"":"""&amp;CO14&amp;""",
-""Spells"":"&amp;CP14&amp;",
-""Locations"": {
-""1"":"&amp;CQ14&amp;",
-""2"":"&amp;CR14&amp;",
-""3"":"&amp;CS14&amp;",
-""4"":"&amp;CT14&amp;",
-""5"":"&amp;CU14&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "Spells":7,
@@ -24562,10 +23905,7 @@
         <v>249</v>
       </c>
       <c r="CZ14" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A14&amp;""" : {
-""Capacities"":"""&amp;CY14&amp;""",
-""BonusAttack"": """&amp;CX14&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "BonusAttack": "6d6"
@@ -24593,7 +23933,7 @@
         <v>6</v>
       </c>
       <c r="DH14" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -24621,7 +23961,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-13": {
 "Capacities": "Critique brutal (2 dés)",
 "Specials": 5,
@@ -24668,21 +24008,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A15&amp;""" : {
-""Capacities"":"""&amp;H15&amp;""",
-""MinorSpells"": "&amp;I15&amp;",
-""Spells"": "&amp;J15&amp;",
-""Locations"": {
-""1"":"&amp;K15&amp;",
-""2"":"&amp;L15&amp;",
-""3"":"&amp;M15&amp;",
-""4"":"&amp;N15&amp;",
-""5"":"&amp;O15&amp;",
-""6"":"&amp;P15&amp;",
-""7"":"&amp;Q15&amp;",
-""8"":"&amp;R15&amp;",
-""9"":"&amp;S15&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-13" : {
 "Capacities":"Chant de repos (d10)",
 "MinorSpells": 4,
@@ -24736,20 +24062,7 @@
         <v>0</v>
       </c>
       <c r="AG15" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A15&amp;""" : {
-""Capacities"":"""&amp;V15&amp;""",
-""MinorSpells"": "&amp;W15&amp;",
-""Locations"": {
-""1"":"&amp;X15&amp;",
-""2"":"&amp;Y15&amp;",
-""3"":"&amp;Z15&amp;",
-""4"":"&amp;AA15&amp;",
-""5"":"&amp;AB15&amp;",
-""6"":"&amp;AC15&amp;",
-""7"":"&amp;AD15&amp;",
-""8"":"&amp;AE15&amp;",
-""9"":"&amp;AF15&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-13" : {
 "Capacities":"-",
 "MinorSpells": 5,
@@ -24802,20 +24115,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A15&amp;""" : {
-""Capacities"":"""&amp;AI15&amp;""",
-""MinorSpells"": "&amp;AJ15&amp;",
-""Locations"": {
-""1"":"&amp;AK15&amp;",
-""2"":"&amp;AL15&amp;",
-""3"":"&amp;AM15&amp;",
-""4"":"&amp;AN15&amp;",
-""5"":"&amp;AO15&amp;",
-""6"":"&amp;AP15&amp;",
-""7"":"&amp;AQ15&amp;",
-""8"":"&amp;AR15&amp;",
-""9"":"&amp;AS15&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-13" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -24874,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-13" : {
 "Capacities":"-",
 "MinorSpells": 6,
@@ -24887,7 +24187,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":1,
 "8":0,
 "9":0}
 },</v>
@@ -24899,7 +24199,7 @@
         <v>1226</v>
       </c>
       <c r="BL15" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-13" : {
 "Capacities":"Indomptable (2)"
 },</v>
@@ -24941,7 +24241,7 @@
         <v>0</v>
       </c>
       <c r="BY15" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-13" : {
 "Capacities":"-",
 "MinorSpells": 5,
@@ -24969,11 +24269,11 @@
       <c r="CC15" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="CD15" s="213" t="s">
+      <c r="CD15" s="200" t="s">
         <v>255</v>
       </c>
       <c r="CE15" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-13" : {
 "Capacities":"Langage du soleil et de la lune",
 "Specials": 13,
@@ -25003,15 +24303,7 @@
         <v>0</v>
       </c>
       <c r="CM15" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A15&amp;""" : {
-""Capacities"":"""&amp;CG15&amp;""",
-""Locations"": {
-""1"":"&amp;CH15&amp;",
-""2"":"&amp;CI15&amp;",
-""3"":"&amp;CJ15&amp;",
-""4"":"&amp;CK15&amp;",
-""5"":"&amp;CL15&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-13" : {
 "Capacities":"-",
 "Locations": {
@@ -25047,16 +24339,7 @@
         <v>0</v>
       </c>
       <c r="CV15" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A15&amp;""" : {
-""Capacities"":"""&amp;CO15&amp;""",
-""Spells"":"&amp;CP15&amp;",
-""Locations"": {
-""1"":"&amp;CQ15&amp;",
-""2"":"&amp;CR15&amp;",
-""3"":"&amp;CS15&amp;",
-""4"":"&amp;CT15&amp;",
-""5"":"&amp;CU15&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-13" : {
 "Capacities":"-",
 "Spells":8,
@@ -25078,10 +24361,7 @@
         <v>1262</v>
       </c>
       <c r="CZ15" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A15&amp;""" : {
-""Capacities"":"""&amp;CY15&amp;""",
-""BonusAttack"": """&amp;CX15&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-13" : {
 "Capacities":"Capacité de l'archétype de roublard",
 "BonusAttack": "7d6"
@@ -25109,7 +24389,7 @@
         <v>6</v>
       </c>
       <c r="DH15" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-13" : {
 "Capacities":"Arcanum mystique (niveau 7)",
 "MinorSpells": 4,
@@ -25137,7 +24417,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-14": {
 "Capacities": "Capacité de voie",
 "Specials": 5,
@@ -25184,21 +24464,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A16&amp;""" : {
-""Capacities"":"""&amp;H16&amp;""",
-""MinorSpells"": "&amp;I16&amp;",
-""Spells"": "&amp;J16&amp;",
-""Locations"": {
-""1"":"&amp;K16&amp;",
-""2"":"&amp;L16&amp;",
-""3"":"&amp;M16&amp;",
-""4"":"&amp;N16&amp;",
-""5"":"&amp;O16&amp;",
-""6"":"&amp;P16&amp;",
-""7"":"&amp;Q16&amp;",
-""8"":"&amp;R16&amp;",
-""9"":"&amp;S16&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-14" : {
 "Capacities":"Secrets magiques, Capacité de collège bardique",
 "MinorSpells": 4,
@@ -25252,20 +24518,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A16&amp;""" : {
-""Capacities"":"""&amp;V16&amp;""",
-""MinorSpells"": "&amp;W16&amp;",
-""Locations"": {
-""1"":"&amp;X16&amp;",
-""2"":"&amp;Y16&amp;",
-""3"":"&amp;Z16&amp;",
-""4"":"&amp;AA16&amp;",
-""5"":"&amp;AB16&amp;",
-""6"":"&amp;AC16&amp;",
-""7"":"&amp;AD16&amp;",
-""8"":"&amp;AE16&amp;",
-""9"":"&amp;AF16&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-14" : {
 "Capacities":"Destruction des morts-vivants (FP 3)",
 "MinorSpells": 5,
@@ -25318,20 +24571,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A16&amp;""" : {
-""Capacities"":"""&amp;AI16&amp;""",
-""MinorSpells"": "&amp;AJ16&amp;",
-""Locations"": {
-""1"":"&amp;AK16&amp;",
-""2"":"&amp;AL16&amp;",
-""3"":"&amp;AM16&amp;",
-""4"":"&amp;AN16&amp;",
-""5"":"&amp;AO16&amp;",
-""6"":"&amp;AP16&amp;",
-""7"":"&amp;AQ16&amp;",
-""8"":"&amp;AR16&amp;",
-""9"":"&amp;AS16&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-14" : {
 "Capacities":"Capacité de cercle druidique",
 "MinorSpells": 4,
@@ -25390,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-14" : {
 "Capacities":"Capacité de l'origine magique",
 "MinorSpells": 6,
@@ -25403,7 +24643,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":1,
 "8":0,
 "9":0}
 },</v>
@@ -25415,7 +24655,7 @@
         <v>249</v>
       </c>
       <c r="BL16" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-14" : {
 "Capacities":"Amélioration de caractéristiques"
 },</v>
@@ -25457,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="BY16" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-14" : {
 "Capacities":"Capacité de la tradition arcanique",
 "MinorSpells": 5,
@@ -25485,11 +24725,11 @@
       <c r="CC16" s="172" t="s">
         <v>256</v>
       </c>
-      <c r="CD16" s="214" t="s">
+      <c r="CD16" s="201" t="s">
         <v>257</v>
       </c>
       <c r="CE16" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-14" : {
 "Capacities":"Âme de diamant",
 "Specials": 14,
@@ -25519,15 +24759,7 @@
         <v>0</v>
       </c>
       <c r="CM16" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A16&amp;""" : {
-""Capacities"":"""&amp;CG16&amp;""",
-""Locations"": {
-""1"":"&amp;CH16&amp;",
-""2"":"&amp;CI16&amp;",
-""3"":"&amp;CJ16&amp;",
-""4"":"&amp;CK16&amp;",
-""5"":"&amp;CL16&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-14" : {
 "Capacities":"Contact purifiant",
 "Locations": {
@@ -25563,16 +24795,7 @@
         <v>0</v>
       </c>
       <c r="CV16" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A16&amp;""" : {
-""Capacities"":"""&amp;CO16&amp;""",
-""Spells"":"&amp;CP16&amp;",
-""Locations"": {
-""1"":"&amp;CQ16&amp;",
-""2"":"&amp;CR16&amp;",
-""3"":"&amp;CS16&amp;",
-""4"":"&amp;CT16&amp;",
-""5"":"&amp;CU16&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-14" : {
 "Capacities":"Amélioration de l'Ennemi juré, Disparition",
 "Spells":8,
@@ -25594,10 +24817,7 @@
         <v>1266</v>
       </c>
       <c r="CZ16" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A16&amp;""" : {
-""Capacities"":"""&amp;CY16&amp;""",
-""BonusAttack"": """&amp;CX16&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-14" : {
 "Capacities":"Ouïe fine",
 "BonusAttack": "7d6"
@@ -25625,7 +24845,7 @@
         <v>6</v>
       </c>
       <c r="DH16" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-14" : {
 "Capacities":"Capacité de patron d'Outremonde",
 "MinorSpells": 4,
@@ -25653,7 +24873,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-15": {
 "Capacities": "Rage ininterrompue",
 "Specials": 5,
@@ -25700,21 +24920,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A17&amp;""" : {
-""Capacities"":"""&amp;H17&amp;""",
-""MinorSpells"": "&amp;I17&amp;",
-""Spells"": "&amp;J17&amp;",
-""Locations"": {
-""1"":"&amp;K17&amp;",
-""2"":"&amp;L17&amp;",
-""3"":"&amp;M17&amp;",
-""4"":"&amp;N17&amp;",
-""5"":"&amp;O17&amp;",
-""6"":"&amp;P17&amp;",
-""7"":"&amp;Q17&amp;",
-""8"":"&amp;R17&amp;",
-""9"":"&amp;S17&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-15" : {
 "Capacities":"Inspiration bardique (d12)",
 "MinorSpells": 4,
@@ -25768,20 +24974,7 @@
         <v>0</v>
       </c>
       <c r="AG17" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A17&amp;""" : {
-""Capacities"":"""&amp;V17&amp;""",
-""MinorSpells"": "&amp;W17&amp;",
-""Locations"": {
-""1"":"&amp;X17&amp;",
-""2"":"&amp;Y17&amp;",
-""3"":"&amp;Z17&amp;",
-""4"":"&amp;AA17&amp;",
-""5"":"&amp;AB17&amp;",
-""6"":"&amp;AC17&amp;",
-""7"":"&amp;AD17&amp;",
-""8"":"&amp;AE17&amp;",
-""9"":"&amp;AF17&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-15" : {
 "Capacities":"-",
 "MinorSpells": 5,
@@ -25834,20 +25027,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A17&amp;""" : {
-""Capacities"":"""&amp;AI17&amp;""",
-""MinorSpells"": "&amp;AJ17&amp;",
-""Locations"": {
-""1"":"&amp;AK17&amp;",
-""2"":"&amp;AL17&amp;",
-""3"":"&amp;AM17&amp;",
-""4"":"&amp;AN17&amp;",
-""5"":"&amp;AO17&amp;",
-""6"":"&amp;AP17&amp;",
-""7"":"&amp;AQ17&amp;",
-""8"":"&amp;AR17&amp;",
-""9"":"&amp;AS17&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-15" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -25906,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-15" : {
 "Capacities":"-",
 "MinorSpells": 6,
@@ -25919,7 +25099,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":1,
 "8":1,
 "9":0}
 },</v>
@@ -25931,7 +25111,7 @@
         <v>1223</v>
       </c>
       <c r="BL17" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-15" : {
 "Capacities":"Capacité de l'archétype martial"
 },</v>
@@ -25973,7 +25153,7 @@
         <v>0</v>
       </c>
       <c r="BY17" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-15" : {
 "Capacities":"-",
 "MinorSpells": 5,
@@ -26001,11 +25181,11 @@
       <c r="CC17" s="169" t="s">
         <v>256</v>
       </c>
-      <c r="CD17" s="213" t="s">
+      <c r="CD17" s="200" t="s">
         <v>258</v>
       </c>
       <c r="CE17" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-15" : {
 "Capacities":"Jeunesse éternelle",
 "Specials": 15,
@@ -26035,15 +25215,7 @@
         <v>0</v>
       </c>
       <c r="CM17" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A17&amp;""" : {
-""Capacities"":"""&amp;CG17&amp;""",
-""Locations"": {
-""1"":"&amp;CH17&amp;",
-""2"":"&amp;CI17&amp;",
-""3"":"&amp;CJ17&amp;",
-""4"":"&amp;CK17&amp;",
-""5"":"&amp;CL17&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-15" : {
 "Capacities":"Capacité de serment sacré",
 "Locations": {
@@ -26079,16 +25251,7 @@
         <v>0</v>
       </c>
       <c r="CV17" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A17&amp;""" : {
-""Capacities"":"""&amp;CO17&amp;""",
-""Spells"":"&amp;CP17&amp;",
-""Locations"": {
-""1"":"&amp;CQ17&amp;",
-""2"":"&amp;CR17&amp;",
-""3"":"&amp;CS17&amp;",
-""4"":"&amp;CT17&amp;",
-""5"":"&amp;CU17&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-15" : {
 "Capacities":"Capacité de l'archétype de rôdeur",
 "Spells":9,
@@ -26110,10 +25273,7 @@
         <v>1268</v>
       </c>
       <c r="CZ17" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A17&amp;""" : {
-""Capacities"":"""&amp;CY17&amp;""",
-""BonusAttack"": """&amp;CX17&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-15" : {
 "Capacities":"Esprit impénétrable",
 "BonusAttack": "8d6"
@@ -26141,7 +25301,7 @@
         <v>7</v>
       </c>
       <c r="DH17" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-15" : {
 "Capacities":"Arcanum mystique (niveau 8)",
 "MinorSpells": 4,
@@ -26169,7 +25329,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-16": {
 "Capacities": "Amélioration de caractéristiques",
 "Specials": 5,
@@ -26216,21 +25376,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A18&amp;""" : {
-""Capacities"":"""&amp;H18&amp;""",
-""MinorSpells"": "&amp;I18&amp;",
-""Spells"": "&amp;J18&amp;",
-""Locations"": {
-""1"":"&amp;K18&amp;",
-""2"":"&amp;L18&amp;",
-""3"":"&amp;M18&amp;",
-""4"":"&amp;N18&amp;",
-""5"":"&amp;O18&amp;",
-""6"":"&amp;P18&amp;",
-""7"":"&amp;Q18&amp;",
-""8"":"&amp;R18&amp;",
-""9"":"&amp;S18&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -26284,20 +25430,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A18&amp;""" : {
-""Capacities"":"""&amp;V18&amp;""",
-""MinorSpells"": "&amp;W18&amp;",
-""Locations"": {
-""1"":"&amp;X18&amp;",
-""2"":"&amp;Y18&amp;",
-""3"":"&amp;Z18&amp;",
-""4"":"&amp;AA18&amp;",
-""5"":"&amp;AB18&amp;",
-""6"":"&amp;AC18&amp;",
-""7"":"&amp;AD18&amp;",
-""8"":"&amp;AE18&amp;",
-""9"":"&amp;AF18&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 5,
@@ -26350,20 +25483,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A18&amp;""" : {
-""Capacities"":"""&amp;AI18&amp;""",
-""MinorSpells"": "&amp;AJ18&amp;",
-""Locations"": {
-""1"":"&amp;AK18&amp;",
-""2"":"&amp;AL18&amp;",
-""3"":"&amp;AM18&amp;",
-""4"":"&amp;AN18&amp;",
-""5"":"&amp;AO18&amp;",
-""6"":"&amp;AP18&amp;",
-""7"":"&amp;AQ18&amp;",
-""8"":"&amp;AR18&amp;",
-""9"":"&amp;AS18&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -26422,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 6,
@@ -26435,7 +25555,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":1,
 "8":1,
 "9":0}
 },</v>
@@ -26447,7 +25567,7 @@
         <v>249</v>
       </c>
       <c r="BL18" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-16" : {
 "Capacities":"Amélioration de caractéristiques"
 },</v>
@@ -26489,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="BY18" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 5,
@@ -26517,11 +25637,11 @@
       <c r="CC18" s="172" t="s">
         <v>256</v>
       </c>
-      <c r="CD18" s="214" t="s">
+      <c r="CD18" s="201" t="s">
         <v>249</v>
       </c>
       <c r="CE18" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 16,
@@ -26551,15 +25671,7 @@
         <v>0</v>
       </c>
       <c r="CM18" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A18&amp;""" : {
-""Capacities"":"""&amp;CG18&amp;""",
-""Locations"": {
-""1"":"&amp;CH18&amp;",
-""2"":"&amp;CI18&amp;",
-""3"":"&amp;CJ18&amp;",
-""4"":"&amp;CK18&amp;",
-""5"":"&amp;CL18&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "Locations": {
@@ -26595,16 +25707,7 @@
         <v>0</v>
       </c>
       <c r="CV18" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A18&amp;""" : {
-""Capacities"":"""&amp;CO18&amp;""",
-""Spells"":"&amp;CP18&amp;",
-""Locations"": {
-""1"":"&amp;CQ18&amp;",
-""2"":"&amp;CR18&amp;",
-""3"":"&amp;CS18&amp;",
-""4"":"&amp;CT18&amp;",
-""5"":"&amp;CU18&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "Spells":9,
@@ -26626,10 +25729,7 @@
         <v>249</v>
       </c>
       <c r="CZ18" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A18&amp;""" : {
-""Capacities"":"""&amp;CY18&amp;""",
-""BonusAttack"": """&amp;CX18&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "BonusAttack": "8d6"
@@ -26657,7 +25757,7 @@
         <v>7</v>
       </c>
       <c r="DH18" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -26685,7 +25785,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-17": {
 "Capacities": "Critique brutal (3 dés)",
 "Specials": 6,
@@ -26732,21 +25832,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A19&amp;""" : {
-""Capacities"":"""&amp;H19&amp;""",
-""MinorSpells"": "&amp;I19&amp;",
-""Spells"": "&amp;J19&amp;",
-""Locations"": {
-""1"":"&amp;K19&amp;",
-""2"":"&amp;L19&amp;",
-""3"":"&amp;M19&amp;",
-""4"":"&amp;N19&amp;",
-""5"":"&amp;O19&amp;",
-""6"":"&amp;P19&amp;",
-""7"":"&amp;Q19&amp;",
-""8"":"&amp;R19&amp;",
-""9"":"&amp;S19&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-17" : {
 "Capacities":"Chant de repos (d12)",
 "MinorSpells": 4,
@@ -26800,20 +25886,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A19&amp;""" : {
-""Capacities"":"""&amp;V19&amp;""",
-""MinorSpells"": "&amp;W19&amp;",
-""Locations"": {
-""1"":"&amp;X19&amp;",
-""2"":"&amp;Y19&amp;",
-""3"":"&amp;Z19&amp;",
-""4"":"&amp;AA19&amp;",
-""5"":"&amp;AB19&amp;",
-""6"":"&amp;AC19&amp;",
-""7"":"&amp;AD19&amp;",
-""8"":"&amp;AE19&amp;",
-""9"":"&amp;AF19&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-17" : {
 "Capacities":"Destruction des morts-vivants (FP 4), Capacité de domaine divin",
 "MinorSpells": 5,
@@ -26866,20 +25939,7 @@
         <v>1</v>
       </c>
       <c r="AT19" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A19&amp;""" : {
-""Capacities"":"""&amp;AI19&amp;""",
-""MinorSpells"": "&amp;AJ19&amp;",
-""Locations"": {
-""1"":"&amp;AK19&amp;",
-""2"":"&amp;AL19&amp;",
-""3"":"&amp;AM19&amp;",
-""4"":"&amp;AN19&amp;",
-""5"":"&amp;AO19&amp;",
-""6"":"&amp;AP19&amp;",
-""7"":"&amp;AQ19&amp;",
-""8"":"&amp;AR19&amp;",
-""9"":"&amp;AS19&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-17" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -26938,7 +25998,7 @@
         <v>1</v>
       </c>
       <c r="BI19" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-17" : {
 "Capacities":"Métamagie",
 "MinorSpells": 6,
@@ -26951,7 +26011,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":1,
 "8":1,
 "9":1}
 },</v>
@@ -26963,7 +26023,7 @@
         <v>1227</v>
       </c>
       <c r="BL19" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-17" : {
 "Capacities":"Sursaut (2), Indomptable (3)"
 },</v>
@@ -27005,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="BY19" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-17" : {
 "Capacities":"-",
 "MinorSpells": 5,
@@ -27033,11 +26093,11 @@
       <c r="CC19" s="169" t="s">
         <v>256</v>
       </c>
-      <c r="CD19" s="213" t="s">
+      <c r="CD19" s="200" t="s">
         <v>254</v>
       </c>
       <c r="CE19" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-17" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 17,
@@ -27067,15 +26127,7 @@
         <v>1</v>
       </c>
       <c r="CM19" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A19&amp;""" : {
-""Capacities"":"""&amp;CG19&amp;""",
-""Locations"": {
-""1"":"&amp;CH19&amp;",
-""2"":"&amp;CI19&amp;",
-""3"":"&amp;CJ19&amp;",
-""4"":"&amp;CK19&amp;",
-""5"":"&amp;CL19&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-17" : {
 "Capacities":"-",
 "Locations": {
@@ -27111,16 +26163,7 @@
         <v>1</v>
       </c>
       <c r="CV19" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A19&amp;""" : {
-""Capacities"":"""&amp;CO19&amp;""",
-""Spells"":"&amp;CP19&amp;",
-""Locations"": {
-""1"":"&amp;CQ19&amp;",
-""2"":"&amp;CR19&amp;",
-""3"":"&amp;CS19&amp;",
-""4"":"&amp;CT19&amp;",
-""5"":"&amp;CU19&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-17" : {
 "Capacities":"-",
 "Spells":10,
@@ -27142,10 +26185,7 @@
         <v>1262</v>
       </c>
       <c r="CZ19" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A19&amp;""" : {
-""Capacities"":"""&amp;CY19&amp;""",
-""BonusAttack"": """&amp;CX19&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-17" : {
 "Capacities":"Capacité de l'archétype de roublard",
 "BonusAttack": "9d6"
@@ -27173,7 +26213,7 @@
         <v>7</v>
       </c>
       <c r="DH19" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-17" : {
 "Capacities":"Arcanum mystique (niveau 9)",
 "MinorSpells": 4,
@@ -27201,7 +26241,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-18": {
 "Capacities": "Puissance indomptable",
 "Specials": 6,
@@ -27248,21 +26288,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A20&amp;""" : {
-""Capacities"":"""&amp;H20&amp;""",
-""MinorSpells"": "&amp;I20&amp;",
-""Spells"": "&amp;J20&amp;",
-""Locations"": {
-""1"":"&amp;K20&amp;",
-""2"":"&amp;L20&amp;",
-""3"":"&amp;M20&amp;",
-""4"":"&amp;N20&amp;",
-""5"":"&amp;O20&amp;",
-""6"":"&amp;P20&amp;",
-""7"":"&amp;Q20&amp;",
-""8"":"&amp;R20&amp;",
-""9"":"&amp;S20&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-18" : {
 "Capacities":"Secrets magiques",
 "MinorSpells": 4,
@@ -27316,20 +26342,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A20&amp;""" : {
-""Capacities"":"""&amp;V20&amp;""",
-""MinorSpells"": "&amp;W20&amp;",
-""Locations"": {
-""1"":"&amp;X20&amp;",
-""2"":"&amp;Y20&amp;",
-""3"":"&amp;Z20&amp;",
-""4"":"&amp;AA20&amp;",
-""5"":"&amp;AB20&amp;",
-""6"":"&amp;AC20&amp;",
-""7"":"&amp;AD20&amp;",
-""8"":"&amp;AE20&amp;",
-""9"":"&amp;AF20&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-18" : {
 "Capacities":"Canalisation d’énergie divine (3)",
 "MinorSpells": 5,
@@ -27382,20 +26395,7 @@
         <v>1</v>
       </c>
       <c r="AT20" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A20&amp;""" : {
-""Capacities"":"""&amp;AI20&amp;""",
-""MinorSpells"": "&amp;AJ20&amp;",
-""Locations"": {
-""1"":"&amp;AK20&amp;",
-""2"":"&amp;AL20&amp;",
-""3"":"&amp;AM20&amp;",
-""4"":"&amp;AN20&amp;",
-""5"":"&amp;AO20&amp;",
-""6"":"&amp;AP20&amp;",
-""7"":"&amp;AQ20&amp;",
-""8"":"&amp;AR20&amp;",
-""9"":"&amp;AS20&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-18" : {
 "Capacities":"Jeunesse éternelle, Incantation animale",
 "MinorSpells": 4,
@@ -27454,7 +26454,7 @@
         <v>1</v>
       </c>
       <c r="BI20" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-18" : {
 "Capacities":"Capacité de l'origine magique",
 "MinorSpells": 6,
@@ -27467,7 +26467,7 @@
 "4":3,
 "5":3,
 "6":1,
-"7":5,
+"7":1,
 "8":1,
 "9":1}
 },</v>
@@ -27479,7 +26479,7 @@
         <v>1223</v>
       </c>
       <c r="BL20" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-18" : {
 "Capacities":"Capacité de l'archétype martial"
 },</v>
@@ -27521,7 +26521,7 @@
         <v>1</v>
       </c>
       <c r="BY20" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-18" : {
 "Capacities":"Maîtrise des sorts",
 "MinorSpells": 5,
@@ -27549,11 +26549,11 @@
       <c r="CC20" s="172" t="s">
         <v>260</v>
       </c>
-      <c r="CD20" s="214" t="s">
+      <c r="CD20" s="201" t="s">
         <v>261</v>
       </c>
       <c r="CE20" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-18" : {
 "Capacities":"Corps vide",
 "Specials": 18,
@@ -27583,15 +26583,7 @@
         <v>1</v>
       </c>
       <c r="CM20" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A20&amp;""" : {
-""Capacities"":"""&amp;CG20&amp;""",
-""Locations"": {
-""1"":"&amp;CH20&amp;",
-""2"":"&amp;CI20&amp;",
-""3"":"&amp;CJ20&amp;",
-""4"":"&amp;CK20&amp;",
-""5"":"&amp;CL20&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-18" : {
 "Capacities":"Amélioration des auras",
 "Locations": {
@@ -27627,16 +26619,7 @@
         <v>1</v>
       </c>
       <c r="CV20" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A20&amp;""" : {
-""Capacities"":"""&amp;CO20&amp;""",
-""Spells"":"&amp;CP20&amp;",
-""Locations"": {
-""1"":"&amp;CQ20&amp;",
-""2"":"&amp;CR20&amp;",
-""3"":"&amp;CS20&amp;",
-""4"":"&amp;CT20&amp;",
-""5"":"&amp;CU20&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-18" : {
 "Capacities":"Sens sauvages",
 "Spells":10,
@@ -27658,10 +26641,7 @@
         <v>1270</v>
       </c>
       <c r="CZ20" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A20&amp;""" : {
-""Capacities"":"""&amp;CY20&amp;""",
-""BonusAttack"": """&amp;CX20&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-18" : {
 "Capacities":"Insaisissable",
 "BonusAttack": "9d6"
@@ -27689,7 +26669,7 @@
         <v>8</v>
       </c>
       <c r="DH20" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-18" : {
 "Capacities":"-",
 "MinorSpells": 4,
@@ -27717,7 +26697,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-19": {
 "Capacities": "Amélioration de caractéristiques",
 "Specials": 6,
@@ -27764,21 +26744,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A21&amp;""" : {
-""Capacities"":"""&amp;H21&amp;""",
-""MinorSpells"": "&amp;I21&amp;",
-""Spells"": "&amp;J21&amp;",
-""Locations"": {
-""1"":"&amp;K21&amp;",
-""2"":"&amp;L21&amp;",
-""3"":"&amp;M21&amp;",
-""4"":"&amp;N21&amp;",
-""5"":"&amp;O21&amp;",
-""6"":"&amp;P21&amp;",
-""7"":"&amp;Q21&amp;",
-""8"":"&amp;R21&amp;",
-""9"":"&amp;S21&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -27832,20 +26798,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A21&amp;""" : {
-""Capacities"":"""&amp;V21&amp;""",
-""MinorSpells"": "&amp;W21&amp;",
-""Locations"": {
-""1"":"&amp;X21&amp;",
-""2"":"&amp;Y21&amp;",
-""3"":"&amp;Z21&amp;",
-""4"":"&amp;AA21&amp;",
-""5"":"&amp;AB21&amp;",
-""6"":"&amp;AC21&amp;",
-""7"":"&amp;AD21&amp;",
-""8"":"&amp;AE21&amp;",
-""9"":"&amp;AF21&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 5,
@@ -27898,20 +26851,7 @@
         <v>1</v>
       </c>
       <c r="AT21" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A21&amp;""" : {
-""Capacities"":"""&amp;AI21&amp;""",
-""MinorSpells"": "&amp;AJ21&amp;",
-""Locations"": {
-""1"":"&amp;AK21&amp;",
-""2"":"&amp;AL21&amp;",
-""3"":"&amp;AM21&amp;",
-""4"":"&amp;AN21&amp;",
-""5"":"&amp;AO21&amp;",
-""6"":"&amp;AP21&amp;",
-""7"":"&amp;AQ21&amp;",
-""8"":"&amp;AR21&amp;",
-""9"":"&amp;AS21&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -27970,7 +26910,7 @@
         <v>1</v>
       </c>
       <c r="BI21" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 6,
@@ -27983,7 +26923,7 @@
 "4":3,
 "5":3,
 "6":2,
-"7":5,
+"7":1,
 "8":1,
 "9":1}
 },</v>
@@ -28039,7 +26979,7 @@
         <v>1</v>
       </c>
       <c r="BY21" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 5,
@@ -28067,11 +27007,11 @@
       <c r="CC21" s="169" t="s">
         <v>260</v>
       </c>
-      <c r="CD21" s="213" t="s">
+      <c r="CD21" s="200" t="s">
         <v>249</v>
       </c>
       <c r="CE21" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 19,
@@ -28101,15 +27041,7 @@
         <v>2</v>
       </c>
       <c r="CM21" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A21&amp;""" : {
-""Capacities"":"""&amp;CG21&amp;""",
-""Locations"": {
-""1"":"&amp;CH21&amp;",
-""2"":"&amp;CI21&amp;",
-""3"":"&amp;CJ21&amp;",
-""4"":"&amp;CK21&amp;",
-""5"":"&amp;CL21&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "Locations": {
@@ -28145,16 +27077,7 @@
         <v>2</v>
       </c>
       <c r="CV21" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A21&amp;""" : {
-""Capacities"":"""&amp;CO21&amp;""",
-""Spells"":"&amp;CP21&amp;",
-""Locations"": {
-""1"":"&amp;CQ21&amp;",
-""2"":"&amp;CR21&amp;",
-""3"":"&amp;CS21&amp;",
-""4"":"&amp;CT21&amp;",
-""5"":"&amp;CU21&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "Spells":11,
@@ -28176,10 +27099,7 @@
         <v>249</v>
       </c>
       <c r="CZ21" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A21&amp;""" : {
-""Capacities"":"""&amp;CY21&amp;""",
-""BonusAttack"": """&amp;CX21&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "BonusAttack": "10d6"
@@ -28207,7 +27127,7 @@
         <v>8</v>
       </c>
       <c r="DH21" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
@@ -28235,7 +27155,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>"BARBARIAN-20": {
 "Capacities": "Champion primitif",
 "Specials": -1,
@@ -28282,21 +27202,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="188" t="str">
-        <f>""""&amp;$G$1&amp;"-"&amp;$A22&amp;""" : {
-""Capacities"":"""&amp;H22&amp;""",
-""MinorSpells"": "&amp;I22&amp;",
-""Spells"": "&amp;J22&amp;",
-""Locations"": {
-""1"":"&amp;K22&amp;",
-""2"":"&amp;L22&amp;",
-""3"":"&amp;M22&amp;",
-""4"":"&amp;N22&amp;",
-""5"":"&amp;O22&amp;",
-""6"":"&amp;P22&amp;",
-""7"":"&amp;Q22&amp;",
-""8"":"&amp;R22&amp;",
-""9"":"&amp;S22&amp;"}
-},"</f>
+        <f t="shared" si="0"/>
         <v>"BARD-20" : {
 "Capacities":"Inspiration supérieure",
 "MinorSpells": 4,
@@ -28350,20 +27256,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="125" t="str">
-        <f>""""&amp;$U$1&amp;"-"&amp;$A22&amp;""" : {
-""Capacities"":"""&amp;V22&amp;""",
-""MinorSpells"": "&amp;W22&amp;",
-""Locations"": {
-""1"":"&amp;X22&amp;",
-""2"":"&amp;Y22&amp;",
-""3"":"&amp;Z22&amp;",
-""4"":"&amp;AA22&amp;",
-""5"":"&amp;AB22&amp;",
-""6"":"&amp;AC22&amp;",
-""7"":"&amp;AD22&amp;",
-""8"":"&amp;AE22&amp;",
-""9"":"&amp;AF22&amp;"}
-},"</f>
+        <f t="shared" si="1"/>
         <v>"CLERK-20" : {
 "Capacities":"Intervention divine améliorée",
 "MinorSpells": 5,
@@ -28416,20 +27309,7 @@
         <v>1</v>
       </c>
       <c r="AT22" s="188" t="str">
-        <f>""""&amp;$AH$1&amp;"-"&amp;$A22&amp;""" : {
-""Capacities"":"""&amp;AI22&amp;""",
-""MinorSpells"": "&amp;AJ22&amp;",
-""Locations"": {
-""1"":"&amp;AK22&amp;",
-""2"":"&amp;AL22&amp;",
-""3"":"&amp;AM22&amp;",
-""4"":"&amp;AN22&amp;",
-""5"":"&amp;AO22&amp;",
-""6"":"&amp;AP22&amp;",
-""7"":"&amp;AQ22&amp;",
-""8"":"&amp;AR22&amp;",
-""9"":"&amp;AS22&amp;"}
-},"</f>
+        <f t="shared" si="2"/>
         <v>"DRUID-20" : {
 "Capacities":"Archidruide",
 "MinorSpells": 4,
@@ -28488,7 +27368,7 @@
         <v>1</v>
       </c>
       <c r="BI22" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>"SORCERER-20" : {
 "Capacities":"Restauration magique",
 "MinorSpells": 6,
@@ -28501,7 +27381,7 @@
 "4":3,
 "5":3,
 "6":2,
-"7":5,
+"7":2,
 "8":1,
 "9":1}
 },</v>
@@ -28513,7 +27393,7 @@
         <v>1228</v>
       </c>
       <c r="BL22" s="188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>"WARRIOR-20" : {
 "Capacities":"Attaque supplémentaire (3)"
 },</v>
@@ -28555,7 +27435,7 @@
         <v>1</v>
       </c>
       <c r="BY22" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>"MAGICIAN-20" : {
 "Capacities":"Sorts de prédilection",
 "MinorSpells": 5,
@@ -28583,11 +27463,11 @@
       <c r="CC22" s="174" t="s">
         <v>260</v>
       </c>
-      <c r="CD22" s="215" t="s">
+      <c r="CD22" s="202" t="s">
         <v>262</v>
       </c>
       <c r="CE22" s="184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"MONK-20" : {
 "Capacities":"Perfection de l'être",
 "Specials": 20,
@@ -28617,15 +27497,7 @@
         <v>2</v>
       </c>
       <c r="CM22" s="191" t="str">
-        <f>""""&amp;$CF$1&amp;"-"&amp;$A22&amp;""" : {
-""Capacities"":"""&amp;CG22&amp;""",
-""Locations"": {
-""1"":"&amp;CH22&amp;",
-""2"":"&amp;CI22&amp;",
-""3"":"&amp;CJ22&amp;",
-""4"":"&amp;CK22&amp;",
-""5"":"&amp;CL22&amp;"}
-},"</f>
+        <f t="shared" si="3"/>
         <v>"PALADIN-20" : {
 "Capacities":"Capacité de serment sacré",
 "Locations": {
@@ -28661,16 +27533,7 @@
         <v>2</v>
       </c>
       <c r="CV22" s="5" t="str">
-        <f>""""&amp;$CN$1&amp;"-"&amp;$A22&amp;""" : {
-""Capacities"":"""&amp;CO22&amp;""",
-""Spells"":"&amp;CP22&amp;",
-""Locations"": {
-""1"":"&amp;CQ22&amp;",
-""2"":"&amp;CR22&amp;",
-""3"":"&amp;CS22&amp;",
-""4"":"&amp;CT22&amp;",
-""5"":"&amp;CU22&amp;"}
-},"</f>
+        <f t="shared" si="4"/>
         <v>"PROWLER-20" : {
 "Capacities":"Tueur d'ennemis",
 "Spells":11,
@@ -28692,10 +27555,7 @@
         <v>1272</v>
       </c>
       <c r="CZ22" s="188" t="str">
-        <f>""""&amp;$CW$1&amp;"-"&amp;$A22&amp;""" : {
-""Capacities"":"""&amp;CY22&amp;""",
-""BonusAttack"": """&amp;CX22&amp;"""
-},"</f>
+        <f t="shared" si="5"/>
         <v>"WILY-20" : {
 "Capacities":"Coup de chance",
 "BonusAttack": "10d6"
@@ -28723,7 +27583,7 @@
         <v>8</v>
       </c>
       <c r="DH22" s="170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>"WIZARD-20" : {
 "Capacities":"Maître de l'occulte",
 "MinorSpells": 4,
@@ -29653,7 +28513,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":1,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-2" : {
@@ -29668,7 +28528,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":1,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-3" : {
@@ -29683,7 +28543,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":2,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-4" : {
@@ -29698,7 +28558,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":2,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-5" : {
@@ -29713,7 +28573,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":3,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-6" : {
@@ -29728,7 +28588,7 @@
 "4":0,
 "5":0,
 "6":0,
-"7":3,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-7" : {
@@ -29743,7 +28603,7 @@
 "4":1,
 "5":0,
 "6":0,
-"7":4,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-8" : {
@@ -29758,7 +28618,7 @@
 "4":2,
 "5":0,
 "6":0,
-"7":4,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-9" : {
@@ -29773,7 +28633,7 @@
 "4":3,
 "5":1,
 "6":0,
-"7":5,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-10" : {
@@ -29788,7 +28648,7 @@
 "4":3,
 "5":2,
 "6":0,
-"7":5,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-11" : {
@@ -29803,7 +28663,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-12" : {
@@ -29818,7 +28678,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":0,
 "8":0,
 "9":0}
 },"SORCERER-13" : {
@@ -29833,7 +28693,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":1,
 "8":0,
 "9":0}
 },"SORCERER-14" : {
@@ -29848,7 +28708,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":1,
 "8":0,
 "9":0}
 },"SORCERER-15" : {
@@ -29863,7 +28723,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":1,
 "8":1,
 "9":0}
 },"SORCERER-16" : {
@@ -29878,7 +28738,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":1,
 "8":1,
 "9":0}
 },"SORCERER-17" : {
@@ -29893,7 +28753,7 @@
 "4":3,
 "5":2,
 "6":1,
-"7":5,
+"7":1,
 "8":1,
 "9":1}
 },"SORCERER-18" : {
@@ -29908,7 +28768,7 @@
 "4":3,
 "5":3,
 "6":1,
-"7":5,
+"7":1,
 "8":1,
 "9":1}
 },"SORCERER-19" : {
@@ -29923,7 +28783,7 @@
 "4":3,
 "5":3,
 "6":2,
-"7":5,
+"7":1,
 "8":1,
 "9":1}
 },"SORCERER-20" : {
@@ -29938,7 +28798,7 @@
 "4":3,
 "5":3,
 "6":2,
-"7":5,
+"7":2,
 "8":1,
 "9":1}
 },</v>
@@ -30928,11 +29788,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="G1:S1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:AF1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DG1"/>
     <mergeCell ref="CF1:CL1"/>
@@ -30940,6 +29795,11 @@
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BM1:BX1"/>
     <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31372,14 +30232,14 @@
       <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="213" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="215"/>
       <c r="G2" s="116"/>
       <c r="H2" s="116"/>
       <c r="I2" s="117"/>
@@ -31842,14 +30702,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="216" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="203"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="204"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="218"/>
       <c r="G13" s="116"/>
       <c r="H13" s="116"/>
       <c r="I13" s="119"/>
@@ -32032,14 +30892,14 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="216" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="204"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="218"/>
       <c r="G18" s="116"/>
       <c r="H18" s="116"/>
       <c r="I18" s="119"/>
@@ -32838,14 +31698,14 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
-      <c r="A37" s="202" t="s">
+      <c r="A37" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="203"/>
-      <c r="C37" s="203"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="204"/>
+      <c r="B37" s="217"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="217"/>
+      <c r="E37" s="217"/>
+      <c r="F37" s="218"/>
       <c r="G37" s="116"/>
       <c r="H37" s="116"/>
       <c r="I37" s="119"/>
@@ -33130,15 +31990,15 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="133" customFormat="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="219" t="s">
         <v>491</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -33303,15 +32163,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="133" customFormat="1">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
       <c r="H6" s="130"/>
       <c r="J6" s="132"/>
       <c r="K6" s="132"/>
@@ -33557,15 +32417,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="133" customFormat="1">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="219" t="s">
         <v>525</v>
       </c>
-      <c r="B12" s="205"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="205"/>
+      <c r="B12" s="219"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="219"/>
       <c r="H12" s="130"/>
       <c r="J12" s="132"/>
       <c r="K12" s="132"/>
@@ -33763,15 +32623,15 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="133" customFormat="1">
-      <c r="A17" s="206" t="s">
+      <c r="A17" s="220" t="s">
         <v>541</v>
       </c>
-      <c r="B17" s="206"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="206"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="220"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="220"/>
       <c r="H17" s="130"/>
       <c r="I17" s="131"/>
       <c r="J17" s="132"/>

--- a/Donjons_et_dragons.xlsx
+++ b/Donjons_et_dragons.xlsx
@@ -5946,20 +5946,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -17853,10 +17853,10 @@
   <dimension ref="A1:DH35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AY20" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BI3" sqref="BI3:BI22"/>
+      <selection pane="bottomRight" activeCell="DH3" sqref="DH3:DH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17866,140 +17866,140 @@
   <sheetData>
     <row r="1" spans="1:112">
       <c r="A1" s="194"/>
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="208" t="s">
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="211" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="209"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
       <c r="T1" s="182"/>
-      <c r="U1" s="209" t="s">
+      <c r="U1" s="210" t="s">
         <v>387</v>
       </c>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="209"/>
-      <c r="AB1" s="209"/>
-      <c r="AC1" s="209"/>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="209"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="210"/>
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="210"/>
+      <c r="AD1" s="210"/>
+      <c r="AE1" s="210"/>
+      <c r="AF1" s="210"/>
       <c r="AG1" s="165"/>
-      <c r="AH1" s="208" t="s">
+      <c r="AH1" s="211" t="s">
         <v>388</v>
       </c>
-      <c r="AI1" s="209"/>
-      <c r="AJ1" s="209"/>
-      <c r="AK1" s="209"/>
-      <c r="AL1" s="209"/>
-      <c r="AM1" s="209"/>
-      <c r="AN1" s="209"/>
-      <c r="AO1" s="209"/>
-      <c r="AP1" s="209"/>
-      <c r="AQ1" s="209"/>
-      <c r="AR1" s="209"/>
-      <c r="AS1" s="210"/>
+      <c r="AI1" s="210"/>
+      <c r="AJ1" s="210"/>
+      <c r="AK1" s="210"/>
+      <c r="AL1" s="210"/>
+      <c r="AM1" s="210"/>
+      <c r="AN1" s="210"/>
+      <c r="AO1" s="210"/>
+      <c r="AP1" s="210"/>
+      <c r="AQ1" s="210"/>
+      <c r="AR1" s="210"/>
+      <c r="AS1" s="212"/>
       <c r="AT1" s="165"/>
-      <c r="AU1" s="211" t="s">
+      <c r="AU1" s="209" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="211"/>
-      <c r="AW1" s="211"/>
-      <c r="AX1" s="211"/>
-      <c r="AY1" s="211"/>
-      <c r="AZ1" s="211"/>
-      <c r="BA1" s="211"/>
-      <c r="BB1" s="211"/>
-      <c r="BC1" s="211"/>
-      <c r="BD1" s="211"/>
-      <c r="BE1" s="211"/>
-      <c r="BF1" s="211"/>
-      <c r="BG1" s="211"/>
-      <c r="BH1" s="211"/>
+      <c r="AV1" s="209"/>
+      <c r="AW1" s="209"/>
+      <c r="AX1" s="209"/>
+      <c r="AY1" s="209"/>
+      <c r="AZ1" s="209"/>
+      <c r="BA1" s="209"/>
+      <c r="BB1" s="209"/>
+      <c r="BC1" s="209"/>
+      <c r="BD1" s="209"/>
+      <c r="BE1" s="209"/>
+      <c r="BF1" s="209"/>
+      <c r="BG1" s="209"/>
+      <c r="BH1" s="209"/>
       <c r="BI1" s="178"/>
-      <c r="BJ1" s="208" t="s">
+      <c r="BJ1" s="211" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="209"/>
+      <c r="BK1" s="210"/>
       <c r="BL1" s="182"/>
-      <c r="BM1" s="209" t="s">
+      <c r="BM1" s="210" t="s">
         <v>391</v>
       </c>
-      <c r="BN1" s="209"/>
-      <c r="BO1" s="209"/>
-      <c r="BP1" s="209"/>
-      <c r="BQ1" s="209"/>
-      <c r="BR1" s="209"/>
-      <c r="BS1" s="209"/>
-      <c r="BT1" s="209"/>
-      <c r="BU1" s="209"/>
-      <c r="BV1" s="209"/>
-      <c r="BW1" s="209"/>
-      <c r="BX1" s="209"/>
+      <c r="BN1" s="210"/>
+      <c r="BO1" s="210"/>
+      <c r="BP1" s="210"/>
+      <c r="BQ1" s="210"/>
+      <c r="BR1" s="210"/>
+      <c r="BS1" s="210"/>
+      <c r="BT1" s="210"/>
+      <c r="BU1" s="210"/>
+      <c r="BV1" s="210"/>
+      <c r="BW1" s="210"/>
+      <c r="BX1" s="210"/>
       <c r="BY1" s="165"/>
-      <c r="BZ1" s="208" t="s">
+      <c r="BZ1" s="211" t="s">
         <v>393</v>
       </c>
-      <c r="CA1" s="209"/>
-      <c r="CB1" s="209"/>
-      <c r="CC1" s="209"/>
-      <c r="CD1" s="209"/>
+      <c r="CA1" s="210"/>
+      <c r="CB1" s="210"/>
+      <c r="CC1" s="210"/>
+      <c r="CD1" s="210"/>
       <c r="CE1" s="182"/>
-      <c r="CF1" s="208" t="s">
+      <c r="CF1" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="CG1" s="209"/>
-      <c r="CH1" s="209"/>
-      <c r="CI1" s="209"/>
-      <c r="CJ1" s="209"/>
-      <c r="CK1" s="209"/>
-      <c r="CL1" s="209"/>
+      <c r="CG1" s="210"/>
+      <c r="CH1" s="210"/>
+      <c r="CI1" s="210"/>
+      <c r="CJ1" s="210"/>
+      <c r="CK1" s="210"/>
+      <c r="CL1" s="210"/>
       <c r="CM1" s="182"/>
-      <c r="CN1" s="209" t="s">
+      <c r="CN1" s="210" t="s">
         <v>394</v>
       </c>
-      <c r="CO1" s="209"/>
-      <c r="CP1" s="209"/>
-      <c r="CQ1" s="209"/>
-      <c r="CR1" s="209"/>
-      <c r="CS1" s="209"/>
-      <c r="CT1" s="209"/>
-      <c r="CU1" s="209"/>
+      <c r="CO1" s="210"/>
+      <c r="CP1" s="210"/>
+      <c r="CQ1" s="210"/>
+      <c r="CR1" s="210"/>
+      <c r="CS1" s="210"/>
+      <c r="CT1" s="210"/>
+      <c r="CU1" s="210"/>
       <c r="CV1" s="165"/>
-      <c r="CW1" s="212" t="s">
+      <c r="CW1" s="208" t="s">
         <v>395</v>
       </c>
-      <c r="CX1" s="211"/>
-      <c r="CY1" s="211"/>
+      <c r="CX1" s="209"/>
+      <c r="CY1" s="209"/>
       <c r="CZ1" s="192"/>
-      <c r="DA1" s="209" t="s">
+      <c r="DA1" s="210" t="s">
         <v>392</v>
       </c>
-      <c r="DB1" s="209"/>
-      <c r="DC1" s="209"/>
-      <c r="DD1" s="209"/>
-      <c r="DE1" s="209"/>
-      <c r="DF1" s="209"/>
-      <c r="DG1" s="209"/>
+      <c r="DB1" s="210"/>
+      <c r="DC1" s="210"/>
+      <c r="DD1" s="210"/>
+      <c r="DE1" s="210"/>
+      <c r="DF1" s="210"/>
+      <c r="DG1" s="210"/>
       <c r="DH1" s="203"/>
     </row>
     <row r="2" spans="1:112" s="129" customFormat="1" ht="39" customHeight="1">
@@ -18864,16 +18864,14 @@
 ""Capacities"":"""&amp;DB3&amp;""",
 ""MinorSpells"": "&amp;DC3&amp;",
 ""Spells"": "&amp;DD3&amp;",
-""Locations"": "&amp;DE3&amp;",
-""LocationLevel"": "&amp;DF3&amp;",
+""Locations"": {"""&amp;DF3&amp;""":"&amp;DE3&amp;"},
 ""Invocations"": "&amp;DG3&amp;"
 },"</f>
         <v>"WIZARD-1" : {
 "Capacities":"Patron d'Outremonde, Magie de pacte",
 "MinorSpells": 2,
 "Spells": 2,
-"Locations": 1,
-"LocationLevel": 1,
+"Locations": {"1":1},
 "Invocations": 0
 },</v>
       </c>
@@ -19366,21 +19364,19 @@
 ""Capacities"":"""&amp;DB4&amp;""",
 ""MinorSpells"": "&amp;DC4&amp;",
 ""Spells"": "&amp;DD4&amp;",
-""Locations"": "&amp;DE4&amp;",
-""LocationLevel"": "&amp;DF4&amp;",
+""Locations"": {"""&amp;DF4&amp;""":"&amp;DE4&amp;"},
 ""Invocations"": "&amp;DG4&amp;"
 },"</f>
         <v>"WIZARD-2" : {
 "Capacities":"Invocations occultes",
 "MinorSpells": 2,
 "Spells": 3,
-"Locations": 2,
-"LocationLevel": 1,
+"Locations": {"1":2},
 "Invocations": 2
 },</v>
       </c>
     </row>
-    <row r="5" spans="1:112" ht="293.25">
+    <row r="5" spans="1:112" ht="280.5">
       <c r="A5" s="179">
         <v>3</v>
       </c>
@@ -19830,8 +19826,7 @@
 "Capacities":"Faveur de pacte",
 "MinorSpells": 2,
 "Spells": 4,
-"Locations": 2,
-"LocationLevel": 2,
+"Locations": {"2":2},
 "Invocations": 2
 },</v>
       </c>
@@ -20286,13 +20281,12 @@
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 3,
 "Spells": 5,
-"Locations": 2,
-"LocationLevel": 2,
+"Locations": {"2":2},
 "Invocations": 2
 },</v>
       </c>
     </row>
-    <row r="7" spans="1:112" ht="293.25">
+    <row r="7" spans="1:112" ht="280.5">
       <c r="A7" s="179">
         <v>5</v>
       </c>
@@ -20742,8 +20736,7 @@
 "Capacities":"-",
 "MinorSpells": 3,
 "Spells": 6,
-"Locations": 2,
-"LocationLevel": 3,
+"Locations": {"3":2},
 "Invocations": 3
 },</v>
       </c>
@@ -21198,13 +21191,12 @@
 "Capacities":"Capacité de patron d'Outremonde",
 "MinorSpells": 3,
 "Spells": 7,
-"Locations": 2,
-"LocationLevel": 3,
+"Locations": {"3":2},
 "Invocations": 3
 },</v>
       </c>
     </row>
-    <row r="9" spans="1:112" ht="293.25">
+    <row r="9" spans="1:112" ht="267.75">
       <c r="A9" s="179">
         <v>7</v>
       </c>
@@ -21599,7 +21591,16 @@
         <v>0</v>
       </c>
       <c r="CV9" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f>""""&amp;$CN$1&amp;"-"&amp;$A9&amp;""" : {
+""Capacities"":"""&amp;CO9&amp;""",
+""Spells"":"&amp;CP9&amp;",
+""Locations"": {
+""1"":"&amp;CQ9&amp;",
+""2"":"&amp;CR9&amp;",
+""3"":"&amp;CS9&amp;",
+""4"":"&amp;CT9&amp;",
+""5"":"&amp;CU9&amp;"}
+},"</f>
         <v>"PROWLER-7" : {
 "Capacities":"Capacité de l'archétype de rôdeur",
 "Spells":5,
@@ -21654,8 +21655,7 @@
 "Capacities":"-",
 "MinorSpells": 3,
 "Spells": 8,
-"Locations": 2,
-"LocationLevel": 4,
+"Locations": {"4":2},
 "Invocations": 4
 },</v>
       </c>
@@ -22110,13 +22110,12 @@
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 3,
 "Spells": 9,
-"Locations": 2,
-"LocationLevel": 4,
+"Locations": {"4":2},
 "Invocations": 4
 },</v>
       </c>
     </row>
-    <row r="11" spans="1:112" ht="293.25">
+    <row r="11" spans="1:112" ht="267.75">
       <c r="A11" s="179">
         <v>9</v>
       </c>
@@ -22568,8 +22567,7 @@
 "Capacities":"-",
 "MinorSpells": 3,
 "Spells": 10,
-"Locations": 2,
-"LocationLevel": 5,
+"Locations": {"5":2},
 "Invocations": 5
 },</v>
       </c>
@@ -23024,13 +23022,12 @@
 "Capacities":"Capacité de patron d'Outremonde",
 "MinorSpells": 4,
 "Spells": 10,
-"Locations": 2,
-"LocationLevel": 5,
+"Locations": {"5":2},
 "Invocations": 5
 },</v>
       </c>
     </row>
-    <row r="13" spans="1:112" ht="293.25">
+    <row r="13" spans="1:112" ht="267.75">
       <c r="A13" s="179">
         <v>11</v>
       </c>
@@ -23482,13 +23479,12 @@
 "Capacities":"Arcanum mystique (niveau 6)",
 "MinorSpells": 4,
 "Spells": 11,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 5
 },</v>
       </c>
     </row>
-    <row r="14" spans="1:112" ht="293.25">
+    <row r="14" spans="1:112" ht="306">
       <c r="A14" s="180">
         <v>12</v>
       </c>
@@ -23938,13 +23934,12 @@
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
 "Spells": 11,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 6
 },</v>
       </c>
     </row>
-    <row r="15" spans="1:112" ht="293.25">
+    <row r="15" spans="1:112" ht="267.75">
       <c r="A15" s="179">
         <v>13</v>
       </c>
@@ -24394,8 +24389,7 @@
 "Capacities":"Arcanum mystique (niveau 7)",
 "MinorSpells": 4,
 "Spells": 12,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 6
 },</v>
       </c>
@@ -24850,13 +24844,12 @@
 "Capacities":"Capacité de patron d'Outremonde",
 "MinorSpells": 4,
 "Spells": 12,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 6
 },</v>
       </c>
     </row>
-    <row r="17" spans="1:112" ht="293.25">
+    <row r="17" spans="1:112" ht="267.75">
       <c r="A17" s="179">
         <v>15</v>
       </c>
@@ -25306,13 +25299,12 @@
 "Capacities":"Arcanum mystique (niveau 8)",
 "MinorSpells": 4,
 "Spells": 13,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 7
 },</v>
       </c>
     </row>
-    <row r="18" spans="1:112" ht="293.25">
+    <row r="18" spans="1:112" ht="306">
       <c r="A18" s="180">
         <v>16</v>
       </c>
@@ -25762,8 +25754,7 @@
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
 "Spells": 13,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 7
 },</v>
       </c>
@@ -26218,8 +26209,7 @@
 "Capacities":"Arcanum mystique (niveau 9)",
 "MinorSpells": 4,
 "Spells": 14,
-"Locations": 4,
-"LocationLevel": 5,
+"Locations": {"5":4},
 "Invocations": 7
 },</v>
       </c>
@@ -26674,13 +26664,12 @@
 "Capacities":"-",
 "MinorSpells": 4,
 "Spells": 14,
-"Locations": 4,
-"LocationLevel": 5,
+"Locations": {"5":4},
 "Invocations": 8
 },</v>
       </c>
     </row>
-    <row r="21" spans="1:112" ht="293.25">
+    <row r="21" spans="1:112" ht="306">
       <c r="A21" s="179">
         <v>19</v>
       </c>
@@ -27132,8 +27121,7 @@
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
 "Spells": 15,
-"Locations": 4,
-"LocationLevel": 5,
+"Locations": {"5":4},
 "Invocations": 8
 },</v>
       </c>
@@ -27588,8 +27576,7 @@
 "Capacities":"Maître de l'occulte",
 "MinorSpells": 4,
 "Spells": 15,
-"Locations": 4,
-"LocationLevel": 5,
+"Locations": {"5":4},
 "Invocations": 8
 },</v>
       </c>
@@ -29647,147 +29634,132 @@
 "Capacities":"Patron d'Outremonde, Magie de pacte",
 "MinorSpells": 2,
 "Spells": 2,
-"Locations": 1,
-"LocationLevel": 1,
+"Locations": {"1":1},
 "Invocations": 0
 },"WIZARD-2" : {
 "Capacities":"Invocations occultes",
 "MinorSpells": 2,
 "Spells": 3,
-"Locations": 2,
-"LocationLevel": 1,
+"Locations": {"1":2},
 "Invocations": 2
 },"WIZARD-3" : {
 "Capacities":"Faveur de pacte",
 "MinorSpells": 2,
 "Spells": 4,
-"Locations": 2,
-"LocationLevel": 2,
+"Locations": {"2":2},
 "Invocations": 2
 },"WIZARD-4" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 3,
 "Spells": 5,
-"Locations": 2,
-"LocationLevel": 2,
+"Locations": {"2":2},
 "Invocations": 2
 },"WIZARD-5" : {
 "Capacities":"-",
 "MinorSpells": 3,
 "Spells": 6,
-"Locations": 2,
-"LocationLevel": 3,
+"Locations": {"3":2},
 "Invocations": 3
 },"WIZARD-6" : {
 "Capacities":"Capacité de patron d'Outremonde",
 "MinorSpells": 3,
 "Spells": 7,
-"Locations": 2,
-"LocationLevel": 3,
+"Locations": {"3":2},
 "Invocations": 3
 },"WIZARD-7" : {
 "Capacities":"-",
 "MinorSpells": 3,
 "Spells": 8,
-"Locations": 2,
-"LocationLevel": 4,
+"Locations": {"4":2},
 "Invocations": 4
 },"WIZARD-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 3,
 "Spells": 9,
-"Locations": 2,
-"LocationLevel": 4,
+"Locations": {"4":2},
 "Invocations": 4
 },"WIZARD-9" : {
 "Capacities":"-",
 "MinorSpells": 3,
 "Spells": 10,
-"Locations": 2,
-"LocationLevel": 5,
+"Locations": {"5":2},
 "Invocations": 5
 },"WIZARD-10" : {
 "Capacities":"Capacité de patron d'Outremonde",
 "MinorSpells": 4,
 "Spells": 10,
-"Locations": 2,
-"LocationLevel": 5,
+"Locations": {"5":2},
 "Invocations": 5
 },"WIZARD-11" : {
 "Capacities":"Arcanum mystique (niveau 6)",
 "MinorSpells": 4,
 "Spells": 11,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 5
 },"WIZARD-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
 "Spells": 11,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 6
 },"WIZARD-13" : {
 "Capacities":"Arcanum mystique (niveau 7)",
 "MinorSpells": 4,
 "Spells": 12,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 6
 },"WIZARD-14" : {
 "Capacities":"Capacité de patron d'Outremonde",
 "MinorSpells": 4,
 "Spells": 12,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 6
 },"WIZARD-15" : {
 "Capacities":"Arcanum mystique (niveau 8)",
 "MinorSpells": 4,
 "Spells": 13,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 7
 },"WIZARD-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
 "Spells": 13,
-"Locations": 3,
-"LocationLevel": 5,
+"Locations": {"5":3},
 "Invocations": 7
 },"WIZARD-17" : {
 "Capacities":"Arcanum mystique (niveau 9)",
 "MinorSpells": 4,
 "Spells": 14,
-"Locations": 4,
-"LocationLevel": 5,
+"Locations": {"5":4},
 "Invocations": 7
 },"WIZARD-18" : {
 "Capacities":"-",
 "MinorSpells": 4,
 "Spells": 14,
-"Locations": 4,
-"LocationLevel": 5,
+"Locations": {"5":4},
 "Invocations": 8
 },"WIZARD-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "MinorSpells": 4,
 "Spells": 15,
-"Locations": 4,
-"LocationLevel": 5,
+"Locations": {"5":4},
 "Invocations": 8
 },"WIZARD-20" : {
 "Capacities":"Maître de l'occulte",
 "MinorSpells": 4,
 "Spells": 15,
-"Locations": 4,
-"LocationLevel": 5,
+"Locations": {"5":4},
 "Invocations": 8
 },</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:AF1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DG1"/>
     <mergeCell ref="CF1:CL1"/>
@@ -29795,11 +29767,6 @@
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BM1:BX1"/>
     <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="G1:S1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Donjons_et_dragons.xlsx
+++ b/Donjons_et_dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Niveaux" sheetId="1" r:id="rId1"/>
@@ -4357,42 +4357,15 @@
     <t>Objets</t>
   </si>
   <si>
-    <t>ARTISAN DE GUILDE</t>
-  </si>
-  <si>
-    <t>ARTISTE</t>
-  </si>
-  <si>
     <t>CHARLATAN</t>
   </si>
   <si>
-    <t>CRIMINEL</t>
-  </si>
-  <si>
-    <t>ENFANT DES RUES</t>
-  </si>
-  <si>
-    <t>ERMITE</t>
-  </si>
-  <si>
-    <t>HÉROS DU PEUPLE</t>
-  </si>
-  <si>
-    <t>MARIN</t>
-  </si>
-  <si>
     <t>NOBLE</t>
   </si>
   <si>
-    <t>SAGE</t>
-  </si>
-  <si>
     <t>SAUVAGEON</t>
   </si>
   <si>
-    <t>SOLDAT</t>
-  </si>
-  <si>
     <t>Acolyte</t>
   </si>
   <si>
@@ -4444,21 +4417,6 @@
     <t>Chasseur De Primes</t>
   </si>
   <si>
-    <t>CHASSEUR DE PRIMES</t>
-  </si>
-  <si>
-    <t>TOURMENTÉ</t>
-  </si>
-  <si>
-    <t>VOYAGEUR</t>
-  </si>
-  <si>
-    <t>CAPTIF</t>
-  </si>
-  <si>
-    <t>IDIOT DU VILLAGE</t>
-  </si>
-  <si>
     <t>Tourmenté</t>
   </si>
   <si>
@@ -4889,6 +4847,49 @@
   </si>
   <si>
     <t>Arts-Martiaux</t>
+  </si>
+  <si>
+    <t>HERMIT</t>
+  </si>
+  <si>
+    <t>ARTIST</t>
+  </si>
+  <si>
+    <t>CRIMINAL</t>
+  </si>
+  <si>
+    <t>STREETS_CHILD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GUILD_ARTISAN</t>
+  </si>
+  <si>
+    <t>MARINE</t>
+  </si>
+  <si>
+    <t>WISE</t>
+  </si>
+  <si>
+    <t>SOLDIER</t>
+  </si>
+  <si>
+    <t>CAPTIVE</t>
+  </si>
+  <si>
+    <t>VILLAGE_IDIOT</t>
+  </si>
+  <si>
+    <t>TRAVELER</t>
+  </si>
+  <si>
+    <t>BOUNTY_HUNTER</t>
+  </si>
+  <si>
+    <t>TORMENTED</t>
+  </si>
+  <si>
+    <t>PEOPLE_HERO</t>
   </si>
 </sst>
 </file>
@@ -5445,7 +5446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5946,20 +5947,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5984,6 +5985,12 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17167,13 +17174,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="160" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="K1" s="160" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="L1" s="206" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
       <c r="M1" s="107"/>
     </row>
@@ -17209,7 +17216,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="204" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
       <c r="L2" s="162"/>
       <c r="M2" s="103"/>
@@ -17439,7 +17446,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="204" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
       <c r="L6" s="162"/>
       <c r="M6" s="103"/>
@@ -17597,7 +17604,7 @@
         <v>236</v>
       </c>
       <c r="L9" s="163" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
       <c r="M9" s="103"/>
       <c r="N9" t="str">
@@ -17752,7 +17759,7 @@
       </c>
       <c r="K12" s="204"/>
       <c r="L12" s="162" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="M12" s="103"/>
       <c r="N12" t="str">
@@ -17852,7 +17859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -17866,140 +17873,140 @@
   <sheetData>
     <row r="1" spans="1:112">
       <c r="A1" s="194"/>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="211" t="s">
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="208" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
       <c r="T1" s="182"/>
-      <c r="U1" s="210" t="s">
+      <c r="U1" s="209" t="s">
         <v>387</v>
       </c>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="210"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
       <c r="AG1" s="165"/>
-      <c r="AH1" s="211" t="s">
+      <c r="AH1" s="208" t="s">
         <v>388</v>
       </c>
-      <c r="AI1" s="210"/>
-      <c r="AJ1" s="210"/>
-      <c r="AK1" s="210"/>
-      <c r="AL1" s="210"/>
-      <c r="AM1" s="210"/>
-      <c r="AN1" s="210"/>
-      <c r="AO1" s="210"/>
-      <c r="AP1" s="210"/>
-      <c r="AQ1" s="210"/>
-      <c r="AR1" s="210"/>
-      <c r="AS1" s="212"/>
+      <c r="AI1" s="209"/>
+      <c r="AJ1" s="209"/>
+      <c r="AK1" s="209"/>
+      <c r="AL1" s="209"/>
+      <c r="AM1" s="209"/>
+      <c r="AN1" s="209"/>
+      <c r="AO1" s="209"/>
+      <c r="AP1" s="209"/>
+      <c r="AQ1" s="209"/>
+      <c r="AR1" s="209"/>
+      <c r="AS1" s="210"/>
       <c r="AT1" s="165"/>
-      <c r="AU1" s="209" t="s">
+      <c r="AU1" s="211" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="209"/>
-      <c r="AW1" s="209"/>
-      <c r="AX1" s="209"/>
-      <c r="AY1" s="209"/>
-      <c r="AZ1" s="209"/>
-      <c r="BA1" s="209"/>
-      <c r="BB1" s="209"/>
-      <c r="BC1" s="209"/>
-      <c r="BD1" s="209"/>
-      <c r="BE1" s="209"/>
-      <c r="BF1" s="209"/>
-      <c r="BG1" s="209"/>
-      <c r="BH1" s="209"/>
+      <c r="AV1" s="211"/>
+      <c r="AW1" s="211"/>
+      <c r="AX1" s="211"/>
+      <c r="AY1" s="211"/>
+      <c r="AZ1" s="211"/>
+      <c r="BA1" s="211"/>
+      <c r="BB1" s="211"/>
+      <c r="BC1" s="211"/>
+      <c r="BD1" s="211"/>
+      <c r="BE1" s="211"/>
+      <c r="BF1" s="211"/>
+      <c r="BG1" s="211"/>
+      <c r="BH1" s="211"/>
       <c r="BI1" s="178"/>
-      <c r="BJ1" s="211" t="s">
+      <c r="BJ1" s="208" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="210"/>
+      <c r="BK1" s="209"/>
       <c r="BL1" s="182"/>
-      <c r="BM1" s="210" t="s">
+      <c r="BM1" s="209" t="s">
         <v>391</v>
       </c>
-      <c r="BN1" s="210"/>
-      <c r="BO1" s="210"/>
-      <c r="BP1" s="210"/>
-      <c r="BQ1" s="210"/>
-      <c r="BR1" s="210"/>
-      <c r="BS1" s="210"/>
-      <c r="BT1" s="210"/>
-      <c r="BU1" s="210"/>
-      <c r="BV1" s="210"/>
-      <c r="BW1" s="210"/>
-      <c r="BX1" s="210"/>
+      <c r="BN1" s="209"/>
+      <c r="BO1" s="209"/>
+      <c r="BP1" s="209"/>
+      <c r="BQ1" s="209"/>
+      <c r="BR1" s="209"/>
+      <c r="BS1" s="209"/>
+      <c r="BT1" s="209"/>
+      <c r="BU1" s="209"/>
+      <c r="BV1" s="209"/>
+      <c r="BW1" s="209"/>
+      <c r="BX1" s="209"/>
       <c r="BY1" s="165"/>
-      <c r="BZ1" s="211" t="s">
+      <c r="BZ1" s="208" t="s">
         <v>393</v>
       </c>
-      <c r="CA1" s="210"/>
-      <c r="CB1" s="210"/>
-      <c r="CC1" s="210"/>
-      <c r="CD1" s="210"/>
+      <c r="CA1" s="209"/>
+      <c r="CB1" s="209"/>
+      <c r="CC1" s="209"/>
+      <c r="CD1" s="209"/>
       <c r="CE1" s="182"/>
-      <c r="CF1" s="211" t="s">
+      <c r="CF1" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="CG1" s="210"/>
-      <c r="CH1" s="210"/>
-      <c r="CI1" s="210"/>
-      <c r="CJ1" s="210"/>
-      <c r="CK1" s="210"/>
-      <c r="CL1" s="210"/>
+      <c r="CG1" s="209"/>
+      <c r="CH1" s="209"/>
+      <c r="CI1" s="209"/>
+      <c r="CJ1" s="209"/>
+      <c r="CK1" s="209"/>
+      <c r="CL1" s="209"/>
       <c r="CM1" s="182"/>
-      <c r="CN1" s="210" t="s">
+      <c r="CN1" s="209" t="s">
         <v>394</v>
       </c>
-      <c r="CO1" s="210"/>
-      <c r="CP1" s="210"/>
-      <c r="CQ1" s="210"/>
-      <c r="CR1" s="210"/>
-      <c r="CS1" s="210"/>
-      <c r="CT1" s="210"/>
-      <c r="CU1" s="210"/>
+      <c r="CO1" s="209"/>
+      <c r="CP1" s="209"/>
+      <c r="CQ1" s="209"/>
+      <c r="CR1" s="209"/>
+      <c r="CS1" s="209"/>
+      <c r="CT1" s="209"/>
+      <c r="CU1" s="209"/>
       <c r="CV1" s="165"/>
-      <c r="CW1" s="208" t="s">
+      <c r="CW1" s="212" t="s">
         <v>395</v>
       </c>
-      <c r="CX1" s="209"/>
-      <c r="CY1" s="209"/>
+      <c r="CX1" s="211"/>
+      <c r="CY1" s="211"/>
       <c r="CZ1" s="192"/>
-      <c r="DA1" s="210" t="s">
+      <c r="DA1" s="209" t="s">
         <v>392</v>
       </c>
-      <c r="DB1" s="210"/>
-      <c r="DC1" s="210"/>
-      <c r="DD1" s="210"/>
-      <c r="DE1" s="210"/>
-      <c r="DF1" s="210"/>
-      <c r="DG1" s="210"/>
+      <c r="DB1" s="209"/>
+      <c r="DC1" s="209"/>
+      <c r="DD1" s="209"/>
+      <c r="DE1" s="209"/>
+      <c r="DF1" s="209"/>
+      <c r="DG1" s="209"/>
       <c r="DH1" s="203"/>
     </row>
     <row r="2" spans="1:112" s="129" customFormat="1" ht="39" customHeight="1">
@@ -18013,10 +18020,10 @@
         <v>237</v>
       </c>
       <c r="D2" s="166" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="E2" s="166" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="F2" s="166"/>
       <c r="G2" s="185" t="s">
@@ -18026,10 +18033,10 @@
         <v>237</v>
       </c>
       <c r="I2" s="166" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="J2" s="166" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="K2" s="166">
         <v>1</v>
@@ -18066,7 +18073,7 @@
         <v>237</v>
       </c>
       <c r="W2" s="166" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="X2" s="166">
         <v>1</v>
@@ -18103,7 +18110,7 @@
         <v>237</v>
       </c>
       <c r="AJ2" s="166" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="AK2" s="166">
         <v>1</v>
@@ -18137,16 +18144,16 @@
         <v>369</v>
       </c>
       <c r="AV2" s="166" t="s">
-        <v>1218</v>
+        <v>1204</v>
       </c>
       <c r="AW2" s="166" t="s">
         <v>237</v>
       </c>
       <c r="AX2" s="166" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="AY2" s="166" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="AZ2" s="166">
         <v>1</v>
@@ -18190,7 +18197,7 @@
         <v>237</v>
       </c>
       <c r="BO2" s="166" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="BP2" s="166">
         <v>1</v>
@@ -18265,7 +18272,7 @@
         <v>237</v>
       </c>
       <c r="CP2" s="166" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="CQ2" s="166">
         <v>1</v>
@@ -18287,7 +18294,7 @@
         <v>369</v>
       </c>
       <c r="CX2" s="166" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="CY2" s="166" t="s">
         <v>237</v>
@@ -18300,19 +18307,19 @@
         <v>237</v>
       </c>
       <c r="DC2" s="166" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="DD2" s="166" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="DE2" s="166" t="s">
-        <v>1285</v>
+        <v>1271</v>
       </c>
       <c r="DF2" s="166" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
       <c r="DG2" s="166" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
       <c r="DH2" s="167"/>
     </row>
@@ -18324,7 +18331,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -18348,7 +18355,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
@@ -18419,7 +18426,7 @@
         <v>2</v>
       </c>
       <c r="V3" s="125" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="W3" s="135">
         <v>3</v>
@@ -18485,7 +18492,7 @@
         <v>2</v>
       </c>
       <c r="AI3" s="36" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="AJ3" s="5">
         <v>2</v>
@@ -18554,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="36" t="s">
-        <v>1213</v>
+        <v>1199</v>
       </c>
       <c r="AX3" s="5">
         <v>4</v>
@@ -18627,7 +18634,7 @@
         <v>2</v>
       </c>
       <c r="BK3" s="36" t="s">
-        <v>1219</v>
+        <v>1205</v>
       </c>
       <c r="BL3" s="188" t="str">
         <f>""""&amp;$BJ$1&amp;"-"&amp;$A3&amp;""" : {
@@ -18641,7 +18648,7 @@
         <v>2</v>
       </c>
       <c r="BN3" s="36" t="s">
-        <v>1229</v>
+        <v>1215</v>
       </c>
       <c r="BO3" s="5">
         <v>3</v>
@@ -18736,7 +18743,7 @@
         <v>2</v>
       </c>
       <c r="CG3" s="36" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="CH3" s="5">
         <v>0</v>
@@ -18777,7 +18784,7 @@
         <v>2</v>
       </c>
       <c r="CO3" s="36" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="CP3" s="5">
         <v>0</v>
@@ -18826,7 +18833,7 @@
         <v>244</v>
       </c>
       <c r="CY3" s="36" t="s">
-        <v>1253</v>
+        <v>1239</v>
       </c>
       <c r="CZ3" s="188" t="str">
         <f t="shared" ref="CZ3:CZ22" si="5">""""&amp;$CW$1&amp;"-"&amp;$A3&amp;""" : {
@@ -18842,7 +18849,7 @@
         <v>2</v>
       </c>
       <c r="DB3" s="36" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="DC3" s="5">
         <v>2</v>
@@ -18884,7 +18891,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -18908,7 +18915,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="I4" s="4">
         <v>2</v>
@@ -18965,7 +18972,7 @@
         <v>2</v>
       </c>
       <c r="V4" s="123" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="W4" s="136">
         <v>3</v>
@@ -19018,7 +19025,7 @@
         <v>2</v>
       </c>
       <c r="AI4" s="33" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="AJ4" s="4">
         <v>2</v>
@@ -19074,7 +19081,7 @@
         <v>2</v>
       </c>
       <c r="AW4" s="33" t="s">
-        <v>1214</v>
+        <v>1200</v>
       </c>
       <c r="AX4" s="4">
         <v>4</v>
@@ -19147,7 +19154,7 @@
         <v>2</v>
       </c>
       <c r="BK4" s="33" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
       <c r="BL4" s="188" t="str">
         <f t="shared" ref="BL4:BL22" si="8">""""&amp;$BJ$1&amp;"-"&amp;$A4&amp;""" : {
@@ -19161,7 +19168,7 @@
         <v>2</v>
       </c>
       <c r="BN4" s="33" t="s">
-        <v>1230</v>
+        <v>1216</v>
       </c>
       <c r="BO4" s="4">
         <v>3</v>
@@ -19256,7 +19263,7 @@
         <v>2</v>
       </c>
       <c r="CG4" s="33" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="CH4" s="4">
         <v>2</v>
@@ -19289,7 +19296,7 @@
         <v>2</v>
       </c>
       <c r="CO4" s="33" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="CP4" s="4">
         <v>2</v>
@@ -19329,7 +19336,7 @@
         <v>244</v>
       </c>
       <c r="CY4" s="33" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
       <c r="CZ4" s="188" t="str">
         <f t="shared" si="5"/>
@@ -19342,7 +19349,7 @@
         <v>2</v>
       </c>
       <c r="DB4" s="33" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="DC4" s="4">
         <v>2</v>
@@ -19384,7 +19391,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -19404,7 +19411,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
@@ -19570,7 +19577,7 @@
         <v>3</v>
       </c>
       <c r="AW5" s="36" t="s">
-        <v>1215</v>
+        <v>1201</v>
       </c>
       <c r="AX5" s="5">
         <v>4</v>
@@ -19628,7 +19635,7 @@
         <v>2</v>
       </c>
       <c r="BK5" s="36" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="BL5" s="188" t="str">
         <f t="shared" si="8"/>
@@ -19717,7 +19724,7 @@
         <v>2</v>
       </c>
       <c r="CG5" s="36" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="CH5" s="5">
         <v>3</v>
@@ -19750,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="CO5" s="36" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="CP5" s="5">
         <v>3</v>
@@ -19787,10 +19794,10 @@
         <v>2</v>
       </c>
       <c r="CX5" s="5" t="s">
-        <v>1255</v>
+        <v>1241</v>
       </c>
       <c r="CY5" s="36" t="s">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="CZ5" s="188" t="str">
         <f t="shared" si="5"/>
@@ -19803,7 +19810,7 @@
         <v>2</v>
       </c>
       <c r="DB5" s="36" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="DC5" s="5">
         <v>2</v>
@@ -19969,7 +19976,7 @@
         <v>2</v>
       </c>
       <c r="AI6" s="33" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="AJ6" s="4">
         <v>3</v>
@@ -20242,7 +20249,7 @@
         <v>2</v>
       </c>
       <c r="CX6" s="4" t="s">
-        <v>1255</v>
+        <v>1241</v>
       </c>
       <c r="CY6" s="33" t="s">
         <v>249</v>
@@ -20294,7 +20301,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
@@ -20314,7 +20321,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
@@ -20371,7 +20378,7 @@
         <v>3</v>
       </c>
       <c r="V7" s="125" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="W7" s="135">
         <v>4</v>
@@ -20538,7 +20545,7 @@
         <v>3</v>
       </c>
       <c r="BK7" s="36" t="s">
-        <v>1222</v>
+        <v>1208</v>
       </c>
       <c r="BL7" s="188" t="str">
         <f t="shared" si="8"/>
@@ -20697,10 +20704,10 @@
         <v>3</v>
       </c>
       <c r="CX7" s="5" t="s">
-        <v>1257</v>
+        <v>1243</v>
       </c>
       <c r="CY7" s="36" t="s">
-        <v>1258</v>
+        <v>1244</v>
       </c>
       <c r="CZ7" s="188" t="str">
         <f t="shared" si="5"/>
@@ -20749,7 +20756,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
@@ -20769,7 +20776,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="I8" s="4">
         <v>3</v>
@@ -20826,7 +20833,7 @@
         <v>3</v>
       </c>
       <c r="V8" s="123" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="W8" s="136">
         <v>4</v>
@@ -20879,7 +20886,7 @@
         <v>3</v>
       </c>
       <c r="AI8" s="33" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
       <c r="AJ8" s="4">
         <v>3</v>
@@ -20935,7 +20942,7 @@
         <v>6</v>
       </c>
       <c r="AW8" s="33" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
       <c r="AX8" s="4">
         <v>5</v>
@@ -21005,7 +21012,7 @@
         <v>3</v>
       </c>
       <c r="BN8" s="33" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="BO8" s="4">
         <v>4</v>
@@ -21082,7 +21089,7 @@
         <v>3</v>
       </c>
       <c r="CG8" s="33" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
       <c r="CH8" s="4">
         <v>4</v>
@@ -21115,7 +21122,7 @@
         <v>3</v>
       </c>
       <c r="CO8" s="33" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
       <c r="CP8" s="4">
         <v>4</v>
@@ -21152,10 +21159,10 @@
         <v>3</v>
       </c>
       <c r="CX8" s="4" t="s">
-        <v>1257</v>
+        <v>1243</v>
       </c>
       <c r="CY8" s="33" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
       <c r="CZ8" s="188" t="str">
         <f t="shared" si="5"/>
@@ -21168,7 +21175,7 @@
         <v>3</v>
       </c>
       <c r="DB8" s="33" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="DC8" s="4">
         <v>3</v>
@@ -21204,7 +21211,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -21448,7 +21455,7 @@
         <v>3</v>
       </c>
       <c r="BK9" s="36" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="BL9" s="188" t="str">
         <f t="shared" si="8"/>
@@ -21537,7 +21544,7 @@
         <v>3</v>
       </c>
       <c r="CG9" s="36" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="CH9" s="5">
         <v>4</v>
@@ -21570,7 +21577,7 @@
         <v>3</v>
       </c>
       <c r="CO9" s="36" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="CP9" s="5">
         <v>5</v>
@@ -21616,7 +21623,7 @@
         <v>3</v>
       </c>
       <c r="CX9" s="5" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="CY9" s="36" t="s">
         <v>295</v>
@@ -21745,7 +21752,7 @@
         <v>3</v>
       </c>
       <c r="V10" s="123" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
       <c r="W10" s="136">
         <v>4</v>
@@ -21798,7 +21805,7 @@
         <v>3</v>
       </c>
       <c r="AI10" s="33" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="AJ10" s="4">
         <v>3</v>
@@ -22034,7 +22041,7 @@
         <v>3</v>
       </c>
       <c r="CO10" s="33" t="s">
-        <v>1248</v>
+        <v>1234</v>
       </c>
       <c r="CP10" s="4">
         <v>5</v>
@@ -22071,7 +22078,7 @@
         <v>3</v>
       </c>
       <c r="CX10" s="4" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="CY10" s="33" t="s">
         <v>249</v>
@@ -22123,7 +22130,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="D11" s="5">
         <v>4</v>
@@ -22143,7 +22150,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
@@ -22367,7 +22374,7 @@
         <v>4</v>
       </c>
       <c r="BK11" s="36" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="BL11" s="188" t="str">
         <f>""""&amp;$BJ$1&amp;"-"&amp;$A11&amp;""" : {
@@ -22528,10 +22535,10 @@
         <v>4</v>
       </c>
       <c r="CX11" s="5" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
       <c r="CY11" s="36" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="CZ11" s="188" t="str">
         <f t="shared" si="5"/>
@@ -22580,7 +22587,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
@@ -22600,7 +22607,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="I12" s="4">
         <v>4</v>
@@ -22657,7 +22664,7 @@
         <v>4</v>
       </c>
       <c r="V12" s="123" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="W12" s="136">
         <v>5</v>
@@ -22710,7 +22717,7 @@
         <v>4</v>
       </c>
       <c r="AI12" s="33" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
       <c r="AJ12" s="4">
         <v>4</v>
@@ -22766,7 +22773,7 @@
         <v>10</v>
       </c>
       <c r="AW12" s="33" t="s">
-        <v>1215</v>
+        <v>1201</v>
       </c>
       <c r="AX12" s="4">
         <v>6</v>
@@ -22824,7 +22831,7 @@
         <v>4</v>
       </c>
       <c r="BK12" s="33" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="BL12" s="188" t="str">
         <f t="shared" si="8"/>
@@ -22836,7 +22843,7 @@
         <v>4</v>
       </c>
       <c r="BN12" s="33" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="BO12" s="4">
         <v>5</v>
@@ -22913,7 +22920,7 @@
         <v>4</v>
       </c>
       <c r="CG12" s="33" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="CH12" s="4">
         <v>4</v>
@@ -22946,7 +22953,7 @@
         <v>4</v>
       </c>
       <c r="CO12" s="33" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
       <c r="CP12" s="4">
         <v>6</v>
@@ -22983,7 +22990,7 @@
         <v>4</v>
       </c>
       <c r="CX12" s="4" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
       <c r="CY12" s="33" t="s">
         <v>249</v>
@@ -22999,7 +23006,7 @@
         <v>4</v>
       </c>
       <c r="DB12" s="33" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="DC12" s="4">
         <v>4</v>
@@ -23035,7 +23042,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
@@ -23112,7 +23119,7 @@
         <v>4</v>
       </c>
       <c r="V13" s="125" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="W13" s="135">
         <v>5</v>
@@ -23279,7 +23286,7 @@
         <v>4</v>
       </c>
       <c r="BK13" s="36" t="s">
-        <v>1225</v>
+        <v>1211</v>
       </c>
       <c r="BL13" s="188" t="str">
         <f>""""&amp;$BJ$1&amp;"-"&amp;$A13&amp;""" : {
@@ -23370,7 +23377,7 @@
         <v>4</v>
       </c>
       <c r="CG13" s="36" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
       <c r="CH13" s="5">
         <v>4</v>
@@ -23403,7 +23410,7 @@
         <v>4</v>
       </c>
       <c r="CO13" s="36" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="CP13" s="5">
         <v>7</v>
@@ -23440,10 +23447,10 @@
         <v>4</v>
       </c>
       <c r="CX13" s="5" t="s">
-        <v>1263</v>
+        <v>1249</v>
       </c>
       <c r="CY13" s="36" t="s">
-        <v>1264</v>
+        <v>1250</v>
       </c>
       <c r="CZ13" s="188" t="str">
         <f t="shared" si="5"/>
@@ -23456,7 +23463,7 @@
         <v>4</v>
       </c>
       <c r="DB13" s="36" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="DC13" s="5">
         <v>4</v>
@@ -23895,7 +23902,7 @@
         <v>4</v>
       </c>
       <c r="CX14" s="4" t="s">
-        <v>1263</v>
+        <v>1249</v>
       </c>
       <c r="CY14" s="33" t="s">
         <v>249</v>
@@ -23947,7 +23954,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
@@ -23967,7 +23974,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="I15" s="5">
         <v>4</v>
@@ -24191,7 +24198,7 @@
         <v>5</v>
       </c>
       <c r="BK15" s="36" t="s">
-        <v>1226</v>
+        <v>1212</v>
       </c>
       <c r="BL15" s="188" t="str">
         <f t="shared" si="8"/>
@@ -24350,10 +24357,10 @@
         <v>5</v>
       </c>
       <c r="CX15" s="5" t="s">
-        <v>1265</v>
+        <v>1251</v>
       </c>
       <c r="CY15" s="36" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="CZ15" s="188" t="str">
         <f t="shared" si="5"/>
@@ -24366,7 +24373,7 @@
         <v>5</v>
       </c>
       <c r="DB15" s="36" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="DC15" s="5">
         <v>4</v>
@@ -24402,7 +24409,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="D16" s="4">
         <v>5</v>
@@ -24422,7 +24429,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="I16" s="4">
         <v>4</v>
@@ -24479,7 +24486,7 @@
         <v>5</v>
       </c>
       <c r="V16" s="123" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="W16" s="136">
         <v>5</v>
@@ -24532,7 +24539,7 @@
         <v>5</v>
       </c>
       <c r="AI16" s="33" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
       <c r="AJ16" s="4">
         <v>4</v>
@@ -24588,7 +24595,7 @@
         <v>14</v>
       </c>
       <c r="AW16" s="33" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
       <c r="AX16" s="4">
         <v>6</v>
@@ -24658,7 +24665,7 @@
         <v>5</v>
       </c>
       <c r="BN16" s="33" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="BO16" s="4">
         <v>5</v>
@@ -24735,7 +24742,7 @@
         <v>5</v>
       </c>
       <c r="CG16" s="33" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="CH16" s="4">
         <v>4</v>
@@ -24768,7 +24775,7 @@
         <v>5</v>
       </c>
       <c r="CO16" s="33" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
       <c r="CP16" s="4">
         <v>8</v>
@@ -24805,10 +24812,10 @@
         <v>5</v>
       </c>
       <c r="CX16" s="4" t="s">
-        <v>1265</v>
+        <v>1251</v>
       </c>
       <c r="CY16" s="33" t="s">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="CZ16" s="188" t="str">
         <f t="shared" si="5"/>
@@ -24821,7 +24828,7 @@
         <v>5</v>
       </c>
       <c r="DB16" s="33" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="DC16" s="4">
         <v>4</v>
@@ -24857,7 +24864,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="D17" s="5">
         <v>5</v>
@@ -24877,7 +24884,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="I17" s="5">
         <v>4</v>
@@ -25101,7 +25108,7 @@
         <v>5</v>
       </c>
       <c r="BK17" s="36" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="BL17" s="188" t="str">
         <f t="shared" si="8"/>
@@ -25190,7 +25197,7 @@
         <v>5</v>
       </c>
       <c r="CG17" s="36" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="CH17" s="5">
         <v>4</v>
@@ -25223,7 +25230,7 @@
         <v>5</v>
       </c>
       <c r="CO17" s="36" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="CP17" s="5">
         <v>9</v>
@@ -25260,10 +25267,10 @@
         <v>5</v>
       </c>
       <c r="CX17" s="5" t="s">
-        <v>1267</v>
+        <v>1253</v>
       </c>
       <c r="CY17" s="36" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
       <c r="CZ17" s="188" t="str">
         <f t="shared" si="5"/>
@@ -25276,7 +25283,7 @@
         <v>5</v>
       </c>
       <c r="DB17" s="36" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="DC17" s="5">
         <v>4</v>
@@ -25715,7 +25722,7 @@
         <v>5</v>
       </c>
       <c r="CX18" s="4" t="s">
-        <v>1267</v>
+        <v>1253</v>
       </c>
       <c r="CY18" s="33" t="s">
         <v>249</v>
@@ -25767,7 +25774,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="D19" s="5">
         <v>6</v>
@@ -25787,7 +25794,7 @@
         <v>6</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="I19" s="5">
         <v>4</v>
@@ -25844,7 +25851,7 @@
         <v>6</v>
       </c>
       <c r="V19" s="125" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="W19" s="135">
         <v>5</v>
@@ -25953,7 +25960,7 @@
         <v>17</v>
       </c>
       <c r="AW19" s="36" t="s">
-        <v>1215</v>
+        <v>1201</v>
       </c>
       <c r="AX19" s="5">
         <v>6</v>
@@ -26011,7 +26018,7 @@
         <v>6</v>
       </c>
       <c r="BK19" s="36" t="s">
-        <v>1227</v>
+        <v>1213</v>
       </c>
       <c r="BL19" s="188" t="str">
         <f t="shared" si="8"/>
@@ -26170,10 +26177,10 @@
         <v>6</v>
       </c>
       <c r="CX19" s="5" t="s">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="CY19" s="36" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="CZ19" s="188" t="str">
         <f t="shared" si="5"/>
@@ -26186,7 +26193,7 @@
         <v>6</v>
       </c>
       <c r="DB19" s="36" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
       <c r="DC19" s="5">
         <v>4</v>
@@ -26222,7 +26229,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="D20" s="4">
         <v>6</v>
@@ -26242,7 +26249,7 @@
         <v>6</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="I20" s="4">
         <v>4</v>
@@ -26299,7 +26306,7 @@
         <v>6</v>
       </c>
       <c r="V20" s="123" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="W20" s="136">
         <v>5</v>
@@ -26352,7 +26359,7 @@
         <v>6</v>
       </c>
       <c r="AI20" s="33" t="s">
-        <v>1211</v>
+        <v>1197</v>
       </c>
       <c r="AJ20" s="4">
         <v>4</v>
@@ -26408,7 +26415,7 @@
         <v>18</v>
       </c>
       <c r="AW20" s="33" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
       <c r="AX20" s="4">
         <v>6</v>
@@ -26466,7 +26473,7 @@
         <v>6</v>
       </c>
       <c r="BK20" s="33" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="BL20" s="188" t="str">
         <f t="shared" si="8"/>
@@ -26478,7 +26485,7 @@
         <v>6</v>
       </c>
       <c r="BN20" s="33" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
       <c r="BO20" s="4">
         <v>5</v>
@@ -26555,7 +26562,7 @@
         <v>6</v>
       </c>
       <c r="CG20" s="33" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="CH20" s="4">
         <v>4</v>
@@ -26588,7 +26595,7 @@
         <v>6</v>
       </c>
       <c r="CO20" s="33" t="s">
-        <v>1251</v>
+        <v>1237</v>
       </c>
       <c r="CP20" s="4">
         <v>10</v>
@@ -26625,10 +26632,10 @@
         <v>6</v>
       </c>
       <c r="CX20" s="4" t="s">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="CY20" s="33" t="s">
-        <v>1270</v>
+        <v>1256</v>
       </c>
       <c r="CZ20" s="188" t="str">
         <f t="shared" si="5"/>
@@ -27082,7 +27089,7 @@
         <v>6</v>
       </c>
       <c r="CX21" s="5" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="CY21" s="36" t="s">
         <v>249</v>
@@ -27134,7 +27141,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="175" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="D22" s="6">
         <v>-1</v>
@@ -27154,7 +27161,7 @@
         <v>6</v>
       </c>
       <c r="H22" s="175" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="I22" s="6">
         <v>4</v>
@@ -27211,7 +27218,7 @@
         <v>6</v>
       </c>
       <c r="V22" s="175" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="W22" s="6">
         <v>5</v>
@@ -27264,7 +27271,7 @@
         <v>6</v>
       </c>
       <c r="AI22" s="175" t="s">
-        <v>1212</v>
+        <v>1198</v>
       </c>
       <c r="AJ22" s="6">
         <v>4</v>
@@ -27320,7 +27327,7 @@
         <v>20</v>
       </c>
       <c r="AW22" s="175" t="s">
-        <v>1217</v>
+        <v>1203</v>
       </c>
       <c r="AX22" s="6">
         <v>6</v>
@@ -27378,7 +27385,7 @@
         <v>6</v>
       </c>
       <c r="BK22" s="175" t="s">
-        <v>1228</v>
+        <v>1214</v>
       </c>
       <c r="BL22" s="188" t="str">
         <f t="shared" si="8"/>
@@ -27390,7 +27397,7 @@
         <v>6</v>
       </c>
       <c r="BN22" s="175" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
       <c r="BO22" s="6">
         <v>5</v>
@@ -27467,7 +27474,7 @@
         <v>6</v>
       </c>
       <c r="CG22" s="175" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="CH22" s="6">
         <v>4</v>
@@ -27500,7 +27507,7 @@
         <v>6</v>
       </c>
       <c r="CO22" s="175" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="CP22" s="6">
         <v>11</v>
@@ -27537,10 +27544,10 @@
         <v>6</v>
       </c>
       <c r="CX22" s="6" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="CY22" s="175" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="CZ22" s="188" t="str">
         <f t="shared" si="5"/>
@@ -27553,7 +27560,7 @@
         <v>6</v>
       </c>
       <c r="DB22" s="175" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="DC22" s="6">
         <v>4</v>
@@ -29755,11 +29762,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="G1:S1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:AF1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DG1"/>
     <mergeCell ref="CF1:CL1"/>
@@ -29767,6 +29769,11 @@
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BM1:BX1"/>
     <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29777,8 +29784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29808,10 +29815,10 @@
         <v>1113</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
       <c r="D2" s="155"/>
       <c r="F2" t="str">
@@ -29825,15 +29832,15 @@
   },</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="89" t="s">
-        <v>1117</v>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="221" t="s">
+        <v>1285</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="D3" s="156"/>
       <c r="F3" t="str">
@@ -29841,7 +29848,8 @@
  ""Name"" : """&amp;B3&amp;""",
  ""Skills"" : ["&amp;C3&amp;"]
   },"</f>
-        <v>"ARTISAN DE GUILDE":  {
+        <v>"
+GUILD_ARTISAN":  {
  "Name" : "Artisan De Guilde",
  "Skills" : ["Perspicacité", "Persuasion"]
   },</v>
@@ -29849,18 +29857,18 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>1118</v>
+        <v>1282</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="D4" s="157"/>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>"ARTISTE":  {
+        <v>"ARTIST":  {
  "Name" : "Artiste",
  "Skills" : ["Acrobatie", "Représentation"]
   },</v>
@@ -29868,13 +29876,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="89" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="D5" s="156"/>
       <c r="F5" t="str">
@@ -29887,18 +29895,18 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="97" t="s">
-        <v>1120</v>
+        <v>1283</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="D6" s="157"/>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>"CRIMINEL":  {
+        <v>"CRIMINAL":  {
  "Name" : "Criminel",
  "Skills" : ["Discrétion", "Tromperie"]
   },</v>
@@ -29906,18 +29914,18 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="89" t="s">
-        <v>1121</v>
+        <v>1284</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="D7" s="156"/>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>"ENFANT DES RUES":  {
+        <v>"STREETS_CHILD":  {
  "Name" : "Enfant Des Rues",
  "Skills" : ["Discrétion", "Escamotage"]
   },</v>
@@ -29925,37 +29933,37 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="97" t="s">
-        <v>1122</v>
+        <v>1281</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="D8" s="157"/>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>"ERMITE":  {
+        <v>"HERMIT":  {
  "Name" : "Ermite",
  "Skills" : ["Médecine", "Religion"]
   },</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="89" t="s">
-        <v>1123</v>
+      <c r="A9" s="221" t="s">
+        <v>1294</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="D9" s="156"/>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>"HÉROS DU PEUPLE":  {
+        <v>"PEOPLE_HERO":  {
  "Name" : "Héros Du Peuple",
  "Skills" : ["Dressage", "Survie"]
   },</v>
@@ -29963,18 +29971,18 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="97" t="s">
-        <v>1124</v>
+        <v>1286</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="D10" s="157"/>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>"MARIN":  {
+        <v>"MARINE":  {
  "Name" : "Marin",
  "Skills" : ["Athlétisme", "Perception"]
   },</v>
@@ -29982,13 +29990,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="89" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
       <c r="D11" s="156"/>
       <c r="F11" t="str">
@@ -30001,18 +30009,18 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="97" t="s">
-        <v>1126</v>
+        <v>1287</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
       <c r="D12" s="157"/>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>"SAGE":  {
+        <v>"WISE":  {
  "Name" : "Sage",
  "Skills" : ["Arcanes", "Histoire"]
   },</v>
@@ -30020,13 +30028,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="89" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>1162</v>
+        <v>1148</v>
       </c>
       <c r="D13" s="156"/>
       <c r="F13" t="str">
@@ -30039,71 +30047,71 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="97" t="s">
-        <v>1128</v>
+        <v>1288</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
       <c r="D14" s="159"/>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>"SOLDAT":  {
+        <v>"SOLDIER":  {
  "Name" : "Soldat",
  "Skills" : ["Athlétisme", "Intimidation"]
   },</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="89" t="s">
-        <v>1146</v>
+      <c r="A15" s="221" t="s">
+        <v>1292</v>
       </c>
       <c r="B15" s="101" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="145"/>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>"CHASSEUR DE PRIMES":  {
+        <v>"BOUNTY_HUNTER":  {
  "Name" : "Chasseur De Primes",
  "Skills" : []
   },</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="97" t="s">
-        <v>1147</v>
+      <c r="A16" s="222" t="s">
+        <v>1293</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="C16" s="99"/>
       <c r="D16" s="159"/>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>"TOURMENTÉ":  {
+        <v>"TORMENTED":  {
  "Name" : "Tourmenté",
  "Skills" : []
   },</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="89" t="s">
-        <v>1148</v>
+      <c r="A17" s="221" t="s">
+        <v>1291</v>
       </c>
       <c r="B17" s="101" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="D17" s="145"/>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>"VOYAGEUR":  {
+        <v>"TRAVELER":  {
  "Name" : "Voyageur *",
  "Skills" : ["Survie", "Persuasion"]
   },</v>
@@ -30111,18 +30119,18 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="97" t="s">
-        <v>1149</v>
+        <v>1289</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
       <c r="D18" s="159"/>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>"CAPTIF":  {
+        <v>"CAPTIVE":  {
  "Name" : "Captif *",
  "Skills" : ["Nature", "Survie"]
   },</v>
@@ -30130,18 +30138,18 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="92" t="s">
-        <v>1150</v>
+        <v>1290</v>
       </c>
       <c r="B19" s="154" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="D19" s="158"/>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>"IDIOT DU VILLAGE":  {
+        <v>"VILLAGE_IDIOT":  {
  "Name" : "Idiot Du Village *",
  "Skills" : ["Discrétion", "Représentation"]
   },</v>

--- a/Donjons_et_dragons.xlsx
+++ b/Donjons_et_dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Niveaux" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <sheet name="Moine" sheetId="8" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -10899,20 +10898,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -10937,15 +10945,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -59033,7 +59032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L13"/>
     </sheetView>
   </sheetViews>
@@ -62282,140 +62281,140 @@
   <sheetData>
     <row r="1" spans="1:112">
       <c r="A1" s="194"/>
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="217" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="212" t="s">
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="218" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="217"/>
       <c r="T1" s="182"/>
-      <c r="U1" s="213" t="s">
+      <c r="U1" s="217" t="s">
         <v>387</v>
       </c>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="213"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="217"/>
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="217"/>
       <c r="AG1" s="165"/>
-      <c r="AH1" s="212" t="s">
+      <c r="AH1" s="218" t="s">
         <v>388</v>
       </c>
-      <c r="AI1" s="213"/>
-      <c r="AJ1" s="213"/>
-      <c r="AK1" s="213"/>
-      <c r="AL1" s="213"/>
-      <c r="AM1" s="213"/>
-      <c r="AN1" s="213"/>
-      <c r="AO1" s="213"/>
-      <c r="AP1" s="213"/>
-      <c r="AQ1" s="213"/>
-      <c r="AR1" s="213"/>
-      <c r="AS1" s="214"/>
+      <c r="AI1" s="217"/>
+      <c r="AJ1" s="217"/>
+      <c r="AK1" s="217"/>
+      <c r="AL1" s="217"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="217"/>
+      <c r="AO1" s="217"/>
+      <c r="AP1" s="217"/>
+      <c r="AQ1" s="217"/>
+      <c r="AR1" s="217"/>
+      <c r="AS1" s="219"/>
       <c r="AT1" s="165"/>
-      <c r="AU1" s="215" t="s">
+      <c r="AU1" s="216" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="215"/>
-      <c r="AW1" s="215"/>
-      <c r="AX1" s="215"/>
-      <c r="AY1" s="215"/>
-      <c r="AZ1" s="215"/>
-      <c r="BA1" s="215"/>
-      <c r="BB1" s="215"/>
-      <c r="BC1" s="215"/>
-      <c r="BD1" s="215"/>
-      <c r="BE1" s="215"/>
-      <c r="BF1" s="215"/>
-      <c r="BG1" s="215"/>
-      <c r="BH1" s="215"/>
+      <c r="AV1" s="216"/>
+      <c r="AW1" s="216"/>
+      <c r="AX1" s="216"/>
+      <c r="AY1" s="216"/>
+      <c r="AZ1" s="216"/>
+      <c r="BA1" s="216"/>
+      <c r="BB1" s="216"/>
+      <c r="BC1" s="216"/>
+      <c r="BD1" s="216"/>
+      <c r="BE1" s="216"/>
+      <c r="BF1" s="216"/>
+      <c r="BG1" s="216"/>
+      <c r="BH1" s="216"/>
       <c r="BI1" s="178"/>
-      <c r="BJ1" s="212" t="s">
+      <c r="BJ1" s="218" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="213"/>
+      <c r="BK1" s="217"/>
       <c r="BL1" s="182"/>
-      <c r="BM1" s="213" t="s">
+      <c r="BM1" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="BN1" s="213"/>
-      <c r="BO1" s="213"/>
-      <c r="BP1" s="213"/>
-      <c r="BQ1" s="213"/>
-      <c r="BR1" s="213"/>
-      <c r="BS1" s="213"/>
-      <c r="BT1" s="213"/>
-      <c r="BU1" s="213"/>
-      <c r="BV1" s="213"/>
-      <c r="BW1" s="213"/>
-      <c r="BX1" s="213"/>
+      <c r="BN1" s="217"/>
+      <c r="BO1" s="217"/>
+      <c r="BP1" s="217"/>
+      <c r="BQ1" s="217"/>
+      <c r="BR1" s="217"/>
+      <c r="BS1" s="217"/>
+      <c r="BT1" s="217"/>
+      <c r="BU1" s="217"/>
+      <c r="BV1" s="217"/>
+      <c r="BW1" s="217"/>
+      <c r="BX1" s="217"/>
       <c r="BY1" s="165"/>
-      <c r="BZ1" s="212" t="s">
+      <c r="BZ1" s="218" t="s">
         <v>393</v>
       </c>
-      <c r="CA1" s="213"/>
-      <c r="CB1" s="213"/>
-      <c r="CC1" s="213"/>
-      <c r="CD1" s="213"/>
+      <c r="CA1" s="217"/>
+      <c r="CB1" s="217"/>
+      <c r="CC1" s="217"/>
+      <c r="CD1" s="217"/>
       <c r="CE1" s="182"/>
-      <c r="CF1" s="212" t="s">
+      <c r="CF1" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="CG1" s="213"/>
-      <c r="CH1" s="213"/>
-      <c r="CI1" s="213"/>
-      <c r="CJ1" s="213"/>
-      <c r="CK1" s="213"/>
-      <c r="CL1" s="213"/>
+      <c r="CG1" s="217"/>
+      <c r="CH1" s="217"/>
+      <c r="CI1" s="217"/>
+      <c r="CJ1" s="217"/>
+      <c r="CK1" s="217"/>
+      <c r="CL1" s="217"/>
       <c r="CM1" s="182"/>
-      <c r="CN1" s="213" t="s">
+      <c r="CN1" s="217" t="s">
         <v>394</v>
       </c>
-      <c r="CO1" s="213"/>
-      <c r="CP1" s="213"/>
-      <c r="CQ1" s="213"/>
-      <c r="CR1" s="213"/>
-      <c r="CS1" s="213"/>
-      <c r="CT1" s="213"/>
-      <c r="CU1" s="213"/>
+      <c r="CO1" s="217"/>
+      <c r="CP1" s="217"/>
+      <c r="CQ1" s="217"/>
+      <c r="CR1" s="217"/>
+      <c r="CS1" s="217"/>
+      <c r="CT1" s="217"/>
+      <c r="CU1" s="217"/>
       <c r="CV1" s="165"/>
-      <c r="CW1" s="216" t="s">
+      <c r="CW1" s="215" t="s">
         <v>395</v>
       </c>
-      <c r="CX1" s="215"/>
-      <c r="CY1" s="215"/>
+      <c r="CX1" s="216"/>
+      <c r="CY1" s="216"/>
       <c r="CZ1" s="192"/>
-      <c r="DA1" s="213" t="s">
+      <c r="DA1" s="217" t="s">
         <v>392</v>
       </c>
-      <c r="DB1" s="213"/>
-      <c r="DC1" s="213"/>
-      <c r="DD1" s="213"/>
-      <c r="DE1" s="213"/>
-      <c r="DF1" s="213"/>
-      <c r="DG1" s="213"/>
+      <c r="DB1" s="217"/>
+      <c r="DC1" s="217"/>
+      <c r="DD1" s="217"/>
+      <c r="DE1" s="217"/>
+      <c r="DF1" s="217"/>
+      <c r="DG1" s="217"/>
       <c r="DH1" s="203"/>
     </row>
     <row r="2" spans="1:112" s="129" customFormat="1" ht="15" customHeight="1">
@@ -76955,6 +76954,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:AF1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DG1"/>
     <mergeCell ref="CF1:CL1"/>
@@ -76962,11 +76966,6 @@
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BM1:BX1"/>
     <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="G1:S1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -77450,8 +77449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38:J42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -77499,16 +77498,16 @@
       <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="219"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="222"/>
       <c r="I2" s="116"/>
       <c r="J2" s="116"/>
       <c r="K2" s="117"/>
@@ -77586,11 +77585,11 @@
       <c r="C4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="226" t="str">
+      <c r="D4" s="213" t="str">
         <f t="shared" ref="D4:D12" si="2">LEFT(C4,FIND(" ",C4))</f>
         <v xml:space="preserve">1d4 </v>
       </c>
-      <c r="E4" s="226" t="str">
+      <c r="E4" s="213" t="str">
         <f t="shared" ref="E4:E12" si="3">PROPER(RIGHT(C4,LEN(C4)-LEN(D4)))</f>
         <v>Perforant</v>
       </c>
@@ -77701,11 +77700,11 @@
       <c r="C6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="226" t="str">
+      <c r="D6" s="213" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E6" s="226" t="str">
+      <c r="E6" s="213" t="str">
         <f t="shared" si="3"/>
         <v>Tranchant</v>
       </c>
@@ -77807,11 +77806,11 @@
       <c r="C8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="226" t="str">
+      <c r="D8" s="213" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E8" s="226" t="str">
+      <c r="E8" s="213" t="str">
         <f t="shared" si="3"/>
         <v>Perforant</v>
       </c>
@@ -77913,11 +77912,11 @@
       <c r="C10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="226" t="str">
+      <c r="D10" s="213" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E10" s="226" t="str">
+      <c r="E10" s="213" t="str">
         <f t="shared" si="3"/>
         <v>Contondant</v>
       </c>
@@ -78019,15 +78018,15 @@
       <c r="C12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="226" t="str">
+      <c r="D12" s="213" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">1d4 </v>
       </c>
-      <c r="E12" s="226" t="str">
+      <c r="E12" s="213" t="str">
         <f t="shared" si="3"/>
         <v>Tranchant</v>
       </c>
-      <c r="F12" s="227" t="s">
+      <c r="F12" s="214" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -78063,16 +78062,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="223" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="221"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="221"/>
-      <c r="F13" s="221"/>
-      <c r="G13" s="221"/>
-      <c r="H13" s="222"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="225"/>
       <c r="I13" s="116"/>
       <c r="J13" s="116"/>
       <c r="K13" s="119"/>
@@ -78088,11 +78087,11 @@
       <c r="C14" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="226" t="str">
+      <c r="D14" s="213" t="str">
         <f>LEFT(C14,FIND(" ",C14))</f>
         <v xml:space="preserve">1d8 </v>
       </c>
-      <c r="E14" s="226" t="str">
+      <c r="E14" s="213" t="str">
         <f>PROPER(RIGHT(C14,LEN(C14)-LEN(D14)))</f>
         <v>Perforant</v>
       </c>
@@ -78194,11 +78193,11 @@
       <c r="C16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="226" t="str">
+      <c r="D16" s="213" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">1d4 </v>
       </c>
-      <c r="E16" s="226" t="str">
+      <c r="E16" s="213" t="str">
         <f t="shared" si="6"/>
         <v>Perforant</v>
       </c>
@@ -78291,16 +78290,16 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="A18" s="220" t="s">
+      <c r="A18" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="221"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="222"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="225"/>
       <c r="I18" s="116"/>
       <c r="J18" s="116"/>
       <c r="K18" s="119"/>
@@ -78369,11 +78368,11 @@
       <c r="C20" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="226" t="str">
+      <c r="D20" s="213" t="str">
         <f t="shared" ref="D20:D36" si="9">LEFT(C20,FIND(" ",C20))</f>
         <v xml:space="preserve">1d10 </v>
       </c>
-      <c r="E20" s="226" t="str">
+      <c r="E20" s="213" t="str">
         <f t="shared" ref="E20:E36" si="10">PROPER(RIGHT(C20,LEN(C20)-LEN(D20)))</f>
         <v>Tranchant</v>
       </c>
@@ -78475,11 +78474,11 @@
       <c r="C22" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="226" t="str">
+      <c r="D22" s="213" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E22" s="226" t="str">
+      <c r="E22" s="213" t="str">
         <f t="shared" si="10"/>
         <v>Perforant</v>
       </c>
@@ -78581,11 +78580,11 @@
       <c r="C24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="226" t="str">
+      <c r="D24" s="213" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d8 </v>
       </c>
-      <c r="E24" s="226" t="str">
+      <c r="E24" s="213" t="str">
         <f t="shared" si="10"/>
         <v>Contondant</v>
       </c>
@@ -78687,11 +78686,11 @@
       <c r="C26" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="226" t="str">
+      <c r="D26" s="213" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d12 </v>
       </c>
-      <c r="E26" s="226" t="str">
+      <c r="E26" s="213" t="str">
         <f t="shared" si="10"/>
         <v>Tranchant</v>
       </c>
@@ -78793,11 +78792,11 @@
       <c r="C28" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="226" t="str">
+      <c r="D28" s="213" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d10 </v>
       </c>
-      <c r="E28" s="226" t="str">
+      <c r="E28" s="213" t="str">
         <f t="shared" si="10"/>
         <v>Tranchant</v>
       </c>
@@ -78899,11 +78898,11 @@
       <c r="C30" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="226" t="str">
+      <c r="D30" s="213" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">2d6 </v>
       </c>
-      <c r="E30" s="226" t="str">
+      <c r="E30" s="213" t="str">
         <f t="shared" si="10"/>
         <v>Contondant</v>
       </c>
@@ -79005,11 +79004,11 @@
       <c r="C32" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="226" t="str">
+      <c r="D32" s="213" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d8 </v>
       </c>
-      <c r="E32" s="226" t="str">
+      <c r="E32" s="213" t="str">
         <f t="shared" si="10"/>
         <v>Perforant</v>
       </c>
@@ -79111,11 +79110,11 @@
       <c r="C34" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="226" t="str">
+      <c r="D34" s="213" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d10 </v>
       </c>
-      <c r="E34" s="226" t="str">
+      <c r="E34" s="213" t="str">
         <f t="shared" si="10"/>
         <v>Perforant</v>
       </c>
@@ -79217,11 +79216,11 @@
       <c r="C36" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="226" t="str">
+      <c r="D36" s="213" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E36" s="226" t="str">
+      <c r="E36" s="213" t="str">
         <f t="shared" si="10"/>
         <v>Perforant</v>
       </c>
@@ -79261,16 +79260,16 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1">
-      <c r="A37" s="220" t="s">
+      <c r="A37" s="223" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="221"/>
-      <c r="C37" s="221"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="221"/>
-      <c r="F37" s="221"/>
-      <c r="G37" s="221"/>
-      <c r="H37" s="222"/>
+      <c r="B37" s="224"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="225"/>
       <c r="I37" s="116"/>
       <c r="J37" s="116"/>
       <c r="K37" s="119"/>
@@ -79286,11 +79285,11 @@
       <c r="C38" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="226" t="str">
+      <c r="D38" s="213" t="str">
         <f>LEFT(C38,FIND(" ",C38))</f>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E38" s="226" t="str">
+      <c r="E38" s="213" t="str">
         <f>PROPER(RIGHT(C38,LEN(C38)-LEN(D38)))</f>
         <v>Perforant</v>
       </c>
@@ -79392,11 +79391,11 @@
       <c r="C40" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="226" t="str">
+      <c r="D40" s="213" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">1d8 </v>
       </c>
-      <c r="E40" s="226" t="str">
+      <c r="E40" s="213" t="str">
         <f t="shared" si="12"/>
         <v>Perforant</v>
       </c>
@@ -79490,11 +79489,11 @@
       <c r="C42" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="225" t="str">
+      <c r="D42" s="212" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">1 </v>
       </c>
-      <c r="E42" s="225" t="str">
+      <c r="E42" s="212" t="str">
         <f t="shared" si="12"/>
         <v>Perforant</v>
       </c>
@@ -80004,17 +80003,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="133" customFormat="1">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="226" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -80201,17 +80200,17 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="133" customFormat="1">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="226" t="s">
         <v>499</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
       <c r="J6" s="130"/>
       <c r="L6" s="132"/>
       <c r="M6" s="132"/>
@@ -80498,17 +80497,17 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="133" customFormat="1">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="226" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="223"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
       <c r="J12" s="130"/>
       <c r="L12" s="132"/>
       <c r="M12" s="132"/>
@@ -80723,17 +80722,17 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="133" customFormat="1">
-      <c r="A17" s="224" t="s">
+      <c r="A17" s="227" t="s">
         <v>530</v>
       </c>
-      <c r="B17" s="224"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
+      <c r="B17" s="227"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="227"/>
       <c r="J17" s="130"/>
       <c r="K17" s="131"/>
       <c r="L17" s="132"/>

--- a/Donjons_et_dragons.xlsx
+++ b/Donjons_et_dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Niveaux" sheetId="1" r:id="rId1"/>
@@ -10907,20 +10907,20 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -59032,7 +59032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L13"/>
     </sheetView>
   </sheetViews>
@@ -62281,140 +62281,140 @@
   <sheetData>
     <row r="1" spans="1:112">
       <c r="A1" s="194"/>
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="216" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="218" t="s">
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="215" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="217"/>
-      <c r="S1" s="217"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
       <c r="T1" s="182"/>
-      <c r="U1" s="217" t="s">
+      <c r="U1" s="216" t="s">
         <v>387</v>
       </c>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="217"/>
-      <c r="AB1" s="217"/>
-      <c r="AC1" s="217"/>
-      <c r="AD1" s="217"/>
-      <c r="AE1" s="217"/>
-      <c r="AF1" s="217"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="216"/>
       <c r="AG1" s="165"/>
-      <c r="AH1" s="218" t="s">
+      <c r="AH1" s="215" t="s">
         <v>388</v>
       </c>
-      <c r="AI1" s="217"/>
-      <c r="AJ1" s="217"/>
-      <c r="AK1" s="217"/>
-      <c r="AL1" s="217"/>
-      <c r="AM1" s="217"/>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="219"/>
+      <c r="AI1" s="216"/>
+      <c r="AJ1" s="216"/>
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="216"/>
+      <c r="AM1" s="216"/>
+      <c r="AN1" s="216"/>
+      <c r="AO1" s="216"/>
+      <c r="AP1" s="216"/>
+      <c r="AQ1" s="216"/>
+      <c r="AR1" s="216"/>
+      <c r="AS1" s="217"/>
       <c r="AT1" s="165"/>
-      <c r="AU1" s="216" t="s">
+      <c r="AU1" s="218" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="216"/>
-      <c r="AW1" s="216"/>
-      <c r="AX1" s="216"/>
-      <c r="AY1" s="216"/>
-      <c r="AZ1" s="216"/>
-      <c r="BA1" s="216"/>
-      <c r="BB1" s="216"/>
-      <c r="BC1" s="216"/>
-      <c r="BD1" s="216"/>
-      <c r="BE1" s="216"/>
-      <c r="BF1" s="216"/>
-      <c r="BG1" s="216"/>
-      <c r="BH1" s="216"/>
+      <c r="AV1" s="218"/>
+      <c r="AW1" s="218"/>
+      <c r="AX1" s="218"/>
+      <c r="AY1" s="218"/>
+      <c r="AZ1" s="218"/>
+      <c r="BA1" s="218"/>
+      <c r="BB1" s="218"/>
+      <c r="BC1" s="218"/>
+      <c r="BD1" s="218"/>
+      <c r="BE1" s="218"/>
+      <c r="BF1" s="218"/>
+      <c r="BG1" s="218"/>
+      <c r="BH1" s="218"/>
       <c r="BI1" s="178"/>
-      <c r="BJ1" s="218" t="s">
+      <c r="BJ1" s="215" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="217"/>
+      <c r="BK1" s="216"/>
       <c r="BL1" s="182"/>
-      <c r="BM1" s="217" t="s">
+      <c r="BM1" s="216" t="s">
         <v>391</v>
       </c>
-      <c r="BN1" s="217"/>
-      <c r="BO1" s="217"/>
-      <c r="BP1" s="217"/>
-      <c r="BQ1" s="217"/>
-      <c r="BR1" s="217"/>
-      <c r="BS1" s="217"/>
-      <c r="BT1" s="217"/>
-      <c r="BU1" s="217"/>
-      <c r="BV1" s="217"/>
-      <c r="BW1" s="217"/>
-      <c r="BX1" s="217"/>
+      <c r="BN1" s="216"/>
+      <c r="BO1" s="216"/>
+      <c r="BP1" s="216"/>
+      <c r="BQ1" s="216"/>
+      <c r="BR1" s="216"/>
+      <c r="BS1" s="216"/>
+      <c r="BT1" s="216"/>
+      <c r="BU1" s="216"/>
+      <c r="BV1" s="216"/>
+      <c r="BW1" s="216"/>
+      <c r="BX1" s="216"/>
       <c r="BY1" s="165"/>
-      <c r="BZ1" s="218" t="s">
+      <c r="BZ1" s="215" t="s">
         <v>393</v>
       </c>
-      <c r="CA1" s="217"/>
-      <c r="CB1" s="217"/>
-      <c r="CC1" s="217"/>
-      <c r="CD1" s="217"/>
+      <c r="CA1" s="216"/>
+      <c r="CB1" s="216"/>
+      <c r="CC1" s="216"/>
+      <c r="CD1" s="216"/>
       <c r="CE1" s="182"/>
-      <c r="CF1" s="218" t="s">
+      <c r="CF1" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="CG1" s="217"/>
-      <c r="CH1" s="217"/>
-      <c r="CI1" s="217"/>
-      <c r="CJ1" s="217"/>
-      <c r="CK1" s="217"/>
-      <c r="CL1" s="217"/>
+      <c r="CG1" s="216"/>
+      <c r="CH1" s="216"/>
+      <c r="CI1" s="216"/>
+      <c r="CJ1" s="216"/>
+      <c r="CK1" s="216"/>
+      <c r="CL1" s="216"/>
       <c r="CM1" s="182"/>
-      <c r="CN1" s="217" t="s">
+      <c r="CN1" s="216" t="s">
         <v>394</v>
       </c>
-      <c r="CO1" s="217"/>
-      <c r="CP1" s="217"/>
-      <c r="CQ1" s="217"/>
-      <c r="CR1" s="217"/>
-      <c r="CS1" s="217"/>
-      <c r="CT1" s="217"/>
-      <c r="CU1" s="217"/>
+      <c r="CO1" s="216"/>
+      <c r="CP1" s="216"/>
+      <c r="CQ1" s="216"/>
+      <c r="CR1" s="216"/>
+      <c r="CS1" s="216"/>
+      <c r="CT1" s="216"/>
+      <c r="CU1" s="216"/>
       <c r="CV1" s="165"/>
-      <c r="CW1" s="215" t="s">
+      <c r="CW1" s="219" t="s">
         <v>395</v>
       </c>
-      <c r="CX1" s="216"/>
-      <c r="CY1" s="216"/>
+      <c r="CX1" s="218"/>
+      <c r="CY1" s="218"/>
       <c r="CZ1" s="192"/>
-      <c r="DA1" s="217" t="s">
+      <c r="DA1" s="216" t="s">
         <v>392</v>
       </c>
-      <c r="DB1" s="217"/>
-      <c r="DC1" s="217"/>
-      <c r="DD1" s="217"/>
-      <c r="DE1" s="217"/>
-      <c r="DF1" s="217"/>
-      <c r="DG1" s="217"/>
+      <c r="DB1" s="216"/>
+      <c r="DC1" s="216"/>
+      <c r="DD1" s="216"/>
+      <c r="DE1" s="216"/>
+      <c r="DF1" s="216"/>
+      <c r="DG1" s="216"/>
       <c r="DH1" s="203"/>
     </row>
     <row r="2" spans="1:112" s="129" customFormat="1" ht="15" customHeight="1">
@@ -76954,11 +76954,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="G1:S1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:AF1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DG1"/>
     <mergeCell ref="CF1:CL1"/>
@@ -76966,6 +76961,11 @@
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BM1:BX1"/>
     <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -77449,8 +77449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Donjons_et_dragons.xlsx
+++ b/Donjons_et_dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Niveaux" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5574" uniqueCount="2876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5554" uniqueCount="2876">
   <si>
     <t>Niveau</t>
   </si>
@@ -10058,9 +10058,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;+&quot;General"/>
     <numFmt numFmtId="165" formatCode="&quot;D&quot;General"/>
+    <numFmt numFmtId="166" formatCode="&quot;+&quot;General&quot; m&quot;"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -11011,23 +11012,14 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11142,20 +11134,44 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11181,29 +11197,14 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="27" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20817,37 +20818,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="207" t="s">
         <v>1316</v>
       </c>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="207" t="s">
         <v>1314</v>
       </c>
-      <c r="C1" s="210" t="s">
+      <c r="C1" s="207" t="s">
         <v>1315</v>
       </c>
-      <c r="D1" s="210" t="s">
+      <c r="D1" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="210" t="s">
+      <c r="E1" s="207" t="s">
         <v>1317</v>
       </c>
-      <c r="F1" s="210" t="s">
+      <c r="F1" s="207" t="s">
         <v>1318</v>
       </c>
-      <c r="G1" s="210" t="s">
+      <c r="G1" s="207" t="s">
         <v>1319</v>
       </c>
-      <c r="H1" s="210" t="s">
+      <c r="H1" s="207" t="s">
         <v>1320</v>
       </c>
-      <c r="I1" s="210" t="s">
+      <c r="I1" s="207" t="s">
         <v>1321</v>
       </c>
-      <c r="J1" s="210" t="s">
+      <c r="J1" s="207" t="s">
         <v>1322</v>
       </c>
-      <c r="L1" s="209"/>
+      <c r="L1" s="206"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
@@ -44598,24 +44599,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="219" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="235" t="s">
+      <c r="B1" s="219" t="s">
         <v>1099</v>
       </c>
-      <c r="C1" s="235" t="s">
+      <c r="C1" s="219" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="214" t="s">
         <v>2813</v>
       </c>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="215" t="s">
         <v>2821</v>
       </c>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="216" t="s">
         <v>2830</v>
       </c>
       <c r="E2" t="str">
@@ -44638,7 +44639,7 @@
       <c r="B3" s="18" t="s">
         <v>2822</v>
       </c>
-      <c r="C3" s="233" t="s">
+      <c r="C3" s="217" t="s">
         <v>2833</v>
       </c>
       <c r="E3" t="str">
@@ -44661,7 +44662,7 @@
       <c r="B4" s="18" t="s">
         <v>2823</v>
       </c>
-      <c r="C4" s="233" t="s">
+      <c r="C4" s="217" t="s">
         <v>2832</v>
       </c>
       <c r="E4" t="str">
@@ -44680,7 +44681,7 @@
       <c r="B5" s="18" t="s">
         <v>2824</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="217" t="s">
         <v>2831</v>
       </c>
       <c r="E5" t="str">
@@ -44699,7 +44700,7 @@
       <c r="B6" s="18" t="s">
         <v>2829</v>
       </c>
-      <c r="C6" s="233" t="s">
+      <c r="C6" s="217" t="s">
         <v>2835</v>
       </c>
       <c r="E6" t="str">
@@ -44718,7 +44719,7 @@
       <c r="B7" s="18" t="s">
         <v>2825</v>
       </c>
-      <c r="C7" s="233" t="s">
+      <c r="C7" s="217" t="s">
         <v>2834</v>
       </c>
       <c r="E7" t="str">
@@ -44737,7 +44738,7 @@
       <c r="B8" s="18" t="s">
         <v>2826</v>
       </c>
-      <c r="C8" s="233" t="s">
+      <c r="C8" s="217" t="s">
         <v>2836</v>
       </c>
       <c r="E8" t="str">
@@ -44760,7 +44761,7 @@
       <c r="B9" s="18" t="s">
         <v>2828</v>
       </c>
-      <c r="C9" s="233" t="s">
+      <c r="C9" s="217" t="s">
         <v>2837</v>
       </c>
       <c r="E9" t="str">
@@ -44779,7 +44780,7 @@
       <c r="B10" s="93" t="s">
         <v>2827</v>
       </c>
-      <c r="C10" s="234" t="s">
+      <c r="C10" s="218" t="s">
         <v>2838</v>
       </c>
       <c r="E10" t="str">
@@ -44873,16 +44874,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="219" t="s">
         <v>2856</v>
       </c>
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="220" t="s">
         <v>2840</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="220" t="s">
         <v>2841</v>
       </c>
-      <c r="D1" s="236" t="s">
+      <c r="D1" s="220" t="s">
         <v>2842</v>
       </c>
     </row>
@@ -44890,13 +44891,13 @@
       <c r="A2" s="113" t="s">
         <v>2857</v>
       </c>
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="221" t="s">
         <v>2843</v>
       </c>
-      <c r="C2" s="237" t="s">
+      <c r="C2" s="221" t="s">
         <v>2844</v>
       </c>
-      <c r="D2" s="238" t="s">
+      <c r="D2" s="222" t="s">
         <v>2843</v>
       </c>
       <c r="F2" t="str">
@@ -45245,13 +45246,13 @@
       <c r="A17" s="92" t="s">
         <v>2874</v>
       </c>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="171" t="s">
         <v>2872</v>
       </c>
-      <c r="C17" s="174" t="s">
+      <c r="C17" s="171" t="s">
         <v>2873</v>
       </c>
-      <c r="D17" s="239" t="s">
+      <c r="D17" s="223" t="s">
         <v>2845</v>
       </c>
       <c r="F17" t="str">
@@ -45389,7 +45390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -46821,7 +46822,7 @@
       <c r="A5" t="s">
         <v>1285</v>
       </c>
-      <c r="B5" s="209" t="s">
+      <c r="B5" s="206" t="s">
         <v>1307</v>
       </c>
       <c r="C5" t="str">
@@ -46838,7 +46839,7 @@
       <c r="A6" t="s">
         <v>1286</v>
       </c>
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="206" t="s">
         <v>1308</v>
       </c>
       <c r="C6" t="str">
@@ -46905,7 +46906,7 @@
       <c r="A9" t="s">
         <v>1289</v>
       </c>
-      <c r="B9" s="209" t="s">
+      <c r="B9" s="206" t="s">
         <v>1309</v>
       </c>
       <c r="C9" t="str">
@@ -46922,7 +46923,7 @@
       <c r="A10" t="s">
         <v>1290</v>
       </c>
-      <c r="B10" s="209" t="s">
+      <c r="B10" s="206" t="s">
         <v>1310</v>
       </c>
       <c r="C10" t="str">
@@ -51782,7 +51783,7 @@
       <c r="A22" t="s">
         <v>1302</v>
       </c>
-      <c r="B22" s="209" t="s">
+      <c r="B22" s="206" t="s">
         <v>1311</v>
       </c>
       <c r="C22" t="str">
@@ -51825,7 +51826,7 @@
       <c r="A23" t="s">
         <v>1303</v>
       </c>
-      <c r="B23" s="209" t="s">
+      <c r="B23" s="206" t="s">
         <v>1312</v>
       </c>
       <c r="C23" t="str">
@@ -53704,121 +53705,121 @@
 "Capacities":"Défense sans armure, Arts martiaux",
 "Specials": 0,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "-"
+"ArmourlessSpeed": "0"
 },
 "MONK-2" : {
 "Capacities":"Ki, Déplacement sans armure",
 "Specials": 2,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-3" : {
 "Capacities":"Tradition monastique, Parade de projectiles",
 "Specials": 3,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-4" : {
 "Capacities":"Amélioration de caractéristiques, Chute ralentie",
 "Specials": 4,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-5" : {
 "Capacities":"Attaque supplémentaire, Frappe étourdissante",
 "Specials": 5,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-6" : {
 "Capacities":"Frappes de ki, Capacité de la tradition monastique",
 "Specials": 6,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-7" : {
 "Capacities":"Dérobade, Tranquillité de l'esprit",
 "Specials": 7,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 8,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-9" : {
 "Capacities":"Déplacement sans armure amélioré",
 "Specials": 9,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-10" : {
 "Capacities":"Pureté du corps",
 "Specials": 10,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-11" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 11,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 12,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-13" : {
 "Capacities":"Langage du soleil et de la lune",
 "Specials": 13,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-14" : {
 "Capacities":"Âme de diamant",
 "Specials": 14,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-15" : {
 "Capacities":"Jeunesse éternelle",
 "Specials": 15,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 16,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-17" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 17,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-18" : {
 "Capacities":"Corps vide",
 "Specials": 18,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "MONK-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 19,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "MONK-20" : {
 "Capacities":"Perfection de l'être",
 "Specials": 20,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "PALADIN-1" : {
 "Capacities":"Sens divin, Imposition des mains",
@@ -56048,121 +56049,121 @@
 "Capacities":"Défense sans armure, Arts martiaux",
 "Specials": 0,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "-"
+"ArmourlessSpeed": "0"
 },
 "MONK-2" : {
 "Capacities":"Ki, Déplacement sans armure",
 "Specials": 2,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-3" : {
 "Capacities":"Tradition monastique, Parade de projectiles",
 "Specials": 3,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-4" : {
 "Capacities":"Amélioration de caractéristiques, Chute ralentie",
 "Specials": 4,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-5" : {
 "Capacities":"Attaque supplémentaire, Frappe étourdissante",
 "Specials": 5,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-6" : {
 "Capacities":"Frappes de ki, Capacité de la tradition monastique",
 "Specials": 6,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-7" : {
 "Capacities":"Dérobade, Tranquillité de l'esprit",
 "Specials": 7,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 8,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-9" : {
 "Capacities":"Déplacement sans armure amélioré",
 "Specials": 9,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-10" : {
 "Capacities":"Pureté du corps",
 "Specials": 10,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-11" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 11,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 12,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-13" : {
 "Capacities":"Langage du soleil et de la lune",
 "Specials": 13,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-14" : {
 "Capacities":"Âme de diamant",
 "Specials": 14,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-15" : {
 "Capacities":"Jeunesse éternelle",
 "Specials": 15,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 16,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-17" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 17,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-18" : {
 "Capacities":"Corps vide",
 "Specials": 18,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "MONK-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 19,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "MONK-20" : {
 "Capacities":"Perfection de l'être",
 "Specials": 20,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "PALADIN-1" : {
 "Capacities":"Sens divin, Imposition des mains",
@@ -56928,7 +56929,7 @@
       <c r="A27" t="s">
         <v>1306</v>
       </c>
-      <c r="B27" s="209" t="s">
+      <c r="B27" s="206" t="s">
         <v>1305</v>
       </c>
       <c r="C27" t="str">
@@ -61106,8 +61107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -62608,7 +62609,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
       <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
@@ -62664,7 +62665,7 @@
       <c r="K1" s="160" t="s">
         <v>1261</v>
       </c>
-      <c r="L1" s="205" t="s">
+      <c r="L1" s="202" t="s">
         <v>1262</v>
       </c>
       <c r="M1" s="160" t="s">
@@ -62673,7 +62674,7 @@
       <c r="N1" s="160" t="s">
         <v>2798</v>
       </c>
-      <c r="O1" s="205" t="s">
+      <c r="O1" s="202" t="s">
         <v>2801</v>
       </c>
       <c r="P1" s="107"/>
@@ -62706,17 +62707,17 @@
       <c r="I2" s="112">
         <v>0</v>
       </c>
-      <c r="J2" s="203">
+      <c r="J2" s="200">
         <v>12</v>
       </c>
-      <c r="K2" s="203" t="s">
+      <c r="K2" s="200" t="s">
         <v>1264</v>
       </c>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203" t="s">
+      <c r="L2" s="200"/>
+      <c r="M2" s="200" t="s">
         <v>2808</v>
       </c>
-      <c r="N2" s="203"/>
+      <c r="N2" s="200"/>
       <c r="O2" s="162" t="s">
         <v>2803</v>
       </c>
@@ -62784,15 +62785,15 @@
       <c r="I3" s="22">
         <v>0</v>
       </c>
-      <c r="J3" s="204">
+      <c r="J3" s="201">
         <v>8</v>
       </c>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204" t="s">
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201" t="s">
         <v>2799</v>
       </c>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="201" t="s">
         <v>2805</v>
       </c>
       <c r="O3" s="163" t="s">
@@ -62862,15 +62863,15 @@
       <c r="I4" s="23">
         <v>0</v>
       </c>
-      <c r="J4" s="203">
+      <c r="J4" s="200">
         <v>8</v>
       </c>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200" t="s">
         <v>2799</v>
       </c>
-      <c r="N4" s="203"/>
+      <c r="N4" s="200"/>
       <c r="O4" s="162" t="s">
         <v>2803</v>
       </c>
@@ -62923,13 +62924,13 @@
       <c r="I5" s="22">
         <v>0</v>
       </c>
-      <c r="J5" s="204">
+      <c r="J5" s="201">
         <v>8</v>
       </c>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204" t="s">
+      <c r="K5" s="201"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201" t="s">
         <v>2807</v>
       </c>
       <c r="O5" s="163" t="s">
@@ -62984,15 +62985,15 @@
       <c r="I6" s="23">
         <v>0</v>
       </c>
-      <c r="J6" s="203">
+      <c r="J6" s="200">
         <v>6</v>
       </c>
-      <c r="K6" s="203" t="s">
+      <c r="K6" s="200" t="s">
         <v>1263</v>
       </c>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203" t="s">
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200" t="s">
         <v>2806</v>
       </c>
       <c r="O6" s="162"/>
@@ -63045,15 +63046,15 @@
       <c r="I7" s="22">
         <v>0</v>
       </c>
-      <c r="J7" s="204">
+      <c r="J7" s="201">
         <v>10</v>
       </c>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204" t="s">
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201" t="s">
         <v>2808</v>
       </c>
-      <c r="N7" s="204"/>
+      <c r="N7" s="201"/>
       <c r="O7" s="163" t="s">
         <v>2802</v>
       </c>
@@ -63106,13 +63107,13 @@
       <c r="I8" s="23">
         <v>0</v>
       </c>
-      <c r="J8" s="203">
+      <c r="J8" s="200">
         <v>6</v>
       </c>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="203" t="s">
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200" t="s">
         <v>2806</v>
       </c>
       <c r="O8" s="162"/>
@@ -63165,19 +63166,19 @@
       <c r="I9" s="22">
         <v>0</v>
       </c>
-      <c r="J9" s="204">
+      <c r="J9" s="201">
         <v>8</v>
       </c>
-      <c r="K9" s="204" t="s">
+      <c r="K9" s="201" t="s">
         <v>236</v>
       </c>
-      <c r="L9" s="204" t="s">
+      <c r="L9" s="201" t="s">
         <v>1265</v>
       </c>
-      <c r="M9" s="204" t="s">
+      <c r="M9" s="201" t="s">
         <v>2799</v>
       </c>
-      <c r="N9" s="204" t="s">
+      <c r="N9" s="201" t="s">
         <v>2800</v>
       </c>
       <c r="O9" s="163"/>
@@ -63230,15 +63231,15 @@
       <c r="I10" s="23">
         <v>0</v>
       </c>
-      <c r="J10" s="203">
+      <c r="J10" s="200">
         <v>10</v>
       </c>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="214" t="s">
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="211" t="s">
         <v>2808</v>
       </c>
-      <c r="N10" s="203"/>
+      <c r="N10" s="200"/>
       <c r="O10" s="162" t="s">
         <v>2802</v>
       </c>
@@ -63291,16 +63292,16 @@
       <c r="I11" s="22">
         <v>0</v>
       </c>
-      <c r="J11" s="204">
+      <c r="J11" s="201">
         <v>10</v>
       </c>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204" t="s">
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201" t="s">
         <v>2808</v>
       </c>
-      <c r="N11" s="204"/>
-      <c r="O11" s="215" t="s">
+      <c r="N11" s="201"/>
+      <c r="O11" s="212" t="s">
         <v>2803</v>
       </c>
       <c r="P11" s="103"/>
@@ -63352,17 +63353,17 @@
       <c r="I12" s="23">
         <v>0</v>
       </c>
-      <c r="J12" s="203">
+      <c r="J12" s="200">
         <v>8</v>
       </c>
-      <c r="K12" s="203"/>
-      <c r="L12" s="203" t="s">
+      <c r="K12" s="200"/>
+      <c r="L12" s="200" t="s">
         <v>1244</v>
       </c>
-      <c r="M12" s="203" t="s">
+      <c r="M12" s="200" t="s">
         <v>2799</v>
       </c>
-      <c r="N12" s="203" t="s">
+      <c r="N12" s="200" t="s">
         <v>2805</v>
       </c>
       <c r="O12" s="162" t="s">
@@ -63417,16 +63418,16 @@
       <c r="I13" s="24">
         <v>0</v>
       </c>
-      <c r="J13" s="206">
+      <c r="J13" s="203">
         <v>8</v>
       </c>
-      <c r="K13" s="206"/>
-      <c r="L13" s="206"/>
-      <c r="M13" s="206" t="s">
+      <c r="K13" s="203"/>
+      <c r="L13" s="203"/>
+      <c r="M13" s="203" t="s">
         <v>2799</v>
       </c>
-      <c r="N13" s="206"/>
-      <c r="O13" s="216" t="s">
+      <c r="N13" s="203"/>
+      <c r="O13" s="213" t="s">
         <v>2804</v>
       </c>
       <c r="P13" s="103"/>
@@ -63690,11 +63691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="CF23" sqref="CF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -63703,148 +63704,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:112">
-      <c r="A1" s="193"/>
-      <c r="B1" s="218" t="s">
+      <c r="A1" s="190"/>
+      <c r="B1" s="226" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="217" t="s">
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="227" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="218"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="218" t="s">
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="226" t="s">
         <v>387</v>
       </c>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="218"/>
-      <c r="AB1" s="218"/>
-      <c r="AC1" s="218"/>
-      <c r="AD1" s="218"/>
-      <c r="AE1" s="218"/>
-      <c r="AF1" s="218"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="226"/>
+      <c r="AA1" s="226"/>
+      <c r="AB1" s="226"/>
+      <c r="AC1" s="226"/>
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
       <c r="AG1" s="164"/>
-      <c r="AH1" s="217" t="s">
+      <c r="AH1" s="227" t="s">
         <v>388</v>
       </c>
-      <c r="AI1" s="218"/>
-      <c r="AJ1" s="218"/>
-      <c r="AK1" s="218"/>
-      <c r="AL1" s="218"/>
-      <c r="AM1" s="218"/>
-      <c r="AN1" s="218"/>
-      <c r="AO1" s="218"/>
-      <c r="AP1" s="218"/>
-      <c r="AQ1" s="218"/>
-      <c r="AR1" s="218"/>
-      <c r="AS1" s="219"/>
+      <c r="AI1" s="226"/>
+      <c r="AJ1" s="226"/>
+      <c r="AK1" s="226"/>
+      <c r="AL1" s="226"/>
+      <c r="AM1" s="226"/>
+      <c r="AN1" s="226"/>
+      <c r="AO1" s="226"/>
+      <c r="AP1" s="226"/>
+      <c r="AQ1" s="226"/>
+      <c r="AR1" s="226"/>
+      <c r="AS1" s="228"/>
       <c r="AT1" s="164"/>
-      <c r="AU1" s="220" t="s">
+      <c r="AU1" s="225" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="220"/>
-      <c r="AW1" s="220"/>
-      <c r="AX1" s="220"/>
-      <c r="AY1" s="220"/>
-      <c r="AZ1" s="220"/>
-      <c r="BA1" s="220"/>
-      <c r="BB1" s="220"/>
-      <c r="BC1" s="220"/>
-      <c r="BD1" s="220"/>
-      <c r="BE1" s="220"/>
-      <c r="BF1" s="220"/>
-      <c r="BG1" s="220"/>
-      <c r="BH1" s="220"/>
-      <c r="BI1" s="177"/>
-      <c r="BJ1" s="217" t="s">
+      <c r="AV1" s="225"/>
+      <c r="AW1" s="225"/>
+      <c r="AX1" s="225"/>
+      <c r="AY1" s="225"/>
+      <c r="AZ1" s="225"/>
+      <c r="BA1" s="225"/>
+      <c r="BB1" s="225"/>
+      <c r="BC1" s="225"/>
+      <c r="BD1" s="225"/>
+      <c r="BE1" s="225"/>
+      <c r="BF1" s="225"/>
+      <c r="BG1" s="225"/>
+      <c r="BH1" s="225"/>
+      <c r="BI1" s="174"/>
+      <c r="BJ1" s="227" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="218"/>
-      <c r="BL1" s="181"/>
-      <c r="BM1" s="218" t="s">
+      <c r="BK1" s="226"/>
+      <c r="BL1" s="178"/>
+      <c r="BM1" s="226" t="s">
         <v>391</v>
       </c>
-      <c r="BN1" s="218"/>
-      <c r="BO1" s="218"/>
-      <c r="BP1" s="218"/>
-      <c r="BQ1" s="218"/>
-      <c r="BR1" s="218"/>
-      <c r="BS1" s="218"/>
-      <c r="BT1" s="218"/>
-      <c r="BU1" s="218"/>
-      <c r="BV1" s="218"/>
-      <c r="BW1" s="218"/>
-      <c r="BX1" s="218"/>
+      <c r="BN1" s="226"/>
+      <c r="BO1" s="226"/>
+      <c r="BP1" s="226"/>
+      <c r="BQ1" s="226"/>
+      <c r="BR1" s="226"/>
+      <c r="BS1" s="226"/>
+      <c r="BT1" s="226"/>
+      <c r="BU1" s="226"/>
+      <c r="BV1" s="226"/>
+      <c r="BW1" s="226"/>
+      <c r="BX1" s="226"/>
       <c r="BY1" s="164"/>
-      <c r="BZ1" s="217" t="s">
+      <c r="BZ1" s="227" t="s">
         <v>393</v>
       </c>
-      <c r="CA1" s="218"/>
-      <c r="CB1" s="218"/>
-      <c r="CC1" s="218"/>
-      <c r="CD1" s="218"/>
-      <c r="CE1" s="181"/>
-      <c r="CF1" s="217" t="s">
+      <c r="CA1" s="226"/>
+      <c r="CB1" s="226"/>
+      <c r="CC1" s="226"/>
+      <c r="CD1" s="226"/>
+      <c r="CE1" s="178"/>
+      <c r="CF1" s="227" t="s">
         <v>12</v>
       </c>
-      <c r="CG1" s="218"/>
-      <c r="CH1" s="218"/>
-      <c r="CI1" s="218"/>
-      <c r="CJ1" s="218"/>
-      <c r="CK1" s="218"/>
-      <c r="CL1" s="218"/>
-      <c r="CM1" s="181"/>
-      <c r="CN1" s="218" t="s">
+      <c r="CG1" s="226"/>
+      <c r="CH1" s="226"/>
+      <c r="CI1" s="226"/>
+      <c r="CJ1" s="226"/>
+      <c r="CK1" s="226"/>
+      <c r="CL1" s="226"/>
+      <c r="CM1" s="178"/>
+      <c r="CN1" s="226" t="s">
         <v>394</v>
       </c>
-      <c r="CO1" s="218"/>
-      <c r="CP1" s="218"/>
-      <c r="CQ1" s="218"/>
-      <c r="CR1" s="218"/>
-      <c r="CS1" s="218"/>
-      <c r="CT1" s="218"/>
-      <c r="CU1" s="218"/>
+      <c r="CO1" s="226"/>
+      <c r="CP1" s="226"/>
+      <c r="CQ1" s="226"/>
+      <c r="CR1" s="226"/>
+      <c r="CS1" s="226"/>
+      <c r="CT1" s="226"/>
+      <c r="CU1" s="226"/>
       <c r="CV1" s="164"/>
-      <c r="CW1" s="221" t="s">
+      <c r="CW1" s="224" t="s">
         <v>395</v>
       </c>
-      <c r="CX1" s="220"/>
-      <c r="CY1" s="220"/>
-      <c r="CZ1" s="191"/>
-      <c r="DA1" s="218" t="s">
+      <c r="CX1" s="225"/>
+      <c r="CY1" s="225"/>
+      <c r="CZ1" s="188"/>
+      <c r="DA1" s="226" t="s">
         <v>392</v>
       </c>
-      <c r="DB1" s="218"/>
-      <c r="DC1" s="218"/>
-      <c r="DD1" s="218"/>
-      <c r="DE1" s="218"/>
-      <c r="DF1" s="218"/>
-      <c r="DG1" s="218"/>
-      <c r="DH1" s="202"/>
+      <c r="DB1" s="226"/>
+      <c r="DC1" s="226"/>
+      <c r="DD1" s="226"/>
+      <c r="DE1" s="226"/>
+      <c r="DF1" s="226"/>
+      <c r="DG1" s="226"/>
+      <c r="DH1" s="199"/>
     </row>
     <row r="2" spans="1:112" s="129" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="173" t="s">
         <v>369</v>
       </c>
       <c r="C2" s="165" t="s">
@@ -63857,7 +63858,7 @@
         <v>1141</v>
       </c>
       <c r="F2" s="165"/>
-      <c r="G2" s="184" t="s">
+      <c r="G2" s="181" t="s">
         <v>369</v>
       </c>
       <c r="H2" s="165" t="s">
@@ -63896,8 +63897,8 @@
       <c r="S2" s="165">
         <v>9</v>
       </c>
-      <c r="T2" s="185"/>
-      <c r="U2" s="176" t="s">
+      <c r="T2" s="182"/>
+      <c r="U2" s="173" t="s">
         <v>369</v>
       </c>
       <c r="V2" s="165" t="s">
@@ -63934,7 +63935,7 @@
         <v>9</v>
       </c>
       <c r="AG2" s="165"/>
-      <c r="AH2" s="184" t="s">
+      <c r="AH2" s="181" t="s">
         <v>369</v>
       </c>
       <c r="AI2" s="165" t="s">
@@ -63970,8 +63971,8 @@
       <c r="AS2" s="165">
         <v>9</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="176" t="s">
+      <c r="AT2" s="195"/>
+      <c r="AU2" s="173" t="s">
         <v>369</v>
       </c>
       <c r="AV2" s="165" t="s">
@@ -64014,14 +64015,14 @@
         <v>9</v>
       </c>
       <c r="BI2" s="165"/>
-      <c r="BJ2" s="184" t="s">
+      <c r="BJ2" s="181" t="s">
         <v>369</v>
       </c>
       <c r="BK2" s="165" t="s">
         <v>237</v>
       </c>
-      <c r="BL2" s="185"/>
-      <c r="BM2" s="176" t="s">
+      <c r="BL2" s="182"/>
+      <c r="BM2" s="173" t="s">
         <v>369</v>
       </c>
       <c r="BN2" s="165" t="s">
@@ -64058,23 +64059,23 @@
         <v>9</v>
       </c>
       <c r="BY2" s="165"/>
-      <c r="BZ2" s="184" t="s">
+      <c r="BZ2" s="181" t="s">
         <v>369</v>
       </c>
-      <c r="CA2" s="176" t="s">
+      <c r="CA2" s="173" t="s">
         <v>370</v>
       </c>
-      <c r="CB2" s="176" t="s">
+      <c r="CB2" s="173" t="s">
         <v>236</v>
       </c>
-      <c r="CC2" s="176" t="s">
+      <c r="CC2" s="173" t="s">
         <v>371</v>
       </c>
-      <c r="CD2" s="176" t="s">
+      <c r="CD2" s="173" t="s">
         <v>237</v>
       </c>
-      <c r="CE2" s="182"/>
-      <c r="CF2" s="184" t="s">
+      <c r="CE2" s="179"/>
+      <c r="CF2" s="181" t="s">
         <v>369</v>
       </c>
       <c r="CG2" s="165" t="s">
@@ -64095,8 +64096,8 @@
       <c r="CL2" s="165">
         <v>5</v>
       </c>
-      <c r="CM2" s="185"/>
-      <c r="CN2" s="176" t="s">
+      <c r="CM2" s="182"/>
+      <c r="CN2" s="173" t="s">
         <v>369</v>
       </c>
       <c r="CO2" s="165" t="s">
@@ -64121,7 +64122,7 @@
         <v>5</v>
       </c>
       <c r="CV2" s="165"/>
-      <c r="CW2" s="184" t="s">
+      <c r="CW2" s="181" t="s">
         <v>369</v>
       </c>
       <c r="CX2" s="165" t="s">
@@ -64130,11 +64131,11 @@
       <c r="CY2" s="165" t="s">
         <v>237</v>
       </c>
-      <c r="CZ2" s="185"/>
-      <c r="DA2" s="176" t="s">
+      <c r="CZ2" s="182"/>
+      <c r="DA2" s="173" t="s">
         <v>369</v>
       </c>
-      <c r="DB2" s="192" t="s">
+      <c r="DB2" s="189" t="s">
         <v>237</v>
       </c>
       <c r="DC2" s="165" t="s">
@@ -64155,7 +64156,7 @@
       <c r="DH2" s="166"/>
     </row>
     <row r="3" spans="1:112" ht="15" customHeight="1">
-      <c r="A3" s="178">
+      <c r="A3" s="175">
         <v>1</v>
       </c>
       <c r="B3" s="5">
@@ -64170,7 +64171,7 @@
       <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" s="197" t="str">
+      <c r="F3" s="194" t="str">
         <f>""""&amp;$B$1&amp;"-"&amp;$A3&amp;""": {
 ""Capacities"": """&amp;C3&amp;""",
 ""Specials"": "&amp;D3&amp;",
@@ -64182,7 +64183,7 @@
 "Damages": 2
 }</v>
       </c>
-      <c r="G3" s="186">
+      <c r="G3" s="183">
         <v>2</v>
       </c>
       <c r="H3" s="36" t="s">
@@ -64221,7 +64222,7 @@
       <c r="S3" s="36">
         <v>0</v>
       </c>
-      <c r="T3" s="187" t="str">
+      <c r="T3" s="184" t="str">
         <f>""""&amp;$G$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;H3&amp;""",
 ""MinorSpells"": "&amp;I3&amp;",
@@ -64319,7 +64320,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH3" s="186">
+      <c r="AH3" s="183">
         <v>2</v>
       </c>
       <c r="AI3" s="36" t="s">
@@ -64355,7 +64356,7 @@
       <c r="AS3" s="36">
         <v>0</v>
       </c>
-      <c r="AT3" s="187" t="str">
+      <c r="AT3" s="184" t="str">
         <f t="shared" ref="AT3:AT22" si="0">""""&amp;$AH$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;AI3&amp;""",
 ""MinorSpells"": "&amp;AJ3&amp;",
@@ -64461,13 +64462,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ3" s="186">
+      <c r="BJ3" s="183">
         <v>2</v>
       </c>
       <c r="BK3" s="36" t="s">
         <v>1190</v>
       </c>
-      <c r="BL3" s="187" t="str">
+      <c r="BL3" s="184" t="str">
         <f t="shared" ref="BL3:BL22" si="2">""""&amp;$BJ$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;BK3&amp;"""
 }"</f>
@@ -64541,7 +64542,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ3" s="194">
+      <c r="BZ3" s="191">
         <v>2</v>
       </c>
       <c r="CA3" s="167" t="s">
@@ -64550,13 +64551,13 @@
       <c r="CB3" s="167">
         <v>0</v>
       </c>
-      <c r="CC3" s="168" t="s">
-        <v>50</v>
-      </c>
-      <c r="CD3" s="199" t="s">
+      <c r="CC3" s="237">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="CE3" s="183" t="str">
+      <c r="CE3" s="180" t="str">
         <f t="shared" ref="CE3:CE22" si="4">""""&amp;$BZ$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;CD3&amp;""",
 ""Specials"": "&amp;CB3&amp;",
@@ -64567,10 +64568,10 @@
 "Capacities":"Défense sans armure, Arts martiaux",
 "Specials": 0,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "-"
+"ArmourlessSpeed": "0"
 }</v>
       </c>
-      <c r="CF3" s="186">
+      <c r="CF3" s="183">
         <v>2</v>
       </c>
       <c r="CG3" s="36" t="s">
@@ -64591,7 +64592,7 @@
       <c r="CL3" s="5">
         <v>0</v>
       </c>
-      <c r="CM3" s="190" t="str">
+      <c r="CM3" s="187" t="str">
         <f t="shared" ref="CM3:CM22" si="5">""""&amp;$CF$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;CG3&amp;""",
 ""Locations"": {
@@ -64657,7 +64658,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW3" s="186">
+      <c r="CW3" s="183">
         <v>2</v>
       </c>
       <c r="CX3" s="5" t="s">
@@ -64666,7 +64667,7 @@
       <c r="CY3" s="36" t="s">
         <v>1224</v>
       </c>
-      <c r="CZ3" s="187" t="str">
+      <c r="CZ3" s="184" t="str">
         <f t="shared" ref="CZ3:CZ22" si="7">""""&amp;$CW$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;CY3&amp;""",
 ""BonusAttack"": """&amp;CX3&amp;"""
@@ -64697,7 +64698,7 @@
       <c r="DG3" s="5">
         <v>0</v>
       </c>
-      <c r="DH3" s="169" t="str">
+      <c r="DH3" s="168" t="str">
         <f t="shared" ref="DH3:DH22" si="8">""""&amp;$DA$1&amp;"-"&amp;$A3&amp;""" : {
 ""Capacities"":"""&amp;DB3&amp;""",
 ""MinorSpells"": "&amp;DC3&amp;",
@@ -64715,7 +64716,7 @@
       </c>
     </row>
     <row r="4" spans="1:112" ht="15" customHeight="1">
-      <c r="A4" s="179">
+      <c r="A4" s="176">
         <v>2</v>
       </c>
       <c r="B4" s="4">
@@ -64730,7 +64731,7 @@
       <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="197" t="str">
+      <c r="F4" s="194" t="str">
         <f t="shared" ref="F4:F22" si="9">""""&amp;$B$1&amp;"-"&amp;$A4&amp;""": {
 ""Capacities"": """&amp;C4&amp;""",
 ""Specials"": "&amp;D4&amp;",
@@ -64742,7 +64743,7 @@
 "Damages": 2
 }</v>
       </c>
-      <c r="G4" s="188">
+      <c r="G4" s="185">
         <v>2</v>
       </c>
       <c r="H4" s="33" t="s">
@@ -64781,7 +64782,7 @@
       <c r="S4" s="33">
         <v>0</v>
       </c>
-      <c r="T4" s="187" t="str">
+      <c r="T4" s="184" t="str">
         <f t="shared" ref="T4:T22" si="10">""""&amp;$G$1&amp;"-"&amp;$A4&amp;""" : {
 ""Capacities"":"""&amp;H4&amp;""",
 ""MinorSpells"": "&amp;I4&amp;",
@@ -64879,7 +64880,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH4" s="188">
+      <c r="AH4" s="185">
         <v>2</v>
       </c>
       <c r="AI4" s="33" t="s">
@@ -64915,7 +64916,7 @@
       <c r="AS4" s="33">
         <v>0</v>
       </c>
-      <c r="AT4" s="187" t="str">
+      <c r="AT4" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-2" : {
 "Capacities":"Forme sauvage, Cercle druidique",
@@ -64993,13 +64994,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ4" s="188">
+      <c r="BJ4" s="185">
         <v>2</v>
       </c>
       <c r="BK4" s="33" t="s">
         <v>1191</v>
       </c>
-      <c r="BL4" s="187" t="str">
+      <c r="BL4" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-2" : {
 "Capacities":"Sursaut (1)"
@@ -65058,31 +65059,31 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ4" s="195">
+      <c r="BZ4" s="192">
         <v>2</v>
       </c>
-      <c r="CA4" s="170" t="s">
+      <c r="CA4" s="169" t="s">
         <v>238</v>
       </c>
-      <c r="CB4" s="170">
+      <c r="CB4" s="169">
         <v>2</v>
       </c>
-      <c r="CC4" s="171" t="s">
-        <v>240</v>
-      </c>
-      <c r="CD4" s="200" t="s">
+      <c r="CC4" s="238">
+        <v>3</v>
+      </c>
+      <c r="CD4" s="197" t="s">
         <v>241</v>
       </c>
-      <c r="CE4" s="183" t="str">
+      <c r="CE4" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-2" : {
 "Capacities":"Ki, Déplacement sans armure",
 "Specials": 2,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 }</v>
       </c>
-      <c r="CF4" s="188">
+      <c r="CF4" s="185">
         <v>2</v>
       </c>
       <c r="CG4" s="33" t="s">
@@ -65103,7 +65104,7 @@
       <c r="CL4" s="4">
         <v>0</v>
       </c>
-      <c r="CM4" s="190" t="str">
+      <c r="CM4" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-2" : {
 "Capacities":"Style de combat, Incantations, Châtiment divin",
@@ -65152,7 +65153,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW4" s="188">
+      <c r="CW4" s="185">
         <v>2</v>
       </c>
       <c r="CX4" s="4" t="s">
@@ -65161,7 +65162,7 @@
       <c r="CY4" s="33" t="s">
         <v>1225</v>
       </c>
-      <c r="CZ4" s="187" t="str">
+      <c r="CZ4" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-2" : {
 "Capacities":"Ruse",
@@ -65189,7 +65190,7 @@
       <c r="DG4" s="4">
         <v>2</v>
       </c>
-      <c r="DH4" s="169" t="str">
+      <c r="DH4" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-2" : {
 "Capacities":"Invocations occultes",
@@ -65201,7 +65202,7 @@
       </c>
     </row>
     <row r="5" spans="1:112" ht="15" customHeight="1">
-      <c r="A5" s="178">
+      <c r="A5" s="175">
         <v>3</v>
       </c>
       <c r="B5" s="5">
@@ -65216,7 +65217,7 @@
       <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="197" t="str">
+      <c r="F5" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-3": {
 "Capacities": "Voie primitive",
@@ -65224,7 +65225,7 @@
 "Damages": 2
 }</v>
       </c>
-      <c r="G5" s="186">
+      <c r="G5" s="183">
         <v>2</v>
       </c>
       <c r="H5" s="36" t="s">
@@ -65263,7 +65264,7 @@
       <c r="S5" s="36">
         <v>0</v>
       </c>
-      <c r="T5" s="187" t="str">
+      <c r="T5" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-3" : {
 "Capacities":"Collège bardique, Expertise",
@@ -65334,7 +65335,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH5" s="186">
+      <c r="AH5" s="183">
         <v>2</v>
       </c>
       <c r="AI5" s="36" t="s">
@@ -65370,7 +65371,7 @@
       <c r="AS5" s="36">
         <v>0</v>
       </c>
-      <c r="AT5" s="187" t="str">
+      <c r="AT5" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-3" : {
 "Capacities":"-",
@@ -65448,13 +65449,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ5" s="186">
+      <c r="BJ5" s="183">
         <v>2</v>
       </c>
       <c r="BK5" s="36" t="s">
         <v>1192</v>
       </c>
-      <c r="BL5" s="187" t="str">
+      <c r="BL5" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-3" : {
 "Capacities":"Archétype martial"
@@ -65513,7 +65514,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ5" s="194">
+      <c r="BZ5" s="191">
         <v>2</v>
       </c>
       <c r="CA5" s="167" t="s">
@@ -65522,22 +65523,22 @@
       <c r="CB5" s="167">
         <v>3</v>
       </c>
-      <c r="CC5" s="168" t="s">
-        <v>240</v>
-      </c>
-      <c r="CD5" s="199" t="s">
+      <c r="CC5" s="237">
+        <v>3</v>
+      </c>
+      <c r="CD5" s="196" t="s">
         <v>242</v>
       </c>
-      <c r="CE5" s="183" t="str">
+      <c r="CE5" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-3" : {
 "Capacities":"Tradition monastique, Parade de projectiles",
 "Specials": 3,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 }</v>
       </c>
-      <c r="CF5" s="186">
+      <c r="CF5" s="183">
         <v>2</v>
       </c>
       <c r="CG5" s="36" t="s">
@@ -65558,7 +65559,7 @@
       <c r="CL5" s="5">
         <v>0</v>
       </c>
-      <c r="CM5" s="190" t="str">
+      <c r="CM5" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-3" : {
 "Capacities":"Santé divine, Serment sacré",
@@ -65607,7 +65608,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW5" s="186">
+      <c r="CW5" s="183">
         <v>2</v>
       </c>
       <c r="CX5" s="5" t="s">
@@ -65616,7 +65617,7 @@
       <c r="CY5" s="36" t="s">
         <v>1227</v>
       </c>
-      <c r="CZ5" s="187" t="str">
+      <c r="CZ5" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-3" : {
 "Capacities":"Archétype de roublard",
@@ -65644,7 +65645,7 @@
       <c r="DG5" s="5">
         <v>2</v>
       </c>
-      <c r="DH5" s="169" t="str">
+      <c r="DH5" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-3" : {
 "Capacities":"Faveur de pacte",
@@ -65656,7 +65657,7 @@
       </c>
     </row>
     <row r="6" spans="1:112" ht="15" customHeight="1">
-      <c r="A6" s="179">
+      <c r="A6" s="176">
         <v>4</v>
       </c>
       <c r="B6" s="4">
@@ -65671,7 +65672,7 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="197" t="str">
+      <c r="F6" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-4": {
 "Capacities": "Amélioration de caractéristiques",
@@ -65679,7 +65680,7 @@
 "Damages": 2
 }</v>
       </c>
-      <c r="G6" s="188">
+      <c r="G6" s="185">
         <v>2</v>
       </c>
       <c r="H6" s="33" t="s">
@@ -65718,7 +65719,7 @@
       <c r="S6" s="33">
         <v>0</v>
       </c>
-      <c r="T6" s="187" t="str">
+      <c r="T6" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-4" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -65789,7 +65790,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH6" s="188">
+      <c r="AH6" s="185">
         <v>2</v>
       </c>
       <c r="AI6" s="33" t="s">
@@ -65825,7 +65826,7 @@
       <c r="AS6" s="33">
         <v>0</v>
       </c>
-      <c r="AT6" s="187" t="str">
+      <c r="AT6" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-4" : {
 "Capacities":"Forme sauvage améliorée, Amélioration de caractéristiques",
@@ -65903,13 +65904,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ6" s="188">
+      <c r="BJ6" s="185">
         <v>2</v>
       </c>
       <c r="BK6" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="BL6" s="187" t="str">
+      <c r="BL6" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-4" : {
 "Capacities":"Amélioration de caractéristiques"
@@ -65968,31 +65969,31 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ6" s="195">
+      <c r="BZ6" s="192">
         <v>2</v>
       </c>
-      <c r="CA6" s="170" t="s">
+      <c r="CA6" s="169" t="s">
         <v>238</v>
       </c>
-      <c r="CB6" s="170">
+      <c r="CB6" s="169">
         <v>4</v>
       </c>
-      <c r="CC6" s="171" t="s">
-        <v>240</v>
-      </c>
-      <c r="CD6" s="200" t="s">
+      <c r="CC6" s="238">
+        <v>3</v>
+      </c>
+      <c r="CD6" s="197" t="s">
         <v>243</v>
       </c>
-      <c r="CE6" s="183" t="str">
+      <c r="CE6" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-4" : {
 "Capacities":"Amélioration de caractéristiques, Chute ralentie",
 "Specials": 4,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 }</v>
       </c>
-      <c r="CF6" s="188">
+      <c r="CF6" s="185">
         <v>2</v>
       </c>
       <c r="CG6" s="33" t="s">
@@ -66013,7 +66014,7 @@
       <c r="CL6" s="4">
         <v>0</v>
       </c>
-      <c r="CM6" s="190" t="str">
+      <c r="CM6" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-4" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -66062,7 +66063,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW6" s="188">
+      <c r="CW6" s="185">
         <v>2</v>
       </c>
       <c r="CX6" s="4" t="s">
@@ -66071,7 +66072,7 @@
       <c r="CY6" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="CZ6" s="187" t="str">
+      <c r="CZ6" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-4" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -66099,7 +66100,7 @@
       <c r="DG6" s="4">
         <v>2</v>
       </c>
-      <c r="DH6" s="169" t="str">
+      <c r="DH6" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-4" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -66111,7 +66112,7 @@
       </c>
     </row>
     <row r="7" spans="1:112" ht="15" customHeight="1">
-      <c r="A7" s="178">
+      <c r="A7" s="175">
         <v>5</v>
       </c>
       <c r="B7" s="5">
@@ -66126,7 +66127,7 @@
       <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="197" t="str">
+      <c r="F7" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-5": {
 "Capacities": "Attaque supplémentaire, Déplacement rapide",
@@ -66134,7 +66135,7 @@
 "Damages": 2
 }</v>
       </c>
-      <c r="G7" s="186">
+      <c r="G7" s="183">
         <v>3</v>
       </c>
       <c r="H7" s="36" t="s">
@@ -66173,7 +66174,7 @@
       <c r="S7" s="36">
         <v>0</v>
       </c>
-      <c r="T7" s="187" t="str">
+      <c r="T7" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-5" : {
 "Capacities":"Inspiration bardique (d8), Source d'inspiration",
@@ -66244,7 +66245,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH7" s="186">
+      <c r="AH7" s="183">
         <v>3</v>
       </c>
       <c r="AI7" s="36" t="s">
@@ -66280,7 +66281,7 @@
       <c r="AS7" s="36">
         <v>0</v>
       </c>
-      <c r="AT7" s="187" t="str">
+      <c r="AT7" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-5" : {
 "Capacities":"-",
@@ -66358,13 +66359,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ7" s="186">
+      <c r="BJ7" s="183">
         <v>3</v>
       </c>
       <c r="BK7" s="36" t="s">
         <v>1193</v>
       </c>
-      <c r="BL7" s="187" t="str">
+      <c r="BL7" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-5" : {
 "Capacities":"Attaque supplémentaire (1)"
@@ -66423,7 +66424,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ7" s="194">
+      <c r="BZ7" s="191">
         <v>3</v>
       </c>
       <c r="CA7" s="167" t="s">
@@ -66432,22 +66433,22 @@
       <c r="CB7" s="167">
         <v>5</v>
       </c>
-      <c r="CC7" s="168" t="s">
-        <v>240</v>
-      </c>
-      <c r="CD7" s="199" t="s">
+      <c r="CC7" s="237">
+        <v>3</v>
+      </c>
+      <c r="CD7" s="196" t="s">
         <v>245</v>
       </c>
-      <c r="CE7" s="183" t="str">
+      <c r="CE7" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-5" : {
 "Capacities":"Attaque supplémentaire, Frappe étourdissante",
 "Specials": 5,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 }</v>
       </c>
-      <c r="CF7" s="186">
+      <c r="CF7" s="183">
         <v>3</v>
       </c>
       <c r="CG7" s="36" t="s">
@@ -66468,7 +66469,7 @@
       <c r="CL7" s="5">
         <v>0</v>
       </c>
-      <c r="CM7" s="190" t="str">
+      <c r="CM7" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-5" : {
 "Capacities":"Attaque supplémentaire",
@@ -66517,7 +66518,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW7" s="186">
+      <c r="CW7" s="183">
         <v>3</v>
       </c>
       <c r="CX7" s="5" t="s">
@@ -66526,7 +66527,7 @@
       <c r="CY7" s="36" t="s">
         <v>1229</v>
       </c>
-      <c r="CZ7" s="187" t="str">
+      <c r="CZ7" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-5" : {
 "Capacities":"Esquive instinctive",
@@ -66554,7 +66555,7 @@
       <c r="DG7" s="5">
         <v>3</v>
       </c>
-      <c r="DH7" s="169" t="str">
+      <c r="DH7" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-5" : {
 "Capacities":"-",
@@ -66566,7 +66567,7 @@
       </c>
     </row>
     <row r="8" spans="1:112" ht="15" customHeight="1">
-      <c r="A8" s="179">
+      <c r="A8" s="176">
         <v>6</v>
       </c>
       <c r="B8" s="4">
@@ -66581,7 +66582,7 @@
       <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="197" t="str">
+      <c r="F8" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-6": {
 "Capacities": "Capacité de voie",
@@ -66589,7 +66590,7 @@
 "Damages": 2
 }</v>
       </c>
-      <c r="G8" s="188">
+      <c r="G8" s="185">
         <v>3</v>
       </c>
       <c r="H8" s="33" t="s">
@@ -66628,7 +66629,7 @@
       <c r="S8" s="33">
         <v>0</v>
       </c>
-      <c r="T8" s="187" t="str">
+      <c r="T8" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-6" : {
 "Capacities":"Contre charme, Capacité de collège bardique",
@@ -66699,7 +66700,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH8" s="188">
+      <c r="AH8" s="185">
         <v>3</v>
       </c>
       <c r="AI8" s="33" t="s">
@@ -66735,7 +66736,7 @@
       <c r="AS8" s="33">
         <v>0</v>
       </c>
-      <c r="AT8" s="187" t="str">
+      <c r="AT8" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-6" : {
 "Capacities":"Capacité de cercle druidique",
@@ -66813,13 +66814,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ8" s="188">
+      <c r="BJ8" s="185">
         <v>3</v>
       </c>
       <c r="BK8" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="BL8" s="187" t="str">
+      <c r="BL8" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-6" : {
 "Capacities":"Amélioration de caractéristiques"
@@ -66878,31 +66879,31 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ8" s="195">
+      <c r="BZ8" s="192">
         <v>3</v>
       </c>
-      <c r="CA8" s="170" t="s">
+      <c r="CA8" s="169" t="s">
         <v>244</v>
       </c>
-      <c r="CB8" s="170">
+      <c r="CB8" s="169">
         <v>6</v>
       </c>
-      <c r="CC8" s="171" t="s">
-        <v>246</v>
-      </c>
-      <c r="CD8" s="200" t="s">
+      <c r="CC8" s="238">
+        <v>4.5</v>
+      </c>
+      <c r="CD8" s="197" t="s">
         <v>247</v>
       </c>
-      <c r="CE8" s="183" t="str">
+      <c r="CE8" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-6" : {
 "Capacities":"Frappes de ki, Capacité de la tradition monastique",
 "Specials": 6,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 }</v>
       </c>
-      <c r="CF8" s="188">
+      <c r="CF8" s="185">
         <v>3</v>
       </c>
       <c r="CG8" s="33" t="s">
@@ -66923,7 +66924,7 @@
       <c r="CL8" s="4">
         <v>0</v>
       </c>
-      <c r="CM8" s="190" t="str">
+      <c r="CM8" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-6" : {
 "Capacities":"Aura de protection",
@@ -66972,7 +66973,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW8" s="188">
+      <c r="CW8" s="185">
         <v>3</v>
       </c>
       <c r="CX8" s="4" t="s">
@@ -66981,7 +66982,7 @@
       <c r="CY8" s="33" t="s">
         <v>1230</v>
       </c>
-      <c r="CZ8" s="187" t="str">
+      <c r="CZ8" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-6" : {
 "Capacities":"Expertise",
@@ -67009,7 +67010,7 @@
       <c r="DG8" s="4">
         <v>3</v>
       </c>
-      <c r="DH8" s="169" t="str">
+      <c r="DH8" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-6" : {
 "Capacities":"Capacité de patron d'Outremonde",
@@ -67021,7 +67022,7 @@
       </c>
     </row>
     <row r="9" spans="1:112" ht="15" customHeight="1">
-      <c r="A9" s="178">
+      <c r="A9" s="175">
         <v>7</v>
       </c>
       <c r="B9" s="5">
@@ -67036,7 +67037,7 @@
       <c r="E9" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="197" t="str">
+      <c r="F9" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-7": {
 "Capacities": "Instinct sauvage",
@@ -67044,7 +67045,7 @@
 "Damages": 2
 }</v>
       </c>
-      <c r="G9" s="186">
+      <c r="G9" s="183">
         <v>3</v>
       </c>
       <c r="H9" s="36" t="s">
@@ -67083,7 +67084,7 @@
       <c r="S9" s="36">
         <v>0</v>
       </c>
-      <c r="T9" s="187" t="str">
+      <c r="T9" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-7" : {
 "Capacities":"-",
@@ -67154,7 +67155,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH9" s="186">
+      <c r="AH9" s="183">
         <v>3</v>
       </c>
       <c r="AI9" s="36" t="s">
@@ -67190,7 +67191,7 @@
       <c r="AS9" s="36">
         <v>0</v>
       </c>
-      <c r="AT9" s="187" t="str">
+      <c r="AT9" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-7" : {
 "Capacities":"-",
@@ -67268,13 +67269,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ9" s="186">
+      <c r="BJ9" s="183">
         <v>3</v>
       </c>
       <c r="BK9" s="36" t="s">
         <v>1194</v>
       </c>
-      <c r="BL9" s="187" t="str">
+      <c r="BL9" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-7" : {
 "Capacities":"Capacité de l'archétype martial"
@@ -67333,7 +67334,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ9" s="194">
+      <c r="BZ9" s="191">
         <v>3</v>
       </c>
       <c r="CA9" s="167" t="s">
@@ -67342,22 +67343,22 @@
       <c r="CB9" s="167">
         <v>7</v>
       </c>
-      <c r="CC9" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="CD9" s="199" t="s">
+      <c r="CC9" s="237">
+        <v>4.5</v>
+      </c>
+      <c r="CD9" s="196" t="s">
         <v>248</v>
       </c>
-      <c r="CE9" s="183" t="str">
+      <c r="CE9" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-7" : {
 "Capacities":"Dérobade, Tranquillité de l'esprit",
 "Specials": 7,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 }</v>
       </c>
-      <c r="CF9" s="186">
+      <c r="CF9" s="183">
         <v>3</v>
       </c>
       <c r="CG9" s="36" t="s">
@@ -67378,7 +67379,7 @@
       <c r="CL9" s="5">
         <v>0</v>
       </c>
-      <c r="CM9" s="190" t="str">
+      <c r="CM9" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-7" : {
 "Capacities":"Capacité de serment sacré",
@@ -67427,7 +67428,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW9" s="186">
+      <c r="CW9" s="183">
         <v>3</v>
       </c>
       <c r="CX9" s="5" t="s">
@@ -67436,7 +67437,7 @@
       <c r="CY9" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="CZ9" s="187" t="str">
+      <c r="CZ9" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-7" : {
 "Capacities":"Dérobade",
@@ -67464,7 +67465,7 @@
       <c r="DG9" s="5">
         <v>4</v>
       </c>
-      <c r="DH9" s="169" t="str">
+      <c r="DH9" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-7" : {
 "Capacities":"-",
@@ -67476,7 +67477,7 @@
       </c>
     </row>
     <row r="10" spans="1:112" ht="15" customHeight="1">
-      <c r="A10" s="179">
+      <c r="A10" s="176">
         <v>8</v>
       </c>
       <c r="B10" s="4">
@@ -67491,7 +67492,7 @@
       <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="197" t="str">
+      <c r="F10" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-8": {
 "Capacities": "Amélioration de caractéristiques",
@@ -67499,7 +67500,7 @@
 "Damages": 2
 }</v>
       </c>
-      <c r="G10" s="188">
+      <c r="G10" s="185">
         <v>3</v>
       </c>
       <c r="H10" s="33" t="s">
@@ -67538,7 +67539,7 @@
       <c r="S10" s="33">
         <v>0</v>
       </c>
-      <c r="T10" s="187" t="str">
+      <c r="T10" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-8" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -67609,7 +67610,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH10" s="188">
+      <c r="AH10" s="185">
         <v>3</v>
       </c>
       <c r="AI10" s="33" t="s">
@@ -67645,7 +67646,7 @@
       <c r="AS10" s="33">
         <v>0</v>
       </c>
-      <c r="AT10" s="187" t="str">
+      <c r="AT10" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-8" : {
 "Capacities":"Forme sauvage améliorée, Amélioration de caractéristiques",
@@ -67723,13 +67724,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ10" s="188">
+      <c r="BJ10" s="185">
         <v>3</v>
       </c>
       <c r="BK10" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="BL10" s="187" t="str">
+      <c r="BL10" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-8" : {
 "Capacities":"Amélioration de caractéristiques"
@@ -67788,31 +67789,31 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ10" s="195">
+      <c r="BZ10" s="192">
         <v>3</v>
       </c>
-      <c r="CA10" s="170" t="s">
+      <c r="CA10" s="169" t="s">
         <v>244</v>
       </c>
-      <c r="CB10" s="170">
+      <c r="CB10" s="169">
         <v>8</v>
       </c>
-      <c r="CC10" s="171" t="s">
-        <v>246</v>
-      </c>
-      <c r="CD10" s="200" t="s">
+      <c r="CC10" s="238">
+        <v>4.5</v>
+      </c>
+      <c r="CD10" s="197" t="s">
         <v>249</v>
       </c>
-      <c r="CE10" s="183" t="str">
+      <c r="CE10" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 8,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 }</v>
       </c>
-      <c r="CF10" s="188">
+      <c r="CF10" s="185">
         <v>3</v>
       </c>
       <c r="CG10" s="33" t="s">
@@ -67833,7 +67834,7 @@
       <c r="CL10" s="4">
         <v>0</v>
       </c>
-      <c r="CM10" s="190" t="str">
+      <c r="CM10" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-8" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -67882,7 +67883,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW10" s="188">
+      <c r="CW10" s="185">
         <v>3</v>
       </c>
       <c r="CX10" s="4" t="s">
@@ -67891,7 +67892,7 @@
       <c r="CY10" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="CZ10" s="187" t="str">
+      <c r="CZ10" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-8" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -67919,7 +67920,7 @@
       <c r="DG10" s="4">
         <v>4</v>
       </c>
-      <c r="DH10" s="169" t="str">
+      <c r="DH10" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-8" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -67931,7 +67932,7 @@
       </c>
     </row>
     <row r="11" spans="1:112" ht="15" customHeight="1">
-      <c r="A11" s="178">
+      <c r="A11" s="175">
         <v>9</v>
       </c>
       <c r="B11" s="5">
@@ -67946,7 +67947,7 @@
       <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="197" t="str">
+      <c r="F11" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-9": {
 "Capacities": "Critique brutal (1 dé)",
@@ -67954,7 +67955,7 @@
 "Damages": 3
 }</v>
       </c>
-      <c r="G11" s="186">
+      <c r="G11" s="183">
         <v>4</v>
       </c>
       <c r="H11" s="36" t="s">
@@ -67993,7 +67994,7 @@
       <c r="S11" s="36">
         <v>0</v>
       </c>
-      <c r="T11" s="187" t="str">
+      <c r="T11" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-9" : {
 "Capacities":"Chant de repos (d8)",
@@ -68064,7 +68065,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH11" s="186">
+      <c r="AH11" s="183">
         <v>4</v>
       </c>
       <c r="AI11" s="36" t="s">
@@ -68100,7 +68101,7 @@
       <c r="AS11" s="36">
         <v>0</v>
       </c>
-      <c r="AT11" s="187" t="str">
+      <c r="AT11" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-9" : {
 "Capacities":"-",
@@ -68178,13 +68179,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ11" s="186">
+      <c r="BJ11" s="183">
         <v>4</v>
       </c>
       <c r="BK11" s="36" t="s">
         <v>1195</v>
       </c>
-      <c r="BL11" s="187" t="str">
+      <c r="BL11" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-9" : {
 "Capacities":"Indomptable (1)"
@@ -68243,7 +68244,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ11" s="194">
+      <c r="BZ11" s="191">
         <v>4</v>
       </c>
       <c r="CA11" s="167" t="s">
@@ -68252,22 +68253,22 @@
       <c r="CB11" s="167">
         <v>9</v>
       </c>
-      <c r="CC11" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="CD11" s="199" t="s">
+      <c r="CC11" s="237">
+        <v>4.5</v>
+      </c>
+      <c r="CD11" s="196" t="s">
         <v>250</v>
       </c>
-      <c r="CE11" s="183" t="str">
+      <c r="CE11" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-9" : {
 "Capacities":"Déplacement sans armure amélioré",
 "Specials": 9,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 }</v>
       </c>
-      <c r="CF11" s="186">
+      <c r="CF11" s="183">
         <v>4</v>
       </c>
       <c r="CG11" s="36" t="s">
@@ -68288,7 +68289,7 @@
       <c r="CL11" s="5">
         <v>0</v>
       </c>
-      <c r="CM11" s="190" t="str">
+      <c r="CM11" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-9" : {
 "Capacities":"-",
@@ -68337,7 +68338,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW11" s="186">
+      <c r="CW11" s="183">
         <v>4</v>
       </c>
       <c r="CX11" s="5" t="s">
@@ -68346,7 +68347,7 @@
       <c r="CY11" s="36" t="s">
         <v>1233</v>
       </c>
-      <c r="CZ11" s="187" t="str">
+      <c r="CZ11" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-9" : {
 "Capacities":"Capacité de l'archétype de roublard",
@@ -68374,7 +68375,7 @@
       <c r="DG11" s="5">
         <v>5</v>
       </c>
-      <c r="DH11" s="169" t="str">
+      <c r="DH11" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-9" : {
 "Capacities":"-",
@@ -68386,7 +68387,7 @@
       </c>
     </row>
     <row r="12" spans="1:112" ht="15" customHeight="1">
-      <c r="A12" s="179">
+      <c r="A12" s="176">
         <v>10</v>
       </c>
       <c r="B12" s="4">
@@ -68401,7 +68402,7 @@
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="197" t="str">
+      <c r="F12" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-10": {
 "Capacities": "Capacité de voie",
@@ -68409,7 +68410,7 @@
 "Damages": 3
 }</v>
       </c>
-      <c r="G12" s="188">
+      <c r="G12" s="185">
         <v>4</v>
       </c>
       <c r="H12" s="33" t="s">
@@ -68448,7 +68449,7 @@
       <c r="S12" s="33">
         <v>0</v>
       </c>
-      <c r="T12" s="187" t="str">
+      <c r="T12" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-10" : {
 "Capacities":"Inspiration bardique (d10), Expertise, Secrets magiques",
@@ -68519,7 +68520,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH12" s="188">
+      <c r="AH12" s="185">
         <v>4</v>
       </c>
       <c r="AI12" s="33" t="s">
@@ -68555,7 +68556,7 @@
       <c r="AS12" s="33">
         <v>0</v>
       </c>
-      <c r="AT12" s="187" t="str">
+      <c r="AT12" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-10" : {
 "Capacities":"Capacité de cercle druidique",
@@ -68633,13 +68634,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ12" s="188">
+      <c r="BJ12" s="185">
         <v>4</v>
       </c>
       <c r="BK12" s="33" t="s">
         <v>1194</v>
       </c>
-      <c r="BL12" s="187" t="str">
+      <c r="BL12" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-10" : {
 "Capacities":"Capacité de l'archétype martial"
@@ -68698,31 +68699,31 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ12" s="195">
+      <c r="BZ12" s="192">
         <v>4</v>
       </c>
-      <c r="CA12" s="170" t="s">
+      <c r="CA12" s="169" t="s">
         <v>244</v>
       </c>
-      <c r="CB12" s="170">
+      <c r="CB12" s="169">
         <v>10</v>
       </c>
-      <c r="CC12" s="171" t="s">
-        <v>251</v>
-      </c>
-      <c r="CD12" s="200" t="s">
+      <c r="CC12" s="238">
+        <v>6</v>
+      </c>
+      <c r="CD12" s="197" t="s">
         <v>252</v>
       </c>
-      <c r="CE12" s="183" t="str">
+      <c r="CE12" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-10" : {
 "Capacities":"Pureté du corps",
 "Specials": 10,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 }</v>
       </c>
-      <c r="CF12" s="188">
+      <c r="CF12" s="185">
         <v>4</v>
       </c>
       <c r="CG12" s="33" t="s">
@@ -68743,7 +68744,7 @@
       <c r="CL12" s="4">
         <v>0</v>
       </c>
-      <c r="CM12" s="190" t="str">
+      <c r="CM12" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-10" : {
 "Capacities":"Aura de courage",
@@ -68792,7 +68793,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW12" s="188">
+      <c r="CW12" s="185">
         <v>4</v>
       </c>
       <c r="CX12" s="4" t="s">
@@ -68801,7 +68802,7 @@
       <c r="CY12" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="CZ12" s="187" t="str">
+      <c r="CZ12" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-10" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -68829,7 +68830,7 @@
       <c r="DG12" s="4">
         <v>5</v>
       </c>
-      <c r="DH12" s="169" t="str">
+      <c r="DH12" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-10" : {
 "Capacities":"Capacité de patron d'Outremonde",
@@ -68841,7 +68842,7 @@
       </c>
     </row>
     <row r="13" spans="1:112" ht="15" customHeight="1">
-      <c r="A13" s="178">
+      <c r="A13" s="175">
         <v>11</v>
       </c>
       <c r="B13" s="5">
@@ -68856,7 +68857,7 @@
       <c r="E13" s="5">
         <v>3</v>
       </c>
-      <c r="F13" s="197" t="str">
+      <c r="F13" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-11": {
 "Capacities": "Rage implacable",
@@ -68864,7 +68865,7 @@
 "Damages": 3
 }</v>
       </c>
-      <c r="G13" s="186">
+      <c r="G13" s="183">
         <v>4</v>
       </c>
       <c r="H13" s="36" t="s">
@@ -68903,7 +68904,7 @@
       <c r="S13" s="36">
         <v>0</v>
       </c>
-      <c r="T13" s="187" t="str">
+      <c r="T13" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-11" : {
 "Capacities":"-",
@@ -68974,7 +68975,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH13" s="186">
+      <c r="AH13" s="183">
         <v>4</v>
       </c>
       <c r="AI13" s="36" t="s">
@@ -69010,7 +69011,7 @@
       <c r="AS13" s="36">
         <v>0</v>
       </c>
-      <c r="AT13" s="187" t="str">
+      <c r="AT13" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-11" : {
 "Capacities":"-",
@@ -69088,13 +69089,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ13" s="186">
+      <c r="BJ13" s="183">
         <v>4</v>
       </c>
       <c r="BK13" s="36" t="s">
         <v>1196</v>
       </c>
-      <c r="BL13" s="187" t="str">
+      <c r="BL13" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-11" : {
 "Capacities":"Attaque supplémentaire (2)"
@@ -69153,7 +69154,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ13" s="194">
+      <c r="BZ13" s="191">
         <v>4</v>
       </c>
       <c r="CA13" s="167" t="s">
@@ -69162,22 +69163,22 @@
       <c r="CB13" s="167">
         <v>11</v>
       </c>
-      <c r="CC13" s="168" t="s">
-        <v>251</v>
-      </c>
-      <c r="CD13" s="199" t="s">
+      <c r="CC13" s="237">
+        <v>6</v>
+      </c>
+      <c r="CD13" s="196" t="s">
         <v>254</v>
       </c>
-      <c r="CE13" s="183" t="str">
+      <c r="CE13" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-11" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 11,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 }</v>
       </c>
-      <c r="CF13" s="186">
+      <c r="CF13" s="183">
         <v>4</v>
       </c>
       <c r="CG13" s="36" t="s">
@@ -69198,7 +69199,7 @@
       <c r="CL13" s="5">
         <v>0</v>
       </c>
-      <c r="CM13" s="190" t="str">
+      <c r="CM13" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-11" : {
 "Capacities":"Châtiment divin amélioré",
@@ -69247,7 +69248,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW13" s="186">
+      <c r="CW13" s="183">
         <v>4</v>
       </c>
       <c r="CX13" s="5" t="s">
@@ -69256,7 +69257,7 @@
       <c r="CY13" s="36" t="s">
         <v>1235</v>
       </c>
-      <c r="CZ13" s="187" t="str">
+      <c r="CZ13" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-11" : {
 "Capacities":"Talent",
@@ -69284,7 +69285,7 @@
       <c r="DG13" s="5">
         <v>5</v>
       </c>
-      <c r="DH13" s="169" t="str">
+      <c r="DH13" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-11" : {
 "Capacities":"Arcanum mystique (niveau 6)",
@@ -69296,7 +69297,7 @@
       </c>
     </row>
     <row r="14" spans="1:112" ht="15" customHeight="1">
-      <c r="A14" s="179">
+      <c r="A14" s="176">
         <v>12</v>
       </c>
       <c r="B14" s="4">
@@ -69311,7 +69312,7 @@
       <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="197" t="str">
+      <c r="F14" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-12": {
 "Capacities": "Amélioration de caractéristiques",
@@ -69319,7 +69320,7 @@
 "Damages": 3
 }</v>
       </c>
-      <c r="G14" s="188">
+      <c r="G14" s="185">
         <v>4</v>
       </c>
       <c r="H14" s="33" t="s">
@@ -69358,7 +69359,7 @@
       <c r="S14" s="33">
         <v>0</v>
       </c>
-      <c r="T14" s="187" t="str">
+      <c r="T14" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-12" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -69429,7 +69430,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH14" s="188">
+      <c r="AH14" s="185">
         <v>4</v>
       </c>
       <c r="AI14" s="33" t="s">
@@ -69465,7 +69466,7 @@
       <c r="AS14" s="33">
         <v>0</v>
       </c>
-      <c r="AT14" s="187" t="str">
+      <c r="AT14" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-12" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -69543,13 +69544,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ14" s="188">
+      <c r="BJ14" s="185">
         <v>4</v>
       </c>
       <c r="BK14" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="BL14" s="187" t="str">
+      <c r="BL14" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-12" : {
 "Capacities":"Amélioration de caractéristiques"
@@ -69608,31 +69609,31 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ14" s="195">
+      <c r="BZ14" s="192">
         <v>4</v>
       </c>
-      <c r="CA14" s="170" t="s">
+      <c r="CA14" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="CB14" s="170">
+      <c r="CB14" s="169">
         <v>12</v>
       </c>
-      <c r="CC14" s="171" t="s">
-        <v>251</v>
-      </c>
-      <c r="CD14" s="200" t="s">
+      <c r="CC14" s="238">
+        <v>6</v>
+      </c>
+      <c r="CD14" s="197" t="s">
         <v>249</v>
       </c>
-      <c r="CE14" s="183" t="str">
+      <c r="CE14" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 12,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 }</v>
       </c>
-      <c r="CF14" s="188">
+      <c r="CF14" s="185">
         <v>4</v>
       </c>
       <c r="CG14" s="33" t="s">
@@ -69653,7 +69654,7 @@
       <c r="CL14" s="4">
         <v>0</v>
       </c>
-      <c r="CM14" s="190" t="str">
+      <c r="CM14" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-12" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -69702,7 +69703,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW14" s="188">
+      <c r="CW14" s="185">
         <v>4</v>
       </c>
       <c r="CX14" s="4" t="s">
@@ -69711,7 +69712,7 @@
       <c r="CY14" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="CZ14" s="187" t="str">
+      <c r="CZ14" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-12" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -69739,7 +69740,7 @@
       <c r="DG14" s="4">
         <v>6</v>
       </c>
-      <c r="DH14" s="169" t="str">
+      <c r="DH14" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-12" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -69751,7 +69752,7 @@
       </c>
     </row>
     <row r="15" spans="1:112" ht="15" customHeight="1">
-      <c r="A15" s="178">
+      <c r="A15" s="175">
         <v>13</v>
       </c>
       <c r="B15" s="5">
@@ -69766,7 +69767,7 @@
       <c r="E15" s="5">
         <v>3</v>
       </c>
-      <c r="F15" s="197" t="str">
+      <c r="F15" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-13": {
 "Capacities": "Critique brutal (2 dés)",
@@ -69774,7 +69775,7 @@
 "Damages": 3
 }</v>
       </c>
-      <c r="G15" s="186">
+      <c r="G15" s="183">
         <v>5</v>
       </c>
       <c r="H15" s="36" t="s">
@@ -69813,7 +69814,7 @@
       <c r="S15" s="36">
         <v>0</v>
       </c>
-      <c r="T15" s="187" t="str">
+      <c r="T15" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-13" : {
 "Capacities":"Chant de repos (d10)",
@@ -69884,7 +69885,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH15" s="186">
+      <c r="AH15" s="183">
         <v>5</v>
       </c>
       <c r="AI15" s="36" t="s">
@@ -69920,7 +69921,7 @@
       <c r="AS15" s="36">
         <v>0</v>
       </c>
-      <c r="AT15" s="187" t="str">
+      <c r="AT15" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-13" : {
 "Capacities":"-",
@@ -69998,13 +69999,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ15" s="186">
+      <c r="BJ15" s="183">
         <v>5</v>
       </c>
       <c r="BK15" s="36" t="s">
         <v>1197</v>
       </c>
-      <c r="BL15" s="187" t="str">
+      <c r="BL15" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-13" : {
 "Capacities":"Indomptable (2)"
@@ -70063,7 +70064,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ15" s="194">
+      <c r="BZ15" s="191">
         <v>5</v>
       </c>
       <c r="CA15" s="167" t="s">
@@ -70072,22 +70073,22 @@
       <c r="CB15" s="167">
         <v>13</v>
       </c>
-      <c r="CC15" s="168" t="s">
-        <v>251</v>
-      </c>
-      <c r="CD15" s="199" t="s">
+      <c r="CC15" s="237">
+        <v>6</v>
+      </c>
+      <c r="CD15" s="196" t="s">
         <v>255</v>
       </c>
-      <c r="CE15" s="183" t="str">
+      <c r="CE15" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-13" : {
 "Capacities":"Langage du soleil et de la lune",
 "Specials": 13,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 }</v>
       </c>
-      <c r="CF15" s="186">
+      <c r="CF15" s="183">
         <v>5</v>
       </c>
       <c r="CG15" s="36" t="s">
@@ -70108,7 +70109,7 @@
       <c r="CL15" s="5">
         <v>0</v>
       </c>
-      <c r="CM15" s="190" t="str">
+      <c r="CM15" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-13" : {
 "Capacities":"-",
@@ -70157,7 +70158,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW15" s="186">
+      <c r="CW15" s="183">
         <v>5</v>
       </c>
       <c r="CX15" s="5" t="s">
@@ -70166,7 +70167,7 @@
       <c r="CY15" s="36" t="s">
         <v>1233</v>
       </c>
-      <c r="CZ15" s="187" t="str">
+      <c r="CZ15" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-13" : {
 "Capacities":"Capacité de l'archétype de roublard",
@@ -70194,7 +70195,7 @@
       <c r="DG15" s="5">
         <v>6</v>
       </c>
-      <c r="DH15" s="169" t="str">
+      <c r="DH15" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-13" : {
 "Capacities":"Arcanum mystique (niveau 7)",
@@ -70206,7 +70207,7 @@
       </c>
     </row>
     <row r="16" spans="1:112" ht="15" customHeight="1">
-      <c r="A16" s="179">
+      <c r="A16" s="176">
         <v>14</v>
       </c>
       <c r="B16" s="4">
@@ -70221,7 +70222,7 @@
       <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="197" t="str">
+      <c r="F16" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-14": {
 "Capacities": "Capacité de voie",
@@ -70229,7 +70230,7 @@
 "Damages": 3
 }</v>
       </c>
-      <c r="G16" s="188">
+      <c r="G16" s="185">
         <v>5</v>
       </c>
       <c r="H16" s="33" t="s">
@@ -70268,7 +70269,7 @@
       <c r="S16" s="33">
         <v>0</v>
       </c>
-      <c r="T16" s="187" t="str">
+      <c r="T16" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-14" : {
 "Capacities":"Secrets magiques, Capacité de collège bardique",
@@ -70339,7 +70340,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH16" s="188">
+      <c r="AH16" s="185">
         <v>5</v>
       </c>
       <c r="AI16" s="33" t="s">
@@ -70375,7 +70376,7 @@
       <c r="AS16" s="33">
         <v>0</v>
       </c>
-      <c r="AT16" s="187" t="str">
+      <c r="AT16" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-14" : {
 "Capacities":"Capacité de cercle druidique",
@@ -70453,13 +70454,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ16" s="188">
+      <c r="BJ16" s="185">
         <v>5</v>
       </c>
       <c r="BK16" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="BL16" s="187" t="str">
+      <c r="BL16" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-14" : {
 "Capacities":"Amélioration de caractéristiques"
@@ -70518,31 +70519,31 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ16" s="195">
+      <c r="BZ16" s="192">
         <v>5</v>
       </c>
-      <c r="CA16" s="170" t="s">
+      <c r="CA16" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="CB16" s="170">
+      <c r="CB16" s="169">
         <v>14</v>
       </c>
-      <c r="CC16" s="171" t="s">
-        <v>256</v>
-      </c>
-      <c r="CD16" s="200" t="s">
+      <c r="CC16" s="238">
+        <v>7.5</v>
+      </c>
+      <c r="CD16" s="197" t="s">
         <v>257</v>
       </c>
-      <c r="CE16" s="183" t="str">
+      <c r="CE16" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-14" : {
 "Capacities":"Âme de diamant",
 "Specials": 14,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 }</v>
       </c>
-      <c r="CF16" s="188">
+      <c r="CF16" s="185">
         <v>5</v>
       </c>
       <c r="CG16" s="33" t="s">
@@ -70563,7 +70564,7 @@
       <c r="CL16" s="4">
         <v>0</v>
       </c>
-      <c r="CM16" s="190" t="str">
+      <c r="CM16" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-14" : {
 "Capacities":"Contact purifiant",
@@ -70612,7 +70613,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW16" s="188">
+      <c r="CW16" s="185">
         <v>5</v>
       </c>
       <c r="CX16" s="4" t="s">
@@ -70621,7 +70622,7 @@
       <c r="CY16" s="33" t="s">
         <v>1237</v>
       </c>
-      <c r="CZ16" s="187" t="str">
+      <c r="CZ16" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-14" : {
 "Capacities":"Ouïe fine",
@@ -70649,7 +70650,7 @@
       <c r="DG16" s="4">
         <v>6</v>
       </c>
-      <c r="DH16" s="169" t="str">
+      <c r="DH16" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-14" : {
 "Capacities":"Capacité de patron d'Outremonde",
@@ -70661,7 +70662,7 @@
       </c>
     </row>
     <row r="17" spans="1:112" ht="15" customHeight="1">
-      <c r="A17" s="178">
+      <c r="A17" s="175">
         <v>15</v>
       </c>
       <c r="B17" s="5">
@@ -70676,7 +70677,7 @@
       <c r="E17" s="5">
         <v>3</v>
       </c>
-      <c r="F17" s="197" t="str">
+      <c r="F17" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-15": {
 "Capacities": "Rage ininterrompue",
@@ -70684,7 +70685,7 @@
 "Damages": 3
 }</v>
       </c>
-      <c r="G17" s="186">
+      <c r="G17" s="183">
         <v>5</v>
       </c>
       <c r="H17" s="36" t="s">
@@ -70723,7 +70724,7 @@
       <c r="S17" s="36">
         <v>0</v>
       </c>
-      <c r="T17" s="187" t="str">
+      <c r="T17" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-15" : {
 "Capacities":"Inspiration bardique (d12)",
@@ -70794,7 +70795,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH17" s="186">
+      <c r="AH17" s="183">
         <v>5</v>
       </c>
       <c r="AI17" s="36" t="s">
@@ -70830,7 +70831,7 @@
       <c r="AS17" s="36">
         <v>0</v>
       </c>
-      <c r="AT17" s="187" t="str">
+      <c r="AT17" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-15" : {
 "Capacities":"-",
@@ -70908,13 +70909,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ17" s="186">
+      <c r="BJ17" s="183">
         <v>5</v>
       </c>
       <c r="BK17" s="36" t="s">
         <v>1194</v>
       </c>
-      <c r="BL17" s="187" t="str">
+      <c r="BL17" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-15" : {
 "Capacities":"Capacité de l'archétype martial"
@@ -70973,7 +70974,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ17" s="194">
+      <c r="BZ17" s="191">
         <v>5</v>
       </c>
       <c r="CA17" s="167" t="s">
@@ -70982,22 +70983,22 @@
       <c r="CB17" s="167">
         <v>15</v>
       </c>
-      <c r="CC17" s="168" t="s">
-        <v>256</v>
-      </c>
-      <c r="CD17" s="199" t="s">
+      <c r="CC17" s="237">
+        <v>7.5</v>
+      </c>
+      <c r="CD17" s="196" t="s">
         <v>258</v>
       </c>
-      <c r="CE17" s="183" t="str">
+      <c r="CE17" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-15" : {
 "Capacities":"Jeunesse éternelle",
 "Specials": 15,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 }</v>
       </c>
-      <c r="CF17" s="186">
+      <c r="CF17" s="183">
         <v>5</v>
       </c>
       <c r="CG17" s="36" t="s">
@@ -71018,7 +71019,7 @@
       <c r="CL17" s="5">
         <v>0</v>
       </c>
-      <c r="CM17" s="190" t="str">
+      <c r="CM17" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-15" : {
 "Capacities":"Capacité de serment sacré",
@@ -71067,7 +71068,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW17" s="186">
+      <c r="CW17" s="183">
         <v>5</v>
       </c>
       <c r="CX17" s="5" t="s">
@@ -71076,7 +71077,7 @@
       <c r="CY17" s="36" t="s">
         <v>1239</v>
       </c>
-      <c r="CZ17" s="187" t="str">
+      <c r="CZ17" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-15" : {
 "Capacities":"Esprit impénétrable",
@@ -71104,7 +71105,7 @@
       <c r="DG17" s="5">
         <v>7</v>
       </c>
-      <c r="DH17" s="169" t="str">
+      <c r="DH17" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-15" : {
 "Capacities":"Arcanum mystique (niveau 8)",
@@ -71116,7 +71117,7 @@
       </c>
     </row>
     <row r="18" spans="1:112" ht="15" customHeight="1">
-      <c r="A18" s="179">
+      <c r="A18" s="176">
         <v>16</v>
       </c>
       <c r="B18" s="4">
@@ -71131,7 +71132,7 @@
       <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18" s="197" t="str">
+      <c r="F18" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-16": {
 "Capacities": "Amélioration de caractéristiques",
@@ -71139,7 +71140,7 @@
 "Damages": 4
 }</v>
       </c>
-      <c r="G18" s="188">
+      <c r="G18" s="185">
         <v>5</v>
       </c>
       <c r="H18" s="33" t="s">
@@ -71178,7 +71179,7 @@
       <c r="S18" s="33">
         <v>0</v>
       </c>
-      <c r="T18" s="187" t="str">
+      <c r="T18" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-16" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -71249,7 +71250,7 @@
 "9":0}
 }</v>
       </c>
-      <c r="AH18" s="188">
+      <c r="AH18" s="185">
         <v>5</v>
       </c>
       <c r="AI18" s="33" t="s">
@@ -71285,7 +71286,7 @@
       <c r="AS18" s="33">
         <v>0</v>
       </c>
-      <c r="AT18" s="187" t="str">
+      <c r="AT18" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-16" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -71363,13 +71364,13 @@
 "9":0}
 }</v>
       </c>
-      <c r="BJ18" s="188">
+      <c r="BJ18" s="185">
         <v>5</v>
       </c>
       <c r="BK18" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="BL18" s="187" t="str">
+      <c r="BL18" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-16" : {
 "Capacities":"Amélioration de caractéristiques"
@@ -71428,31 +71429,31 @@
 "9":0}
 }</v>
       </c>
-      <c r="BZ18" s="195">
+      <c r="BZ18" s="192">
         <v>5</v>
       </c>
-      <c r="CA18" s="170" t="s">
+      <c r="CA18" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="CB18" s="170">
+      <c r="CB18" s="169">
         <v>16</v>
       </c>
-      <c r="CC18" s="171" t="s">
-        <v>256</v>
-      </c>
-      <c r="CD18" s="200" t="s">
+      <c r="CC18" s="238">
+        <v>7.5</v>
+      </c>
+      <c r="CD18" s="197" t="s">
         <v>249</v>
       </c>
-      <c r="CE18" s="183" t="str">
+      <c r="CE18" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 16,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 }</v>
       </c>
-      <c r="CF18" s="188">
+      <c r="CF18" s="185">
         <v>5</v>
       </c>
       <c r="CG18" s="33" t="s">
@@ -71473,7 +71474,7 @@
       <c r="CL18" s="4">
         <v>0</v>
       </c>
-      <c r="CM18" s="190" t="str">
+      <c r="CM18" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-16" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -71522,7 +71523,7 @@
 "5":0}
 }</v>
       </c>
-      <c r="CW18" s="188">
+      <c r="CW18" s="185">
         <v>5</v>
       </c>
       <c r="CX18" s="4" t="s">
@@ -71531,7 +71532,7 @@
       <c r="CY18" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="CZ18" s="187" t="str">
+      <c r="CZ18" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-16" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -71559,7 +71560,7 @@
       <c r="DG18" s="4">
         <v>7</v>
       </c>
-      <c r="DH18" s="169" t="str">
+      <c r="DH18" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-16" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -71571,7 +71572,7 @@
       </c>
     </row>
     <row r="19" spans="1:112" ht="15" customHeight="1">
-      <c r="A19" s="178">
+      <c r="A19" s="175">
         <v>17</v>
       </c>
       <c r="B19" s="5">
@@ -71586,7 +71587,7 @@
       <c r="E19" s="5">
         <v>4</v>
       </c>
-      <c r="F19" s="197" t="str">
+      <c r="F19" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-17": {
 "Capacities": "Critique brutal (3 dés)",
@@ -71594,7 +71595,7 @@
 "Damages": 4
 }</v>
       </c>
-      <c r="G19" s="186">
+      <c r="G19" s="183">
         <v>6</v>
       </c>
       <c r="H19" s="36" t="s">
@@ -71633,7 +71634,7 @@
       <c r="S19" s="36">
         <v>1</v>
       </c>
-      <c r="T19" s="187" t="str">
+      <c r="T19" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-17" : {
 "Capacities":"Chant de repos (d12)",
@@ -71704,7 +71705,7 @@
 "9":1}
 }</v>
       </c>
-      <c r="AH19" s="186">
+      <c r="AH19" s="183">
         <v>6</v>
       </c>
       <c r="AI19" s="36" t="s">
@@ -71740,7 +71741,7 @@
       <c r="AS19" s="36">
         <v>1</v>
       </c>
-      <c r="AT19" s="187" t="str">
+      <c r="AT19" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-17" : {
 "Capacities":"-",
@@ -71818,13 +71819,13 @@
 "9":1}
 }</v>
       </c>
-      <c r="BJ19" s="186">
+      <c r="BJ19" s="183">
         <v>6</v>
       </c>
       <c r="BK19" s="36" t="s">
         <v>1198</v>
       </c>
-      <c r="BL19" s="187" t="str">
+      <c r="BL19" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-17" : {
 "Capacities":"Sursaut (2), Indomptable (3)"
@@ -71883,7 +71884,7 @@
 "9":1}
 }</v>
       </c>
-      <c r="BZ19" s="194">
+      <c r="BZ19" s="191">
         <v>6</v>
       </c>
       <c r="CA19" s="167" t="s">
@@ -71892,22 +71893,22 @@
       <c r="CB19" s="167">
         <v>17</v>
       </c>
-      <c r="CC19" s="168" t="s">
-        <v>256</v>
-      </c>
-      <c r="CD19" s="199" t="s">
+      <c r="CC19" s="237">
+        <v>7.5</v>
+      </c>
+      <c r="CD19" s="196" t="s">
         <v>254</v>
       </c>
-      <c r="CE19" s="183" t="str">
+      <c r="CE19" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-17" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 17,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 }</v>
       </c>
-      <c r="CF19" s="186">
+      <c r="CF19" s="183">
         <v>6</v>
       </c>
       <c r="CG19" s="36" t="s">
@@ -71928,7 +71929,7 @@
       <c r="CL19" s="5">
         <v>1</v>
       </c>
-      <c r="CM19" s="190" t="str">
+      <c r="CM19" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-17" : {
 "Capacities":"-",
@@ -71977,7 +71978,7 @@
 "5":1}
 }</v>
       </c>
-      <c r="CW19" s="186">
+      <c r="CW19" s="183">
         <v>6</v>
       </c>
       <c r="CX19" s="5" t="s">
@@ -71986,7 +71987,7 @@
       <c r="CY19" s="36" t="s">
         <v>1233</v>
       </c>
-      <c r="CZ19" s="187" t="str">
+      <c r="CZ19" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-17" : {
 "Capacities":"Capacité de l'archétype de roublard",
@@ -72014,7 +72015,7 @@
       <c r="DG19" s="5">
         <v>7</v>
       </c>
-      <c r="DH19" s="169" t="str">
+      <c r="DH19" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-17" : {
 "Capacities":"Arcanum mystique (niveau 9)",
@@ -72026,7 +72027,7 @@
       </c>
     </row>
     <row r="20" spans="1:112" ht="15" customHeight="1">
-      <c r="A20" s="179">
+      <c r="A20" s="176">
         <v>18</v>
       </c>
       <c r="B20" s="4">
@@ -72041,7 +72042,7 @@
       <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="F20" s="197" t="str">
+      <c r="F20" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-18": {
 "Capacities": "Puissance indomptable",
@@ -72049,7 +72050,7 @@
 "Damages": 4
 }</v>
       </c>
-      <c r="G20" s="188">
+      <c r="G20" s="185">
         <v>6</v>
       </c>
       <c r="H20" s="33" t="s">
@@ -72088,7 +72089,7 @@
       <c r="S20" s="33">
         <v>1</v>
       </c>
-      <c r="T20" s="187" t="str">
+      <c r="T20" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-18" : {
 "Capacities":"Secrets magiques",
@@ -72159,7 +72160,7 @@
 "9":1}
 }</v>
       </c>
-      <c r="AH20" s="188">
+      <c r="AH20" s="185">
         <v>6</v>
       </c>
       <c r="AI20" s="33" t="s">
@@ -72195,7 +72196,7 @@
       <c r="AS20" s="33">
         <v>1</v>
       </c>
-      <c r="AT20" s="187" t="str">
+      <c r="AT20" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-18" : {
 "Capacities":"Jeunesse éternelle, Incantation animale",
@@ -72273,13 +72274,13 @@
 "9":1}
 }</v>
       </c>
-      <c r="BJ20" s="188">
+      <c r="BJ20" s="185">
         <v>6</v>
       </c>
       <c r="BK20" s="33" t="s">
         <v>1194</v>
       </c>
-      <c r="BL20" s="187" t="str">
+      <c r="BL20" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-18" : {
 "Capacities":"Capacité de l'archétype martial"
@@ -72338,31 +72339,31 @@
 "9":1}
 }</v>
       </c>
-      <c r="BZ20" s="195">
+      <c r="BZ20" s="192">
         <v>6</v>
       </c>
-      <c r="CA20" s="170" t="s">
+      <c r="CA20" s="169" t="s">
         <v>259</v>
       </c>
-      <c r="CB20" s="170">
+      <c r="CB20" s="169">
         <v>18</v>
       </c>
-      <c r="CC20" s="171" t="s">
-        <v>260</v>
-      </c>
-      <c r="CD20" s="200" t="s">
+      <c r="CC20" s="238">
+        <v>9</v>
+      </c>
+      <c r="CD20" s="197" t="s">
         <v>261</v>
       </c>
-      <c r="CE20" s="183" t="str">
+      <c r="CE20" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-18" : {
 "Capacities":"Corps vide",
 "Specials": 18,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 }</v>
       </c>
-      <c r="CF20" s="188">
+      <c r="CF20" s="185">
         <v>6</v>
       </c>
       <c r="CG20" s="33" t="s">
@@ -72383,7 +72384,7 @@
       <c r="CL20" s="4">
         <v>1</v>
       </c>
-      <c r="CM20" s="190" t="str">
+      <c r="CM20" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-18" : {
 "Capacities":"Amélioration des auras",
@@ -72432,7 +72433,7 @@
 "5":1}
 }</v>
       </c>
-      <c r="CW20" s="188">
+      <c r="CW20" s="185">
         <v>6</v>
       </c>
       <c r="CX20" s="4" t="s">
@@ -72441,7 +72442,7 @@
       <c r="CY20" s="33" t="s">
         <v>1241</v>
       </c>
-      <c r="CZ20" s="187" t="str">
+      <c r="CZ20" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-18" : {
 "Capacities":"Insaisissable",
@@ -72469,7 +72470,7 @@
       <c r="DG20" s="4">
         <v>8</v>
       </c>
-      <c r="DH20" s="169" t="str">
+      <c r="DH20" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-18" : {
 "Capacities":"-",
@@ -72481,7 +72482,7 @@
       </c>
     </row>
     <row r="21" spans="1:112" ht="15" customHeight="1">
-      <c r="A21" s="178">
+      <c r="A21" s="175">
         <v>19</v>
       </c>
       <c r="B21" s="5">
@@ -72496,7 +72497,7 @@
       <c r="E21" s="5">
         <v>4</v>
       </c>
-      <c r="F21" s="197" t="str">
+      <c r="F21" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-19": {
 "Capacities": "Amélioration de caractéristiques",
@@ -72504,7 +72505,7 @@
 "Damages": 4
 }</v>
       </c>
-      <c r="G21" s="186">
+      <c r="G21" s="183">
         <v>6</v>
       </c>
       <c r="H21" s="36" t="s">
@@ -72543,7 +72544,7 @@
       <c r="S21" s="36">
         <v>1</v>
       </c>
-      <c r="T21" s="187" t="str">
+      <c r="T21" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-19" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -72614,7 +72615,7 @@
 "9":1}
 }</v>
       </c>
-      <c r="AH21" s="186">
+      <c r="AH21" s="183">
         <v>6</v>
       </c>
       <c r="AI21" s="36" t="s">
@@ -72650,7 +72651,7 @@
       <c r="AS21" s="36">
         <v>1</v>
       </c>
-      <c r="AT21" s="187" t="str">
+      <c r="AT21" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-19" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -72728,13 +72729,13 @@
 "9":1}
 }</v>
       </c>
-      <c r="BJ21" s="186">
+      <c r="BJ21" s="183">
         <v>6</v>
       </c>
       <c r="BK21" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="BL21" s="187" t="str">
+      <c r="BL21" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-19" : {
 "Capacities":"Amélioration de caractéristiques"
@@ -72793,7 +72794,7 @@
 "9":1}
 }</v>
       </c>
-      <c r="BZ21" s="194">
+      <c r="BZ21" s="191">
         <v>6</v>
       </c>
       <c r="CA21" s="167" t="s">
@@ -72802,22 +72803,22 @@
       <c r="CB21" s="167">
         <v>19</v>
       </c>
-      <c r="CC21" s="168" t="s">
-        <v>260</v>
-      </c>
-      <c r="CD21" s="199" t="s">
+      <c r="CC21" s="237">
+        <v>9</v>
+      </c>
+      <c r="CD21" s="196" t="s">
         <v>249</v>
       </c>
-      <c r="CE21" s="183" t="str">
+      <c r="CE21" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 19,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 }</v>
       </c>
-      <c r="CF21" s="186">
+      <c r="CF21" s="183">
         <v>6</v>
       </c>
       <c r="CG21" s="36" t="s">
@@ -72838,7 +72839,7 @@
       <c r="CL21" s="5">
         <v>2</v>
       </c>
-      <c r="CM21" s="190" t="str">
+      <c r="CM21" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-19" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -72887,7 +72888,7 @@
 "5":2}
 }</v>
       </c>
-      <c r="CW21" s="186">
+      <c r="CW21" s="183">
         <v>6</v>
       </c>
       <c r="CX21" s="5" t="s">
@@ -72896,7 +72897,7 @@
       <c r="CY21" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="CZ21" s="187" t="str">
+      <c r="CZ21" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-19" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -72924,7 +72925,7 @@
       <c r="DG21" s="5">
         <v>8</v>
       </c>
-      <c r="DH21" s="169" t="str">
+      <c r="DH21" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-19" : {
 "Capacities":"Amélioration de caractéristiques",
@@ -72936,13 +72937,13 @@
       </c>
     </row>
     <row r="22" spans="1:112" ht="15" customHeight="1">
-      <c r="A22" s="180">
+      <c r="A22" s="177">
         <v>20</v>
       </c>
       <c r="B22" s="6">
         <v>6</v>
       </c>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="171" t="s">
         <v>1154</v>
       </c>
       <c r="D22" s="6">
@@ -72951,7 +72952,7 @@
       <c r="E22" s="6">
         <v>4</v>
       </c>
-      <c r="F22" s="197" t="str">
+      <c r="F22" s="194" t="str">
         <f t="shared" si="9"/>
         <v>"BARBARIAN-20": {
 "Capacities": "Champion primitif",
@@ -72959,10 +72960,10 @@
 "Damages": 4
 }</v>
       </c>
-      <c r="G22" s="189">
+      <c r="G22" s="186">
         <v>6</v>
       </c>
-      <c r="H22" s="174" t="s">
+      <c r="H22" s="171" t="s">
         <v>1167</v>
       </c>
       <c r="I22" s="6">
@@ -72971,34 +72972,34 @@
       <c r="J22" s="6">
         <v>22</v>
       </c>
-      <c r="K22" s="174">
+      <c r="K22" s="171">
         <v>4</v>
       </c>
-      <c r="L22" s="174">
+      <c r="L22" s="171">
         <v>3</v>
       </c>
-      <c r="M22" s="174">
+      <c r="M22" s="171">
         <v>3</v>
       </c>
-      <c r="N22" s="174">
+      <c r="N22" s="171">
         <v>3</v>
       </c>
-      <c r="O22" s="174">
+      <c r="O22" s="171">
         <v>3</v>
       </c>
-      <c r="P22" s="174">
+      <c r="P22" s="171">
         <v>2</v>
       </c>
-      <c r="Q22" s="174">
+      <c r="Q22" s="171">
         <v>2</v>
       </c>
-      <c r="R22" s="174">
+      <c r="R22" s="171">
         <v>1</v>
       </c>
-      <c r="S22" s="174">
+      <c r="S22" s="171">
         <v>1</v>
       </c>
-      <c r="T22" s="187" t="str">
+      <c r="T22" s="184" t="str">
         <f t="shared" si="10"/>
         <v>"BARD-20" : {
 "Capacities":"Inspiration supérieure",
@@ -73019,37 +73020,37 @@
       <c r="U22" s="6">
         <v>6</v>
       </c>
-      <c r="V22" s="174" t="s">
+      <c r="V22" s="171" t="s">
         <v>1177</v>
       </c>
       <c r="W22" s="6">
         <v>5</v>
       </c>
-      <c r="X22" s="174">
+      <c r="X22" s="171">
         <v>4</v>
       </c>
-      <c r="Y22" s="174">
+      <c r="Y22" s="171">
         <v>3</v>
       </c>
-      <c r="Z22" s="174">
+      <c r="Z22" s="171">
         <v>3</v>
       </c>
-      <c r="AA22" s="174">
+      <c r="AA22" s="171">
         <v>3</v>
       </c>
-      <c r="AB22" s="174">
+      <c r="AB22" s="171">
         <v>3</v>
       </c>
-      <c r="AC22" s="174">
+      <c r="AC22" s="171">
         <v>2</v>
       </c>
-      <c r="AD22" s="174">
+      <c r="AD22" s="171">
         <v>2</v>
       </c>
-      <c r="AE22" s="174">
+      <c r="AE22" s="171">
         <v>1</v>
       </c>
-      <c r="AF22" s="174">
+      <c r="AF22" s="171">
         <v>1</v>
       </c>
       <c r="AG22" s="125" t="str">
@@ -73069,43 +73070,43 @@
 "9":1}
 }</v>
       </c>
-      <c r="AH22" s="189">
+      <c r="AH22" s="186">
         <v>6</v>
       </c>
-      <c r="AI22" s="174" t="s">
+      <c r="AI22" s="171" t="s">
         <v>1183</v>
       </c>
       <c r="AJ22" s="6">
         <v>4</v>
       </c>
-      <c r="AK22" s="174">
+      <c r="AK22" s="171">
         <v>4</v>
       </c>
-      <c r="AL22" s="174">
+      <c r="AL22" s="171">
         <v>3</v>
       </c>
-      <c r="AM22" s="174">
+      <c r="AM22" s="171">
         <v>3</v>
       </c>
-      <c r="AN22" s="174">
+      <c r="AN22" s="171">
         <v>3</v>
       </c>
-      <c r="AO22" s="174">
+      <c r="AO22" s="171">
         <v>3</v>
       </c>
-      <c r="AP22" s="174">
+      <c r="AP22" s="171">
         <v>2</v>
       </c>
-      <c r="AQ22" s="174">
+      <c r="AQ22" s="171">
         <v>2</v>
       </c>
-      <c r="AR22" s="174">
+      <c r="AR22" s="171">
         <v>1</v>
       </c>
-      <c r="AS22" s="174">
+      <c r="AS22" s="171">
         <v>1</v>
       </c>
-      <c r="AT22" s="187" t="str">
+      <c r="AT22" s="184" t="str">
         <f t="shared" si="0"/>
         <v>"DRUID-20" : {
 "Capacities":"Archidruide",
@@ -73128,7 +73129,7 @@
       <c r="AV22" s="6">
         <v>20</v>
       </c>
-      <c r="AW22" s="174" t="s">
+      <c r="AW22" s="171" t="s">
         <v>1188</v>
       </c>
       <c r="AX22" s="6">
@@ -73137,31 +73138,31 @@
       <c r="AY22" s="6">
         <v>15</v>
       </c>
-      <c r="AZ22" s="174">
+      <c r="AZ22" s="171">
         <v>4</v>
       </c>
-      <c r="BA22" s="174">
+      <c r="BA22" s="171">
         <v>3</v>
       </c>
-      <c r="BB22" s="174">
+      <c r="BB22" s="171">
         <v>3</v>
       </c>
-      <c r="BC22" s="174">
+      <c r="BC22" s="171">
         <v>3</v>
       </c>
-      <c r="BD22" s="174">
+      <c r="BD22" s="171">
         <v>3</v>
       </c>
-      <c r="BE22" s="174">
+      <c r="BE22" s="171">
         <v>2</v>
       </c>
-      <c r="BF22" s="174">
+      <c r="BF22" s="171">
         <v>2</v>
       </c>
-      <c r="BG22" s="174">
+      <c r="BG22" s="171">
         <v>1</v>
       </c>
-      <c r="BH22" s="174">
+      <c r="BH22" s="171">
         <v>1</v>
       </c>
       <c r="BI22" s="36" t="str">
@@ -73183,13 +73184,13 @@
 "9":1}
 }</v>
       </c>
-      <c r="BJ22" s="189">
+      <c r="BJ22" s="186">
         <v>6</v>
       </c>
-      <c r="BK22" s="174" t="s">
+      <c r="BK22" s="171" t="s">
         <v>1199</v>
       </c>
-      <c r="BL22" s="187" t="str">
+      <c r="BL22" s="184" t="str">
         <f t="shared" si="2"/>
         <v>"WARRIOR-20" : {
 "Capacities":"Attaque supplémentaire (3)"
@@ -73198,7 +73199,7 @@
       <c r="BM22" s="6">
         <v>6</v>
       </c>
-      <c r="BN22" s="174" t="s">
+      <c r="BN22" s="171" t="s">
         <v>1204</v>
       </c>
       <c r="BO22" s="6">
@@ -73248,34 +73249,34 @@
 "9":1}
 }</v>
       </c>
-      <c r="BZ22" s="196">
+      <c r="BZ22" s="193">
         <v>6</v>
       </c>
-      <c r="CA22" s="172" t="s">
+      <c r="CA22" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="CB22" s="172">
+      <c r="CB22" s="170">
         <v>20</v>
       </c>
-      <c r="CC22" s="173" t="s">
-        <v>260</v>
-      </c>
-      <c r="CD22" s="201" t="s">
+      <c r="CC22" s="239">
+        <v>9</v>
+      </c>
+      <c r="CD22" s="198" t="s">
         <v>262</v>
       </c>
-      <c r="CE22" s="183" t="str">
+      <c r="CE22" s="180" t="str">
         <f t="shared" si="4"/>
         <v>"MONK-20" : {
 "Capacities":"Perfection de l'être",
 "Specials": 20,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 }</v>
       </c>
-      <c r="CF22" s="189">
+      <c r="CF22" s="186">
         <v>6</v>
       </c>
-      <c r="CG22" s="174" t="s">
+      <c r="CG22" s="171" t="s">
         <v>1209</v>
       </c>
       <c r="CH22" s="6">
@@ -73293,7 +73294,7 @@
       <c r="CL22" s="6">
         <v>2</v>
       </c>
-      <c r="CM22" s="190" t="str">
+      <c r="CM22" s="187" t="str">
         <f t="shared" si="5"/>
         <v>"PALADIN-20" : {
 "Capacities":"Capacité de serment sacré",
@@ -73308,7 +73309,7 @@
       <c r="CN22" s="6">
         <v>6</v>
       </c>
-      <c r="CO22" s="174" t="s">
+      <c r="CO22" s="171" t="s">
         <v>1223</v>
       </c>
       <c r="CP22" s="6">
@@ -73342,16 +73343,16 @@
 "5":2}
 }</v>
       </c>
-      <c r="CW22" s="189">
+      <c r="CW22" s="186">
         <v>6</v>
       </c>
       <c r="CX22" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="CY22" s="174" t="s">
+      <c r="CY22" s="171" t="s">
         <v>1243</v>
       </c>
-      <c r="CZ22" s="187" t="str">
+      <c r="CZ22" s="184" t="str">
         <f t="shared" si="7"/>
         <v>"WILY-20" : {
 "Capacities":"Coup de chance",
@@ -73361,7 +73362,7 @@
       <c r="DA22" s="6">
         <v>6</v>
       </c>
-      <c r="DB22" s="174" t="s">
+      <c r="DB22" s="171" t="s">
         <v>1253</v>
       </c>
       <c r="DC22" s="6">
@@ -73379,7 +73380,7 @@
       <c r="DG22" s="6">
         <v>8</v>
       </c>
-      <c r="DH22" s="169" t="str">
+      <c r="DH22" s="168" t="str">
         <f t="shared" si="8"/>
         <v>"WIZARD-20" : {
 "Capacities":"Maître de l'occulte",
@@ -75205,121 +75206,121 @@
 "Capacities":"Défense sans armure, Arts martiaux",
 "Specials": 0,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "-"
+"ArmourlessSpeed": "0"
 },
 "MONK-2" : {
 "Capacities":"Ki, Déplacement sans armure",
 "Specials": 2,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-3" : {
 "Capacities":"Tradition monastique, Parade de projectiles",
 "Specials": 3,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-4" : {
 "Capacities":"Amélioration de caractéristiques, Chute ralentie",
 "Specials": 4,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-5" : {
 "Capacities":"Attaque supplémentaire, Frappe étourdissante",
 "Specials": 5,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-6" : {
 "Capacities":"Frappes de ki, Capacité de la tradition monastique",
 "Specials": 6,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-7" : {
 "Capacities":"Dérobade, Tranquillité de l'esprit",
 "Specials": 7,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 8,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-9" : {
 "Capacities":"Déplacement sans armure amélioré",
 "Specials": 9,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-10" : {
 "Capacities":"Pureté du corps",
 "Specials": 10,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-11" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 11,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 12,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-13" : {
 "Capacities":"Langage du soleil et de la lune",
 "Specials": 13,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-14" : {
 "Capacities":"Âme de diamant",
 "Specials": 14,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-15" : {
 "Capacities":"Jeunesse éternelle",
 "Specials": 15,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 16,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-17" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 17,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-18" : {
 "Capacities":"Corps vide",
 "Specials": 18,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "MONK-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 19,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "MONK-20" : {
 "Capacities":"Perfection de l'être",
 "Specials": 20,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 }</v>
       </c>
     </row>
@@ -77657,121 +77658,121 @@
 "Capacities":"Défense sans armure, Arts martiaux",
 "Specials": 0,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "-"
+"ArmourlessSpeed": "0"
 },
 "MONK-2" : {
 "Capacities":"Ki, Déplacement sans armure",
 "Specials": 2,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-3" : {
 "Capacities":"Tradition monastique, Parade de projectiles",
 "Specials": 3,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-4" : {
 "Capacities":"Amélioration de caractéristiques, Chute ralentie",
 "Specials": 4,
 "BonusAttack": "1d4",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-5" : {
 "Capacities":"Attaque supplémentaire, Frappe étourdissante",
 "Specials": 5,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 3 m"
+"ArmourlessSpeed": "3"
 },
 "MONK-6" : {
 "Capacities":"Frappes de ki, Capacité de la tradition monastique",
 "Specials": 6,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-7" : {
 "Capacities":"Dérobade, Tranquillité de l'esprit",
 "Specials": 7,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-8" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 8,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-9" : {
 "Capacities":"Déplacement sans armure amélioré",
 "Specials": 9,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 4,50 m"
+"ArmourlessSpeed": "4,5"
 },
 "MONK-10" : {
 "Capacities":"Pureté du corps",
 "Specials": 10,
 "BonusAttack": "1d6",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-11" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 11,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-12" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 12,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-13" : {
 "Capacities":"Langage du soleil et de la lune",
 "Specials": 13,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 6 m"
+"ArmourlessSpeed": "6"
 },
 "MONK-14" : {
 "Capacities":"Âme de diamant",
 "Specials": 14,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-15" : {
 "Capacities":"Jeunesse éternelle",
 "Specials": 15,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-16" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 16,
 "BonusAttack": "1d8",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-17" : {
 "Capacities":"Capacité de la tradition monastique",
 "Specials": 17,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 7,50 m"
+"ArmourlessSpeed": "7,5"
 },
 "MONK-18" : {
 "Capacities":"Corps vide",
 "Specials": 18,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "MONK-19" : {
 "Capacities":"Amélioration de caractéristiques",
 "Specials": 19,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "MONK-20" : {
 "Capacities":"Perfection de l'être",
 "Specials": 20,
 "BonusAttack": "1d10",
-"ArmourlessSpeed": "+ 9 m"
+"ArmourlessSpeed": "9"
 },
 "PALADIN-1" : {
 "Capacities":"Sens divin, Imposition des mains",
@@ -78377,6 +78378,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:AF1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DG1"/>
     <mergeCell ref="CF1:CL1"/>
@@ -78384,11 +78390,6 @@
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BM1:BX1"/>
     <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="G1:S1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -78448,7 +78449,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="204" t="s">
         <v>1279</v>
       </c>
       <c r="B3" s="101" t="s">
@@ -78565,7 +78566,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="204" t="s">
         <v>1278</v>
       </c>
       <c r="B9" s="101" t="s">
@@ -78679,7 +78680,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="204" t="s">
         <v>1276</v>
       </c>
       <c r="B15" s="101" t="s">
@@ -78696,7 +78697,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="205" t="s">
         <v>1277</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -78713,7 +78714,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="204" t="s">
         <v>1275</v>
       </c>
       <c r="B17" s="101" t="s">
@@ -78921,16 +78922,16 @@
       <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="224"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="231"/>
       <c r="I2" s="116"/>
       <c r="J2" s="116"/>
       <c r="K2" s="117"/>
@@ -79008,11 +79009,11 @@
       <c r="C4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="212" t="str">
+      <c r="D4" s="209" t="str">
         <f t="shared" ref="D4:D12" si="2">LEFT(C4,FIND(" ",C4))</f>
         <v xml:space="preserve">1d4 </v>
       </c>
-      <c r="E4" s="212" t="str">
+      <c r="E4" s="209" t="str">
         <f t="shared" ref="E4:E12" si="3">PROPER(RIGHT(C4,LEN(C4)-LEN(D4)))</f>
         <v>Perforant</v>
       </c>
@@ -79123,11 +79124,11 @@
       <c r="C6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="212" t="str">
+      <c r="D6" s="209" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E6" s="212" t="str">
+      <c r="E6" s="209" t="str">
         <f t="shared" si="3"/>
         <v>Tranchant</v>
       </c>
@@ -79229,11 +79230,11 @@
       <c r="C8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="212" t="str">
+      <c r="D8" s="209" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E8" s="212" t="str">
+      <c r="E8" s="209" t="str">
         <f t="shared" si="3"/>
         <v>Perforant</v>
       </c>
@@ -79335,11 +79336,11 @@
       <c r="C10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="212" t="str">
+      <c r="D10" s="209" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E10" s="212" t="str">
+      <c r="E10" s="209" t="str">
         <f t="shared" si="3"/>
         <v>Contondant</v>
       </c>
@@ -79441,15 +79442,15 @@
       <c r="C12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="212" t="str">
+      <c r="D12" s="209" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">1d4 </v>
       </c>
-      <c r="E12" s="212" t="str">
+      <c r="E12" s="209" t="str">
         <f t="shared" si="3"/>
         <v>Tranchant</v>
       </c>
-      <c r="F12" s="213" t="s">
+      <c r="F12" s="210" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -79485,16 +79486,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="225" t="s">
+      <c r="A13" s="232" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="226"/>
-      <c r="C13" s="226"/>
-      <c r="D13" s="226"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="227"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="234"/>
       <c r="I13" s="116"/>
       <c r="J13" s="116"/>
       <c r="K13" s="119"/>
@@ -79510,11 +79511,11 @@
       <c r="C14" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="212" t="str">
+      <c r="D14" s="209" t="str">
         <f>LEFT(C14,FIND(" ",C14))</f>
         <v xml:space="preserve">1d8 </v>
       </c>
-      <c r="E14" s="212" t="str">
+      <c r="E14" s="209" t="str">
         <f>PROPER(RIGHT(C14,LEN(C14)-LEN(D14)))</f>
         <v>Perforant</v>
       </c>
@@ -79616,11 +79617,11 @@
       <c r="C16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="212" t="str">
+      <c r="D16" s="209" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">1d4 </v>
       </c>
-      <c r="E16" s="212" t="str">
+      <c r="E16" s="209" t="str">
         <f t="shared" si="6"/>
         <v>Perforant</v>
       </c>
@@ -79713,16 +79714,16 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="A18" s="225" t="s">
+      <c r="A18" s="232" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="226"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="226"/>
-      <c r="E18" s="226"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="227"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="234"/>
       <c r="I18" s="116"/>
       <c r="J18" s="116"/>
       <c r="K18" s="119"/>
@@ -79791,11 +79792,11 @@
       <c r="C20" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="212" t="str">
+      <c r="D20" s="209" t="str">
         <f t="shared" ref="D20:D36" si="9">LEFT(C20,FIND(" ",C20))</f>
         <v xml:space="preserve">1d10 </v>
       </c>
-      <c r="E20" s="212" t="str">
+      <c r="E20" s="209" t="str">
         <f t="shared" ref="E20:E36" si="10">PROPER(RIGHT(C20,LEN(C20)-LEN(D20)))</f>
         <v>Tranchant</v>
       </c>
@@ -79897,11 +79898,11 @@
       <c r="C22" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="212" t="str">
+      <c r="D22" s="209" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E22" s="212" t="str">
+      <c r="E22" s="209" t="str">
         <f t="shared" si="10"/>
         <v>Perforant</v>
       </c>
@@ -80003,11 +80004,11 @@
       <c r="C24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="212" t="str">
+      <c r="D24" s="209" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d8 </v>
       </c>
-      <c r="E24" s="212" t="str">
+      <c r="E24" s="209" t="str">
         <f t="shared" si="10"/>
         <v>Contondant</v>
       </c>
@@ -80109,11 +80110,11 @@
       <c r="C26" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="212" t="str">
+      <c r="D26" s="209" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d12 </v>
       </c>
-      <c r="E26" s="212" t="str">
+      <c r="E26" s="209" t="str">
         <f t="shared" si="10"/>
         <v>Tranchant</v>
       </c>
@@ -80215,11 +80216,11 @@
       <c r="C28" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="212" t="str">
+      <c r="D28" s="209" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d10 </v>
       </c>
-      <c r="E28" s="212" t="str">
+      <c r="E28" s="209" t="str">
         <f t="shared" si="10"/>
         <v>Tranchant</v>
       </c>
@@ -80321,11 +80322,11 @@
       <c r="C30" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="212" t="str">
+      <c r="D30" s="209" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">2d6 </v>
       </c>
-      <c r="E30" s="212" t="str">
+      <c r="E30" s="209" t="str">
         <f t="shared" si="10"/>
         <v>Contondant</v>
       </c>
@@ -80427,11 +80428,11 @@
       <c r="C32" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="212" t="str">
+      <c r="D32" s="209" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d8 </v>
       </c>
-      <c r="E32" s="212" t="str">
+      <c r="E32" s="209" t="str">
         <f t="shared" si="10"/>
         <v>Perforant</v>
       </c>
@@ -80533,11 +80534,11 @@
       <c r="C34" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="212" t="str">
+      <c r="D34" s="209" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d10 </v>
       </c>
-      <c r="E34" s="212" t="str">
+      <c r="E34" s="209" t="str">
         <f t="shared" si="10"/>
         <v>Perforant</v>
       </c>
@@ -80639,11 +80640,11 @@
       <c r="C36" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="212" t="str">
+      <c r="D36" s="209" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E36" s="212" t="str">
+      <c r="E36" s="209" t="str">
         <f t="shared" si="10"/>
         <v>Perforant</v>
       </c>
@@ -80683,16 +80684,16 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1">
-      <c r="A37" s="225" t="s">
+      <c r="A37" s="232" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="226"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="226"/>
-      <c r="E37" s="226"/>
-      <c r="F37" s="226"/>
-      <c r="G37" s="226"/>
-      <c r="H37" s="227"/>
+      <c r="B37" s="233"/>
+      <c r="C37" s="233"/>
+      <c r="D37" s="233"/>
+      <c r="E37" s="233"/>
+      <c r="F37" s="233"/>
+      <c r="G37" s="233"/>
+      <c r="H37" s="234"/>
       <c r="I37" s="116"/>
       <c r="J37" s="116"/>
       <c r="K37" s="119"/>
@@ -80708,11 +80709,11 @@
       <c r="C38" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="212" t="str">
+      <c r="D38" s="209" t="str">
         <f>LEFT(C38,FIND(" ",C38))</f>
         <v xml:space="preserve">1d6 </v>
       </c>
-      <c r="E38" s="212" t="str">
+      <c r="E38" s="209" t="str">
         <f>PROPER(RIGHT(C38,LEN(C38)-LEN(D38)))</f>
         <v>Perforant</v>
       </c>
@@ -80814,11 +80815,11 @@
       <c r="C40" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="212" t="str">
+      <c r="D40" s="209" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">1d8 </v>
       </c>
-      <c r="E40" s="212" t="str">
+      <c r="E40" s="209" t="str">
         <f t="shared" si="12"/>
         <v>Perforant</v>
       </c>
@@ -80912,11 +80913,11 @@
       <c r="C42" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="211" t="str">
+      <c r="D42" s="208" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">1 </v>
       </c>
-      <c r="E42" s="211" t="str">
+      <c r="E42" s="208" t="str">
         <f t="shared" si="12"/>
         <v>Perforant</v>
       </c>
@@ -81426,17 +81427,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="133" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="235" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -81623,17 +81624,17 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="133" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="235" t="s">
         <v>499</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="228"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
+      <c r="B6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
       <c r="J6" s="130"/>
       <c r="L6" s="132"/>
       <c r="M6" s="132"/>
@@ -81920,17 +81921,17 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="133" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="228" t="s">
+      <c r="A12" s="235" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="228"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="228"/>
-      <c r="I12" s="228"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="235"/>
       <c r="J12" s="130"/>
       <c r="L12" s="132"/>
       <c r="M12" s="132"/>
@@ -82145,17 +82146,17 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="133" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="229" t="s">
+      <c r="A17" s="236" t="s">
         <v>530</v>
       </c>
-      <c r="B17" s="229"/>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="229"/>
-      <c r="G17" s="229"/>
-      <c r="H17" s="229"/>
-      <c r="I17" s="229"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="236"/>
+      <c r="F17" s="236"/>
+      <c r="G17" s="236"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="236"/>
       <c r="J17" s="130"/>
       <c r="K17" s="131"/>
       <c r="L17" s="132"/>

--- a/Donjons_et_dragons.xlsx
+++ b/Donjons_et_dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Niveaux" sheetId="1" r:id="rId1"/>
@@ -11158,20 +11158,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="27" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11196,15 +11205,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -44588,7 +44588,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -63692,7 +63692,7 @@
   <dimension ref="A1:DH37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="CF23" sqref="CF23"/>
@@ -63705,140 +63705,140 @@
   <sheetData>
     <row r="1" spans="1:112">
       <c r="A1" s="190"/>
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="228" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="229"/>
       <c r="G1" s="227" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
-      <c r="O1" s="226"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="226"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
       <c r="T1" s="178"/>
-      <c r="U1" s="226" t="s">
+      <c r="U1" s="228" t="s">
         <v>387</v>
       </c>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
-      <c r="Z1" s="226"/>
-      <c r="AA1" s="226"/>
-      <c r="AB1" s="226"/>
-      <c r="AC1" s="226"/>
-      <c r="AD1" s="226"/>
-      <c r="AE1" s="226"/>
-      <c r="AF1" s="226"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
       <c r="AG1" s="164"/>
       <c r="AH1" s="227" t="s">
         <v>388</v>
       </c>
-      <c r="AI1" s="226"/>
-      <c r="AJ1" s="226"/>
-      <c r="AK1" s="226"/>
-      <c r="AL1" s="226"/>
-      <c r="AM1" s="226"/>
-      <c r="AN1" s="226"/>
-      <c r="AO1" s="226"/>
-      <c r="AP1" s="226"/>
-      <c r="AQ1" s="226"/>
-      <c r="AR1" s="226"/>
-      <c r="AS1" s="228"/>
+      <c r="AI1" s="228"/>
+      <c r="AJ1" s="228"/>
+      <c r="AK1" s="228"/>
+      <c r="AL1" s="228"/>
+      <c r="AM1" s="228"/>
+      <c r="AN1" s="228"/>
+      <c r="AO1" s="228"/>
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="228"/>
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="229"/>
       <c r="AT1" s="164"/>
-      <c r="AU1" s="225" t="s">
+      <c r="AU1" s="230" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="225"/>
-      <c r="AW1" s="225"/>
-      <c r="AX1" s="225"/>
-      <c r="AY1" s="225"/>
-      <c r="AZ1" s="225"/>
-      <c r="BA1" s="225"/>
-      <c r="BB1" s="225"/>
-      <c r="BC1" s="225"/>
-      <c r="BD1" s="225"/>
-      <c r="BE1" s="225"/>
-      <c r="BF1" s="225"/>
-      <c r="BG1" s="225"/>
-      <c r="BH1" s="225"/>
+      <c r="AV1" s="230"/>
+      <c r="AW1" s="230"/>
+      <c r="AX1" s="230"/>
+      <c r="AY1" s="230"/>
+      <c r="AZ1" s="230"/>
+      <c r="BA1" s="230"/>
+      <c r="BB1" s="230"/>
+      <c r="BC1" s="230"/>
+      <c r="BD1" s="230"/>
+      <c r="BE1" s="230"/>
+      <c r="BF1" s="230"/>
+      <c r="BG1" s="230"/>
+      <c r="BH1" s="230"/>
       <c r="BI1" s="174"/>
       <c r="BJ1" s="227" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="226"/>
+      <c r="BK1" s="228"/>
       <c r="BL1" s="178"/>
-      <c r="BM1" s="226" t="s">
+      <c r="BM1" s="228" t="s">
         <v>391</v>
       </c>
-      <c r="BN1" s="226"/>
-      <c r="BO1" s="226"/>
-      <c r="BP1" s="226"/>
-      <c r="BQ1" s="226"/>
-      <c r="BR1" s="226"/>
-      <c r="BS1" s="226"/>
-      <c r="BT1" s="226"/>
-      <c r="BU1" s="226"/>
-      <c r="BV1" s="226"/>
-      <c r="BW1" s="226"/>
-      <c r="BX1" s="226"/>
+      <c r="BN1" s="228"/>
+      <c r="BO1" s="228"/>
+      <c r="BP1" s="228"/>
+      <c r="BQ1" s="228"/>
+      <c r="BR1" s="228"/>
+      <c r="BS1" s="228"/>
+      <c r="BT1" s="228"/>
+      <c r="BU1" s="228"/>
+      <c r="BV1" s="228"/>
+      <c r="BW1" s="228"/>
+      <c r="BX1" s="228"/>
       <c r="BY1" s="164"/>
       <c r="BZ1" s="227" t="s">
         <v>393</v>
       </c>
-      <c r="CA1" s="226"/>
-      <c r="CB1" s="226"/>
-      <c r="CC1" s="226"/>
-      <c r="CD1" s="226"/>
+      <c r="CA1" s="228"/>
+      <c r="CB1" s="228"/>
+      <c r="CC1" s="228"/>
+      <c r="CD1" s="228"/>
       <c r="CE1" s="178"/>
       <c r="CF1" s="227" t="s">
         <v>12</v>
       </c>
-      <c r="CG1" s="226"/>
-      <c r="CH1" s="226"/>
-      <c r="CI1" s="226"/>
-      <c r="CJ1" s="226"/>
-      <c r="CK1" s="226"/>
-      <c r="CL1" s="226"/>
+      <c r="CG1" s="228"/>
+      <c r="CH1" s="228"/>
+      <c r="CI1" s="228"/>
+      <c r="CJ1" s="228"/>
+      <c r="CK1" s="228"/>
+      <c r="CL1" s="228"/>
       <c r="CM1" s="178"/>
-      <c r="CN1" s="226" t="s">
+      <c r="CN1" s="228" t="s">
         <v>394</v>
       </c>
-      <c r="CO1" s="226"/>
-      <c r="CP1" s="226"/>
-      <c r="CQ1" s="226"/>
-      <c r="CR1" s="226"/>
-      <c r="CS1" s="226"/>
-      <c r="CT1" s="226"/>
-      <c r="CU1" s="226"/>
+      <c r="CO1" s="228"/>
+      <c r="CP1" s="228"/>
+      <c r="CQ1" s="228"/>
+      <c r="CR1" s="228"/>
+      <c r="CS1" s="228"/>
+      <c r="CT1" s="228"/>
+      <c r="CU1" s="228"/>
       <c r="CV1" s="164"/>
-      <c r="CW1" s="224" t="s">
+      <c r="CW1" s="231" t="s">
         <v>395</v>
       </c>
-      <c r="CX1" s="225"/>
-      <c r="CY1" s="225"/>
+      <c r="CX1" s="230"/>
+      <c r="CY1" s="230"/>
       <c r="CZ1" s="188"/>
-      <c r="DA1" s="226" t="s">
+      <c r="DA1" s="228" t="s">
         <v>392</v>
       </c>
-      <c r="DB1" s="226"/>
-      <c r="DC1" s="226"/>
-      <c r="DD1" s="226"/>
-      <c r="DE1" s="226"/>
-      <c r="DF1" s="226"/>
-      <c r="DG1" s="226"/>
+      <c r="DB1" s="228"/>
+      <c r="DC1" s="228"/>
+      <c r="DD1" s="228"/>
+      <c r="DE1" s="228"/>
+      <c r="DF1" s="228"/>
+      <c r="DG1" s="228"/>
       <c r="DH1" s="199"/>
     </row>
     <row r="2" spans="1:112" s="129" customFormat="1" ht="15" customHeight="1">
@@ -64551,7 +64551,7 @@
       <c r="CB3" s="167">
         <v>0</v>
       </c>
-      <c r="CC3" s="237">
+      <c r="CC3" s="224">
         <v>0</v>
       </c>
       <c r="CD3" s="196" t="s">
@@ -65068,7 +65068,7 @@
       <c r="CB4" s="169">
         <v>2</v>
       </c>
-      <c r="CC4" s="238">
+      <c r="CC4" s="225">
         <v>3</v>
       </c>
       <c r="CD4" s="197" t="s">
@@ -65523,7 +65523,7 @@
       <c r="CB5" s="167">
         <v>3</v>
       </c>
-      <c r="CC5" s="237">
+      <c r="CC5" s="224">
         <v>3</v>
       </c>
       <c r="CD5" s="196" t="s">
@@ -65978,7 +65978,7 @@
       <c r="CB6" s="169">
         <v>4</v>
       </c>
-      <c r="CC6" s="238">
+      <c r="CC6" s="225">
         <v>3</v>
       </c>
       <c r="CD6" s="197" t="s">
@@ -66433,7 +66433,7 @@
       <c r="CB7" s="167">
         <v>5</v>
       </c>
-      <c r="CC7" s="237">
+      <c r="CC7" s="224">
         <v>3</v>
       </c>
       <c r="CD7" s="196" t="s">
@@ -66888,7 +66888,7 @@
       <c r="CB8" s="169">
         <v>6</v>
       </c>
-      <c r="CC8" s="238">
+      <c r="CC8" s="225">
         <v>4.5</v>
       </c>
       <c r="CD8" s="197" t="s">
@@ -67343,7 +67343,7 @@
       <c r="CB9" s="167">
         <v>7</v>
       </c>
-      <c r="CC9" s="237">
+      <c r="CC9" s="224">
         <v>4.5</v>
       </c>
       <c r="CD9" s="196" t="s">
@@ -67798,7 +67798,7 @@
       <c r="CB10" s="169">
         <v>8</v>
       </c>
-      <c r="CC10" s="238">
+      <c r="CC10" s="225">
         <v>4.5</v>
       </c>
       <c r="CD10" s="197" t="s">
@@ -68253,7 +68253,7 @@
       <c r="CB11" s="167">
         <v>9</v>
       </c>
-      <c r="CC11" s="237">
+      <c r="CC11" s="224">
         <v>4.5</v>
       </c>
       <c r="CD11" s="196" t="s">
@@ -68708,7 +68708,7 @@
       <c r="CB12" s="169">
         <v>10</v>
       </c>
-      <c r="CC12" s="238">
+      <c r="CC12" s="225">
         <v>6</v>
       </c>
       <c r="CD12" s="197" t="s">
@@ -69163,7 +69163,7 @@
       <c r="CB13" s="167">
         <v>11</v>
       </c>
-      <c r="CC13" s="237">
+      <c r="CC13" s="224">
         <v>6</v>
       </c>
       <c r="CD13" s="196" t="s">
@@ -69618,7 +69618,7 @@
       <c r="CB14" s="169">
         <v>12</v>
       </c>
-      <c r="CC14" s="238">
+      <c r="CC14" s="225">
         <v>6</v>
       </c>
       <c r="CD14" s="197" t="s">
@@ -70073,7 +70073,7 @@
       <c r="CB15" s="167">
         <v>13</v>
       </c>
-      <c r="CC15" s="237">
+      <c r="CC15" s="224">
         <v>6</v>
       </c>
       <c r="CD15" s="196" t="s">
@@ -70528,7 +70528,7 @@
       <c r="CB16" s="169">
         <v>14</v>
       </c>
-      <c r="CC16" s="238">
+      <c r="CC16" s="225">
         <v>7.5</v>
       </c>
       <c r="CD16" s="197" t="s">
@@ -70983,7 +70983,7 @@
       <c r="CB17" s="167">
         <v>15</v>
       </c>
-      <c r="CC17" s="237">
+      <c r="CC17" s="224">
         <v>7.5</v>
       </c>
       <c r="CD17" s="196" t="s">
@@ -71438,7 +71438,7 @@
       <c r="CB18" s="169">
         <v>16</v>
       </c>
-      <c r="CC18" s="238">
+      <c r="CC18" s="225">
         <v>7.5</v>
       </c>
       <c r="CD18" s="197" t="s">
@@ -71893,7 +71893,7 @@
       <c r="CB19" s="167">
         <v>17</v>
       </c>
-      <c r="CC19" s="237">
+      <c r="CC19" s="224">
         <v>7.5</v>
       </c>
       <c r="CD19" s="196" t="s">
@@ -72348,7 +72348,7 @@
       <c r="CB20" s="169">
         <v>18</v>
       </c>
-      <c r="CC20" s="238">
+      <c r="CC20" s="225">
         <v>9</v>
       </c>
       <c r="CD20" s="197" t="s">
@@ -72803,7 +72803,7 @@
       <c r="CB21" s="167">
         <v>19</v>
       </c>
-      <c r="CC21" s="237">
+      <c r="CC21" s="224">
         <v>9</v>
       </c>
       <c r="CD21" s="196" t="s">
@@ -73258,7 +73258,7 @@
       <c r="CB22" s="170">
         <v>20</v>
       </c>
-      <c r="CC22" s="239">
+      <c r="CC22" s="226">
         <v>9</v>
       </c>
       <c r="CD22" s="198" t="s">
@@ -78378,11 +78378,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="G1:S1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:AF1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DG1"/>
     <mergeCell ref="CF1:CL1"/>
@@ -78390,6 +78385,11 @@
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BM1:BX1"/>
     <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -78922,16 +78922,16 @@
       <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="231"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="234"/>
       <c r="I2" s="116"/>
       <c r="J2" s="116"/>
       <c r="K2" s="117"/>
@@ -79486,16 +79486,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="232" t="s">
+      <c r="A13" s="235" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="233"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="234"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="236"/>
+      <c r="H13" s="237"/>
       <c r="I13" s="116"/>
       <c r="J13" s="116"/>
       <c r="K13" s="119"/>
@@ -79714,16 +79714,16 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="A18" s="232" t="s">
+      <c r="A18" s="235" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="233"/>
-      <c r="C18" s="233"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="233"/>
-      <c r="G18" s="233"/>
-      <c r="H18" s="234"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="237"/>
       <c r="I18" s="116"/>
       <c r="J18" s="116"/>
       <c r="K18" s="119"/>
@@ -80684,16 +80684,16 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1">
-      <c r="A37" s="232" t="s">
+      <c r="A37" s="235" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="233"/>
-      <c r="C37" s="233"/>
-      <c r="D37" s="233"/>
-      <c r="E37" s="233"/>
-      <c r="F37" s="233"/>
-      <c r="G37" s="233"/>
-      <c r="H37" s="234"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="236"/>
+      <c r="D37" s="236"/>
+      <c r="E37" s="236"/>
+      <c r="F37" s="236"/>
+      <c r="G37" s="236"/>
+      <c r="H37" s="237"/>
       <c r="I37" s="116"/>
       <c r="J37" s="116"/>
       <c r="K37" s="119"/>
@@ -81427,17 +81427,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="133" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="238" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -81624,17 +81624,17 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="133" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="238" t="s">
         <v>499</v>
       </c>
-      <c r="B6" s="235"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
       <c r="J6" s="130"/>
       <c r="L6" s="132"/>
       <c r="M6" s="132"/>
@@ -81921,17 +81921,17 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="133" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="235" t="s">
+      <c r="A12" s="238" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="235"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="238"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
       <c r="J12" s="130"/>
       <c r="L12" s="132"/>
       <c r="M12" s="132"/>
@@ -82146,17 +82146,17 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="133" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="236" t="s">
+      <c r="A17" s="239" t="s">
         <v>530</v>
       </c>
-      <c r="B17" s="236"/>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="236"/>
-      <c r="F17" s="236"/>
-      <c r="G17" s="236"/>
-      <c r="H17" s="236"/>
-      <c r="I17" s="236"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="239"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="239"/>
+      <c r="F17" s="239"/>
+      <c r="G17" s="239"/>
+      <c r="H17" s="239"/>
+      <c r="I17" s="239"/>
       <c r="J17" s="130"/>
       <c r="K17" s="131"/>
       <c r="L17" s="132"/>

--- a/Donjons_et_dragons.xlsx
+++ b/Donjons_et_dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Niveaux" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5629" uniqueCount="2924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5629" uniqueCount="2925">
   <si>
     <t>Niveau</t>
   </si>
@@ -10196,6 +10196,9 @@
   </si>
   <si>
     <t>"CON", "CHA"</t>
+  </si>
+  <si>
+    <t>Avantages de sauvegardes</t>
   </si>
 </sst>
 </file>
@@ -11308,20 +11311,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11347,8 +11352,6 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -45561,7 +45564,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : ["Seduced"]
+ "SaveAdvantages" : ["Seduced"]
   },
 "HALFELIN": {
  "Id" : "HALFELIN",
@@ -45575,7 +45578,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : ["Scared"]
+ "SaveAdvantages" : ["Scared"]
   },
 "HUMAN": {
  "Id" : "HUMAN",
@@ -45589,7 +45592,7 @@
  "Charisma" : 1,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "DWARF": {
  "Id" : "DWARF",
@@ -45603,7 +45606,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"]
+ "SaveAdvantages" : ["Poisonned"]
   },
 "HALF_ELF": {
  "Id" : "HALF_ELF",
@@ -45617,7 +45620,7 @@
  "Charisma" : 2,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "HALF_ORC": {
  "Id" : "HALF_ORC",
@@ -45631,7 +45634,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "DRAGON_BORN": {
  "Id" : "DRAGON_BORN",
@@ -45645,7 +45648,7 @@
  "Charisma" : 1,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GNOME": {
  "Id" : "GNOME",
@@ -45659,7 +45662,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : ["Intelligence", "Wisdom", "Charisma"]
+ "SaveAdvantages" : ["Intelligence", "Wisdom", "Charisma"]
   },
 "TIEFFLING": {
  "Id" : "TIEFFLING",
@@ -45673,7 +45676,7 @@
  "Charisma" : 2,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "AARAKOCRA": {
  "Id" : "AARAKOCRA",
@@ -45687,7 +45690,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GENASI": {
  "Id" : "GENASI",
@@ -45701,7 +45704,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GOLIATH": {
  "Id" : "GOLIATH",
@@ -45715,7 +45718,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }</v>
       </c>
       <c r="C1" t="str">
@@ -45735,7 +45738,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : ["Seduced"]
+ "SaveAdvantages" : ["Seduced"]
   },
 "HALFELIN": {
  "Id" : "HALFELIN",
@@ -45749,7 +45752,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : ["Scared"]
+ "SaveAdvantages" : ["Scared"]
   },
 "HUMAN": {
  "Id" : "HUMAN",
@@ -45763,7 +45766,7 @@
  "Charisma" : 1,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "DWARF": {
  "Id" : "DWARF",
@@ -45777,7 +45780,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"]
+ "SaveAdvantages" : ["Poisonned"]
   },
 "HALF_ELF": {
  "Id" : "HALF_ELF",
@@ -45791,7 +45794,7 @@
  "Charisma" : 2,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "HALF_ORC": {
  "Id" : "HALF_ORC",
@@ -45805,7 +45808,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "DRAGON_BORN": {
  "Id" : "DRAGON_BORN",
@@ -45819,7 +45822,7 @@
  "Charisma" : 1,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GNOME": {
  "Id" : "GNOME",
@@ -45833,7 +45836,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : ["Intelligence", "Wisdom", "Charisma"]
+ "SaveAdvantages" : ["Intelligence", "Wisdom", "Charisma"]
   },
 "TIEFFLING": {
  "Id" : "TIEFFLING",
@@ -45847,7 +45850,7 @@
  "Charisma" : 2,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "AARAKOCRA": {
  "Id" : "AARAKOCRA",
@@ -45861,7 +45864,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GENASI": {
  "Id" : "GENASI",
@@ -45875,7 +45878,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GOLIATH": {
  "Id" : "GOLIATH",
@@ -45889,7 +45892,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }
  }</v>
       </c>
@@ -45913,7 +45916,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "WOODEN_ELF": {
@@ -45929,7 +45932,7 @@
  "Charisma" : 0,
  "Speed" : 10.5,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "DROW": {
@@ -45945,7 +45948,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "LIGHT_FOOT_HALFELIN": {
@@ -45961,7 +45964,7 @@
  "Charisma" : 1,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "ROBUST_HALFELIN": {
@@ -45977,7 +45980,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"],
+ "SaveAdvantages" : ["Poisonned"],
  "ArmorCategories" : []
   },
 "HILLS_DWARF": {
@@ -45993,7 +45996,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "MONTAINS_DWARF": {
@@ -46009,7 +46012,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : ["1_LIGHT", "2_MID"]
   },
 "FORESTS_GNOME": {
@@ -46025,7 +46028,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "ROCKS_GNOME": {
@@ -46041,7 +46044,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "DEPTH_GNOME": {
@@ -46057,7 +46060,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "AIR_GENASI": {
@@ -46073,7 +46076,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "EARTH_GENASI": {
@@ -46089,7 +46092,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "FIRE_GENASI": {
@@ -46105,7 +46108,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "WATER_GENASI": {
@@ -46121,7 +46124,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "HUMAN": {
@@ -46137,7 +46140,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "HALF_ELF": {
@@ -46153,7 +46156,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "HALF_ORC": {
@@ -46169,7 +46172,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "WHITE_DRAGON": {
@@ -46185,7 +46188,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Cold"],
- "Saves" : ["Cold"],
+ "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   },
 "BLUE_DRAGON": {
@@ -46201,7 +46204,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Electrified"],
- "Saves" : ["Electrified"],
+ "SaveAdvantages" : ["Electrified"],
  "ArmorCategories" : []
   },
 "BLACK_DRAGON": {
@@ -46217,7 +46220,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "RED_DRAGON": {
@@ -46233,7 +46236,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "GREEN_DRAGON": {
@@ -46249,7 +46252,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"],
+ "SaveAdvantages" : ["Poisonned"],
  "ArmorCategories" : []
   },
 "BRASS_DRAGON": {
@@ -46265,7 +46268,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "SILVER_DRAGON": {
@@ -46281,7 +46284,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Cold"],
- "Saves" : ["Cold"],
+ "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   },
 "BRONZE_DRAGON": {
@@ -46297,7 +46300,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Electrified"],
- "Saves" : ["Electrified"],
+ "SaveAdvantages" : ["Electrified"],
  "ArmorCategories" : []
   },
 "COPPER_DRAGON": {
@@ -46313,7 +46316,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "GOLD_DRAGON": {
@@ -46329,7 +46332,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "TIEFFLING": {
@@ -46345,7 +46348,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "AARAKOCRA": {
@@ -46361,7 +46364,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "GOLIATH": {
@@ -46377,7 +46380,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -46399,7 +46402,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "WOODEN_ELF": {
@@ -46415,7 +46418,7 @@
  "Charisma" : 0,
  "Speed" : 10.5,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "DROW": {
@@ -46431,7 +46434,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "LIGHT_FOOT_HALFELIN": {
@@ -46447,7 +46450,7 @@
  "Charisma" : 1,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "ROBUST_HALFELIN": {
@@ -46463,7 +46466,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"],
+ "SaveAdvantages" : ["Poisonned"],
  "ArmorCategories" : []
   },
 "HILLS_DWARF": {
@@ -46479,7 +46482,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "MONTAINS_DWARF": {
@@ -46495,7 +46498,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : ["1_LIGHT", "2_MID"]
   },
 "FORESTS_GNOME": {
@@ -46511,7 +46514,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "ROCKS_GNOME": {
@@ -46527,7 +46530,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "DEPTH_GNOME": {
@@ -46543,7 +46546,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "AIR_GENASI": {
@@ -46559,7 +46562,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "EARTH_GENASI": {
@@ -46575,7 +46578,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "FIRE_GENASI": {
@@ -46591,7 +46594,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "WATER_GENASI": {
@@ -46607,7 +46610,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "HUMAN": {
@@ -46623,7 +46626,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "HALF_ELF": {
@@ -46639,7 +46642,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "HALF_ORC": {
@@ -46655,7 +46658,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "WHITE_DRAGON": {
@@ -46671,7 +46674,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Cold"],
- "Saves" : ["Cold"],
+ "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   },
 "BLUE_DRAGON": {
@@ -46687,7 +46690,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Electrified"],
- "Saves" : ["Electrified"],
+ "SaveAdvantages" : ["Electrified"],
  "ArmorCategories" : []
   },
 "BLACK_DRAGON": {
@@ -46703,7 +46706,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "RED_DRAGON": {
@@ -46719,7 +46722,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "GREEN_DRAGON": {
@@ -46735,7 +46738,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"],
+ "SaveAdvantages" : ["Poisonned"],
  "ArmorCategories" : []
   },
 "BRASS_DRAGON": {
@@ -46751,7 +46754,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "SILVER_DRAGON": {
@@ -46767,7 +46770,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Cold"],
- "Saves" : ["Cold"],
+ "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   },
 "BRONZE_DRAGON": {
@@ -46783,7 +46786,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Electrified"],
- "Saves" : ["Electrified"],
+ "SaveAdvantages" : ["Electrified"],
  "ArmorCategories" : []
   },
 "COPPER_DRAGON": {
@@ -46799,7 +46802,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "GOLD_DRAGON": {
@@ -46815,7 +46818,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "TIEFFLING": {
@@ -46831,7 +46834,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "AARAKOCRA": {
@@ -46847,7 +46850,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "GOLIATH": {
@@ -46863,7 +46866,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }
  }</v>
@@ -57737,7 +57740,7 @@
 ",C26,",
 ",C27)&amp;"
 }"</f>
-        <v>{
+        <v xml:space="preserve">{
 " Races" : {
  "ELF": {
  "Id" : "ELF",
@@ -57751,7 +57754,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : ["Seduced"]
+ "SaveAdvantages" : ["Seduced"]
   },
 "HALFELIN": {
  "Id" : "HALFELIN",
@@ -57765,7 +57768,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : ["Scared"]
+ "SaveAdvantages" : ["Scared"]
   },
 "HUMAN": {
  "Id" : "HUMAN",
@@ -57779,7 +57782,7 @@
  "Charisma" : 1,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "DWARF": {
  "Id" : "DWARF",
@@ -57793,7 +57796,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"]
+ "SaveAdvantages" : ["Poisonned"]
   },
 "HALF_ELF": {
  "Id" : "HALF_ELF",
@@ -57807,7 +57810,7 @@
  "Charisma" : 2,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "HALF_ORC": {
  "Id" : "HALF_ORC",
@@ -57821,7 +57824,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "DRAGON_BORN": {
  "Id" : "DRAGON_BORN",
@@ -57835,7 +57838,7 @@
  "Charisma" : 1,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GNOME": {
  "Id" : "GNOME",
@@ -57849,7 +57852,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : ["Intelligence", "Wisdom", "Charisma"]
+ "SaveAdvantages" : ["Intelligence", "Wisdom", "Charisma"]
   },
 "TIEFFLING": {
  "Id" : "TIEFFLING",
@@ -57863,7 +57866,7 @@
  "Charisma" : 2,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "AARAKOCRA": {
  "Id" : "AARAKOCRA",
@@ -57877,7 +57880,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GENASI": {
  "Id" : "GENASI",
@@ -57891,7 +57894,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GOLIATH": {
  "Id" : "GOLIATH",
@@ -57905,7 +57908,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }
  },
 "SubRaces" : {
@@ -57922,7 +57925,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "WOODEN_ELF": {
@@ -57938,7 +57941,7 @@
  "Charisma" : 0,
  "Speed" : 10.5,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "DROW": {
@@ -57954,7 +57957,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "LIGHT_FOOT_HALFELIN": {
@@ -57970,7 +57973,7 @@
  "Charisma" : 1,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "ROBUST_HALFELIN": {
@@ -57986,7 +57989,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"],
+ "SaveAdvantages" : ["Poisonned"],
  "ArmorCategories" : []
   },
 "HILLS_DWARF": {
@@ -58002,7 +58005,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "MONTAINS_DWARF": {
@@ -58018,7 +58021,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : ["1_LIGHT", "2_MID"]
   },
 "FORESTS_GNOME": {
@@ -58034,7 +58037,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "ROCKS_GNOME": {
@@ -58050,7 +58053,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "DEPTH_GNOME": {
@@ -58066,7 +58069,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "AIR_GENASI": {
@@ -58082,7 +58085,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "EARTH_GENASI": {
@@ -58098,7 +58101,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "FIRE_GENASI": {
@@ -58114,7 +58117,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "WATER_GENASI": {
@@ -58130,7 +58133,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "HUMAN": {
@@ -58146,7 +58149,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "HALF_ELF": {
@@ -58162,7 +58165,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "HALF_ORC": {
@@ -58178,7 +58181,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "WHITE_DRAGON": {
@@ -58194,7 +58197,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Cold"],
- "Saves" : ["Cold"],
+ "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   },
 "BLUE_DRAGON": {
@@ -58210,7 +58213,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Electrified"],
- "Saves" : ["Electrified"],
+ "SaveAdvantages" : ["Electrified"],
  "ArmorCategories" : []
   },
 "BLACK_DRAGON": {
@@ -58226,7 +58229,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "RED_DRAGON": {
@@ -58242,7 +58245,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "GREEN_DRAGON": {
@@ -58258,7 +58261,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"],
+ "SaveAdvantages" : ["Poisonned"],
  "ArmorCategories" : []
   },
 "BRASS_DRAGON": {
@@ -58274,7 +58277,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "SILVER_DRAGON": {
@@ -58290,7 +58293,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Cold"],
- "Saves" : ["Cold"],
+ "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   },
 "BRONZE_DRAGON": {
@@ -58306,7 +58309,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Electrified"],
- "Saves" : ["Electrified"],
+ "SaveAdvantages" : ["Electrified"],
  "ArmorCategories" : []
   },
 "COPPER_DRAGON": {
@@ -58322,7 +58325,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "GOLD_DRAGON": {
@@ -58338,7 +58341,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "TIEFFLING": {
@@ -58354,7 +58357,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "AARAKOCRA": {
@@ -58370,7 +58373,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "GOLIATH": {
@@ -58386,7 +58389,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }
  },
@@ -59292,31 +59295,7 @@
  "Name" : "Tambour",
  "OV" : "  Drum",
  "Category": "MUSIC",
- "Weight" : 1500,
- "Price" : 600
-  },,
-"Tympanon": {
- "Name" : "Tympanon",
- "OV" : "  Dulcimer",
- "Category": "MUSIC",
- "Weight" : 5000,
- "Price" : 2500
-  },,
-"Viole": {
- "Name" : "Viole",
- "OV" : "  Viol",
- "Category": "MUSIC",
- "Weight" : 500,
- "Price" : 3000
-  },,
-"Dés": {
- "Name" : "Dés",
- "OV" : "  Dice set",
- "Category": "GAME",
- "Weight" : 0,
- "Price" : 10
-  },,
-"Jeu d'échecs drac</v>
+ "Weight" : </v>
       </c>
     </row>
   </sheetData>
@@ -59329,7 +59308,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="N2" sqref="N2:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -59381,7 +59360,7 @@
         <v>2873</v>
       </c>
       <c r="L1" s="188" t="s">
-        <v>2877</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -59432,7 +59411,7 @@
  ""Charisma"" : "&amp;I2&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(J2,",",".")&amp;",
  ""Resistances"" : ["&amp;K2&amp;"],
- ""Saves"" : ["&amp;L2&amp;"]
+ ""SaveAdvantages"" : ["&amp;L2&amp;"]
   }"</f>
         <v>"ELF": {
  "Id" : "ELF",
@@ -59446,7 +59425,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : ["Seduced"]
+ "SaveAdvantages" : ["Seduced"]
   }</v>
       </c>
     </row>
@@ -59498,7 +59477,7 @@
  ""Charisma"" : "&amp;I3&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(J3,",",".")&amp;",
  ""Resistances"" : ["&amp;K3&amp;"],
- ""Saves"" : ["&amp;L3&amp;"]
+ ""SaveAdvantages"" : ["&amp;L3&amp;"]
   }"</f>
         <v>"HALFELIN": {
  "Id" : "HALFELIN",
@@ -59512,7 +59491,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : ["Scared"]
+ "SaveAdvantages" : ["Scared"]
   }</v>
       </c>
     </row>
@@ -59563,7 +59542,7 @@
  "Charisma" : 1,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }</v>
       </c>
     </row>
@@ -59618,7 +59597,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"]
+ "SaveAdvantages" : ["Poisonned"]
   }</v>
       </c>
     </row>
@@ -59669,7 +59648,7 @@
  "Charisma" : 2,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }</v>
       </c>
     </row>
@@ -59720,7 +59699,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }</v>
       </c>
     </row>
@@ -59771,7 +59750,7 @@
  "Charisma" : 1,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }</v>
       </c>
     </row>
@@ -59824,7 +59803,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : ["Intelligence", "Wisdom", "Charisma"]
+ "SaveAdvantages" : ["Intelligence", "Wisdom", "Charisma"]
   }</v>
       </c>
     </row>
@@ -59875,7 +59854,7 @@
  "Charisma" : 2,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }</v>
       </c>
     </row>
@@ -59926,7 +59905,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }</v>
       </c>
     </row>
@@ -59977,7 +59956,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }</v>
       </c>
     </row>
@@ -60028,7 +60007,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }</v>
       </c>
     </row>
@@ -60058,7 +60037,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : ["Seduced"]
+ "SaveAdvantages" : ["Seduced"]
   },
 "HALFELIN": {
  "Id" : "HALFELIN",
@@ -60072,7 +60051,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : ["Scared"]
+ "SaveAdvantages" : ["Scared"]
   },
 "HUMAN": {
  "Id" : "HUMAN",
@@ -60086,7 +60065,7 @@
  "Charisma" : 1,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "DWARF": {
  "Id" : "DWARF",
@@ -60100,7 +60079,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"]
+ "SaveAdvantages" : ["Poisonned"]
   },
 "HALF_ELF": {
  "Id" : "HALF_ELF",
@@ -60114,7 +60093,7 @@
  "Charisma" : 2,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "HALF_ORC": {
  "Id" : "HALF_ORC",
@@ -60128,7 +60107,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "DRAGON_BORN": {
  "Id" : "DRAGON_BORN",
@@ -60142,7 +60121,7 @@
  "Charisma" : 1,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GNOME": {
  "Id" : "GNOME",
@@ -60156,7 +60135,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : ["Intelligence", "Wisdom", "Charisma"]
+ "SaveAdvantages" : ["Intelligence", "Wisdom", "Charisma"]
   },
 "TIEFFLING": {
  "Id" : "TIEFFLING",
@@ -60170,7 +60149,7 @@
  "Charisma" : 2,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "AARAKOCRA": {
  "Id" : "AARAKOCRA",
@@ -60184,7 +60163,7 @@
  "Charisma" : 0,
  "Speed" : 7.5,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GENASI": {
  "Id" : "GENASI",
@@ -60198,7 +60177,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   },
 "GOLIATH": {
  "Id" : "GOLIATH",
@@ -60212,7 +60191,7 @@
  "Charisma" : 0,
  "Speed" : 9,
  "Resistances" : [],
- "Saves" : []
+ "SaveAdvantages" : []
   }</v>
       </c>
     </row>
@@ -61783,8 +61762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -61842,7 +61821,7 @@
         <v>2873</v>
       </c>
       <c r="M1" s="146" t="s">
-        <v>2877</v>
+        <v>2924</v>
       </c>
       <c r="N1" s="188" t="s">
         <v>2801</v>
@@ -61901,7 +61880,7 @@
  ""Charisma"" : "&amp;J2&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K2,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L2,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L2,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L2,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N2&amp;"]
   }"</f>
         <v>"HIGH_ELF": {
@@ -61917,7 +61896,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -61974,7 +61953,7 @@
  ""Charisma"" : "&amp;J3&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K3,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L3,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L3,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L3,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N3&amp;"]
   }"</f>
         <v>"WOODEN_ELF": {
@@ -61990,7 +61969,7 @@
  "Charisma" : 0,
  "Speed" : 10.5,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62047,7 +62026,7 @@
  ""Charisma"" : "&amp;J4&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K4,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L4,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L4,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L4,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N4&amp;"]
   }"</f>
         <v>"DROW": {
@@ -62063,7 +62042,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62120,7 +62099,7 @@
  ""Charisma"" : "&amp;J5&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K5,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L5,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L5,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L5,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N5&amp;"]
   }"</f>
         <v>"LIGHT_FOOT_HALFELIN": {
@@ -62136,7 +62115,7 @@
  "Charisma" : 1,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62197,7 +62176,7 @@
  ""Charisma"" : "&amp;J6&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K6,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L6,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L6,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L6,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N6&amp;"]
   }"</f>
         <v>"ROBUST_HALFELIN": {
@@ -62213,7 +62192,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"],
+ "SaveAdvantages" : ["Poisonned"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62270,7 +62249,7 @@
  ""Charisma"" : "&amp;J7&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K7,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L7,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L7,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L7,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N7&amp;"]
   }"</f>
         <v>"HILLS_DWARF": {
@@ -62286,7 +62265,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62345,7 +62324,7 @@
  ""Charisma"" : "&amp;J8&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K8,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L8,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L8,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L8,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N8&amp;"]
   }"</f>
         <v>"MONTAINS_DWARF": {
@@ -62361,7 +62340,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : ["1_LIGHT", "2_MID"]
   }</v>
       </c>
@@ -62418,7 +62397,7 @@
  ""Charisma"" : "&amp;J9&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K9,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L9,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L9,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L9,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N9&amp;"]
   }"</f>
         <v>"FORESTS_GNOME": {
@@ -62434,7 +62413,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62491,7 +62470,7 @@
  ""Charisma"" : "&amp;J10&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K10,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L10,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L10,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L10,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N10&amp;"]
   }"</f>
         <v>"ROCKS_GNOME": {
@@ -62507,7 +62486,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62564,7 +62543,7 @@
  ""Charisma"" : "&amp;J11&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K11,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L11,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L11,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L11,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N11&amp;"]
   }"</f>
         <v>"DEPTH_GNOME": {
@@ -62580,7 +62559,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62637,7 +62616,7 @@
  ""Charisma"" : "&amp;J12&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K12,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L12,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L12,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L12,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N12&amp;"]
   }"</f>
         <v>"AIR_GENASI": {
@@ -62653,7 +62632,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62710,7 +62689,7 @@
  ""Charisma"" : "&amp;J13&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K13,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L13,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L13,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L13,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N13&amp;"]
   }"</f>
         <v>"EARTH_GENASI": {
@@ -62726,7 +62705,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62785,7 +62764,7 @@
  ""Charisma"" : "&amp;J14&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K14,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L14,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L14,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L14,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N14&amp;"]
   }"</f>
         <v>"FIRE_GENASI": {
@@ -62801,7 +62780,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62860,7 +62839,7 @@
  ""Charisma"" : "&amp;J15&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K15,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L15,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L15,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L15,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N15&amp;"]
   }"</f>
         <v>"WATER_GENASI": {
@@ -62876,7 +62855,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -62932,7 +62911,7 @@
  ""Charisma"" : "&amp;J16&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K16,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L16,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L16,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L16,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N16&amp;"]
   }"</f>
         <v>"HUMAN": {
@@ -62948,7 +62927,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63004,7 +62983,7 @@
  ""Charisma"" : "&amp;J17&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K17,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L17,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L17,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L17,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N17&amp;"]
   }"</f>
         <v>"HALF_ELF": {
@@ -63020,7 +62999,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63076,7 +63055,7 @@
  ""Charisma"" : "&amp;J18&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K18,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L18,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L18,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L18,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N18&amp;"]
   }"</f>
         <v>"HALF_ORC": {
@@ -63092,7 +63071,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63150,7 +63129,7 @@
  ""Charisma"" : "&amp;J19&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K19,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L19,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L19,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L19,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N19&amp;"]
   }"</f>
         <v>"WHITE_DRAGON": {
@@ -63166,7 +63145,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Cold"],
- "Saves" : ["Cold"],
+ "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63224,7 +63203,7 @@
  ""Charisma"" : "&amp;J20&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K20,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L20,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L20,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L20,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N20&amp;"]
   }"</f>
         <v>"BLUE_DRAGON": {
@@ -63240,7 +63219,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Electrified"],
- "Saves" : ["Electrified"],
+ "SaveAdvantages" : ["Electrified"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63298,7 +63277,7 @@
  ""Charisma"" : "&amp;J21&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K21,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L21,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L21,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L21,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N21&amp;"]
   }"</f>
         <v>"BLACK_DRAGON": {
@@ -63314,7 +63293,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63372,7 +63351,7 @@
  ""Charisma"" : "&amp;J22&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K22,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L22,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L22,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L22,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N22&amp;"]
   }"</f>
         <v>"RED_DRAGON": {
@@ -63388,7 +63367,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63446,7 +63425,7 @@
  ""Charisma"" : "&amp;J23&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K23,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L23,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L23,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L23,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N23&amp;"]
   }"</f>
         <v>"GREEN_DRAGON": {
@@ -63462,7 +63441,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"],
+ "SaveAdvantages" : ["Poisonned"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63520,7 +63499,7 @@
  ""Charisma"" : "&amp;J24&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K24,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L24,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L24,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L24,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N24&amp;"]
   }"</f>
         <v>"BRASS_DRAGON": {
@@ -63536,7 +63515,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63594,7 +63573,7 @@
  ""Charisma"" : "&amp;J25&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K25,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L25,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L25,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L25,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N25&amp;"]
   }"</f>
         <v>"SILVER_DRAGON": {
@@ -63610,7 +63589,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Cold"],
- "Saves" : ["Cold"],
+ "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63668,7 +63647,7 @@
  ""Charisma"" : "&amp;J26&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K26,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L26,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L26,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L26,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N26&amp;"]
   }"</f>
         <v>"BRONZE_DRAGON": {
@@ -63684,7 +63663,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Electrified"],
- "Saves" : ["Electrified"],
+ "SaveAdvantages" : ["Electrified"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63742,7 +63721,7 @@
  ""Charisma"" : "&amp;J27&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K27,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L27,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L27,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L27,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N27&amp;"]
   }"</f>
         <v>"COPPER_DRAGON": {
@@ -63758,7 +63737,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63816,7 +63795,7 @@
  ""Charisma"" : "&amp;J28&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K28,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L28,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L28,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L28,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N28&amp;"]
   }"</f>
         <v>"GOLD_DRAGON": {
@@ -63832,7 +63811,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63890,7 +63869,7 @@
  ""Charisma"" : "&amp;J29&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K29,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L29,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L29,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L29,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N29&amp;"]
   }"</f>
         <v>"TIEFFLING": {
@@ -63906,7 +63885,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -63962,7 +63941,7 @@
  ""Charisma"" : "&amp;J30&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K30,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L30,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L30,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L30,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N30&amp;"]
   }"</f>
         <v>"AARAKOCRA": {
@@ -63978,7 +63957,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -64034,7 +64013,7 @@
  ""Charisma"" : "&amp;J31&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K31,",",".")&amp;",
  ""Resistances"" : ["&amp;SUBSTITUTE(L31,",",".")&amp;"],
- ""Saves"" : ["&amp;SUBSTITUTE(L31,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L31,",",".")&amp;"],
  ""ArmorCategories"" : ["&amp;'Sous-races'!N31&amp;"]
   }"</f>
         <v>"GOLIATH": {
@@ -64050,7 +64029,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -64104,7 +64083,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "WOODEN_ELF": {
@@ -64120,7 +64099,7 @@
  "Charisma" : 0,
  "Speed" : 10.5,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "DROW": {
@@ -64136,7 +64115,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "LIGHT_FOOT_HALFELIN": {
@@ -64152,7 +64131,7 @@
  "Charisma" : 1,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "ROBUST_HALFELIN": {
@@ -64168,7 +64147,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"],
+ "SaveAdvantages" : ["Poisonned"],
  "ArmorCategories" : []
   },
 "HILLS_DWARF": {
@@ -64184,7 +64163,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "MONTAINS_DWARF": {
@@ -64200,7 +64179,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : ["1_LIGHT", "2_MID"]
   },
 "FORESTS_GNOME": {
@@ -64216,7 +64195,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "ROCKS_GNOME": {
@@ -64232,7 +64211,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "DEPTH_GNOME": {
@@ -64248,7 +64227,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "AIR_GENASI": {
@@ -64264,7 +64243,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "EARTH_GENASI": {
@@ -64280,7 +64259,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "FIRE_GENASI": {
@@ -64296,7 +64275,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "WATER_GENASI": {
@@ -64312,7 +64291,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "HUMAN": {
@@ -64328,7 +64307,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "HALF_ELF": {
@@ -64344,7 +64323,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "HALF_ORC": {
@@ -64360,7 +64339,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "WHITE_DRAGON": {
@@ -64376,7 +64355,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Cold"],
- "Saves" : ["Cold"],
+ "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   },
 "BLUE_DRAGON": {
@@ -64392,7 +64371,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Electrified"],
- "Saves" : ["Electrified"],
+ "SaveAdvantages" : ["Electrified"],
  "ArmorCategories" : []
   },
 "BLACK_DRAGON": {
@@ -64408,7 +64387,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "RED_DRAGON": {
@@ -64424,7 +64403,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "GREEN_DRAGON": {
@@ -64440,7 +64419,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Poisonned"],
- "Saves" : ["Poisonned"],
+ "SaveAdvantages" : ["Poisonned"],
  "ArmorCategories" : []
   },
 "BRASS_DRAGON": {
@@ -64456,7 +64435,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "SILVER_DRAGON": {
@@ -64472,7 +64451,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Cold"],
- "Saves" : ["Cold"],
+ "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   },
 "BRONZE_DRAGON": {
@@ -64488,7 +64467,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Electrified"],
- "Saves" : ["Electrified"],
+ "SaveAdvantages" : ["Electrified"],
  "ArmorCategories" : []
   },
 "COPPER_DRAGON": {
@@ -64504,7 +64483,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Acidified"],
- "Saves" : ["Acidified"],
+ "SaveAdvantages" : ["Acidified"],
  "ArmorCategories" : []
   },
 "GOLD_DRAGON": {
@@ -64520,7 +64499,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "TIEFFLING": {
@@ -64536,7 +64515,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : ["Burned"],
- "Saves" : ["Burned"],
+ "SaveAdvantages" : ["Burned"],
  "ArmorCategories" : []
   },
 "AARAKOCRA": {
@@ -64552,7 +64531,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   },
 "GOLIATH": {
@@ -64568,7 +64547,7 @@
  "Charisma" : 0,
  "Speed" : 0,
  "Resistances" : [],
- "Saves" : [],
+ "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
@@ -64610,11 +64589,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -64629,7 +64608,8 @@
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="13" width="35.140625" customWidth="1"/>
     <col min="14" max="14" width="53" customWidth="1"/>
-    <col min="15" max="16" width="41.7109375" customWidth="1"/>
+    <col min="15" max="15" width="41.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
     <col min="17" max="17" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -64676,10 +64656,10 @@
       <c r="N1" s="146" t="s">
         <v>2798</v>
       </c>
-      <c r="O1" s="188" t="s">
+      <c r="O1" s="146" t="s">
         <v>2801</v>
       </c>
-      <c r="P1" s="146" t="s">
+      <c r="P1" s="188" t="s">
         <v>2877</v>
       </c>
       <c r="Q1" s="100"/>
@@ -65344,7 +65324,7 @@
         <v>2805</v>
       </c>
       <c r="N11" s="187"/>
-      <c r="O11" s="239" t="s">
+      <c r="O11" s="226" t="s">
         <v>2912</v>
       </c>
       <c r="P11" s="198" t="s">
@@ -65478,7 +65458,7 @@
         <v>2799</v>
       </c>
       <c r="N13" s="189"/>
-      <c r="O13" s="240" t="s">
+      <c r="O13" s="227" t="s">
         <v>2911</v>
       </c>
       <c r="P13" s="199" t="s">
@@ -65773,58 +65753,58 @@
   <sheetData>
     <row r="1" spans="1:112">
       <c r="A1" s="176"/>
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="230" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="226" t="s">
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="231" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="227"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="230"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="230"/>
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="230"/>
+      <c r="S1" s="230"/>
       <c r="T1" s="164"/>
-      <c r="U1" s="227" t="s">
+      <c r="U1" s="230" t="s">
         <v>387</v>
       </c>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="227"/>
-      <c r="AA1" s="227"/>
-      <c r="AB1" s="227"/>
-      <c r="AC1" s="227"/>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="227"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="230"/>
+      <c r="AA1" s="230"/>
+      <c r="AB1" s="230"/>
+      <c r="AC1" s="230"/>
+      <c r="AD1" s="230"/>
+      <c r="AE1" s="230"/>
+      <c r="AF1" s="230"/>
       <c r="AG1" s="150"/>
-      <c r="AH1" s="226" t="s">
+      <c r="AH1" s="231" t="s">
         <v>388</v>
       </c>
-      <c r="AI1" s="227"/>
-      <c r="AJ1" s="227"/>
-      <c r="AK1" s="227"/>
-      <c r="AL1" s="227"/>
-      <c r="AM1" s="227"/>
-      <c r="AN1" s="227"/>
-      <c r="AO1" s="227"/>
-      <c r="AP1" s="227"/>
-      <c r="AQ1" s="227"/>
-      <c r="AR1" s="227"/>
-      <c r="AS1" s="228"/>
+      <c r="AI1" s="230"/>
+      <c r="AJ1" s="230"/>
+      <c r="AK1" s="230"/>
+      <c r="AL1" s="230"/>
+      <c r="AM1" s="230"/>
+      <c r="AN1" s="230"/>
+      <c r="AO1" s="230"/>
+      <c r="AP1" s="230"/>
+      <c r="AQ1" s="230"/>
+      <c r="AR1" s="230"/>
+      <c r="AS1" s="232"/>
       <c r="AT1" s="150"/>
       <c r="AU1" s="229" t="s">
         <v>389</v>
@@ -65843,70 +65823,70 @@
       <c r="BG1" s="229"/>
       <c r="BH1" s="229"/>
       <c r="BI1" s="160"/>
-      <c r="BJ1" s="226" t="s">
+      <c r="BJ1" s="231" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="227"/>
+      <c r="BK1" s="230"/>
       <c r="BL1" s="164"/>
-      <c r="BM1" s="227" t="s">
+      <c r="BM1" s="230" t="s">
         <v>391</v>
       </c>
-      <c r="BN1" s="227"/>
-      <c r="BO1" s="227"/>
-      <c r="BP1" s="227"/>
-      <c r="BQ1" s="227"/>
-      <c r="BR1" s="227"/>
-      <c r="BS1" s="227"/>
-      <c r="BT1" s="227"/>
-      <c r="BU1" s="227"/>
-      <c r="BV1" s="227"/>
-      <c r="BW1" s="227"/>
-      <c r="BX1" s="227"/>
+      <c r="BN1" s="230"/>
+      <c r="BO1" s="230"/>
+      <c r="BP1" s="230"/>
+      <c r="BQ1" s="230"/>
+      <c r="BR1" s="230"/>
+      <c r="BS1" s="230"/>
+      <c r="BT1" s="230"/>
+      <c r="BU1" s="230"/>
+      <c r="BV1" s="230"/>
+      <c r="BW1" s="230"/>
+      <c r="BX1" s="230"/>
       <c r="BY1" s="150"/>
-      <c r="BZ1" s="226" t="s">
+      <c r="BZ1" s="231" t="s">
         <v>393</v>
       </c>
-      <c r="CA1" s="227"/>
-      <c r="CB1" s="227"/>
-      <c r="CC1" s="227"/>
-      <c r="CD1" s="227"/>
+      <c r="CA1" s="230"/>
+      <c r="CB1" s="230"/>
+      <c r="CC1" s="230"/>
+      <c r="CD1" s="230"/>
       <c r="CE1" s="164"/>
-      <c r="CF1" s="226" t="s">
+      <c r="CF1" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="CG1" s="227"/>
-      <c r="CH1" s="227"/>
-      <c r="CI1" s="227"/>
-      <c r="CJ1" s="227"/>
-      <c r="CK1" s="227"/>
-      <c r="CL1" s="227"/>
+      <c r="CG1" s="230"/>
+      <c r="CH1" s="230"/>
+      <c r="CI1" s="230"/>
+      <c r="CJ1" s="230"/>
+      <c r="CK1" s="230"/>
+      <c r="CL1" s="230"/>
       <c r="CM1" s="164"/>
-      <c r="CN1" s="227" t="s">
+      <c r="CN1" s="230" t="s">
         <v>394</v>
       </c>
-      <c r="CO1" s="227"/>
-      <c r="CP1" s="227"/>
-      <c r="CQ1" s="227"/>
-      <c r="CR1" s="227"/>
-      <c r="CS1" s="227"/>
-      <c r="CT1" s="227"/>
-      <c r="CU1" s="227"/>
+      <c r="CO1" s="230"/>
+      <c r="CP1" s="230"/>
+      <c r="CQ1" s="230"/>
+      <c r="CR1" s="230"/>
+      <c r="CS1" s="230"/>
+      <c r="CT1" s="230"/>
+      <c r="CU1" s="230"/>
       <c r="CV1" s="150"/>
-      <c r="CW1" s="230" t="s">
+      <c r="CW1" s="228" t="s">
         <v>395</v>
       </c>
       <c r="CX1" s="229"/>
       <c r="CY1" s="229"/>
       <c r="CZ1" s="174"/>
-      <c r="DA1" s="227" t="s">
+      <c r="DA1" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DB1" s="227"/>
-      <c r="DC1" s="227"/>
-      <c r="DD1" s="227"/>
-      <c r="DE1" s="227"/>
-      <c r="DF1" s="227"/>
-      <c r="DG1" s="227"/>
+      <c r="DB1" s="230"/>
+      <c r="DC1" s="230"/>
+      <c r="DD1" s="230"/>
+      <c r="DE1" s="230"/>
+      <c r="DF1" s="230"/>
+      <c r="DG1" s="230"/>
       <c r="DH1" s="185"/>
     </row>
     <row r="2" spans="1:112" s="122" customFormat="1" ht="15" customHeight="1">
@@ -80446,6 +80426,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:AF1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DG1"/>
     <mergeCell ref="CF1:CL1"/>
@@ -80453,11 +80438,6 @@
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BM1:BX1"/>
     <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="G1:S1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -80990,16 +80970,16 @@
       <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="235"/>
       <c r="I2" s="109"/>
       <c r="J2" s="109"/>
       <c r="K2" s="110"/>
@@ -81554,16 +81534,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="234" t="s">
+      <c r="A13" s="236" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="236"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="238"/>
       <c r="I13" s="109"/>
       <c r="J13" s="109"/>
       <c r="K13" s="112"/>
@@ -81782,16 +81762,16 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="A18" s="234" t="s">
+      <c r="A18" s="236" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="235"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="235"/>
-      <c r="H18" s="236"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="237"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="237"/>
+      <c r="G18" s="237"/>
+      <c r="H18" s="238"/>
       <c r="I18" s="109"/>
       <c r="J18" s="109"/>
       <c r="K18" s="112"/>
@@ -82752,16 +82732,16 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1">
-      <c r="A37" s="234" t="s">
+      <c r="A37" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="235"/>
-      <c r="C37" s="235"/>
-      <c r="D37" s="235"/>
-      <c r="E37" s="235"/>
-      <c r="F37" s="235"/>
-      <c r="G37" s="235"/>
-      <c r="H37" s="236"/>
+      <c r="B37" s="237"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="237"/>
+      <c r="E37" s="237"/>
+      <c r="F37" s="237"/>
+      <c r="G37" s="237"/>
+      <c r="H37" s="238"/>
       <c r="I37" s="109"/>
       <c r="J37" s="109"/>
       <c r="K37" s="112"/>
@@ -83495,17 +83475,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="239" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -83692,17 +83672,17 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="239" t="s">
         <v>499</v>
       </c>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="239"/>
+      <c r="I6" s="239"/>
       <c r="J6" s="123"/>
       <c r="L6" s="125"/>
       <c r="M6" s="125"/>
@@ -83989,17 +83969,17 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="237" t="s">
+      <c r="A12" s="239" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="237"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="237"/>
-      <c r="E12" s="237"/>
-      <c r="F12" s="237"/>
-      <c r="G12" s="237"/>
-      <c r="H12" s="237"/>
-      <c r="I12" s="237"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="239"/>
       <c r="J12" s="123"/>
       <c r="L12" s="125"/>
       <c r="M12" s="125"/>
@@ -84214,17 +84194,17 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="238" t="s">
+      <c r="A17" s="240" t="s">
         <v>530</v>
       </c>
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
-      <c r="F17" s="238"/>
-      <c r="G17" s="238"/>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="240"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="240"/>
+      <c r="I17" s="240"/>
       <c r="J17" s="123"/>
       <c r="K17" s="124"/>
       <c r="L17" s="125"/>

--- a/Donjons_et_dragons.xlsx
+++ b/Donjons_et_dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Niveaux" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5629" uniqueCount="2925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5629" uniqueCount="2926">
   <si>
     <t>Niveau</t>
   </si>
@@ -9856,30 +9856,6 @@
     <t>0_SHIELD</t>
   </si>
   <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>LN</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
     <t>Loyal bon</t>
   </si>
   <si>
@@ -10199,6 +10175,33 @@
   </si>
   <si>
     <t>Avantages de sauvegardes</t>
+  </si>
+  <si>
+    <t>1_LB</t>
+  </si>
+  <si>
+    <t>2_NB</t>
+  </si>
+  <si>
+    <t>3_CB</t>
+  </si>
+  <si>
+    <t>4_LN</t>
+  </si>
+  <si>
+    <t>5_NB</t>
+  </si>
+  <si>
+    <t>6_CN</t>
+  </si>
+  <si>
+    <t>7_LM</t>
+  </si>
+  <si>
+    <t>8_NM</t>
+  </si>
+  <si>
+    <t>9_CM</t>
   </si>
 </sst>
 </file>
@@ -11313,20 +11316,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -44733,8 +44736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44757,13 +44760,13 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="200" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B2" s="201" t="s">
         <v>2810</v>
       </c>
-      <c r="B2" s="201" t="s">
-        <v>2818</v>
-      </c>
       <c r="C2" s="202" t="s">
-        <v>2827</v>
+        <v>2819</v>
       </c>
       <c r="E2" t="str">
         <f>""""&amp;A2&amp;""": {
@@ -44771,8 +44774,8 @@
   ""Name"" : """&amp;B2&amp;""",
   ""Description"" : """&amp;C2&amp;"""
    }"</f>
-        <v>"LB": {
-  "Code" : "LB",
+        <v>"1_LB": {
+  "Code" : "1_LB",
   "Name" : "Loyal bon",
   "Description" : "On peut compter sur ces créatures pour faire le bien dans le sens ou la société l'entend. Les dragons d'or, les paladins et la plupart des nains sont d'alignement loyal bon."
    }</v>
@@ -44780,13 +44783,13 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="86" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>2811</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>2819</v>
-      </c>
       <c r="C3" s="203" t="s">
-        <v>2830</v>
+        <v>2822</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E10" si="0">""""&amp;A3&amp;""": {
@@ -44794,8 +44797,8 @@
   ""Name"" : """&amp;B3&amp;""",
   ""Description"" : """&amp;C3&amp;"""
    }"</f>
-        <v>"NB": {
-  "Code" : "NB",
+        <v>"2_NB": {
+  "Code" : "2_NB",
   "Name" : "Neutre bon ",
   "Description" : "Ces personnes font du mieux qu'elles peuvent pour aider les autres, en fonction de leurs besoins toutefois. Beaucoup des créatures célestes, certains géants des nuages et la plupart des gnomes sont neutre bon."
    }</v>
@@ -44803,18 +44806,18 @@
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="86" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>2812</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>2820</v>
-      </c>
       <c r="C4" s="203" t="s">
-        <v>2829</v>
+        <v>2821</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>"CB": {
-  "Code" : "CB",
+        <v>"3_CB": {
+  "Code" : "3_CB",
   "Name" : "Chaotique bon",
   "Description" : "Ces créatures agissent selon leur conscience, et ont peu d'égard pour ce que les autres attendent. Les dragons de cuivre, de nombreux elfes et les licornes sont d'alignement chaotique bon."
    }</v>
@@ -44822,18 +44825,18 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
       <c r="A5" s="86" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>2813</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>2821</v>
-      </c>
       <c r="C5" s="203" t="s">
-        <v>2828</v>
+        <v>2820</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>"LN": {
-  "Code" : "LN",
+        <v>"4_LN": {
+  "Code" : "4_LN",
   "Name" : "Loyal neutre",
   "Description" : "Ces individus agissent conformément à la loi, aux traditions ou suivants des codes personnels. Beaucoup de moines et quelques magiciens sont d'alignement loyal neutre."
    }</v>
@@ -44841,18 +44844,18 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="86" t="s">
-        <v>2811</v>
+        <v>2921</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>2826</v>
+        <v>2818</v>
       </c>
       <c r="C6" s="203" t="s">
-        <v>2832</v>
+        <v>2824</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>"NB": {
-  "Code" : "NB",
+        <v>"5_NB": {
+  "Code" : "5_NB",
   "Name" : "Neutre",
   "Description" : "Neutre est l'alignement de ceux qui préfèrent rester à l'écart des questions morales et ne prennent pas parti, faisant ce qui leur semble le mieux à un moment donné. Les hommes-lézards, la plupart des druides et beaucoup d'humains sont neutres."
    }</v>
@@ -44860,18 +44863,18 @@
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
       <c r="A7" s="86" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>2814</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>2822</v>
-      </c>
       <c r="C7" s="203" t="s">
-        <v>2831</v>
+        <v>2823</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>"CN": {
-  "Code" : "CN",
+        <v>"6_CN": {
+  "Code" : "6_CN",
   "Name" : "Chaotique neutre",
   "Description" : "Ces créatures suivent leurs caprices, pensant à leur liberté personnelle avant tout. Beaucoup de barbares, de roublards et de bardes sont d'alignement chaotique neutre."
    }</v>
@@ -44879,13 +44882,13 @@
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1">
       <c r="A8" s="86" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>2815</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>2823</v>
-      </c>
       <c r="C8" s="203" t="s">
-        <v>2833</v>
+        <v>2825</v>
       </c>
       <c r="E8" t="str">
         <f>""""&amp;A8&amp;""": {
@@ -44893,8 +44896,8 @@
   ""Name"" : """&amp;B8&amp;""",
   ""Description"" : """&amp;C8&amp;"""
    }"</f>
-        <v>"LM": {
-  "Code" : "LM",
+        <v>"7_LM": {
+  "Code" : "7_LM",
   "Name" : "Loyal mauvais",
   "Description" : "Ces créatures font méthodiquement ce qu'elles veulent, dans les limites d'un code de tradition, de la loyauté ou d'un ordre. Les diables, les dragons bleus et les hobgobelins sont d'alignement loyal mauvais."
    }</v>
@@ -44902,18 +44905,18 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
       <c r="A9" s="86" t="s">
-        <v>2816</v>
+        <v>2924</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>2825</v>
+        <v>2817</v>
       </c>
       <c r="C9" s="203" t="s">
-        <v>2834</v>
+        <v>2826</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>"NM": {
-  "Code" : "NM",
+        <v>"8_NM": {
+  "Code" : "8_NM",
   "Name" : "Neutre mauvais",
   "Description" : "Neutre mauvais est l'alignement de ceux qui font ce qu'ils veulent, sans aucune compassion ni aucun scrupule. Beaucoup d'elfes noirs, certains géants des nuages?, et les yugoloths sont d'alignement neutre mauvais."
    }</v>
@@ -44921,18 +44924,18 @@
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10" s="89" t="s">
-        <v>2817</v>
+        <v>2925</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>2824</v>
+        <v>2816</v>
       </c>
       <c r="C10" s="204" t="s">
-        <v>2835</v>
+        <v>2827</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>"CM": {
-  "Code" : "CM",
+        <v>"9_CM": {
+  "Code" : "9_CM",
   "Name" : "Chaotique mauvais",
   "Description" : "Ces créatures agissent avec une violence arbitraire, stimulées par la cupidité, la haine ou la soif de sang. Les démons, les dragons rouges et les orques sont d'alignement chaotique mauvais."
    }</v>
@@ -44950,48 +44953,48 @@
 ",E8,",
 ",E9,",
 ",E10)</f>
-        <v>"LB": {
-  "Code" : "LB",
+        <v>"1_LB": {
+  "Code" : "1_LB",
   "Name" : "Loyal bon",
   "Description" : "On peut compter sur ces créatures pour faire le bien dans le sens ou la société l'entend. Les dragons d'or, les paladins et la plupart des nains sont d'alignement loyal bon."
    },
-"NB": {
-  "Code" : "NB",
+"2_NB": {
+  "Code" : "2_NB",
   "Name" : "Neutre bon ",
   "Description" : "Ces personnes font du mieux qu'elles peuvent pour aider les autres, en fonction de leurs besoins toutefois. Beaucoup des créatures célestes, certains géants des nuages et la plupart des gnomes sont neutre bon."
    },
-"CB": {
-  "Code" : "CB",
+"3_CB": {
+  "Code" : "3_CB",
   "Name" : "Chaotique bon",
   "Description" : "Ces créatures agissent selon leur conscience, et ont peu d'égard pour ce que les autres attendent. Les dragons de cuivre, de nombreux elfes et les licornes sont d'alignement chaotique bon."
    },
-"LN": {
-  "Code" : "LN",
+"4_LN": {
+  "Code" : "4_LN",
   "Name" : "Loyal neutre",
   "Description" : "Ces individus agissent conformément à la loi, aux traditions ou suivants des codes personnels. Beaucoup de moines et quelques magiciens sont d'alignement loyal neutre."
    },
-"NB": {
-  "Code" : "NB",
+"5_NB": {
+  "Code" : "5_NB",
   "Name" : "Neutre",
   "Description" : "Neutre est l'alignement de ceux qui préfèrent rester à l'écart des questions morales et ne prennent pas parti, faisant ce qui leur semble le mieux à un moment donné. Les hommes-lézards, la plupart des druides et beaucoup d'humains sont neutres."
    },
-"CN": {
-  "Code" : "CN",
+"6_CN": {
+  "Code" : "6_CN",
   "Name" : "Chaotique neutre",
   "Description" : "Ces créatures suivent leurs caprices, pensant à leur liberté personnelle avant tout. Beaucoup de barbares, de roublards et de bardes sont d'alignement chaotique neutre."
    },
-"LM": {
-  "Code" : "LM",
+"7_LM": {
+  "Code" : "7_LM",
   "Name" : "Loyal mauvais",
   "Description" : "Ces créatures font méthodiquement ce qu'elles veulent, dans les limites d'un code de tradition, de la loyauté ou d'un ordre. Les diables, les dragons bleus et les hobgobelins sont d'alignement loyal mauvais."
    },
-"NM": {
-  "Code" : "NM",
+"8_NM": {
+  "Code" : "8_NM",
   "Name" : "Neutre mauvais",
   "Description" : "Neutre mauvais est l'alignement de ceux qui font ce qu'ils veulent, sans aucune compassion ni aucun scrupule. Beaucoup d'elfes noirs, certains géants des nuages?, et les yugoloths sont d'alignement neutre mauvais."
    },
-"CM": {
-  "Code" : "CM",
+"9_CM": {
+  "Code" : "9_CM",
   "Name" : "Chaotique mauvais",
   "Description" : "Ces créatures agissent avec une violence arbitraire, stimulées par la cupidité, la haine ou la soif de sang. Les démons, les dragons rouges et les orques sont d'alignement chaotique mauvais."
    }</v>
@@ -45021,30 +45024,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="205" t="s">
-        <v>2853</v>
+        <v>2845</v>
       </c>
       <c r="B1" s="206" t="s">
-        <v>2837</v>
+        <v>2829</v>
       </c>
       <c r="C1" s="206" t="s">
-        <v>2838</v>
+        <v>2830</v>
       </c>
       <c r="D1" s="206" t="s">
-        <v>2839</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="106" t="s">
-        <v>2854</v>
+        <v>2846</v>
       </c>
       <c r="B2" s="207" t="s">
-        <v>2840</v>
+        <v>2832</v>
       </c>
       <c r="C2" s="207" t="s">
-        <v>2841</v>
+        <v>2833</v>
       </c>
       <c r="D2" s="208" t="s">
-        <v>2840</v>
+        <v>2832</v>
       </c>
       <c r="F2" t="str">
         <f>""""&amp;B2&amp;""": {
@@ -45063,16 +45066,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="86" t="s">
-        <v>2854</v>
+        <v>2846</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>2842</v>
+        <v>2834</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>2843</v>
+        <v>2835</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>2842</v>
+        <v>2834</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F17" si="0">""""&amp;B3&amp;""": {
@@ -45091,13 +45094,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="91" t="s">
-        <v>2854</v>
+        <v>2846</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>2844</v>
+        <v>2836</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>2845</v>
+        <v>2837</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>410</v>
@@ -45114,13 +45117,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="86" t="s">
-        <v>2854</v>
+        <v>2846</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>403</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>2846</v>
+        <v>2838</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>410</v>
@@ -45137,13 +45140,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="91" t="s">
-        <v>2854</v>
+        <v>2846</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>2847</v>
+        <v>2839</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>2848</v>
+        <v>2840</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>410</v>
@@ -45160,16 +45163,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="86" t="s">
-        <v>2854</v>
+        <v>2846</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>397</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>2849</v>
+        <v>2841</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>2840</v>
+        <v>2832</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -45183,13 +45186,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="91" t="s">
-        <v>2854</v>
+        <v>2846</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>410</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>2850</v>
+        <v>2842</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>410</v>
@@ -45206,13 +45209,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="86" t="s">
-        <v>2854</v>
+        <v>2846</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>2851</v>
+        <v>2843</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>2852</v>
+        <v>2844</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>410</v>
@@ -45229,16 +45232,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="91" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>2855</v>
+        <v>2847</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>2856</v>
+        <v>2848</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -45252,16 +45255,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="86" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>2858</v>
+        <v>2850</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>2859</v>
+        <v>2851</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>2858</v>
+        <v>2850</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -45275,16 +45278,16 @@
     </row>
     <row r="12" spans="1:6" ht="25.5">
       <c r="A12" s="91" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>2860</v>
+        <v>2852</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>2861</v>
+        <v>2853</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>2842</v>
+        <v>2834</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -45298,16 +45301,16 @@
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1">
       <c r="A13" s="86" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>2862</v>
+        <v>2854</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>2863</v>
+        <v>2855</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>2862</v>
+        <v>2854</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -45321,16 +45324,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="91" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>2864</v>
+        <v>2856</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -45344,13 +45347,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="86" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>2865</v>
+        <v>2857</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>2866</v>
+        <v>2858</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>410</v>
@@ -45367,13 +45370,13 @@
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" s="91" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>2867</v>
+        <v>2859</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>2868</v>
+        <v>2860</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>50</v>
@@ -45390,16 +45393,16 @@
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="89" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="B17" s="157" t="s">
-        <v>2869</v>
+        <v>2861</v>
       </c>
       <c r="C17" s="157" t="s">
-        <v>2870</v>
+        <v>2862</v>
       </c>
       <c r="D17" s="209" t="s">
-        <v>2842</v>
+        <v>2834</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -57402,52 +57405,52 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2836</v>
+        <v>2828</v>
       </c>
       <c r="B25" t="str">
         <f>Alignements!E12</f>
-        <v>"LB": {
-  "Code" : "LB",
+        <v>"1_LB": {
+  "Code" : "1_LB",
   "Name" : "Loyal bon",
   "Description" : "On peut compter sur ces créatures pour faire le bien dans le sens ou la société l'entend. Les dragons d'or, les paladins et la plupart des nains sont d'alignement loyal bon."
    },
-"NB": {
-  "Code" : "NB",
+"2_NB": {
+  "Code" : "2_NB",
   "Name" : "Neutre bon ",
   "Description" : "Ces personnes font du mieux qu'elles peuvent pour aider les autres, en fonction de leurs besoins toutefois. Beaucoup des créatures célestes, certains géants des nuages et la plupart des gnomes sont neutre bon."
    },
-"CB": {
-  "Code" : "CB",
+"3_CB": {
+  "Code" : "3_CB",
   "Name" : "Chaotique bon",
   "Description" : "Ces créatures agissent selon leur conscience, et ont peu d'égard pour ce que les autres attendent. Les dragons de cuivre, de nombreux elfes et les licornes sont d'alignement chaotique bon."
    },
-"LN": {
-  "Code" : "LN",
+"4_LN": {
+  "Code" : "4_LN",
   "Name" : "Loyal neutre",
   "Description" : "Ces individus agissent conformément à la loi, aux traditions ou suivants des codes personnels. Beaucoup de moines et quelques magiciens sont d'alignement loyal neutre."
    },
-"NB": {
-  "Code" : "NB",
+"5_NB": {
+  "Code" : "5_NB",
   "Name" : "Neutre",
   "Description" : "Neutre est l'alignement de ceux qui préfèrent rester à l'écart des questions morales et ne prennent pas parti, faisant ce qui leur semble le mieux à un moment donné. Les hommes-lézards, la plupart des druides et beaucoup d'humains sont neutres."
    },
-"CN": {
-  "Code" : "CN",
+"6_CN": {
+  "Code" : "6_CN",
   "Name" : "Chaotique neutre",
   "Description" : "Ces créatures suivent leurs caprices, pensant à leur liberté personnelle avant tout. Beaucoup de barbares, de roublards et de bardes sont d'alignement chaotique neutre."
    },
-"LM": {
-  "Code" : "LM",
+"7_LM": {
+  "Code" : "7_LM",
   "Name" : "Loyal mauvais",
   "Description" : "Ces créatures font méthodiquement ce qu'elles veulent, dans les limites d'un code de tradition, de la loyauté ou d'un ordre. Les diables, les dragons bleus et les hobgobelins sont d'alignement loyal mauvais."
    },
-"NM": {
-  "Code" : "NM",
+"8_NM": {
+  "Code" : "8_NM",
   "Name" : "Neutre mauvais",
   "Description" : "Neutre mauvais est l'alignement de ceux qui font ce qu'ils veulent, sans aucune compassion ni aucun scrupule. Beaucoup d'elfes noirs, certains géants des nuages?, et les yugoloths sont d'alignement neutre mauvais."
    },
-"CM": {
-  "Code" : "CM",
+"9_CM": {
+  "Code" : "9_CM",
   "Name" : "Chaotique mauvais",
   "Description" : "Ces créatures agissent avec une violence arbitraire, stimulées par la cupidité, la haine ou la soif de sang. Les démons, les dragons rouges et les orques sont d'alignement chaotique mauvais."
    }</v>
@@ -57455,7 +57458,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2872</v>
+        <v>2864</v>
       </c>
       <c r="B26" t="str">
         <f>Langues!F19</f>
@@ -59357,10 +59360,10 @@
         <v>444</v>
       </c>
       <c r="K1" s="146" t="s">
-        <v>2873</v>
+        <v>2865</v>
       </c>
       <c r="L1" s="188" t="s">
-        <v>2924</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -59396,7 +59399,7 @@
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="87" t="s">
-        <v>2915</v>
+        <v>2907</v>
       </c>
       <c r="N2" t="str">
         <f>""""&amp;A2&amp;""": {
@@ -59462,7 +59465,7 @@
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="88" t="s">
-        <v>2914</v>
+        <v>2906</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N13" si="0">""""&amp;A3&amp;""": {
@@ -59578,10 +59581,10 @@
         <v>7.5</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>2876</v>
+        <v>2868</v>
       </c>
       <c r="L5" s="88" t="s">
-        <v>2876</v>
+        <v>2868</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
@@ -59787,7 +59790,7 @@
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="88" t="s">
-        <v>2916</v>
+        <v>2908</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="0"/>
@@ -61762,7 +61765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -61818,10 +61821,10 @@
         <v>444</v>
       </c>
       <c r="L1" s="146" t="s">
-        <v>2873</v>
+        <v>2865</v>
       </c>
       <c r="M1" s="146" t="s">
-        <v>2924</v>
+        <v>2916</v>
       </c>
       <c r="N1" s="188" t="s">
         <v>2801</v>
@@ -62155,10 +62158,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="216" t="s">
-        <v>2876</v>
+        <v>2868</v>
       </c>
       <c r="M6" s="216" t="s">
-        <v>2876</v>
+        <v>2868</v>
       </c>
       <c r="N6" s="148"/>
       <c r="O6" s="96"/>
@@ -62307,7 +62310,7 @@
       <c r="L8" s="216"/>
       <c r="M8" s="216"/>
       <c r="N8" s="148" t="s">
-        <v>2910</v>
+        <v>2902</v>
       </c>
       <c r="O8" s="96"/>
       <c r="P8" t="str">
@@ -62745,7 +62748,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="216" t="s">
-        <v>2874</v>
+        <v>2866</v>
       </c>
       <c r="M14" s="216"/>
       <c r="N14" s="139"/>
@@ -62820,7 +62823,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="214" t="s">
-        <v>2875</v>
+        <v>2867</v>
       </c>
       <c r="M15" s="214"/>
       <c r="N15" s="138"/>
@@ -63081,13 +63084,13 @@
         <v>379</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>2878</v>
+        <v>2870</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>2888</v>
+        <v>2880</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>2898</v>
+        <v>2890</v>
       </c>
       <c r="E19" s="95">
         <v>0</v>
@@ -63111,7 +63114,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="218" t="s">
-        <v>2908</v>
+        <v>2900</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="138"/>
@@ -63155,13 +63158,13 @@
         <v>379</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>2879</v>
+        <v>2871</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>2889</v>
+        <v>2881</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>2899</v>
+        <v>2891</v>
       </c>
       <c r="E20" s="101">
         <v>0</v>
@@ -63185,7 +63188,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="217" t="s">
-        <v>2909</v>
+        <v>2901</v>
       </c>
       <c r="M20" s="217"/>
       <c r="N20" s="145"/>
@@ -63229,13 +63232,13 @@
         <v>379</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>2880</v>
+        <v>2872</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>2890</v>
+        <v>2882</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>2900</v>
+        <v>2892</v>
       </c>
       <c r="E21" s="95">
         <v>0</v>
@@ -63259,7 +63262,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="218" t="s">
-        <v>2875</v>
+        <v>2867</v>
       </c>
       <c r="M21" s="218"/>
       <c r="N21" s="138"/>
@@ -63303,13 +63306,13 @@
         <v>379</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>2881</v>
+        <v>2873</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>2891</v>
+        <v>2883</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>2901</v>
+        <v>2893</v>
       </c>
       <c r="E22" s="101">
         <v>0</v>
@@ -63333,7 +63336,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="217" t="s">
-        <v>2874</v>
+        <v>2866</v>
       </c>
       <c r="M22" s="217"/>
       <c r="N22" s="145"/>
@@ -63377,13 +63380,13 @@
         <v>379</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>2882</v>
+        <v>2874</v>
       </c>
       <c r="C23" s="94" t="s">
-        <v>2892</v>
+        <v>2884</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>2902</v>
+        <v>2894</v>
       </c>
       <c r="E23" s="95">
         <v>0</v>
@@ -63407,7 +63410,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="218" t="s">
-        <v>2876</v>
+        <v>2868</v>
       </c>
       <c r="M23" s="218"/>
       <c r="N23" s="138"/>
@@ -63451,13 +63454,13 @@
         <v>379</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>2883</v>
+        <v>2875</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>2893</v>
+        <v>2885</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>2903</v>
+        <v>2895</v>
       </c>
       <c r="E24" s="101">
         <v>0</v>
@@ -63481,7 +63484,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="217" t="s">
-        <v>2874</v>
+        <v>2866</v>
       </c>
       <c r="M24" s="217"/>
       <c r="N24" s="145"/>
@@ -63525,13 +63528,13 @@
         <v>379</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>2884</v>
+        <v>2876</v>
       </c>
       <c r="C25" s="94" t="s">
-        <v>2894</v>
+        <v>2886</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>2904</v>
+        <v>2896</v>
       </c>
       <c r="E25" s="95">
         <v>0</v>
@@ -63555,7 +63558,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="218" t="s">
-        <v>2908</v>
+        <v>2900</v>
       </c>
       <c r="M25" s="218"/>
       <c r="N25" s="138"/>
@@ -63599,13 +63602,13 @@
         <v>379</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>2885</v>
+        <v>2877</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>2895</v>
+        <v>2887</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>2905</v>
+        <v>2897</v>
       </c>
       <c r="E26" s="101">
         <v>0</v>
@@ -63629,7 +63632,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="217" t="s">
-        <v>2909</v>
+        <v>2901</v>
       </c>
       <c r="M26" s="217"/>
       <c r="N26" s="145"/>
@@ -63673,13 +63676,13 @@
         <v>379</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>2886</v>
+        <v>2878</v>
       </c>
       <c r="C27" s="94" t="s">
-        <v>2896</v>
+        <v>2888</v>
       </c>
       <c r="D27" s="94" t="s">
-        <v>2906</v>
+        <v>2898</v>
       </c>
       <c r="E27" s="95">
         <v>0</v>
@@ -63703,7 +63706,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="218" t="s">
-        <v>2875</v>
+        <v>2867</v>
       </c>
       <c r="M27" s="218"/>
       <c r="N27" s="138"/>
@@ -63747,13 +63750,13 @@
         <v>379</v>
       </c>
       <c r="B28" s="92" t="s">
-        <v>2887</v>
+        <v>2879</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>2897</v>
+        <v>2889</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>2907</v>
+        <v>2899</v>
       </c>
       <c r="E28" s="101">
         <v>0</v>
@@ -63777,7 +63780,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="217" t="s">
-        <v>2874</v>
+        <v>2866</v>
       </c>
       <c r="M28" s="217"/>
       <c r="N28" s="145"/>
@@ -63851,7 +63854,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="218" t="s">
-        <v>2874</v>
+        <v>2866</v>
       </c>
       <c r="M29" s="218"/>
       <c r="N29" s="138"/>
@@ -64660,7 +64663,7 @@
         <v>2801</v>
       </c>
       <c r="P1" s="188" t="s">
-        <v>2877</v>
+        <v>2869</v>
       </c>
       <c r="Q1" s="100"/>
     </row>
@@ -64704,10 +64707,10 @@
       </c>
       <c r="N2" s="186"/>
       <c r="O2" s="186" t="s">
-        <v>2912</v>
+        <v>2904</v>
       </c>
       <c r="P2" s="148" t="s">
-        <v>2917</v>
+        <v>2909</v>
       </c>
       <c r="Q2" s="96"/>
       <c r="R2" t="str">
@@ -64787,10 +64790,10 @@
         <v>2802</v>
       </c>
       <c r="O3" s="187" t="s">
+        <v>2903</v>
+      </c>
+      <c r="P3" s="149" t="s">
         <v>2911</v>
-      </c>
-      <c r="P3" s="149" t="s">
-        <v>2919</v>
       </c>
       <c r="Q3" s="96"/>
       <c r="R3" t="str">
@@ -64868,10 +64871,10 @@
       </c>
       <c r="N4" s="186"/>
       <c r="O4" s="186" t="s">
-        <v>2912</v>
+        <v>2904</v>
       </c>
       <c r="P4" s="148" t="s">
-        <v>2921</v>
+        <v>2913</v>
       </c>
       <c r="Q4" s="96"/>
       <c r="R4" t="str">
@@ -64933,10 +64936,10 @@
         <v>2804</v>
       </c>
       <c r="O5" s="187" t="s">
-        <v>2912</v>
+        <v>2904</v>
       </c>
       <c r="P5" s="149" t="s">
-        <v>2922</v>
+        <v>2914</v>
       </c>
       <c r="Q5" s="96"/>
       <c r="R5" t="str">
@@ -65001,7 +65004,7 @@
       </c>
       <c r="O6" s="186"/>
       <c r="P6" s="148" t="s">
-        <v>2923</v>
+        <v>2915</v>
       </c>
       <c r="Q6" s="96"/>
       <c r="R6" t="str">
@@ -65063,10 +65066,10 @@
       </c>
       <c r="N7" s="187"/>
       <c r="O7" s="187" t="s">
-        <v>2913</v>
+        <v>2905</v>
       </c>
       <c r="P7" s="149" t="s">
-        <v>2917</v>
+        <v>2909</v>
       </c>
       <c r="Q7" s="96"/>
       <c r="R7" t="str">
@@ -65129,7 +65132,7 @@
       </c>
       <c r="O8" s="186"/>
       <c r="P8" s="148" t="s">
-        <v>2922</v>
+        <v>2914</v>
       </c>
       <c r="Q8" s="96"/>
       <c r="R8" t="str">
@@ -65198,7 +65201,7 @@
       </c>
       <c r="O9" s="187"/>
       <c r="P9" s="149" t="s">
-        <v>2918</v>
+        <v>2910</v>
       </c>
       <c r="Q9" s="96"/>
       <c r="R9" t="str">
@@ -65260,10 +65263,10 @@
       </c>
       <c r="N10" s="186"/>
       <c r="O10" s="186" t="s">
+        <v>2905</v>
+      </c>
+      <c r="P10" s="148" t="s">
         <v>2913</v>
-      </c>
-      <c r="P10" s="148" t="s">
-        <v>2921</v>
       </c>
       <c r="Q10" s="96"/>
       <c r="R10" t="str">
@@ -65325,10 +65328,10 @@
       </c>
       <c r="N11" s="187"/>
       <c r="O11" s="226" t="s">
-        <v>2912</v>
+        <v>2904</v>
       </c>
       <c r="P11" s="198" t="s">
-        <v>2918</v>
+        <v>2910</v>
       </c>
       <c r="Q11" s="96"/>
       <c r="R11" t="str">
@@ -65394,10 +65397,10 @@
         <v>2802</v>
       </c>
       <c r="O12" s="186" t="s">
-        <v>2911</v>
+        <v>2903</v>
       </c>
       <c r="P12" s="148" t="s">
-        <v>2920</v>
+        <v>2912</v>
       </c>
       <c r="Q12" s="96"/>
       <c r="R12" t="str">
@@ -65459,10 +65462,10 @@
       </c>
       <c r="N13" s="189"/>
       <c r="O13" s="227" t="s">
-        <v>2911</v>
+        <v>2903</v>
       </c>
       <c r="P13" s="199" t="s">
-        <v>2921</v>
+        <v>2913</v>
       </c>
       <c r="Q13" s="96"/>
       <c r="R13" t="str">
@@ -65753,140 +65756,140 @@
   <sheetData>
     <row r="1" spans="1:112">
       <c r="A1" s="176"/>
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="229" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="231" t="s">
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="228" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="230"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
       <c r="T1" s="164"/>
-      <c r="U1" s="230" t="s">
+      <c r="U1" s="229" t="s">
         <v>387</v>
       </c>
-      <c r="V1" s="230"/>
-      <c r="W1" s="230"/>
-      <c r="X1" s="230"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="230"/>
-      <c r="AA1" s="230"/>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="230"/>
-      <c r="AD1" s="230"/>
-      <c r="AE1" s="230"/>
-      <c r="AF1" s="230"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
       <c r="AG1" s="150"/>
-      <c r="AH1" s="231" t="s">
+      <c r="AH1" s="228" t="s">
         <v>388</v>
       </c>
-      <c r="AI1" s="230"/>
-      <c r="AJ1" s="230"/>
-      <c r="AK1" s="230"/>
-      <c r="AL1" s="230"/>
-      <c r="AM1" s="230"/>
-      <c r="AN1" s="230"/>
-      <c r="AO1" s="230"/>
-      <c r="AP1" s="230"/>
-      <c r="AQ1" s="230"/>
-      <c r="AR1" s="230"/>
-      <c r="AS1" s="232"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229"/>
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="230"/>
       <c r="AT1" s="150"/>
-      <c r="AU1" s="229" t="s">
+      <c r="AU1" s="231" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="229"/>
-      <c r="AW1" s="229"/>
-      <c r="AX1" s="229"/>
-      <c r="AY1" s="229"/>
-      <c r="AZ1" s="229"/>
-      <c r="BA1" s="229"/>
-      <c r="BB1" s="229"/>
-      <c r="BC1" s="229"/>
-      <c r="BD1" s="229"/>
-      <c r="BE1" s="229"/>
-      <c r="BF1" s="229"/>
-      <c r="BG1" s="229"/>
-      <c r="BH1" s="229"/>
+      <c r="AV1" s="231"/>
+      <c r="AW1" s="231"/>
+      <c r="AX1" s="231"/>
+      <c r="AY1" s="231"/>
+      <c r="AZ1" s="231"/>
+      <c r="BA1" s="231"/>
+      <c r="BB1" s="231"/>
+      <c r="BC1" s="231"/>
+      <c r="BD1" s="231"/>
+      <c r="BE1" s="231"/>
+      <c r="BF1" s="231"/>
+      <c r="BG1" s="231"/>
+      <c r="BH1" s="231"/>
       <c r="BI1" s="160"/>
-      <c r="BJ1" s="231" t="s">
+      <c r="BJ1" s="228" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="230"/>
+      <c r="BK1" s="229"/>
       <c r="BL1" s="164"/>
-      <c r="BM1" s="230" t="s">
+      <c r="BM1" s="229" t="s">
         <v>391</v>
       </c>
-      <c r="BN1" s="230"/>
-      <c r="BO1" s="230"/>
-      <c r="BP1" s="230"/>
-      <c r="BQ1" s="230"/>
-      <c r="BR1" s="230"/>
-      <c r="BS1" s="230"/>
-      <c r="BT1" s="230"/>
-      <c r="BU1" s="230"/>
-      <c r="BV1" s="230"/>
-      <c r="BW1" s="230"/>
-      <c r="BX1" s="230"/>
+      <c r="BN1" s="229"/>
+      <c r="BO1" s="229"/>
+      <c r="BP1" s="229"/>
+      <c r="BQ1" s="229"/>
+      <c r="BR1" s="229"/>
+      <c r="BS1" s="229"/>
+      <c r="BT1" s="229"/>
+      <c r="BU1" s="229"/>
+      <c r="BV1" s="229"/>
+      <c r="BW1" s="229"/>
+      <c r="BX1" s="229"/>
       <c r="BY1" s="150"/>
-      <c r="BZ1" s="231" t="s">
+      <c r="BZ1" s="228" t="s">
         <v>393</v>
       </c>
-      <c r="CA1" s="230"/>
-      <c r="CB1" s="230"/>
-      <c r="CC1" s="230"/>
-      <c r="CD1" s="230"/>
+      <c r="CA1" s="229"/>
+      <c r="CB1" s="229"/>
+      <c r="CC1" s="229"/>
+      <c r="CD1" s="229"/>
       <c r="CE1" s="164"/>
-      <c r="CF1" s="231" t="s">
+      <c r="CF1" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="CG1" s="230"/>
-      <c r="CH1" s="230"/>
-      <c r="CI1" s="230"/>
-      <c r="CJ1" s="230"/>
-      <c r="CK1" s="230"/>
-      <c r="CL1" s="230"/>
+      <c r="CG1" s="229"/>
+      <c r="CH1" s="229"/>
+      <c r="CI1" s="229"/>
+      <c r="CJ1" s="229"/>
+      <c r="CK1" s="229"/>
+      <c r="CL1" s="229"/>
       <c r="CM1" s="164"/>
-      <c r="CN1" s="230" t="s">
+      <c r="CN1" s="229" t="s">
         <v>394</v>
       </c>
-      <c r="CO1" s="230"/>
-      <c r="CP1" s="230"/>
-      <c r="CQ1" s="230"/>
-      <c r="CR1" s="230"/>
-      <c r="CS1" s="230"/>
-      <c r="CT1" s="230"/>
-      <c r="CU1" s="230"/>
+      <c r="CO1" s="229"/>
+      <c r="CP1" s="229"/>
+      <c r="CQ1" s="229"/>
+      <c r="CR1" s="229"/>
+      <c r="CS1" s="229"/>
+      <c r="CT1" s="229"/>
+      <c r="CU1" s="229"/>
       <c r="CV1" s="150"/>
-      <c r="CW1" s="228" t="s">
+      <c r="CW1" s="232" t="s">
         <v>395</v>
       </c>
-      <c r="CX1" s="229"/>
-      <c r="CY1" s="229"/>
+      <c r="CX1" s="231"/>
+      <c r="CY1" s="231"/>
       <c r="CZ1" s="174"/>
-      <c r="DA1" s="230" t="s">
+      <c r="DA1" s="229" t="s">
         <v>392</v>
       </c>
-      <c r="DB1" s="230"/>
-      <c r="DC1" s="230"/>
-      <c r="DD1" s="230"/>
-      <c r="DE1" s="230"/>
-      <c r="DF1" s="230"/>
-      <c r="DG1" s="230"/>
+      <c r="DB1" s="229"/>
+      <c r="DC1" s="229"/>
+      <c r="DD1" s="229"/>
+      <c r="DE1" s="229"/>
+      <c r="DF1" s="229"/>
+      <c r="DG1" s="229"/>
       <c r="DH1" s="185"/>
     </row>
     <row r="2" spans="1:112" s="122" customFormat="1" ht="15" customHeight="1">
@@ -80426,11 +80429,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="G1:S1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:AF1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DG1"/>
     <mergeCell ref="CF1:CL1"/>
@@ -80438,6 +80436,11 @@
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BM1:BX1"/>
     <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Donjons_et_dragons.xlsx
+++ b/Donjons_et_dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Niveaux" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5629" uniqueCount="2926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5666" uniqueCount="2954">
   <si>
     <t>Niveau</t>
   </si>
@@ -9913,9 +9913,6 @@
     <t>Alignments</t>
   </si>
   <si>
-    <t>Langues standards</t>
-  </si>
-  <si>
     <t>Races typiques</t>
   </si>
   <si>
@@ -10024,15 +10021,6 @@
     <t>Résistances</t>
   </si>
   <si>
-    <t>"Burned"</t>
-  </si>
-  <si>
-    <t>"Acidified"</t>
-  </si>
-  <si>
-    <t>"Poisonned"</t>
-  </si>
-  <si>
     <t>Jets de sauvegardes</t>
   </si>
   <si>
@@ -10129,9 +10117,6 @@
     <t>"Cold"</t>
   </si>
   <si>
-    <t>"Electrified"</t>
-  </si>
-  <si>
     <t>"1_LIGHT", "2_MID"</t>
   </si>
   <si>
@@ -10144,15 +10129,6 @@
     <t>"1_LIGHT", "2_MID", "3_HEAVY", "0_SHIELD"</t>
   </si>
   <si>
-    <t>"Scared"</t>
-  </si>
-  <si>
-    <t>"Seduced"</t>
-  </si>
-  <si>
-    <t>"Intelligence", "Wisdom", "Charisma"</t>
-  </si>
-  <si>
     <t>"FOR", "CON"</t>
   </si>
   <si>
@@ -10202,6 +10178,114 @@
   </si>
   <si>
     <t>9_CM</t>
+  </si>
+  <si>
+    <t>"COMMON"</t>
+  </si>
+  <si>
+    <t>"COMMON", "AARAKOCRA", "AIR"</t>
+  </si>
+  <si>
+    <t>"COMMON", "GIANT"</t>
+  </si>
+  <si>
+    <t>"COMMON", "PRIMARY"</t>
+  </si>
+  <si>
+    <t>"COMMON", "INFERNAL"</t>
+  </si>
+  <si>
+    <t>"COMMON", "GNOME"</t>
+  </si>
+  <si>
+    <t>"COMMON", "DRACONIC"</t>
+  </si>
+  <si>
+    <t>"COMMON", "ORC"</t>
+  </si>
+  <si>
+    <t>"COMMON", "ELVISH"</t>
+  </si>
+  <si>
+    <t>"DWARF"</t>
+  </si>
+  <si>
+    <t>"COMMON", "HALFELIN"</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>ELVISH</t>
+  </si>
+  <si>
+    <t>GIANT</t>
+  </si>
+  <si>
+    <t>GOBLIN</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>ABYSSAL</t>
+  </si>
+  <si>
+    <t>INFERNAL</t>
+  </si>
+  <si>
+    <t>CELESTIAL</t>
+  </si>
+  <si>
+    <t>DEPTH_COMMON</t>
+  </si>
+  <si>
+    <t>DRACONIC</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>DEEP</t>
+  </si>
+  <si>
+    <t>SILVAN</t>
+  </si>
+  <si>
+    <t>"DEPTH_COMMON"</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>Aérien</t>
+  </si>
+  <si>
+    <t>"POISON"</t>
+  </si>
+  <si>
+    <t>"CHARME"</t>
+  </si>
+  <si>
+    <t>"FEAR"</t>
+  </si>
+  <si>
+    <t>"INT", "SAG", "CHA"</t>
+  </si>
+  <si>
+    <t>"FIRE"</t>
+  </si>
+  <si>
+    <t>"ACID"</t>
+  </si>
+  <si>
+    <t>"LIGHTNING"</t>
+  </si>
+  <si>
+    <t>"COLD"</t>
   </si>
 </sst>
 </file>
@@ -10771,7 +10855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -11289,9 +11373,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="27" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -11316,20 +11397,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11353,6 +11434,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -44736,7 +44825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -44760,7 +44849,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="200" t="s">
-        <v>2917</v>
+        <v>2909</v>
       </c>
       <c r="B2" s="201" t="s">
         <v>2810</v>
@@ -44783,7 +44872,7 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="86" t="s">
-        <v>2918</v>
+        <v>2910</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>2811</v>
@@ -44806,7 +44895,7 @@
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="86" t="s">
-        <v>2919</v>
+        <v>2911</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>2812</v>
@@ -44825,7 +44914,7 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
       <c r="A5" s="86" t="s">
-        <v>2920</v>
+        <v>2912</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>2813</v>
@@ -44844,7 +44933,7 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="86" t="s">
-        <v>2921</v>
+        <v>2913</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>2818</v>
@@ -44863,7 +44952,7 @@
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
       <c r="A7" s="86" t="s">
-        <v>2922</v>
+        <v>2914</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>2814</v>
@@ -44882,7 +44971,7 @@
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1">
       <c r="A8" s="86" t="s">
-        <v>2923</v>
+        <v>2915</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>2815</v>
@@ -44905,7 +44994,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
       <c r="A9" s="86" t="s">
-        <v>2924</v>
+        <v>2916</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>2817</v>
@@ -44924,7 +45013,7 @@
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10" s="89" t="s">
-        <v>2925</v>
+        <v>2917</v>
       </c>
       <c r="B10" s="90" t="s">
         <v>2816</v>
@@ -45010,528 +45099,650 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="205" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1" s="205" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C1" s="206" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1" s="206" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E1" s="206" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="106" t="s">
         <v>2845</v>
       </c>
-      <c r="B1" s="206" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C1" s="206" t="s">
-        <v>2830</v>
-      </c>
-      <c r="D1" s="206" t="s">
+      <c r="B2" s="136" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2" s="207" t="s">
         <v>2831</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="106" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B2" s="207" t="s">
+      <c r="D2" s="207" t="s">
         <v>2832</v>
       </c>
-      <c r="C2" s="207" t="s">
-        <v>2833</v>
-      </c>
-      <c r="D2" s="208" t="s">
-        <v>2832</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="E2" s="208" t="s">
+        <v>2831</v>
+      </c>
+      <c r="G2" t="str">
         <f>""""&amp;B2&amp;""": {
   ""Code"" : """&amp;B2&amp;""",
+  ""Name"" : """&amp;C2&amp;""",
   ""Type"" : """&amp;A2&amp;""",
-  ""Writing"" : """&amp;D2&amp;""",
-  ""TypicalRaces"" : """&amp;C2&amp;"""
+  ""Writing"" : """&amp;E2&amp;""",
+  ""TypicalRaces"" : """&amp;D2&amp;"""
    }"</f>
-        <v>"Commun": {
-  "Code" : "Commun",
+        <v>"COMMON": {
+  "Code" : "COMMON",
+  "Name" : "Commun",
   "Type" : "STANDARD",
   "Writing" : "Commun",
   "TypicalRaces" : "Humains"
    }</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="86" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B3" s="32" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>2834</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>2835</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F17" si="0">""""&amp;B3&amp;""": {
+      <c r="E3" s="33" t="s">
+        <v>2833</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G18" si="0">""""&amp;B3&amp;""": {
   ""Code"" : """&amp;B3&amp;""",
+  ""Name"" : """&amp;C3&amp;""",
   ""Type"" : """&amp;A3&amp;""",
-  ""Writing"" : """&amp;D3&amp;""",
-  ""TypicalRaces"" : """&amp;C3&amp;"""
+  ""Writing"" : """&amp;E3&amp;""",
+  ""TypicalRaces"" : """&amp;D3&amp;"""
    }"</f>
-        <v>"Elfique": {
-  "Code" : "Elfique",
+        <v>"ELVISH": {
+  "Code" : "ELVISH",
+  "Name" : "Elfique",
   "Type" : "STANDARD",
   "Writing" : "Elfique",
   "TypicalRaces" : "Elfes"
    }</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="91" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B4" s="35" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>2836</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>2837</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="E4" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>"Géant": {
-  "Code" : "Géant",
+        <v>"GIANT": {
+  "Code" : "GIANT",
+  "Name" : "Géant",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Ogres, géants"
    }</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="86" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B5" s="32" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>2838</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
+        <v>2837</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>"Gnome": {
-  "Code" : "Gnome",
+        <v>"GNOME": {
+  "Code" : "GNOME",
+  "Name" : "Gnome",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Gnomes"
    }</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="91" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B6" s="35" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>2839</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>2840</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="E6" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>"Gobelin": {
-  "Code" : "Gobelin",
+        <v>"GOBLIN": {
+  "Code" : "GOBLIN",
+  "Name" : "Gobelin",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Gobelinoïdes"
    }</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="86" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B7" s="32" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>2841</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>2832</v>
-      </c>
-      <c r="F7" t="str">
+      <c r="D7" s="32" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>2831</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>"Halfelin": {
-  "Code" : "Halfelin",
+        <v>"HALFELIN": {
+  "Code" : "HALFELIN",
+  "Name" : "Halfelin",
   "Type" : "STANDARD",
   "Writing" : "Commun",
   "TypicalRaces" : "Halfelins"
    }</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="91" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B8" s="35" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>2842</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
+        <v>2841</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>"Nain": {
-  "Code" : "Nain",
+        <v>"DWARF": {
+  "Code" : "DWARF",
+  "Name" : "Nain",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Nains"
    }</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="86" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B9" s="32" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>2843</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>2844</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>"Orque": {
-  "Code" : "Orque",
+        <v>"ORC": {
+  "Code" : "ORC",
+  "Name" : "Orque",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Orques"
    }</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="91" t="s">
-        <v>2863</v>
-      </c>
-      <c r="B10" s="35" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>2847</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>2848</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>2849</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>"Abyssal": {
-  "Code" : "Abyssal",
+        <v>"ABYSSAL": {
+  "Code" : "ABYSSAL",
+  "Name" : "Abyssal",
   "Type" : "EXOTIC",
   "Writing" : "Infernal",
   "TypicalRaces" : "Démons"
    }</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="86" t="s">
-        <v>2863</v>
-      </c>
-      <c r="B11" s="32" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>2850</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>2851</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>2850</v>
-      </c>
-      <c r="F11" t="str">
+      <c r="E11" s="33" t="s">
+        <v>2849</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>"Céleste": {
-  "Code" : "Céleste",
+        <v>"CELESTIAL": {
+  "Code" : "CELESTIAL",
+  "Name" : "Céleste",
   "Type" : "EXOTIC",
   "Writing" : "Céleste",
   "TypicalRaces" : "Célestes"
    }</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25.5">
+    <row r="12" spans="1:7" ht="17.25" customHeight="1">
       <c r="A12" s="91" t="s">
-        <v>2863</v>
-      </c>
-      <c r="B12" s="35" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>2852</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>2853</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="E12" s="36" t="s">
+        <v>2833</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>"Commun des profondeurs": {
-  "Code" : "Commun des profondeurs",
+        <v>"DEPTH_COMMON": {
+  "Code" : "DEPTH_COMMON",
+  "Name" : "Commun des profondeurs",
   "Type" : "EXOTIC",
   "Writing" : "Elfique",
   "TypicalRaces" : "Créatures de l'Outreterre"
    }</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1">
       <c r="A13" s="86" t="s">
-        <v>2863</v>
-      </c>
-      <c r="B13" s="32" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>2854</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>2855</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>2854</v>
-      </c>
-      <c r="F13" t="str">
+      <c r="E13" s="33" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>"Draconique": {
-  "Code" : "Draconique",
+        <v>"DRACONIC": {
+  "Code" : "DRACONIC",
+  "Name" : "Draconique",
   "Type" : "EXOTIC",
   "Writing" : "Draconique",
   "TypicalRaces" : "Dragons, drakéides"
    }</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="91" t="s">
-        <v>2863</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>2849</v>
+        <v>2862</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>2936</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>2856</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>2849</v>
-      </c>
-      <c r="F14" t="str">
+        <v>2848</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>2848</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>"Infernal": {
-  "Code" : "Infernal",
+        <v>"INFERNAL": {
+  "Code" : "INFERNAL",
+  "Name" : "Infernal",
   "Type" : "EXOTIC",
   "Writing" : "Infernal",
   "TypicalRaces" : "Diables"
    }</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="86" t="s">
-        <v>2863</v>
-      </c>
-      <c r="B15" s="32" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>2857</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>2858</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="E15" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>"Primordial": {
-  "Code" : "Primordial",
+        <v>"PRIMARY": {
+  "Code" : "PRIMARY",
+  "Name" : "Primordial",
   "Type" : "EXOTIC",
   "Writing" : "Nain",
   "TypicalRaces" : "Élémentaires"
    }</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
       <c r="A16" s="91" t="s">
-        <v>2863</v>
-      </c>
-      <c r="B16" s="35" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>2859</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>2860</v>
-      </c>
-      <c r="D16" s="36" t="s">
+      <c r="E16" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>"Profond": {
-  "Code" : "Profond",
+        <v>"DEEP": {
+  "Code" : "DEEP",
+  "Name" : "Profond",
   "Type" : "EXOTIC",
   "Writing" : "-",
   "TypicalRaces" : "Beholders, flagelleurs mentaux"
    }</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="89" t="s">
-        <v>2863</v>
-      </c>
-      <c r="B17" s="157" t="s">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A17" s="86" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>2861</v>
       </c>
-      <c r="C17" s="157" t="s">
-        <v>2862</v>
-      </c>
-      <c r="D17" s="209" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="E17" s="33" t="s">
+        <v>2833</v>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>"Sylvain": {
-  "Code" : "Sylvain",
+        <v>"SILVAN": {
+  "Code" : "SILVAN",
+  "Name" : "Sylvain",
   "Type" : "EXOTIC",
   "Writing" : "Elfique",
   "TypicalRaces" : "Créatures féeriques"
    }</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="F19" t="str">
-        <f>CONCATENATE(F2,",
-",F3,",
-",F4,",
-",F5,",
-",F6,",
-",F7,",
-",F8,",
-",F9,",
-",F10,",
-",F11,",
-",F12,",
-",F13,",
-",F14,",
-",F15,",
-",F16,",
-",F17)</f>
-        <v>"Commun": {
-  "Code" : "Commun",
+    <row r="18" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A18" s="240" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B18" s="241" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C18" s="242" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D18" s="242" t="s">
+        <v>405</v>
+      </c>
+      <c r="E18" s="243" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>"AIR": {
+  "Code" : "AIR",
+  "Name" : "Aérien",
+  "Type" : "EXOTIC",
+  "Writing" : "-",
+  "TypicalRaces" : "Aarakocra"
+   }</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="G20" t="str">
+        <f>CONCATENATE(G2,",
+",G3,",
+",G4,",
+",G5,",
+",G6,",
+",G7,",
+",G8,",
+",G9,",
+",G10,",
+",G11,",
+",G12,",
+",G13,",
+",G14,",
+",G15,",
+",G16,",
+",G17,",
+",G18)</f>
+        <v>"COMMON": {
+  "Code" : "COMMON",
+  "Name" : "Commun",
   "Type" : "STANDARD",
   "Writing" : "Commun",
   "TypicalRaces" : "Humains"
    },
-"Elfique": {
-  "Code" : "Elfique",
+"ELVISH": {
+  "Code" : "ELVISH",
+  "Name" : "Elfique",
   "Type" : "STANDARD",
   "Writing" : "Elfique",
   "TypicalRaces" : "Elfes"
    },
-"Géant": {
-  "Code" : "Géant",
+"GIANT": {
+  "Code" : "GIANT",
+  "Name" : "Géant",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Ogres, géants"
    },
-"Gnome": {
-  "Code" : "Gnome",
+"GNOME": {
+  "Code" : "GNOME",
+  "Name" : "Gnome",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Gnomes"
    },
-"Gobelin": {
-  "Code" : "Gobelin",
+"GOBLIN": {
+  "Code" : "GOBLIN",
+  "Name" : "Gobelin",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Gobelinoïdes"
    },
-"Halfelin": {
-  "Code" : "Halfelin",
+"HALFELIN": {
+  "Code" : "HALFELIN",
+  "Name" : "Halfelin",
   "Type" : "STANDARD",
   "Writing" : "Commun",
   "TypicalRaces" : "Halfelins"
    },
-"Nain": {
-  "Code" : "Nain",
+"DWARF": {
+  "Code" : "DWARF",
+  "Name" : "Nain",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Nains"
    },
-"Orque": {
-  "Code" : "Orque",
+"ORC": {
+  "Code" : "ORC",
+  "Name" : "Orque",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Orques"
    },
-"Abyssal": {
-  "Code" : "Abyssal",
+"ABYSSAL": {
+  "Code" : "ABYSSAL",
+  "Name" : "Abyssal",
   "Type" : "EXOTIC",
   "Writing" : "Infernal",
   "TypicalRaces" : "Démons"
    },
-"Céleste": {
-  "Code" : "Céleste",
+"CELESTIAL": {
+  "Code" : "CELESTIAL",
+  "Name" : "Céleste",
   "Type" : "EXOTIC",
   "Writing" : "Céleste",
   "TypicalRaces" : "Célestes"
    },
-"Commun des profondeurs": {
-  "Code" : "Commun des profondeurs",
+"DEPTH_COMMON": {
+  "Code" : "DEPTH_COMMON",
+  "Name" : "Commun des profondeurs",
   "Type" : "EXOTIC",
   "Writing" : "Elfique",
   "TypicalRaces" : "Créatures de l'Outreterre"
    },
-"Draconique": {
-  "Code" : "Draconique",
+"DRACONIC": {
+  "Code" : "DRACONIC",
+  "Name" : "Draconique",
   "Type" : "EXOTIC",
   "Writing" : "Draconique",
   "TypicalRaces" : "Dragons, drakéides"
    },
-"Infernal": {
-  "Code" : "Infernal",
+"INFERNAL": {
+  "Code" : "INFERNAL",
+  "Name" : "Infernal",
   "Type" : "EXOTIC",
   "Writing" : "Infernal",
   "TypicalRaces" : "Diables"
    },
-"Primordial": {
-  "Code" : "Primordial",
+"PRIMARY": {
+  "Code" : "PRIMARY",
+  "Name" : "Primordial",
   "Type" : "EXOTIC",
   "Writing" : "Nain",
   "TypicalRaces" : "Élémentaires"
    },
-"Profond": {
-  "Code" : "Profond",
+"DEEP": {
+  "Code" : "DEEP",
+  "Name" : "Profond",
   "Type" : "EXOTIC",
   "Writing" : "-",
   "TypicalRaces" : "Beholders, flagelleurs mentaux"
    },
-"Sylvain": {
-  "Code" : "Sylvain",
+"SILVAN": {
+  "Code" : "SILVAN",
+  "Name" : "Sylvain",
   "Type" : "EXOTIC",
   "Writing" : "Elfique",
   "TypicalRaces" : "Créatures féeriques"
+   },
+"AIR": {
+  "Code" : "AIR",
+  "Name" : "Aérien",
+  "Type" : "EXOTIC",
+  "Writing" : "-",
+  "TypicalRaces" : "Aarakocra"
    }</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45554,7 +45765,7 @@
         <v>1282</v>
       </c>
       <c r="B1" t="str">
-        <f>Races!N15</f>
+        <f>Races!O15</f>
         <v>"ELF": {
  "Id" : "ELF",
  "Name" : "Elfe",
@@ -45566,8 +45777,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ELVISH"],
  "Resistances" : [],
- "SaveAdvantages" : ["Seduced"]
+ "SaveAdvantages" : ["CHARME"]
   },
 "HALFELIN": {
  "Id" : "HALFELIN",
@@ -45580,8 +45792,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "HALFELIN"],
  "Resistances" : [],
- "SaveAdvantages" : ["Scared"]
+ "SaveAdvantages" : ["FEAR"]
   },
 "HUMAN": {
  "Id" : "HUMAN",
@@ -45594,6 +45807,7 @@
  "Wisdom" : 1,
  "Charisma" : 1,
  "Speed" : 9,
+ "Languages" : ["COMMON"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45608,8 +45822,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"]
+ "Languages" : ["DWARF"],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"]
   },
 "HALF_ELF": {
  "Id" : "HALF_ELF",
@@ -45622,6 +45837,7 @@
  "Wisdom" : 0,
  "Charisma" : 2,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ELVISH"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45636,6 +45852,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ORC"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45650,6 +45867,7 @@
  "Wisdom" : 0,
  "Charisma" : 1,
  "Speed" : 9,
+ "Languages" : ["COMMON", "DRACONIC"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45664,8 +45882,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "GNOME"],
  "Resistances" : [],
- "SaveAdvantages" : ["Intelligence", "Wisdom", "Charisma"]
+ "SaveAdvantages" : ["INT", "SAG", "CHA"]
   },
 "TIEFFLING": {
  "Id" : "TIEFFLING",
@@ -45678,6 +45897,7 @@
  "Wisdom" : 0,
  "Charisma" : 2,
  "Speed" : 9,
+ "Languages" : ["COMMON", "INFERNAL"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45692,6 +45912,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "AARAKOCRA", "AIR"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45706,6 +45927,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "PRIMARY"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45720,6 +45942,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "GIANT"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }</v>
@@ -45740,8 +45963,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ELVISH"],
  "Resistances" : [],
- "SaveAdvantages" : ["Seduced"]
+ "SaveAdvantages" : ["CHARME"]
   },
 "HALFELIN": {
  "Id" : "HALFELIN",
@@ -45754,8 +45978,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "HALFELIN"],
  "Resistances" : [],
- "SaveAdvantages" : ["Scared"]
+ "SaveAdvantages" : ["FEAR"]
   },
 "HUMAN": {
  "Id" : "HUMAN",
@@ -45768,6 +45993,7 @@
  "Wisdom" : 1,
  "Charisma" : 1,
  "Speed" : 9,
+ "Languages" : ["COMMON"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45782,8 +46008,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"]
+ "Languages" : ["DWARF"],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"]
   },
 "HALF_ELF": {
  "Id" : "HALF_ELF",
@@ -45796,6 +46023,7 @@
  "Wisdom" : 0,
  "Charisma" : 2,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ELVISH"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45810,6 +46038,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ORC"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45824,6 +46053,7 @@
  "Wisdom" : 0,
  "Charisma" : 1,
  "Speed" : 9,
+ "Languages" : ["COMMON", "DRACONIC"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45838,8 +46068,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "GNOME"],
  "Resistances" : [],
- "SaveAdvantages" : ["Intelligence", "Wisdom", "Charisma"]
+ "SaveAdvantages" : ["INT", "SAG", "CHA"]
   },
 "TIEFFLING": {
  "Id" : "TIEFFLING",
@@ -45852,6 +46083,7 @@
  "Wisdom" : 0,
  "Charisma" : 2,
  "Speed" : 9,
+ "Languages" : ["COMMON", "INFERNAL"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45866,6 +46098,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "AARAKOCRA", "AIR"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45880,6 +46113,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "PRIMARY"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -45894,6 +46128,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "GIANT"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }
@@ -45905,7 +46140,7 @@
         <v>1283</v>
       </c>
       <c r="B2" t="str">
-        <f>'Sous-races'!P33</f>
+        <f>'Sous-races'!Q33</f>
         <v>"HIGH_ELF": {
  "Id" : "HIGH_ELF",
  "Race" : "ELF",
@@ -45918,6 +46153,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -45934,6 +46170,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 10.5,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -45950,6 +46187,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -45966,6 +46204,7 @@
  "Wisdom" : 0,
  "Charisma" : 1,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -45982,8 +46221,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"],
+ "Languages" : [],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"],
  "ArmorCategories" : []
   },
 "HILLS_DWARF": {
@@ -45998,6 +46238,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46014,6 +46255,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : ["1_LIGHT", "2_MID"]
@@ -46030,6 +46272,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46046,6 +46289,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46062,6 +46306,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : ["DEPTH_COMMON"],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46078,6 +46323,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46094,6 +46340,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46110,8 +46357,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "WATER_GENASI": {
@@ -46126,8 +46374,9 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "HUMAN": {
@@ -46142,6 +46391,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46158,6 +46408,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46174,6 +46425,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46190,6 +46442,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : ["Cold"],
  "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
@@ -46206,8 +46459,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Electrified"],
- "SaveAdvantages" : ["Electrified"],
+ "Languages" : [],
+ "Resistances" : ["LIGHTNING"],
+ "SaveAdvantages" : ["LIGHTNING"],
  "ArmorCategories" : []
   },
 "BLACK_DRAGON": {
@@ -46222,8 +46476,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "RED_DRAGON": {
@@ -46238,8 +46493,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "GREEN_DRAGON": {
@@ -46254,8 +46510,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"],
+ "Languages" : [],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"],
  "ArmorCategories" : []
   },
 "BRASS_DRAGON": {
@@ -46270,8 +46527,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "SILVER_DRAGON": {
@@ -46286,8 +46544,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Cold"],
- "SaveAdvantages" : ["Cold"],
+ "Languages" : [],
+ "Resistances" : ["COLD"],
+ "SaveAdvantages" : ["COLD"],
  "ArmorCategories" : []
   },
 "BRONZE_DRAGON": {
@@ -46302,8 +46561,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Electrified"],
- "SaveAdvantages" : ["Electrified"],
+ "Languages" : [],
+ "Resistances" : ["LIGHTNING"],
+ "SaveAdvantages" : ["LIGHTNING"],
  "ArmorCategories" : []
   },
 "COPPER_DRAGON": {
@@ -46318,8 +46578,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "GOLD_DRAGON": {
@@ -46334,8 +46595,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "TIEFFLING": {
@@ -46350,8 +46612,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "AARAKOCRA": {
@@ -46366,6 +46629,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46382,6 +46646,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46404,6 +46669,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46420,6 +46686,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 10.5,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46436,6 +46703,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46452,6 +46720,7 @@
  "Wisdom" : 0,
  "Charisma" : 1,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46468,8 +46737,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"],
+ "Languages" : [],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"],
  "ArmorCategories" : []
   },
 "HILLS_DWARF": {
@@ -46484,6 +46754,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46500,6 +46771,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : ["1_LIGHT", "2_MID"]
@@ -46516,6 +46788,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46532,6 +46805,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46548,6 +46822,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : ["DEPTH_COMMON"],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46564,6 +46839,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46580,6 +46856,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46596,8 +46873,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "WATER_GENASI": {
@@ -46612,8 +46890,9 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "HUMAN": {
@@ -46628,6 +46907,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46644,6 +46924,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46660,6 +46941,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46676,6 +46958,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : ["Cold"],
  "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
@@ -46692,8 +46975,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Electrified"],
- "SaveAdvantages" : ["Electrified"],
+ "Languages" : [],
+ "Resistances" : ["LIGHTNING"],
+ "SaveAdvantages" : ["LIGHTNING"],
  "ArmorCategories" : []
   },
 "BLACK_DRAGON": {
@@ -46708,8 +46992,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "RED_DRAGON": {
@@ -46724,8 +47009,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "GREEN_DRAGON": {
@@ -46740,8 +47026,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"],
+ "Languages" : [],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"],
  "ArmorCategories" : []
   },
 "BRASS_DRAGON": {
@@ -46756,8 +47043,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "SILVER_DRAGON": {
@@ -46772,8 +47060,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Cold"],
- "SaveAdvantages" : ["Cold"],
+ "Languages" : [],
+ "Resistances" : ["COLD"],
+ "SaveAdvantages" : ["COLD"],
  "ArmorCategories" : []
   },
 "BRONZE_DRAGON": {
@@ -46788,8 +47077,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Electrified"],
- "SaveAdvantages" : ["Electrified"],
+ "Languages" : [],
+ "Resistances" : ["LIGHTNING"],
+ "SaveAdvantages" : ["LIGHTNING"],
  "ArmorCategories" : []
   },
 "COPPER_DRAGON": {
@@ -46804,8 +47094,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "GOLD_DRAGON": {
@@ -46820,8 +47111,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "TIEFFLING": {
@@ -46836,8 +47128,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "AARAKOCRA": {
@@ -46852,6 +47145,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -46868,6 +47162,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -57458,105 +57753,128 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B26" t="str">
-        <f>Langues!F19</f>
-        <v>"Commun": {
-  "Code" : "Commun",
+        <f>Langues!G20</f>
+        <v>"COMMON": {
+  "Code" : "COMMON",
+  "Name" : "Commun",
   "Type" : "STANDARD",
   "Writing" : "Commun",
   "TypicalRaces" : "Humains"
    },
-"Elfique": {
-  "Code" : "Elfique",
+"ELVISH": {
+  "Code" : "ELVISH",
+  "Name" : "Elfique",
   "Type" : "STANDARD",
   "Writing" : "Elfique",
   "TypicalRaces" : "Elfes"
    },
-"Géant": {
-  "Code" : "Géant",
+"GIANT": {
+  "Code" : "GIANT",
+  "Name" : "Géant",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Ogres, géants"
    },
-"Gnome": {
-  "Code" : "Gnome",
+"GNOME": {
+  "Code" : "GNOME",
+  "Name" : "Gnome",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Gnomes"
    },
-"Gobelin": {
-  "Code" : "Gobelin",
+"GOBLIN": {
+  "Code" : "GOBLIN",
+  "Name" : "Gobelin",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Gobelinoïdes"
    },
-"Halfelin": {
-  "Code" : "Halfelin",
+"HALFELIN": {
+  "Code" : "HALFELIN",
+  "Name" : "Halfelin",
   "Type" : "STANDARD",
   "Writing" : "Commun",
   "TypicalRaces" : "Halfelins"
    },
-"Nain": {
-  "Code" : "Nain",
+"DWARF": {
+  "Code" : "DWARF",
+  "Name" : "Nain",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Nains"
    },
-"Orque": {
-  "Code" : "Orque",
+"ORC": {
+  "Code" : "ORC",
+  "Name" : "Orque",
   "Type" : "STANDARD",
   "Writing" : "Nain",
   "TypicalRaces" : "Orques"
    },
-"Abyssal": {
-  "Code" : "Abyssal",
+"ABYSSAL": {
+  "Code" : "ABYSSAL",
+  "Name" : "Abyssal",
   "Type" : "EXOTIC",
   "Writing" : "Infernal",
   "TypicalRaces" : "Démons"
    },
-"Céleste": {
-  "Code" : "Céleste",
+"CELESTIAL": {
+  "Code" : "CELESTIAL",
+  "Name" : "Céleste",
   "Type" : "EXOTIC",
   "Writing" : "Céleste",
   "TypicalRaces" : "Célestes"
    },
-"Commun des profondeurs": {
-  "Code" : "Commun des profondeurs",
+"DEPTH_COMMON": {
+  "Code" : "DEPTH_COMMON",
+  "Name" : "Commun des profondeurs",
   "Type" : "EXOTIC",
   "Writing" : "Elfique",
   "TypicalRaces" : "Créatures de l'Outreterre"
    },
-"Draconique": {
-  "Code" : "Draconique",
+"DRACONIC": {
+  "Code" : "DRACONIC",
+  "Name" : "Draconique",
   "Type" : "EXOTIC",
   "Writing" : "Draconique",
   "TypicalRaces" : "Dragons, drakéides"
    },
-"Infernal": {
-  "Code" : "Infernal",
+"INFERNAL": {
+  "Code" : "INFERNAL",
+  "Name" : "Infernal",
   "Type" : "EXOTIC",
   "Writing" : "Infernal",
   "TypicalRaces" : "Diables"
    },
-"Primordial": {
-  "Code" : "Primordial",
+"PRIMARY": {
+  "Code" : "PRIMARY",
+  "Name" : "Primordial",
   "Type" : "EXOTIC",
   "Writing" : "Nain",
   "TypicalRaces" : "Élémentaires"
    },
-"Profond": {
-  "Code" : "Profond",
+"DEEP": {
+  "Code" : "DEEP",
+  "Name" : "Profond",
   "Type" : "EXOTIC",
   "Writing" : "-",
   "TypicalRaces" : "Beholders, flagelleurs mentaux"
    },
-"Sylvain": {
-  "Code" : "Sylvain",
+"SILVAN": {
+  "Code" : "SILVAN",
+  "Name" : "Sylvain",
   "Type" : "EXOTIC",
   "Writing" : "Elfique",
   "TypicalRaces" : "Créatures féeriques"
+   },
+"AIR": {
+  "Code" : "AIR",
+  "Name" : "Aérien",
+  "Type" : "EXOTIC",
+  "Writing" : "-",
+  "TypicalRaces" : "Aarakocra"
    }</v>
       </c>
     </row>
@@ -57756,8 +58074,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ELVISH"],
  "Resistances" : [],
- "SaveAdvantages" : ["Seduced"]
+ "SaveAdvantages" : ["CHARME"]
   },
 "HALFELIN": {
  "Id" : "HALFELIN",
@@ -57770,8 +58089,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "HALFELIN"],
  "Resistances" : [],
- "SaveAdvantages" : ["Scared"]
+ "SaveAdvantages" : ["FEAR"]
   },
 "HUMAN": {
  "Id" : "HUMAN",
@@ -57784,6 +58104,7 @@
  "Wisdom" : 1,
  "Charisma" : 1,
  "Speed" : 9,
+ "Languages" : ["COMMON"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -57798,8 +58119,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"]
+ "Languages" : ["DWARF"],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"]
   },
 "HALF_ELF": {
  "Id" : "HALF_ELF",
@@ -57812,6 +58134,7 @@
  "Wisdom" : 0,
  "Charisma" : 2,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ELVISH"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -57826,6 +58149,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ORC"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -57840,6 +58164,7 @@
  "Wisdom" : 0,
  "Charisma" : 1,
  "Speed" : 9,
+ "Languages" : ["COMMON", "DRACONIC"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -57854,8 +58179,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "GNOME"],
  "Resistances" : [],
- "SaveAdvantages" : ["Intelligence", "Wisdom", "Charisma"]
+ "SaveAdvantages" : ["INT", "SAG", "CHA"]
   },
 "TIEFFLING": {
  "Id" : "TIEFFLING",
@@ -57868,6 +58194,7 @@
  "Wisdom" : 0,
  "Charisma" : 2,
  "Speed" : 9,
+ "Languages" : ["COMMON", "INFERNAL"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -57882,6 +58209,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "AARAKOCRA", "AIR"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -57896,6 +58224,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "PRIMARY"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -57910,6 +58239,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "GIANT"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }
@@ -57927,6 +58257,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -57943,6 +58274,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 10.5,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -57959,6 +58291,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -57975,6 +58308,7 @@
  "Wisdom" : 0,
  "Charisma" : 1,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -57991,8 +58325,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"],
+ "Languages" : [],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"],
  "ArmorCategories" : []
   },
 "HILLS_DWARF": {
@@ -58007,6 +58342,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -58023,6 +58359,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : ["1_LIGHT", "2_MID"]
@@ -58039,6 +58376,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -58055,6 +58393,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -58071,6 +58410,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : ["DEPTH_COMMON"],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -58087,6 +58427,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -58103,6 +58444,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -58119,8 +58461,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "WATER_GENASI": {
@@ -58135,8 +58478,9 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "HUMAN": {
@@ -58151,6 +58495,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -58167,6 +58512,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -58183,6 +58529,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -58199,6 +58546,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : ["Cold"],
  "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
@@ -58215,8 +58563,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Electrified"],
- "SaveAdvantages" : ["Electrified"],
+ "Languages" : [],
+ "Resistances" : ["LIGHTNING"],
+ "SaveAdvantages" : ["LIGHTNING"],
  "ArmorCategories" : []
   },
 "BLACK_DRAGON": {
@@ -58231,8 +58580,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "RED_DRAGON": {
@@ -58247,8 +58597,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "GREEN_DRAGON": {
@@ -58263,8 +58614,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"],
+ "Languages" : [],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"],
  "ArmorCategories" : []
   },
 "BRASS_DRAGON": {
@@ -58279,8 +58631,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "SILVER_DRAGON": {
@@ -58295,8 +58648,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Cold"],
- "SaveAdvantages" : ["Cold"],
+ "Languages" : [],
+ "Resistances" : ["COLD"],
+ "SaveAdvantages" : ["COLD"],
  "ArmorCategories" : []
   },
 "BRONZE_DRAGON": {
@@ -58311,8 +58665,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Electrified"],
- "SaveAdvantages" : ["Electrified"],
+ "Languages" : [],
+ "Resistances" : ["LIGHTNING"],
+ "SaveAdvantages" : ["LIGHTNING"],
  "ArmorCategories" : []
   },
 "COPPER_DRAGON": {
@@ -58327,8 +58682,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "GOLD_DRAGON": {
@@ -58343,8 +58699,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "TIEFFLING": {
@@ -58359,8 +58716,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "AARAKOCRA": {
@@ -58375,6 +58733,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -58391,6 +58750,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -59241,64 +59601,7 @@
  "Weight" : 3000,
  "Price" : 1000,
  "Discretion" : "-",
- "Strength" : "-"
-  }
- },
-"Objects" : {
- "Chalemie": {
- "Name" : "Chalemie",
- "OV" : "  Shawm",
- "Category": "MUSIC",
- "Weight" : 500,
- "Price" : 200
-  },,
-"Cor": {
- "Name" : "Cor",
- "OV" : "  Horn",
- "Category": "MUSIC",
- "Weight" : 1000,
- "Price" : 300
-  },,
-"Cornemuse": {
- "Name" : "Cornemuse",
- "OV" : "  Bagpipes",
- "Category": "MUSIC",
- "Weight" : 3000,
- "Price" : 3000
-  },,
-"Flûte": {
- "Name" : "Flûte",
- "OV" : "  Flute ",
- "Category": "MUSIC",
- "Weight" : 500,
- "Price" : 200
-  },,
-"Flûte de pan": {
- "Name" : "Flûte de pan",
- "OV" : "  Pan flute",
- "Category": "MUSIC",
- "Weight" : 1000,
- "Price" : 1200
-  },,
-"Luth": {
- "Name" : "Luth",
- "OV" : "  Lute",
- "Category": "MUSIC",
- "Weight" : 1000,
- "Price" : 3500
-  },,
-"Lyre": {
- "Name" : "Lyre",
- "OV" : "  Lyre",
- "Category": "MUSIC",
- "Weight" : 1000,
- "Price" : 3000
-  },,
-"Tambour": {
- "Name" : "Tambour",
- "OV" : "  Drum",
- "Category": "MUSIC",
- "Weight" : </v>
+ </v>
       </c>
     </row>
   </sheetData>
@@ -59308,10 +59611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -59324,11 +59627,12 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="35.85546875" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="83" t="s">
         <v>456</v>
       </c>
@@ -59360,13 +59664,16 @@
         <v>444</v>
       </c>
       <c r="K1" s="146" t="s">
-        <v>2865</v>
-      </c>
-      <c r="L1" s="188" t="s">
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>2126</v>
+      </c>
+      <c r="L1" s="146" t="s">
+        <v>2864</v>
+      </c>
+      <c r="M1" s="188" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="91" t="s">
         <v>374</v>
       </c>
@@ -59397,11 +59704,14 @@
       <c r="J2" s="23">
         <v>9</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="87" t="s">
-        <v>2907</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="K2" s="23" t="s">
+        <v>2926</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="87" t="s">
+        <v>2947</v>
+      </c>
+      <c r="O2" t="str">
         <f>""""&amp;A2&amp;""": {
  ""Id"" : """&amp;A2&amp;""",
  ""Name"" : """&amp;B2&amp;""",
@@ -59413,8 +59723,9 @@
  ""Wisdom"" : "&amp;H2&amp;",
  ""Charisma"" : "&amp;I2&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(J2,",",".")&amp;",
- ""Resistances"" : ["&amp;K2&amp;"],
- ""SaveAdvantages"" : ["&amp;L2&amp;"]
+ ""Languages"" : ["&amp;K2&amp;"],
+ ""Resistances"" : ["&amp;L2&amp;"],
+ ""SaveAdvantages"" : ["&amp;M2&amp;"]
   }"</f>
         <v>"ELF": {
  "Id" : "ELF",
@@ -59427,12 +59738,13 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ELVISH"],
  "Resistances" : [],
- "SaveAdvantages" : ["Seduced"]
+ "SaveAdvantages" : ["CHARME"]
   }</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="86" t="s">
         <v>4</v>
       </c>
@@ -59463,12 +59775,15 @@
       <c r="J3" s="22">
         <v>7.5</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="88" t="s">
-        <v>2906</v>
-      </c>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N13" si="0">""""&amp;A3&amp;""": {
+      <c r="K3" s="22" t="s">
+        <v>2928</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="88" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O13" si="0">""""&amp;A3&amp;""": {
  ""Id"" : """&amp;A3&amp;""",
  ""Name"" : """&amp;B3&amp;""",
  ""OV"" : """&amp;C3&amp;""",
@@ -59479,8 +59794,9 @@
  ""Wisdom"" : "&amp;H3&amp;",
  ""Charisma"" : "&amp;I3&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(J3,",",".")&amp;",
- ""Resistances"" : ["&amp;K3&amp;"],
- ""SaveAdvantages"" : ["&amp;L3&amp;"]
+ ""Languages"" : ["&amp;K3&amp;"],
+ ""Resistances"" : ["&amp;L3&amp;"],
+ ""SaveAdvantages"" : ["&amp;M3&amp;"]
   }"</f>
         <v>"HALFELIN": {
  "Id" : "HALFELIN",
@@ -59493,12 +59809,13 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "HALFELIN"],
  "Resistances" : [],
- "SaveAdvantages" : ["Scared"]
+ "SaveAdvantages" : ["FEAR"]
   }</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="91" t="s">
         <v>375</v>
       </c>
@@ -59529,9 +59846,12 @@
       <c r="J4" s="23">
         <v>9</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="87"/>
-      <c r="N4" t="str">
+      <c r="K4" s="23" t="s">
+        <v>2918</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="87"/>
+      <c r="O4" t="str">
         <f t="shared" si="0"/>
         <v>"HUMAN": {
  "Id" : "HUMAN",
@@ -59544,12 +59864,13 @@
  "Wisdom" : 1,
  "Charisma" : 1,
  "Speed" : 9,
+ "Languages" : ["COMMON"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="86" t="s">
         <v>376</v>
       </c>
@@ -59581,12 +59902,15 @@
         <v>7.5</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>2868</v>
-      </c>
-      <c r="L5" s="88" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N5" t="str">
+        <v>2927</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>2946</v>
+      </c>
+      <c r="M5" s="88" t="s">
+        <v>2946</v>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" si="0"/>
         <v>"DWARF": {
  "Id" : "DWARF",
@@ -59599,12 +59923,13 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"]
+ "Languages" : ["DWARF"],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"]
   }</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="91" t="s">
         <v>377</v>
       </c>
@@ -59635,9 +59960,12 @@
       <c r="J6" s="23">
         <v>9</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="87"/>
-      <c r="N6" t="str">
+      <c r="K6" s="23" t="s">
+        <v>2926</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="87"/>
+      <c r="O6" t="str">
         <f t="shared" si="0"/>
         <v>"HALF_ELF": {
  "Id" : "HALF_ELF",
@@ -59650,12 +59978,13 @@
  "Wisdom" : 0,
  "Charisma" : 2,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ELVISH"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="86" t="s">
         <v>378</v>
       </c>
@@ -59686,9 +60015,12 @@
       <c r="J7" s="22">
         <v>9</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="88"/>
-      <c r="N7" t="str">
+      <c r="K7" s="22" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="88"/>
+      <c r="O7" t="str">
         <f t="shared" si="0"/>
         <v>"HALF_ORC": {
  "Id" : "HALF_ORC",
@@ -59701,12 +60033,13 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ORC"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="91" t="s">
         <v>379</v>
       </c>
@@ -59737,9 +60070,12 @@
       <c r="J8" s="23">
         <v>9</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="87"/>
-      <c r="N8" t="str">
+      <c r="K8" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="87"/>
+      <c r="O8" t="str">
         <f t="shared" si="0"/>
         <v>"DRAGON_BORN": {
  "Id" : "DRAGON_BORN",
@@ -59752,12 +60088,13 @@
  "Wisdom" : 0,
  "Charisma" : 1,
  "Speed" : 9,
+ "Languages" : ["COMMON", "DRACONIC"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="86" t="s">
         <v>5</v>
       </c>
@@ -59788,11 +60125,14 @@
       <c r="J9" s="22">
         <v>7.5</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="88" t="s">
-        <v>2908</v>
-      </c>
-      <c r="N9" t="str">
+      <c r="K9" s="22" t="s">
+        <v>2923</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="88" t="s">
+        <v>2949</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="0"/>
         <v>"GNOME": {
  "Id" : "GNOME",
@@ -59805,12 +60145,13 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "GNOME"],
  "Resistances" : [],
- "SaveAdvantages" : ["Intelligence", "Wisdom", "Charisma"]
+ "SaveAdvantages" : ["INT", "SAG", "CHA"]
   }</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="91" t="s">
         <v>380</v>
       </c>
@@ -59841,9 +60182,12 @@
       <c r="J10" s="23">
         <v>9</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="87"/>
-      <c r="N10" t="str">
+      <c r="K10" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="87"/>
+      <c r="O10" t="str">
         <f t="shared" si="0"/>
         <v>"TIEFFLING": {
  "Id" : "TIEFFLING",
@@ -59856,12 +60200,13 @@
  "Wisdom" : 0,
  "Charisma" : 2,
  "Speed" : 9,
+ "Languages" : ["COMMON", "INFERNAL"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="86" t="s">
         <v>381</v>
       </c>
@@ -59892,9 +60237,12 @@
       <c r="J11" s="22">
         <v>7.5</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="88"/>
-      <c r="N11" t="str">
+      <c r="K11" s="22" t="s">
+        <v>2919</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="88"/>
+      <c r="O11" t="str">
         <f t="shared" si="0"/>
         <v>"AARAKOCRA": {
  "Id" : "AARAKOCRA",
@@ -59907,12 +60255,13 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "AARAKOCRA", "AIR"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="91" t="s">
         <v>382</v>
       </c>
@@ -59943,9 +60292,12 @@
       <c r="J12" s="23">
         <v>9</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="87"/>
-      <c r="N12" t="str">
+      <c r="K12" s="23" t="s">
+        <v>2921</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="87"/>
+      <c r="O12" t="str">
         <f t="shared" si="0"/>
         <v>"GENASI": {
  "Id" : "GENASI",
@@ -59958,13 +60310,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "PRIMARY"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="220" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="219" t="s">
         <v>384</v>
       </c>
       <c r="B13" s="140" t="s">
@@ -59973,30 +60326,33 @@
       <c r="C13" s="140" t="s">
         <v>408</v>
       </c>
-      <c r="D13" s="221">
+      <c r="D13" s="220">
         <v>2</v>
       </c>
-      <c r="E13" s="222">
+      <c r="E13" s="221">
         <v>1</v>
       </c>
-      <c r="F13" s="222">
+      <c r="F13" s="221">
         <v>0</v>
       </c>
-      <c r="G13" s="222">
+      <c r="G13" s="221">
         <v>0</v>
       </c>
-      <c r="H13" s="222">
+      <c r="H13" s="221">
         <v>0</v>
       </c>
-      <c r="I13" s="222">
+      <c r="I13" s="221">
         <v>0</v>
       </c>
-      <c r="J13" s="222">
+      <c r="J13" s="221">
         <v>9</v>
       </c>
-      <c r="K13" s="222"/>
-      <c r="L13" s="225"/>
-      <c r="N13" t="str">
+      <c r="K13" s="221" t="s">
+        <v>2920</v>
+      </c>
+      <c r="L13" s="221"/>
+      <c r="M13" s="224"/>
+      <c r="O13" t="str">
         <f t="shared" si="0"/>
         <v>"GOLIATH": {
  "Id" : "GOLIATH",
@@ -60009,25 +60365,26 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "GIANT"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="N15" t="str">
-        <f>CONCATENATE(N2,",
-",N3,",
-",N4,",
-",N5,",
-",N6,",
-",N7,",
-",N8,",
-",N9,",
-",N10,",
-",N11,",
-",N12,",
-",N13)</f>
+    <row r="15" spans="1:15">
+      <c r="O15" t="str">
+        <f>CONCATENATE(O2,",
+",O3,",
+",O4,",
+",O5,",
+",O6,",
+",O7,",
+",O8,",
+",O9,",
+",O10,",
+",O11,",
+",O12,",
+",O13)</f>
         <v>"ELF": {
  "Id" : "ELF",
  "Name" : "Elfe",
@@ -60039,8 +60396,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ELVISH"],
  "Resistances" : [],
- "SaveAdvantages" : ["Seduced"]
+ "SaveAdvantages" : ["CHARME"]
   },
 "HALFELIN": {
  "Id" : "HALFELIN",
@@ -60053,8 +60411,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "HALFELIN"],
  "Resistances" : [],
- "SaveAdvantages" : ["Scared"]
+ "SaveAdvantages" : ["FEAR"]
   },
 "HUMAN": {
  "Id" : "HUMAN",
@@ -60067,6 +60426,7 @@
  "Wisdom" : 1,
  "Charisma" : 1,
  "Speed" : 9,
+ "Languages" : ["COMMON"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -60081,8 +60441,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"]
+ "Languages" : ["DWARF"],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"]
   },
 "HALF_ELF": {
  "Id" : "HALF_ELF",
@@ -60095,6 +60456,7 @@
  "Wisdom" : 0,
  "Charisma" : 2,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ELVISH"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -60109,6 +60471,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "ORC"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -60123,6 +60486,7 @@
  "Wisdom" : 0,
  "Charisma" : 1,
  "Speed" : 9,
+ "Languages" : ["COMMON", "DRACONIC"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -60137,8 +60501,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "GNOME"],
  "Resistances" : [],
- "SaveAdvantages" : ["Intelligence", "Wisdom", "Charisma"]
+ "SaveAdvantages" : ["INT", "SAG", "CHA"]
   },
 "TIEFFLING": {
  "Id" : "TIEFFLING",
@@ -60151,6 +60516,7 @@
  "Wisdom" : 0,
  "Charisma" : 2,
  "Speed" : 9,
+ "Languages" : ["COMMON", "INFERNAL"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -60165,6 +60531,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 7.5,
+ "Languages" : ["COMMON", "AARAKOCRA", "AIR"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -60179,6 +60546,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "PRIMARY"],
  "Resistances" : [],
  "SaveAdvantages" : []
   },
@@ -60193,6 +60561,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 9,
+ "Languages" : ["COMMON", "GIANT"],
  "Resistances" : [],
  "SaveAdvantages" : []
   }</v>
@@ -61763,10 +62132,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -61781,12 +62150,13 @@
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="11" width="10" customWidth="1"/>
-    <col min="12" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="83" t="s">
         <v>446</v>
       </c>
@@ -61821,17 +62191,20 @@
         <v>444</v>
       </c>
       <c r="L1" s="146" t="s">
-        <v>2865</v>
+        <v>2126</v>
       </c>
       <c r="M1" s="146" t="s">
-        <v>2916</v>
-      </c>
-      <c r="N1" s="188" t="s">
+        <v>2864</v>
+      </c>
+      <c r="N1" s="146" t="s">
+        <v>2908</v>
+      </c>
+      <c r="O1" s="188" t="s">
         <v>2801</v>
       </c>
-      <c r="O1" s="100"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="P1" s="100"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="106" t="s">
         <v>374</v>
       </c>
@@ -61862,14 +62235,15 @@
       <c r="J2" s="105">
         <v>0</v>
       </c>
-      <c r="K2" s="219">
+      <c r="K2" s="218">
         <v>0</v>
       </c>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="96"/>
-      <c r="P2" t="str">
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" t="str">
         <f>""""&amp;B2&amp;""": {
  ""Id"" : """&amp;B2&amp;""",
  ""Race"" : """&amp;A2&amp;""",
@@ -61882,9 +62256,10 @@
  ""Wisdom"" : "&amp;I2&amp;",
  ""Charisma"" : "&amp;J2&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K2,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L2,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L2,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N2&amp;"]
+ ""Languages"" : ["&amp;L2&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M2,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M2,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O2&amp;"]
   }"</f>
         <v>"HIGH_ELF": {
  "Id" : "HIGH_ELF",
@@ -61898,13 +62273,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="86" t="s">
         <v>374</v>
       </c>
@@ -61935,14 +62311,15 @@
       <c r="J3" s="96">
         <v>0</v>
       </c>
-      <c r="K3" s="214">
+      <c r="K3" s="213">
         <v>10.5</v>
       </c>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="96"/>
-      <c r="P3" t="str">
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" t="str">
         <f>""""&amp;B3&amp;""": {
  ""Id"" : """&amp;B3&amp;""",
  ""Race"" : """&amp;A3&amp;""",
@@ -61955,9 +62332,10 @@
  ""Wisdom"" : "&amp;I3&amp;",
  ""Charisma"" : "&amp;J3&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K3,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L3,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L3,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N3&amp;"]
+ ""Languages"" : ["&amp;L3&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M3,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M3,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O3&amp;"]
   }"</f>
         <v>"WOODEN_ELF": {
  "Id" : "WOODEN_ELF",
@@ -61971,13 +62349,14 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 10.5,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="91" t="s">
         <v>374</v>
       </c>
@@ -62008,14 +62387,15 @@
       <c r="J4" s="23">
         <v>0</v>
       </c>
-      <c r="K4" s="213">
+      <c r="K4" s="212">
         <v>0</v>
       </c>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="96"/>
-      <c r="P4" t="str">
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" t="str">
         <f>""""&amp;B4&amp;""": {
  ""Id"" : """&amp;B4&amp;""",
  ""Race"" : """&amp;A4&amp;""",
@@ -62028,9 +62408,10 @@
  ""Wisdom"" : "&amp;I4&amp;",
  ""Charisma"" : "&amp;J4&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K4,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L4,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L4,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N4&amp;"]
+ ""Languages"" : ["&amp;L4&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M4,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M4,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O4&amp;"]
   }"</f>
         <v>"DROW": {
  "Id" : "DROW",
@@ -62044,13 +62425,14 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="86" t="s">
         <v>4</v>
       </c>
@@ -62081,14 +62463,15 @@
       <c r="J5" s="22">
         <v>1</v>
       </c>
-      <c r="K5" s="215">
+      <c r="K5" s="214">
         <v>0</v>
       </c>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="149"/>
-      <c r="O5" s="96"/>
-      <c r="P5" t="str">
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="214"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" t="str">
         <f>""""&amp;B5&amp;""": {
  ""Id"" : """&amp;B5&amp;""",
  ""Race"" : """&amp;A5&amp;""",
@@ -62101,9 +62484,10 @@
  ""Wisdom"" : "&amp;I5&amp;",
  ""Charisma"" : "&amp;J5&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K5,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L5,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L5,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N5&amp;"]
+ ""Languages"" : ["&amp;L5&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M5,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M5,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O5&amp;"]
   }"</f>
         <v>"LIGHT_FOOT_HALFELIN": {
  "Id" : "LIGHT_FOOT_HALFELIN",
@@ -62117,13 +62501,14 @@
  "Wisdom" : 0,
  "Charisma" : 1,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="91" t="s">
         <v>4</v>
       </c>
@@ -62154,18 +62539,19 @@
       <c r="J6" s="102">
         <v>0</v>
       </c>
-      <c r="K6" s="216">
+      <c r="K6" s="215">
         <v>0</v>
       </c>
-      <c r="L6" s="216" t="s">
-        <v>2868</v>
-      </c>
-      <c r="M6" s="216" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N6" s="148"/>
-      <c r="O6" s="96"/>
-      <c r="P6" t="str">
+      <c r="L6" s="215"/>
+      <c r="M6" s="215" t="s">
+        <v>2946</v>
+      </c>
+      <c r="N6" s="215" t="s">
+        <v>2946</v>
+      </c>
+      <c r="O6" s="148"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" t="str">
         <f>""""&amp;B6&amp;""": {
  ""Id"" : """&amp;B6&amp;""",
  ""Race"" : """&amp;A6&amp;""",
@@ -62178,9 +62564,10 @@
  ""Wisdom"" : "&amp;I6&amp;",
  ""Charisma"" : "&amp;J6&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K6,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L6,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L6,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N6&amp;"]
+ ""Languages"" : ["&amp;L6&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M6,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M6,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O6&amp;"]
   }"</f>
         <v>"ROBUST_HALFELIN": {
  "Id" : "ROBUST_HALFELIN",
@@ -62194,13 +62581,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"],
+ "Languages" : [],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="86" t="s">
         <v>376</v>
       </c>
@@ -62231,14 +62619,15 @@
       <c r="J7" s="22">
         <v>0</v>
       </c>
-      <c r="K7" s="215">
+      <c r="K7" s="214">
         <v>0</v>
       </c>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="96"/>
-      <c r="P7" t="str">
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" t="str">
         <f>""""&amp;B7&amp;""": {
  ""Id"" : """&amp;B7&amp;""",
  ""Race"" : """&amp;A7&amp;""",
@@ -62251,9 +62640,10 @@
  ""Wisdom"" : "&amp;I7&amp;",
  ""Charisma"" : "&amp;J7&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K7,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L7,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L7,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N7&amp;"]
+ ""Languages"" : ["&amp;L7&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M7,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M7,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O7&amp;"]
   }"</f>
         <v>"HILLS_DWARF": {
  "Id" : "HILLS_DWARF",
@@ -62267,13 +62657,14 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="91" t="s">
         <v>376</v>
       </c>
@@ -62304,16 +62695,17 @@
       <c r="J8" s="102">
         <v>0</v>
       </c>
-      <c r="K8" s="216">
+      <c r="K8" s="215">
         <v>0</v>
       </c>
-      <c r="L8" s="216"/>
-      <c r="M8" s="216"/>
-      <c r="N8" s="148" t="s">
-        <v>2902</v>
-      </c>
-      <c r="O8" s="96"/>
-      <c r="P8" t="str">
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="148" t="s">
+        <v>2897</v>
+      </c>
+      <c r="P8" s="96"/>
+      <c r="Q8" t="str">
         <f>""""&amp;B8&amp;""": {
  ""Id"" : """&amp;B8&amp;""",
  ""Race"" : """&amp;A8&amp;""",
@@ -62326,9 +62718,10 @@
  ""Wisdom"" : "&amp;I8&amp;",
  ""Charisma"" : "&amp;J8&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K8,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L8,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L8,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N8&amp;"]
+ ""Languages"" : ["&amp;L8&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M8,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M8,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O8&amp;"]
   }"</f>
         <v>"MONTAINS_DWARF": {
  "Id" : "MONTAINS_DWARF",
@@ -62342,13 +62735,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : ["1_LIGHT", "2_MID"]
   }</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="86" t="s">
         <v>5</v>
       </c>
@@ -62379,14 +62773,15 @@
       <c r="J9" s="22">
         <v>0</v>
       </c>
-      <c r="K9" s="215">
+      <c r="K9" s="214">
         <v>0</v>
       </c>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="96"/>
-      <c r="P9" t="str">
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" t="str">
         <f>""""&amp;B9&amp;""": {
  ""Id"" : """&amp;B9&amp;""",
  ""Race"" : """&amp;A9&amp;""",
@@ -62399,9 +62794,10 @@
  ""Wisdom"" : "&amp;I9&amp;",
  ""Charisma"" : "&amp;J9&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K9,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L9,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L9,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N9&amp;"]
+ ""Languages"" : ["&amp;L9&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M9,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M9,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O9&amp;"]
   }"</f>
         <v>"FORESTS_GNOME": {
  "Id" : "FORESTS_GNOME",
@@ -62415,13 +62811,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="91" t="s">
         <v>5</v>
       </c>
@@ -62452,14 +62849,15 @@
       <c r="J10" s="102">
         <v>0</v>
       </c>
-      <c r="K10" s="216">
+      <c r="K10" s="215">
         <v>0</v>
       </c>
-      <c r="L10" s="216"/>
-      <c r="M10" s="216"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="96"/>
-      <c r="P10" t="str">
+      <c r="L10" s="215"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" t="str">
         <f>""""&amp;B10&amp;""": {
  ""Id"" : """&amp;B10&amp;""",
  ""Race"" : """&amp;A10&amp;""",
@@ -62472,9 +62870,10 @@
  ""Wisdom"" : "&amp;I10&amp;",
  ""Charisma"" : "&amp;J10&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K10,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L10,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L10,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N10&amp;"]
+ ""Languages"" : ["&amp;L10&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M10,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M10,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O10&amp;"]
   }"</f>
         <v>"ROCKS_GNOME": {
  "Id" : "ROCKS_GNOME",
@@ -62488,13 +62887,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="113" t="s">
         <v>5</v>
       </c>
@@ -62525,14 +62925,17 @@
       <c r="J11" s="96">
         <v>0</v>
       </c>
-      <c r="K11" s="214">
+      <c r="K11" s="213">
         <v>0</v>
       </c>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="96"/>
-      <c r="P11" t="str">
+      <c r="L11" s="213" t="s">
+        <v>2943</v>
+      </c>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="198"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" t="str">
         <f>""""&amp;B11&amp;""": {
  ""Id"" : """&amp;B11&amp;""",
  ""Race"" : """&amp;A11&amp;""",
@@ -62545,9 +62948,10 @@
  ""Wisdom"" : "&amp;I11&amp;",
  ""Charisma"" : "&amp;J11&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K11,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L11,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L11,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N11&amp;"]
+ ""Languages"" : ["&amp;L11&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M11,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M11,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O11&amp;"]
   }"</f>
         <v>"DEPTH_GNOME": {
  "Id" : "DEPTH_GNOME",
@@ -62561,13 +62965,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : ["DEPTH_COMMON"],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="91" t="s">
         <v>382</v>
       </c>
@@ -62598,14 +63003,15 @@
       <c r="J12" s="102">
         <v>0</v>
       </c>
-      <c r="K12" s="216">
+      <c r="K12" s="215">
         <v>0</v>
       </c>
-      <c r="L12" s="216"/>
-      <c r="M12" s="216"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="96"/>
-      <c r="P12" t="str">
+      <c r="L12" s="215"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="215"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" t="str">
         <f>""""&amp;B12&amp;""": {
  ""Id"" : """&amp;B12&amp;""",
  ""Race"" : """&amp;A12&amp;""",
@@ -62618,9 +63024,10 @@
  ""Wisdom"" : "&amp;I12&amp;",
  ""Charisma"" : "&amp;J12&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K12,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L12,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L12,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N12&amp;"]
+ ""Languages"" : ["&amp;L12&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M12,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M12,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O12&amp;"]
   }"</f>
         <v>"AIR_GENASI": {
  "Id" : "AIR_GENASI",
@@ -62634,13 +63041,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="113" t="s">
         <v>382</v>
       </c>
@@ -62671,14 +63079,15 @@
       <c r="J13" s="96">
         <v>0</v>
       </c>
-      <c r="K13" s="214">
+      <c r="K13" s="213">
         <v>0</v>
       </c>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="96"/>
-      <c r="P13" t="str">
+      <c r="L13" s="213"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="213"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" t="str">
         <f>""""&amp;B13&amp;""": {
  ""Id"" : """&amp;B13&amp;""",
  ""Race"" : """&amp;A13&amp;""",
@@ -62691,9 +63100,10 @@
  ""Wisdom"" : "&amp;I13&amp;",
  ""Charisma"" : "&amp;J13&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K13,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L13,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L13,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N13&amp;"]
+ ""Languages"" : ["&amp;L13&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M13,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M13,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O13&amp;"]
   }"</f>
         <v>"EARTH_GENASI": {
  "Id" : "EARTH_GENASI",
@@ -62707,13 +63117,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="91" t="s">
         <v>382</v>
       </c>
@@ -62744,16 +63155,17 @@
       <c r="J14" s="102">
         <v>0</v>
       </c>
-      <c r="K14" s="216">
+      <c r="K14" s="215">
         <v>0</v>
       </c>
-      <c r="L14" s="216" t="s">
-        <v>2866</v>
-      </c>
-      <c r="M14" s="216"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="96"/>
-      <c r="P14" t="str">
+      <c r="L14" s="215"/>
+      <c r="M14" s="215" t="s">
+        <v>2950</v>
+      </c>
+      <c r="N14" s="215"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" t="str">
         <f>""""&amp;B14&amp;""": {
  ""Id"" : """&amp;B14&amp;""",
  ""Race"" : """&amp;A14&amp;""",
@@ -62766,9 +63178,10 @@
  ""Wisdom"" : "&amp;I14&amp;",
  ""Charisma"" : "&amp;J14&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K14,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L14,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L14,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N14&amp;"]
+ ""Languages"" : ["&amp;L14&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M14,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M14,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O14&amp;"]
   }"</f>
         <v>"FIRE_GENASI": {
  "Id" : "FIRE_GENASI",
@@ -62782,13 +63195,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="113" t="s">
         <v>382</v>
       </c>
@@ -62819,16 +63233,17 @@
       <c r="J15" s="96">
         <v>0</v>
       </c>
-      <c r="K15" s="214">
+      <c r="K15" s="213">
         <v>0</v>
       </c>
-      <c r="L15" s="214" t="s">
-        <v>2867</v>
-      </c>
-      <c r="M15" s="214"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="96"/>
-      <c r="P15" t="str">
+      <c r="L15" s="213"/>
+      <c r="M15" s="213" t="s">
+        <v>2951</v>
+      </c>
+      <c r="N15" s="213"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" t="str">
         <f>""""&amp;B15&amp;""": {
  ""Id"" : """&amp;B15&amp;""",
  ""Race"" : """&amp;A15&amp;""",
@@ -62841,9 +63256,10 @@
  ""Wisdom"" : "&amp;I15&amp;",
  ""Charisma"" : "&amp;J15&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K15,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L15,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L15,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N15&amp;"]
+ ""Languages"" : ["&amp;L15&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M15,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M15,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O15&amp;"]
   }"</f>
         <v>"WATER_GENASI": {
  "Id" : "WATER_GENASI",
@@ -62857,13 +63273,14 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="91" t="s">
         <v>375</v>
       </c>
@@ -62894,13 +63311,14 @@
       <c r="J16" s="23">
         <v>0</v>
       </c>
-      <c r="K16" s="217">
+      <c r="K16" s="216">
         <v>0</v>
       </c>
-      <c r="L16" s="217"/>
-      <c r="M16" s="217"/>
-      <c r="N16" s="145"/>
-      <c r="P16" t="str">
+      <c r="L16" s="216"/>
+      <c r="M16" s="216"/>
+      <c r="N16" s="216"/>
+      <c r="O16" s="145"/>
+      <c r="Q16" t="str">
         <f>""""&amp;B16&amp;""": {
  ""Id"" : """&amp;B16&amp;""",
  ""Race"" : """&amp;A16&amp;""",
@@ -62913,9 +63331,10 @@
  ""Wisdom"" : "&amp;I16&amp;",
  ""Charisma"" : "&amp;J16&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K16,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L16,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L16,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N16&amp;"]
+ ""Languages"" : ["&amp;L16&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M16,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M16,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O16&amp;"]
   }"</f>
         <v>"HUMAN": {
  "Id" : "HUMAN",
@@ -62929,13 +63348,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" s="113" t="s">
         <v>377</v>
       </c>
@@ -62966,13 +63386,14 @@
       <c r="J17" s="96">
         <v>0</v>
       </c>
-      <c r="K17" s="218">
+      <c r="K17" s="217">
         <v>0</v>
       </c>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="138"/>
-      <c r="P17" t="str">
+      <c r="L17" s="217"/>
+      <c r="M17" s="217"/>
+      <c r="N17" s="217"/>
+      <c r="O17" s="138"/>
+      <c r="Q17" t="str">
         <f>""""&amp;B17&amp;""": {
  ""Id"" : """&amp;B17&amp;""",
  ""Race"" : """&amp;A17&amp;""",
@@ -62985,9 +63406,10 @@
  ""Wisdom"" : "&amp;I17&amp;",
  ""Charisma"" : "&amp;J17&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K17,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L17,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L17,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N17&amp;"]
+ ""Languages"" : ["&amp;L17&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M17,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M17,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O17&amp;"]
   }"</f>
         <v>"HALF_ELF": {
  "Id" : "HALF_ELF",
@@ -63001,13 +63423,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" s="91" t="s">
         <v>378</v>
       </c>
@@ -63038,13 +63461,14 @@
       <c r="J18" s="102">
         <v>0</v>
       </c>
-      <c r="K18" s="217">
+      <c r="K18" s="216">
         <v>0</v>
       </c>
-      <c r="L18" s="217"/>
-      <c r="M18" s="217"/>
-      <c r="N18" s="145"/>
-      <c r="P18" t="str">
+      <c r="L18" s="216"/>
+      <c r="M18" s="216"/>
+      <c r="N18" s="216"/>
+      <c r="O18" s="145"/>
+      <c r="Q18" t="str">
         <f>""""&amp;B18&amp;""": {
  ""Id"" : """&amp;B18&amp;""",
  ""Race"" : """&amp;A18&amp;""",
@@ -63057,9 +63481,10 @@
  ""Wisdom"" : "&amp;I18&amp;",
  ""Charisma"" : "&amp;J18&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K18,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L18,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L18,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N18&amp;"]
+ ""Languages"" : ["&amp;L18&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M18,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M18,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O18&amp;"]
   }"</f>
         <v>"HALF_ORC": {
  "Id" : "HALF_ORC",
@@ -63073,24 +63498,25 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.25" customHeight="1">
+    <row r="19" spans="1:17" ht="17.25" customHeight="1">
       <c r="A19" s="113" t="s">
         <v>379</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
       <c r="E19" s="95">
         <v>0</v>
@@ -63110,15 +63536,16 @@
       <c r="J19" s="96">
         <v>0</v>
       </c>
-      <c r="K19" s="218">
+      <c r="K19" s="217">
         <v>0</v>
       </c>
-      <c r="L19" s="218" t="s">
-        <v>2900</v>
-      </c>
-      <c r="M19" s="218"/>
-      <c r="N19" s="138"/>
-      <c r="P19" t="str">
+      <c r="L19" s="217"/>
+      <c r="M19" s="217" t="s">
+        <v>2896</v>
+      </c>
+      <c r="N19" s="217"/>
+      <c r="O19" s="138"/>
+      <c r="Q19" t="str">
         <f>""""&amp;B19&amp;""": {
  ""Id"" : """&amp;B19&amp;""",
  ""Race"" : """&amp;A19&amp;""",
@@ -63131,9 +63558,10 @@
  ""Wisdom"" : "&amp;I19&amp;",
  ""Charisma"" : "&amp;J19&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K19,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L19,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L19,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N19&amp;"]
+ ""Languages"" : ["&amp;L19&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M19,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M19,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O19&amp;"]
   }"</f>
         <v>"WHITE_DRAGON": {
  "Id" : "WHITE_DRAGON",
@@ -63147,24 +63575,25 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : ["Cold"],
  "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1">
       <c r="A20" s="91" t="s">
         <v>379</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
       <c r="E20" s="101">
         <v>0</v>
@@ -63184,15 +63613,16 @@
       <c r="J20" s="102">
         <v>0</v>
       </c>
-      <c r="K20" s="217">
+      <c r="K20" s="216">
         <v>0</v>
       </c>
-      <c r="L20" s="217" t="s">
-        <v>2901</v>
-      </c>
-      <c r="M20" s="217"/>
-      <c r="N20" s="145"/>
-      <c r="P20" t="str">
+      <c r="L20" s="216"/>
+      <c r="M20" s="216" t="s">
+        <v>2952</v>
+      </c>
+      <c r="N20" s="216"/>
+      <c r="O20" s="145"/>
+      <c r="Q20" t="str">
         <f>""""&amp;B20&amp;""": {
  ""Id"" : """&amp;B20&amp;""",
  ""Race"" : """&amp;A20&amp;""",
@@ -63205,9 +63635,10 @@
  ""Wisdom"" : "&amp;I20&amp;",
  ""Charisma"" : "&amp;J20&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K20,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L20,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L20,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N20&amp;"]
+ ""Languages"" : ["&amp;L20&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M20,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M20,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O20&amp;"]
   }"</f>
         <v>"BLUE_DRAGON": {
  "Id" : "BLUE_DRAGON",
@@ -63221,24 +63652,25 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Electrified"],
- "SaveAdvantages" : ["Electrified"],
+ "Languages" : [],
+ "Resistances" : ["LIGHTNING"],
+ "SaveAdvantages" : ["LIGHTNING"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" s="113" t="s">
         <v>379</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="E21" s="95">
         <v>0</v>
@@ -63258,15 +63690,16 @@
       <c r="J21" s="96">
         <v>0</v>
       </c>
-      <c r="K21" s="218">
+      <c r="K21" s="217">
         <v>0</v>
       </c>
-      <c r="L21" s="218" t="s">
-        <v>2867</v>
-      </c>
-      <c r="M21" s="218"/>
-      <c r="N21" s="138"/>
-      <c r="P21" t="str">
+      <c r="L21" s="217"/>
+      <c r="M21" s="217" t="s">
+        <v>2951</v>
+      </c>
+      <c r="N21" s="217"/>
+      <c r="O21" s="138"/>
+      <c r="Q21" t="str">
         <f>""""&amp;B21&amp;""": {
  ""Id"" : """&amp;B21&amp;""",
  ""Race"" : """&amp;A21&amp;""",
@@ -63279,9 +63712,10 @@
  ""Wisdom"" : "&amp;I21&amp;",
  ""Charisma"" : "&amp;J21&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K21,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L21,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L21,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N21&amp;"]
+ ""Languages"" : ["&amp;L21&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M21,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M21,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O21&amp;"]
   }"</f>
         <v>"BLACK_DRAGON": {
  "Id" : "BLACK_DRAGON",
@@ -63295,24 +63729,25 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" s="91" t="s">
         <v>379</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="E22" s="101">
         <v>0</v>
@@ -63332,15 +63767,16 @@
       <c r="J22" s="102">
         <v>0</v>
       </c>
-      <c r="K22" s="217">
+      <c r="K22" s="216">
         <v>0</v>
       </c>
-      <c r="L22" s="217" t="s">
-        <v>2866</v>
-      </c>
-      <c r="M22" s="217"/>
-      <c r="N22" s="145"/>
-      <c r="P22" t="str">
+      <c r="L22" s="216"/>
+      <c r="M22" s="216" t="s">
+        <v>2950</v>
+      </c>
+      <c r="N22" s="216"/>
+      <c r="O22" s="145"/>
+      <c r="Q22" t="str">
         <f>""""&amp;B22&amp;""": {
  ""Id"" : """&amp;B22&amp;""",
  ""Race"" : """&amp;A22&amp;""",
@@ -63353,9 +63789,10 @@
  ""Wisdom"" : "&amp;I22&amp;",
  ""Charisma"" : "&amp;J22&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K22,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L22,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L22,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N22&amp;"]
+ ""Languages"" : ["&amp;L22&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M22,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M22,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O22&amp;"]
   }"</f>
         <v>"RED_DRAGON": {
  "Id" : "RED_DRAGON",
@@ -63369,24 +63806,25 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" s="113" t="s">
         <v>379</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="C23" s="94" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
       <c r="E23" s="95">
         <v>0</v>
@@ -63406,15 +63844,16 @@
       <c r="J23" s="96">
         <v>0</v>
       </c>
-      <c r="K23" s="218">
+      <c r="K23" s="217">
         <v>0</v>
       </c>
-      <c r="L23" s="218" t="s">
-        <v>2868</v>
-      </c>
-      <c r="M23" s="218"/>
-      <c r="N23" s="138"/>
-      <c r="P23" t="str">
+      <c r="L23" s="217"/>
+      <c r="M23" s="217" t="s">
+        <v>2946</v>
+      </c>
+      <c r="N23" s="217"/>
+      <c r="O23" s="138"/>
+      <c r="Q23" t="str">
         <f>""""&amp;B23&amp;""": {
  ""Id"" : """&amp;B23&amp;""",
  ""Race"" : """&amp;A23&amp;""",
@@ -63427,9 +63866,10 @@
  ""Wisdom"" : "&amp;I23&amp;",
  ""Charisma"" : "&amp;J23&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K23,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L23,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L23,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N23&amp;"]
+ ""Languages"" : ["&amp;L23&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M23,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M23,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O23&amp;"]
   }"</f>
         <v>"GREEN_DRAGON": {
  "Id" : "GREEN_DRAGON",
@@ -63443,24 +63883,25 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"],
+ "Languages" : [],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" s="91" t="s">
         <v>379</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="E24" s="101">
         <v>0</v>
@@ -63480,15 +63921,16 @@
       <c r="J24" s="102">
         <v>0</v>
       </c>
-      <c r="K24" s="217">
+      <c r="K24" s="216">
         <v>0</v>
       </c>
-      <c r="L24" s="217" t="s">
-        <v>2866</v>
-      </c>
-      <c r="M24" s="217"/>
-      <c r="N24" s="145"/>
-      <c r="P24" t="str">
+      <c r="L24" s="216"/>
+      <c r="M24" s="216" t="s">
+        <v>2950</v>
+      </c>
+      <c r="N24" s="216"/>
+      <c r="O24" s="145"/>
+      <c r="Q24" t="str">
         <f>""""&amp;B24&amp;""": {
  ""Id"" : """&amp;B24&amp;""",
  ""Race"" : """&amp;A24&amp;""",
@@ -63501,9 +63943,10 @@
  ""Wisdom"" : "&amp;I24&amp;",
  ""Charisma"" : "&amp;J24&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K24,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L24,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L24,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N24&amp;"]
+ ""Languages"" : ["&amp;L24&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M24,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M24,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O24&amp;"]
   }"</f>
         <v>"BRASS_DRAGON": {
  "Id" : "BRASS_DRAGON",
@@ -63517,24 +63960,25 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" s="113" t="s">
         <v>379</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="C25" s="94" t="s">
-        <v>2886</v>
+        <v>2882</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="E25" s="95">
         <v>0</v>
@@ -63554,15 +63998,16 @@
       <c r="J25" s="96">
         <v>0</v>
       </c>
-      <c r="K25" s="218">
+      <c r="K25" s="217">
         <v>0</v>
       </c>
-      <c r="L25" s="218" t="s">
-        <v>2900</v>
-      </c>
-      <c r="M25" s="218"/>
-      <c r="N25" s="138"/>
-      <c r="P25" t="str">
+      <c r="L25" s="217"/>
+      <c r="M25" s="217" t="s">
+        <v>2953</v>
+      </c>
+      <c r="N25" s="217"/>
+      <c r="O25" s="138"/>
+      <c r="Q25" t="str">
         <f>""""&amp;B25&amp;""": {
  ""Id"" : """&amp;B25&amp;""",
  ""Race"" : """&amp;A25&amp;""",
@@ -63575,9 +64020,10 @@
  ""Wisdom"" : "&amp;I25&amp;",
  ""Charisma"" : "&amp;J25&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K25,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L25,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L25,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N25&amp;"]
+ ""Languages"" : ["&amp;L25&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M25,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M25,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O25&amp;"]
   }"</f>
         <v>"SILVER_DRAGON": {
  "Id" : "SILVER_DRAGON",
@@ -63591,24 +64037,25 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Cold"],
- "SaveAdvantages" : ["Cold"],
+ "Languages" : [],
+ "Resistances" : ["COLD"],
+ "SaveAdvantages" : ["COLD"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" s="91" t="s">
         <v>379</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>2887</v>
+        <v>2883</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="E26" s="101">
         <v>0</v>
@@ -63628,15 +64075,16 @@
       <c r="J26" s="102">
         <v>0</v>
       </c>
-      <c r="K26" s="217">
+      <c r="K26" s="216">
         <v>0</v>
       </c>
-      <c r="L26" s="217" t="s">
-        <v>2901</v>
-      </c>
-      <c r="M26" s="217"/>
-      <c r="N26" s="145"/>
-      <c r="P26" t="str">
+      <c r="L26" s="216"/>
+      <c r="M26" s="216" t="s">
+        <v>2952</v>
+      </c>
+      <c r="N26" s="216"/>
+      <c r="O26" s="145"/>
+      <c r="Q26" t="str">
         <f>""""&amp;B26&amp;""": {
  ""Id"" : """&amp;B26&amp;""",
  ""Race"" : """&amp;A26&amp;""",
@@ -63649,9 +64097,10 @@
  ""Wisdom"" : "&amp;I26&amp;",
  ""Charisma"" : "&amp;J26&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K26,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L26,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L26,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N26&amp;"]
+ ""Languages"" : ["&amp;L26&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M26,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M26,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O26&amp;"]
   }"</f>
         <v>"BRONZE_DRAGON": {
  "Id" : "BRONZE_DRAGON",
@@ -63665,24 +64114,25 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Electrified"],
- "SaveAdvantages" : ["Electrified"],
+ "Languages" : [],
+ "Resistances" : ["LIGHTNING"],
+ "SaveAdvantages" : ["LIGHTNING"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27" s="113" t="s">
         <v>379</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="C27" s="94" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
       <c r="D27" s="94" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="E27" s="95">
         <v>0</v>
@@ -63702,15 +64152,16 @@
       <c r="J27" s="96">
         <v>0</v>
       </c>
-      <c r="K27" s="218">
+      <c r="K27" s="217">
         <v>0</v>
       </c>
-      <c r="L27" s="218" t="s">
-        <v>2867</v>
-      </c>
-      <c r="M27" s="218"/>
-      <c r="N27" s="138"/>
-      <c r="P27" t="str">
+      <c r="L27" s="217"/>
+      <c r="M27" s="217" t="s">
+        <v>2951</v>
+      </c>
+      <c r="N27" s="217"/>
+      <c r="O27" s="138"/>
+      <c r="Q27" t="str">
         <f>""""&amp;B27&amp;""": {
  ""Id"" : """&amp;B27&amp;""",
  ""Race"" : """&amp;A27&amp;""",
@@ -63723,9 +64174,10 @@
  ""Wisdom"" : "&amp;I27&amp;",
  ""Charisma"" : "&amp;J27&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K27,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L27,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L27,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N27&amp;"]
+ ""Languages"" : ["&amp;L27&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M27,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M27,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O27&amp;"]
   }"</f>
         <v>"COPPER_DRAGON": {
  "Id" : "COPPER_DRAGON",
@@ -63739,24 +64191,25 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" s="91" t="s">
         <v>379</v>
       </c>
       <c r="B28" s="92" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="E28" s="101">
         <v>0</v>
@@ -63776,15 +64229,16 @@
       <c r="J28" s="102">
         <v>0</v>
       </c>
-      <c r="K28" s="217">
+      <c r="K28" s="216">
         <v>0</v>
       </c>
-      <c r="L28" s="217" t="s">
-        <v>2866</v>
-      </c>
-      <c r="M28" s="217"/>
-      <c r="N28" s="145"/>
-      <c r="P28" t="str">
+      <c r="L28" s="216"/>
+      <c r="M28" s="216" t="s">
+        <v>2950</v>
+      </c>
+      <c r="N28" s="216"/>
+      <c r="O28" s="145"/>
+      <c r="Q28" t="str">
         <f>""""&amp;B28&amp;""": {
  ""Id"" : """&amp;B28&amp;""",
  ""Race"" : """&amp;A28&amp;""",
@@ -63797,9 +64251,10 @@
  ""Wisdom"" : "&amp;I28&amp;",
  ""Charisma"" : "&amp;J28&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K28,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L28,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L28,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N28&amp;"]
+ ""Languages"" : ["&amp;L28&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M28,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M28,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O28&amp;"]
   }"</f>
         <v>"GOLD_DRAGON": {
  "Id" : "GOLD_DRAGON",
@@ -63813,13 +64268,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29" s="113" t="s">
         <v>380</v>
       </c>
@@ -63850,15 +64306,16 @@
       <c r="J29" s="96">
         <v>0</v>
       </c>
-      <c r="K29" s="218">
+      <c r="K29" s="217">
         <v>0</v>
       </c>
-      <c r="L29" s="218" t="s">
-        <v>2866</v>
-      </c>
-      <c r="M29" s="218"/>
-      <c r="N29" s="138"/>
-      <c r="P29" t="str">
+      <c r="L29" s="217"/>
+      <c r="M29" s="217" t="s">
+        <v>2950</v>
+      </c>
+      <c r="N29" s="217"/>
+      <c r="O29" s="138"/>
+      <c r="Q29" t="str">
         <f>""""&amp;B29&amp;""": {
  ""Id"" : """&amp;B29&amp;""",
  ""Race"" : """&amp;A29&amp;""",
@@ -63871,9 +64328,10 @@
  ""Wisdom"" : "&amp;I29&amp;",
  ""Charisma"" : "&amp;J29&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K29,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L29,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L29,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N29&amp;"]
+ ""Languages"" : ["&amp;L29&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M29,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M29,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O29&amp;"]
   }"</f>
         <v>"TIEFFLING": {
  "Id" : "TIEFFLING",
@@ -63887,13 +64345,14 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30" s="91" t="s">
         <v>381</v>
       </c>
@@ -63924,13 +64383,14 @@
       <c r="J30" s="102">
         <v>0</v>
       </c>
-      <c r="K30" s="217">
+      <c r="K30" s="216">
         <v>0</v>
       </c>
-      <c r="L30" s="217"/>
-      <c r="M30" s="217"/>
-      <c r="N30" s="145"/>
-      <c r="P30" t="str">
+      <c r="L30" s="216"/>
+      <c r="M30" s="216"/>
+      <c r="N30" s="216"/>
+      <c r="O30" s="145"/>
+      <c r="Q30" t="str">
         <f>""""&amp;B30&amp;""": {
  ""Id"" : """&amp;B30&amp;""",
  ""Race"" : """&amp;A30&amp;""",
@@ -63943,9 +64403,10 @@
  ""Wisdom"" : "&amp;I30&amp;",
  ""Charisma"" : "&amp;J30&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K30,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L30,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L30,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N30&amp;"]
+ ""Languages"" : ["&amp;L30&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M30,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M30,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O30&amp;"]
   }"</f>
         <v>"AARAKOCRA": {
  "Id" : "AARAKOCRA",
@@ -63959,17 +64420,18 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="220" t="s">
+    <row r="31" spans="1:17">
+      <c r="A31" s="219" t="s">
         <v>384</v>
       </c>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="222" t="s">
         <v>384</v>
       </c>
       <c r="C31" s="140" t="s">
@@ -63978,31 +64440,32 @@
       <c r="D31" s="140" t="s">
         <v>408</v>
       </c>
-      <c r="E31" s="221">
+      <c r="E31" s="220">
         <v>0</v>
       </c>
-      <c r="F31" s="222">
+      <c r="F31" s="221">
         <v>0</v>
       </c>
-      <c r="G31" s="222">
+      <c r="G31" s="221">
         <v>0</v>
       </c>
-      <c r="H31" s="222">
+      <c r="H31" s="221">
         <v>0</v>
       </c>
-      <c r="I31" s="222">
+      <c r="I31" s="221">
         <v>0</v>
       </c>
-      <c r="J31" s="222">
+      <c r="J31" s="221">
         <v>0</v>
       </c>
-      <c r="K31" s="224">
+      <c r="K31" s="223">
         <v>0</v>
       </c>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="144"/>
-      <c r="P31" t="str">
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="223"/>
+      <c r="O31" s="144"/>
+      <c r="Q31" t="str">
         <f>""""&amp;B31&amp;""": {
  ""Id"" : """&amp;B31&amp;""",
  ""Race"" : """&amp;A31&amp;""",
@@ -64015,9 +64478,10 @@
  ""Wisdom"" : "&amp;I31&amp;",
  ""Charisma"" : "&amp;J31&amp;",
  ""Speed"" : "&amp;SUBSTITUTE(K31,",",".")&amp;",
- ""Resistances"" : ["&amp;SUBSTITUTE(L31,",",".")&amp;"],
- ""SaveAdvantages"" : ["&amp;SUBSTITUTE(L31,",",".")&amp;"],
- ""ArmorCategories"" : ["&amp;'Sous-races'!N31&amp;"]
+ ""Languages"" : ["&amp;L31&amp;"],
+ ""Resistances"" : ["&amp;SUBSTITUTE(M31,",",".")&amp;"],
+ ""SaveAdvantages"" : ["&amp;SUBSTITUTE(M31,",",".")&amp;"],
+ ""ArmorCategories"" : ["&amp;'Sous-races'!O31&amp;"]
   }"</f>
         <v>"GOLIATH": {
  "Id" : "GOLIATH",
@@ -64031,48 +64495,49 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32" s="113"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" s="113"/>
-      <c r="P33" t="str">
-        <f>CONCATENATE(P2,",
-",P3,",
-",P4,",
-",P5,",
-",P6,",
-",P7,",
-",P8,",
-",P9,",
-",P10,",
-",P11,",
-",P12,",
-",P13,",
-",P14,",
-",P15,",
-",P16,",
-",P17,",
-",P18,",
-",P19,",
-",P20,",
-",P21,",
-",P22,",
-",P23,",
-",P24,",
-",P25,",
-",P26,",
-",P27,",
-",P28,",
-",P29,",
-",P30,",
-",P31)</f>
+      <c r="Q33" t="str">
+        <f>CONCATENATE(Q2,",
+",Q3,",
+",Q4,",
+",Q5,",
+",Q6,",
+",Q7,",
+",Q8,",
+",Q9,",
+",Q10,",
+",Q11,",
+",Q12,",
+",Q13,",
+",Q14,",
+",Q15,",
+",Q16,",
+",Q17,",
+",Q18,",
+",Q19,",
+",Q20,",
+",Q21,",
+",Q22,",
+",Q23,",
+",Q24,",
+",Q25,",
+",Q26,",
+",Q27,",
+",Q28,",
+",Q29,",
+",Q30,",
+",Q31)</f>
         <v>"HIGH_ELF": {
  "Id" : "HIGH_ELF",
  "Race" : "ELF",
@@ -64085,6 +64550,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64101,6 +64567,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 10.5,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64117,6 +64584,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64133,6 +64601,7 @@
  "Wisdom" : 0,
  "Charisma" : 1,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64149,8 +64618,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"],
+ "Languages" : [],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"],
  "ArmorCategories" : []
   },
 "HILLS_DWARF": {
@@ -64165,6 +64635,7 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64181,6 +64652,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : ["1_LIGHT", "2_MID"]
@@ -64197,6 +64669,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64213,6 +64686,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64229,6 +64703,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : ["DEPTH_COMMON"],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64245,6 +64720,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64261,6 +64737,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64277,8 +64754,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "WATER_GENASI": {
@@ -64293,8 +64771,9 @@
  "Wisdom" : 1,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "HUMAN": {
@@ -64309,6 +64788,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64325,6 +64805,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64341,6 +64822,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64357,6 +64839,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : ["Cold"],
  "SaveAdvantages" : ["Cold"],
  "ArmorCategories" : []
@@ -64373,8 +64856,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Electrified"],
- "SaveAdvantages" : ["Electrified"],
+ "Languages" : [],
+ "Resistances" : ["LIGHTNING"],
+ "SaveAdvantages" : ["LIGHTNING"],
  "ArmorCategories" : []
   },
 "BLACK_DRAGON": {
@@ -64389,8 +64873,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "RED_DRAGON": {
@@ -64405,8 +64890,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "GREEN_DRAGON": {
@@ -64421,8 +64907,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Poisonned"],
- "SaveAdvantages" : ["Poisonned"],
+ "Languages" : [],
+ "Resistances" : ["POISON"],
+ "SaveAdvantages" : ["POISON"],
  "ArmorCategories" : []
   },
 "BRASS_DRAGON": {
@@ -64437,8 +64924,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "SILVER_DRAGON": {
@@ -64453,8 +64941,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Cold"],
- "SaveAdvantages" : ["Cold"],
+ "Languages" : [],
+ "Resistances" : ["COLD"],
+ "SaveAdvantages" : ["COLD"],
  "ArmorCategories" : []
   },
 "BRONZE_DRAGON": {
@@ -64469,8 +64958,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Electrified"],
- "SaveAdvantages" : ["Electrified"],
+ "Languages" : [],
+ "Resistances" : ["LIGHTNING"],
+ "SaveAdvantages" : ["LIGHTNING"],
  "ArmorCategories" : []
   },
 "COPPER_DRAGON": {
@@ -64485,8 +64975,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Acidified"],
- "SaveAdvantages" : ["Acidified"],
+ "Languages" : [],
+ "Resistances" : ["ACID"],
+ "SaveAdvantages" : ["ACID"],
  "ArmorCategories" : []
   },
 "GOLD_DRAGON": {
@@ -64501,8 +64992,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "TIEFFLING": {
@@ -64517,8 +65009,9 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
- "Resistances" : ["Burned"],
- "SaveAdvantages" : ["Burned"],
+ "Languages" : [],
+ "Resistances" : ["FIRE"],
+ "SaveAdvantages" : ["FIRE"],
  "ArmorCategories" : []
   },
 "AARAKOCRA": {
@@ -64533,6 +65026,7 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
@@ -64549,22 +65043,23 @@
  "Wisdom" : 0,
  "Charisma" : 0,
  "Speed" : 0,
+ "Languages" : [],
  "Resistances" : [],
  "SaveAdvantages" : [],
  "ArmorCategories" : []
   }</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34" s="113"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="A35" s="113"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" s="113"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" s="113"/>
     </row>
   </sheetData>
@@ -64663,7 +65158,7 @@
         <v>2801</v>
       </c>
       <c r="P1" s="188" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="Q1" s="100"/>
     </row>
@@ -64707,10 +65202,10 @@
       </c>
       <c r="N2" s="186"/>
       <c r="O2" s="186" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="P2" s="148" t="s">
-        <v>2909</v>
+        <v>2901</v>
       </c>
       <c r="Q2" s="96"/>
       <c r="R2" t="str">
@@ -64790,10 +65285,10 @@
         <v>2802</v>
       </c>
       <c r="O3" s="187" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P3" s="149" t="s">
         <v>2903</v>
-      </c>
-      <c r="P3" s="149" t="s">
-        <v>2911</v>
       </c>
       <c r="Q3" s="96"/>
       <c r="R3" t="str">
@@ -64871,10 +65366,10 @@
       </c>
       <c r="N4" s="186"/>
       <c r="O4" s="186" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="P4" s="148" t="s">
-        <v>2913</v>
+        <v>2905</v>
       </c>
       <c r="Q4" s="96"/>
       <c r="R4" t="str">
@@ -64936,10 +65431,10 @@
         <v>2804</v>
       </c>
       <c r="O5" s="187" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="P5" s="149" t="s">
-        <v>2914</v>
+        <v>2906</v>
       </c>
       <c r="Q5" s="96"/>
       <c r="R5" t="str">
@@ -65004,7 +65499,7 @@
       </c>
       <c r="O6" s="186"/>
       <c r="P6" s="148" t="s">
-        <v>2915</v>
+        <v>2907</v>
       </c>
       <c r="Q6" s="96"/>
       <c r="R6" t="str">
@@ -65066,10 +65561,10 @@
       </c>
       <c r="N7" s="187"/>
       <c r="O7" s="187" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="P7" s="149" t="s">
-        <v>2909</v>
+        <v>2901</v>
       </c>
       <c r="Q7" s="96"/>
       <c r="R7" t="str">
@@ -65132,7 +65627,7 @@
       </c>
       <c r="O8" s="186"/>
       <c r="P8" s="148" t="s">
-        <v>2914</v>
+        <v>2906</v>
       </c>
       <c r="Q8" s="96"/>
       <c r="R8" t="str">
@@ -65201,7 +65696,7 @@
       </c>
       <c r="O9" s="187"/>
       <c r="P9" s="149" t="s">
-        <v>2910</v>
+        <v>2902</v>
       </c>
       <c r="Q9" s="96"/>
       <c r="R9" t="str">
@@ -65263,10 +65758,10 @@
       </c>
       <c r="N10" s="186"/>
       <c r="O10" s="186" t="s">
+        <v>2900</v>
+      </c>
+      <c r="P10" s="148" t="s">
         <v>2905</v>
-      </c>
-      <c r="P10" s="148" t="s">
-        <v>2913</v>
       </c>
       <c r="Q10" s="96"/>
       <c r="R10" t="str">
@@ -65327,11 +65822,11 @@
         <v>2805</v>
       </c>
       <c r="N11" s="187"/>
-      <c r="O11" s="226" t="s">
-        <v>2904</v>
+      <c r="O11" s="225" t="s">
+        <v>2899</v>
       </c>
       <c r="P11" s="198" t="s">
-        <v>2910</v>
+        <v>2902</v>
       </c>
       <c r="Q11" s="96"/>
       <c r="R11" t="str">
@@ -65397,10 +65892,10 @@
         <v>2802</v>
       </c>
       <c r="O12" s="186" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="P12" s="148" t="s">
-        <v>2912</v>
+        <v>2904</v>
       </c>
       <c r="Q12" s="96"/>
       <c r="R12" t="str">
@@ -65461,11 +65956,11 @@
         <v>2799</v>
       </c>
       <c r="N13" s="189"/>
-      <c r="O13" s="227" t="s">
-        <v>2903</v>
+      <c r="O13" s="226" t="s">
+        <v>2898</v>
       </c>
       <c r="P13" s="199" t="s">
-        <v>2913</v>
+        <v>2905</v>
       </c>
       <c r="Q13" s="96"/>
       <c r="R13" t="str">
@@ -65762,8 +66257,8 @@
       <c r="C1" s="229"/>
       <c r="D1" s="229"/>
       <c r="E1" s="229"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="228" t="s">
+      <c r="F1" s="231"/>
+      <c r="G1" s="230" t="s">
         <v>386</v>
       </c>
       <c r="H1" s="229"/>
@@ -65794,7 +66289,7 @@
       <c r="AE1" s="229"/>
       <c r="AF1" s="229"/>
       <c r="AG1" s="150"/>
-      <c r="AH1" s="228" t="s">
+      <c r="AH1" s="230" t="s">
         <v>388</v>
       </c>
       <c r="AI1" s="229"/>
@@ -65807,26 +66302,26 @@
       <c r="AP1" s="229"/>
       <c r="AQ1" s="229"/>
       <c r="AR1" s="229"/>
-      <c r="AS1" s="230"/>
+      <c r="AS1" s="231"/>
       <c r="AT1" s="150"/>
-      <c r="AU1" s="231" t="s">
+      <c r="AU1" s="228" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="231"/>
-      <c r="AW1" s="231"/>
-      <c r="AX1" s="231"/>
-      <c r="AY1" s="231"/>
-      <c r="AZ1" s="231"/>
-      <c r="BA1" s="231"/>
-      <c r="BB1" s="231"/>
-      <c r="BC1" s="231"/>
-      <c r="BD1" s="231"/>
-      <c r="BE1" s="231"/>
-      <c r="BF1" s="231"/>
-      <c r="BG1" s="231"/>
-      <c r="BH1" s="231"/>
+      <c r="AV1" s="228"/>
+      <c r="AW1" s="228"/>
+      <c r="AX1" s="228"/>
+      <c r="AY1" s="228"/>
+      <c r="AZ1" s="228"/>
+      <c r="BA1" s="228"/>
+      <c r="BB1" s="228"/>
+      <c r="BC1" s="228"/>
+      <c r="BD1" s="228"/>
+      <c r="BE1" s="228"/>
+      <c r="BF1" s="228"/>
+      <c r="BG1" s="228"/>
+      <c r="BH1" s="228"/>
       <c r="BI1" s="160"/>
-      <c r="BJ1" s="228" t="s">
+      <c r="BJ1" s="230" t="s">
         <v>390</v>
       </c>
       <c r="BK1" s="229"/>
@@ -65846,7 +66341,7 @@
       <c r="BW1" s="229"/>
       <c r="BX1" s="229"/>
       <c r="BY1" s="150"/>
-      <c r="BZ1" s="228" t="s">
+      <c r="BZ1" s="230" t="s">
         <v>393</v>
       </c>
       <c r="CA1" s="229"/>
@@ -65854,7 +66349,7 @@
       <c r="CC1" s="229"/>
       <c r="CD1" s="229"/>
       <c r="CE1" s="164"/>
-      <c r="CF1" s="228" t="s">
+      <c r="CF1" s="230" t="s">
         <v>12</v>
       </c>
       <c r="CG1" s="229"/>
@@ -65875,11 +66370,11 @@
       <c r="CT1" s="229"/>
       <c r="CU1" s="229"/>
       <c r="CV1" s="150"/>
-      <c r="CW1" s="232" t="s">
+      <c r="CW1" s="227" t="s">
         <v>395</v>
       </c>
-      <c r="CX1" s="231"/>
-      <c r="CY1" s="231"/>
+      <c r="CX1" s="228"/>
+      <c r="CY1" s="228"/>
       <c r="CZ1" s="174"/>
       <c r="DA1" s="229" t="s">
         <v>392</v>
@@ -66602,7 +67097,7 @@
       <c r="CB3" s="153">
         <v>0</v>
       </c>
-      <c r="CC3" s="210">
+      <c r="CC3" s="209">
         <v>0</v>
       </c>
       <c r="CD3" s="182" t="s">
@@ -67119,7 +67614,7 @@
       <c r="CB4" s="155">
         <v>2</v>
       </c>
-      <c r="CC4" s="211">
+      <c r="CC4" s="210">
         <v>3</v>
       </c>
       <c r="CD4" s="183" t="s">
@@ -67574,7 +68069,7 @@
       <c r="CB5" s="153">
         <v>3</v>
       </c>
-      <c r="CC5" s="210">
+      <c r="CC5" s="209">
         <v>3</v>
       </c>
       <c r="CD5" s="182" t="s">
@@ -68029,7 +68524,7 @@
       <c r="CB6" s="155">
         <v>4</v>
       </c>
-      <c r="CC6" s="211">
+      <c r="CC6" s="210">
         <v>3</v>
       </c>
       <c r="CD6" s="183" t="s">
@@ -68484,7 +68979,7 @@
       <c r="CB7" s="153">
         <v>5</v>
       </c>
-      <c r="CC7" s="210">
+      <c r="CC7" s="209">
         <v>3</v>
       </c>
       <c r="CD7" s="182" t="s">
@@ -68939,7 +69434,7 @@
       <c r="CB8" s="155">
         <v>6</v>
       </c>
-      <c r="CC8" s="211">
+      <c r="CC8" s="210">
         <v>4.5</v>
       </c>
       <c r="CD8" s="183" t="s">
@@ -69394,7 +69889,7 @@
       <c r="CB9" s="153">
         <v>7</v>
       </c>
-      <c r="CC9" s="210">
+      <c r="CC9" s="209">
         <v>4.5</v>
       </c>
       <c r="CD9" s="182" t="s">
@@ -69849,7 +70344,7 @@
       <c r="CB10" s="155">
         <v>8</v>
       </c>
-      <c r="CC10" s="211">
+      <c r="CC10" s="210">
         <v>4.5</v>
       </c>
       <c r="CD10" s="183" t="s">
@@ -70304,7 +70799,7 @@
       <c r="CB11" s="153">
         <v>9</v>
       </c>
-      <c r="CC11" s="210">
+      <c r="CC11" s="209">
         <v>4.5</v>
       </c>
       <c r="CD11" s="182" t="s">
@@ -70759,7 +71254,7 @@
       <c r="CB12" s="155">
         <v>10</v>
       </c>
-      <c r="CC12" s="211">
+      <c r="CC12" s="210">
         <v>6</v>
       </c>
       <c r="CD12" s="183" t="s">
@@ -71214,7 +71709,7 @@
       <c r="CB13" s="153">
         <v>11</v>
       </c>
-      <c r="CC13" s="210">
+      <c r="CC13" s="209">
         <v>6</v>
       </c>
       <c r="CD13" s="182" t="s">
@@ -71669,7 +72164,7 @@
       <c r="CB14" s="155">
         <v>12</v>
       </c>
-      <c r="CC14" s="211">
+      <c r="CC14" s="210">
         <v>6</v>
       </c>
       <c r="CD14" s="183" t="s">
@@ -72124,7 +72619,7 @@
       <c r="CB15" s="153">
         <v>13</v>
       </c>
-      <c r="CC15" s="210">
+      <c r="CC15" s="209">
         <v>6</v>
       </c>
       <c r="CD15" s="182" t="s">
@@ -72579,7 +73074,7 @@
       <c r="CB16" s="155">
         <v>14</v>
       </c>
-      <c r="CC16" s="211">
+      <c r="CC16" s="210">
         <v>7.5</v>
       </c>
       <c r="CD16" s="183" t="s">
@@ -73034,7 +73529,7 @@
       <c r="CB17" s="153">
         <v>15</v>
       </c>
-      <c r="CC17" s="210">
+      <c r="CC17" s="209">
         <v>7.5</v>
       </c>
       <c r="CD17" s="182" t="s">
@@ -73489,7 +73984,7 @@
       <c r="CB18" s="155">
         <v>16</v>
       </c>
-      <c r="CC18" s="211">
+      <c r="CC18" s="210">
         <v>7.5</v>
       </c>
       <c r="CD18" s="183" t="s">
@@ -73944,7 +74439,7 @@
       <c r="CB19" s="153">
         <v>17</v>
       </c>
-      <c r="CC19" s="210">
+      <c r="CC19" s="209">
         <v>7.5</v>
       </c>
       <c r="CD19" s="182" t="s">
@@ -74399,7 +74894,7 @@
       <c r="CB20" s="155">
         <v>18</v>
       </c>
-      <c r="CC20" s="211">
+      <c r="CC20" s="210">
         <v>9</v>
       </c>
       <c r="CD20" s="183" t="s">
@@ -74854,7 +75349,7 @@
       <c r="CB21" s="153">
         <v>19</v>
       </c>
-      <c r="CC21" s="210">
+      <c r="CC21" s="209">
         <v>9</v>
       </c>
       <c r="CD21" s="182" t="s">
@@ -75309,7 +75804,7 @@
       <c r="CB22" s="156">
         <v>20</v>
       </c>
-      <c r="CC22" s="212">
+      <c r="CC22" s="211">
         <v>9</v>
       </c>
       <c r="CD22" s="184" t="s">
@@ -80429,6 +80924,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="AU1:BH1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:AF1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DG1"/>
     <mergeCell ref="CF1:CL1"/>
@@ -80436,11 +80936,6 @@
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BM1:BX1"/>
     <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="AH1:AS1"/>
-    <mergeCell ref="G1:S1"/>
-    <mergeCell ref="AU1:BH1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -80973,16 +81468,16 @@
       <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="235"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="234"/>
       <c r="I2" s="109"/>
       <c r="J2" s="109"/>
       <c r="K2" s="110"/>
@@ -81537,16 +82032,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="236" t="s">
+      <c r="A13" s="235" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="237"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="238"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="236"/>
+      <c r="H13" s="237"/>
       <c r="I13" s="109"/>
       <c r="J13" s="109"/>
       <c r="K13" s="112"/>
@@ -81765,16 +82260,16 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="A18" s="236" t="s">
+      <c r="A18" s="235" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="237"/>
-      <c r="C18" s="237"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="237"/>
-      <c r="F18" s="237"/>
-      <c r="G18" s="237"/>
-      <c r="H18" s="238"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="237"/>
       <c r="I18" s="109"/>
       <c r="J18" s="109"/>
       <c r="K18" s="112"/>
@@ -82735,16 +83230,16 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1">
-      <c r="A37" s="236" t="s">
+      <c r="A37" s="235" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="237"/>
-      <c r="C37" s="237"/>
-      <c r="D37" s="237"/>
-      <c r="E37" s="237"/>
-      <c r="F37" s="237"/>
-      <c r="G37" s="237"/>
-      <c r="H37" s="238"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="236"/>
+      <c r="D37" s="236"/>
+      <c r="E37" s="236"/>
+      <c r="F37" s="236"/>
+      <c r="G37" s="236"/>
+      <c r="H37" s="237"/>
       <c r="I37" s="109"/>
       <c r="J37" s="109"/>
       <c r="K37" s="112"/>
@@ -83433,8 +83928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -83478,17 +83973,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="238" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="116" t="s">
@@ -83675,17 +84170,17 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="238" t="s">
         <v>499</v>
       </c>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
       <c r="J6" s="123"/>
       <c r="L6" s="125"/>
       <c r="M6" s="125"/>
@@ -83972,17 +84467,17 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="239" t="s">
+      <c r="A12" s="238" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="239"/>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="239"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="238"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
       <c r="J12" s="123"/>
       <c r="L12" s="125"/>
       <c r="M12" s="125"/>
@@ -84197,17 +84692,17 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="240" t="s">
+      <c r="A17" s="239" t="s">
         <v>530</v>
       </c>
-      <c r="B17" s="240"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="240"/>
-      <c r="I17" s="240"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="239"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="239"/>
+      <c r="F17" s="239"/>
+      <c r="G17" s="239"/>
+      <c r="H17" s="239"/>
+      <c r="I17" s="239"/>
       <c r="J17" s="123"/>
       <c r="K17" s="124"/>
       <c r="L17" s="125"/>
